--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="253">
   <si>
     <t>Doi</t>
   </si>
@@ -1074,6 +1074,330 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,   D.% Bates%null%1,   J. M.% Fiskio%null%1,   E. C.% Roche%null%1,   S.% Mora%null%1,   O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims
+The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
+ We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
+Methods
+id="Par2"&gt;The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
+ Among them, adult patients with type 2 DM were included in this study.
+ Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
+Results
+id="Par3"&gt;Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
+ After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
+ In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
+ However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
+Conclusions
+id="Par4"&gt;Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
+ However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
+</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,   In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
+ Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
+ However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
+Methods
+id="Par2"&gt;We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
+ Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
+ ORs are reported for a 1 SD increase after standardisation.
+Results
+id="Par3"&gt;The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
+ Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
+ The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
+ In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
+ On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
+ Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
+Conclusions/interpretations
+id="Par4"&gt;In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
+Trial registration
+id="Par5"&gt;clinicaltrials.
+gov NCT04324736.
+Electronic supplementary material
+The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
+</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,   Matthieu%Wargny%NULL%0,   Matthieu%Wargny%NULL%0,   Matthieu%Pichelin%NULL%0,   Matthieu%Pichelin%NULL%0,   Abdallah%Al-Salameh%NULL%0,   Abdallah%Al-Salameh%NULL%0,   Ingrid%Allix%NULL%0,   Ingrid%Allix%NULL%0,   Coralie%Amadou%NULL%0,   Gwénaëlle%Arnault%NULL%2,   Gwénaëlle%Arnault%NULL%0,   Florence%Baudoux%NULL%1,   Bernard%Bauduceau%NULL%1,   Sophie%Borot%NULL%1,   Muriel%Bourgeon-Ghittori%NULL%2,   Muriel%Bourgeon-Ghittori%NULL%0,   Olivier%Bourron%NULL%0,   David%Boutoille%NULL%4,   David%Boutoille%NULL%0,   France%Cazenave-Roblot%NULL%3,   France%Cazenave-Roblot%NULL%0,   Claude%Chaumeil%NULL%2,   Claude%Chaumeil%NULL%0,   Emmanuel%Cosson%NULL%1,   Sandrine%Coudol%NULL%2,   Sandrine%Coudol%NULL%0,   Patrice%Darmon%NULL%1,   Emmanuel%Disse%NULL%2,   Emmanuel%Disse%NULL%0,   Amélie%Ducet-Boiffard%NULL%2,   Amélie%Ducet-Boiffard%NULL%0,   Bénédicte%Gaborit%NULL%1,   Michael%Joubert%NULL%0,   Michael%Joubert%NULL%0,   Véronique%Kerlan%NULL%2,   Véronique%Kerlan%NULL%0,   Bruno%Laviolle%NULL%1,   Lucien%Marchand%NULL%0,   Lucien%Marchand%NULL%0,   Laurent%Meyer%NULL%0,   Laurent%Meyer%NULL%0,   Louis%Potier%NULL%2,   Louis%Potier%NULL%0,   Gaëtan%Prevost%NULL%0,   Gaëtan%Prevost%NULL%0,   Jean-Pierre%Riveline%NULL%1,   René%Robert%NULL%2,   René%Robert%NULL%0,   Pierre-Jean%Saulnier%NULL%0,   Pierre-Jean%Saulnier%NULL%0,   Ariane%Sultan%NULL%2,   Ariane%Sultan%NULL%0,   Jean-François%Thébaut%NULL%2,   Jean-François%Thébaut%NULL%0,   Charles%Thivolet%NULL%0,   Charles%Thivolet%NULL%0,   Blandine%Tramunt%NULL%2,   Blandine%Tramunt%NULL%0,   Camille%Vatier%NULL%0,   Ronan%Roussel%NULL%0,   Ronan%Roussel%NULL%0,   Jean-François%Gautier%NULL%0,   Jean-François%Gautier%NULL%0,   Pierre%Gourdy%NULL%0,   Pierre%Gourdy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
+Methods
+id="Par2"&gt;We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
+ It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
+ In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
+ There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
+ To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
+Results
+id="Par3"&gt;A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
+ After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
+ No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
+Conclusions
+id="Par4"&gt;In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
+ Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
+Supplementary information
+Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
+</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,   José David%Torres-Peña%NULL%1,   María D.%López-Carmona%NULL%1,   M. Mar.%Ayala-Gutiérrez%NULL%1,   Francisco%Fuentes-Jiménez%NULL%1,   Lucía Jorge%Huerta%NULL%1,   Jaime Alonso%Muñoz%NULL%1,   Manuel%Rubio-Rivas%NULL%1,   Manel%Madrazo%NULL%1,   Marcos Guzmán%Garcia%NULL%1,   Beatriz Vicente%Montes%NULL%1,   Joaquim Fernández%Sola%NULL%1,   Javier%Ena%NULL%1,   Ruth Gonzalez%Ferrer%NULL%1,   Carmen Mella%Pérez%NULL%1,   Carlos Jorge%Ripper%NULL%1,   Jose Javier Napal%Lecumberri%NULL%1,   Iris El Attar%Acedo%NULL%1,   Susana Plaza%Canteli%NULL%1,   Sara Fuente%Cosío%NULL%1,   Francisco Amorós%Martínez%NULL%1,   Begoña Cortés%Rodríguez%NULL%1,   Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,   José Manuel%Ramos-Rincón%NULL%1,   Ricardo%Gómez-Huelgas%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims
+The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
+ We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
+Methods
+The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
+ Among them, adult patients with type 2 DM were included in this study.
+ Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
+Results
+id="Par3"&gt;Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
+ After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
+ In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
+ However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
+Conclusions
+id="Par4"&gt;Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
+ However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
+</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,    In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
+ Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
+ However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
+Methods
+We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
+ Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
+ ORs are reported for a 1 SD increase after standardisation.
+Results
+id="Par3"&gt;The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
+ Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
+ The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
+ In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
+ On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
+ Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
+Conclusions/interpretations
+id="Par4"&gt;In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
+Trial registration
+id="Par5"&gt;clinicaltrials.
+gov NCT04324736.
+Electronic supplementary material
+The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
+</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,    Matthieu%Wargny%NULL%2,    Matthieu%Wargny%NULL%0,    Matthieu%Pichelin%NULL%2,    Matthieu%Pichelin%NULL%0,    Abdallah%Al-Salameh%NULL%2,    Abdallah%Al-Salameh%NULL%0,    Ingrid%Allix%NULL%2,    Ingrid%Allix%NULL%0,    Coralie%Amadou%NULL%1,    Gwénaëlle%Arnault%NULL%2,    Gwénaëlle%Arnault%NULL%0,    Florence%Baudoux%NULL%1,    Bernard%Bauduceau%NULL%1,    Sophie%Borot%NULL%1,    Muriel%Bourgeon-Ghittori%NULL%2,    Muriel%Bourgeon-Ghittori%NULL%0,    Olivier%Bourron%NULL%1,    David%Boutoille%NULL%2,    David%Boutoille%NULL%0,    France%Cazenave-Roblot%NULL%2,    France%Cazenave-Roblot%NULL%0,    Claude%Chaumeil%NULL%2,    Claude%Chaumeil%NULL%0,    Emmanuel%Cosson%NULL%1,    Sandrine%Coudol%NULL%2,    Sandrine%Coudol%NULL%0,    Patrice%Darmon%NULL%1,    Emmanuel%Disse%NULL%2,    Emmanuel%Disse%NULL%0,    Amélie%Ducet-Boiffard%NULL%2,    Amélie%Ducet-Boiffard%NULL%0,    Bénédicte%Gaborit%NULL%1,    Michael%Joubert%NULL%2,    Michael%Joubert%NULL%0,    Véronique%Kerlan%NULL%2,    Véronique%Kerlan%NULL%0,    Bruno%Laviolle%NULL%1,    Lucien%Marchand%NULL%2,    Lucien%Marchand%NULL%0,    Laurent%Meyer%NULL%2,    Laurent%Meyer%NULL%0,    Louis%Potier%NULL%2,    Louis%Potier%NULL%0,    Gaëtan%Prevost%NULL%2,    Gaëtan%Prevost%NULL%0,    Jean-Pierre%Riveline%NULL%1,    René%Robert%NULL%2,    René%Robert%NULL%0,    Pierre-Jean%Saulnier%NULL%2,    Pierre-Jean%Saulnier%NULL%0,    Ariane%Sultan%NULL%2,    Ariane%Sultan%NULL%0,    Jean-François%Thébaut%NULL%2,    Jean-François%Thébaut%NULL%0,    Charles%Thivolet%NULL%2,    Charles%Thivolet%NULL%0,    Blandine%Tramunt%NULL%2,    Blandine%Tramunt%NULL%0,    Camille%Vatier%NULL%1,    Ronan%Roussel%NULL%2,    Ronan%Roussel%NULL%0,    Jean-François%Gautier%NULL%2,    Jean-François%Gautier%NULL%0,    Pierre%Gourdy%NULL%2,    Pierre%Gourdy%NULL%0,    NULL%NULL%NULL%21,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
+Methods
+We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
+ It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
+ In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
+ There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
+ To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
+Results
+id="Par3"&gt;A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
+ After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
+ No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
+Conclusions
+id="Par4"&gt;In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
+ Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
+Supplementary information
+Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
+</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,    José David%Torres-Peña%NULL%1,    María D.%López-Carmona%NULL%1,    M. Mar.%Ayala-Gutiérrez%NULL%1,    Francisco%Fuentes-Jiménez%NULL%1,    Lucía Jorge%Huerta%NULL%1,    Jaime Alonso%Muñoz%NULL%1,    Manuel%Rubio-Rivas%NULL%1,    Manel%Madrazo%NULL%1,    Marcos Guzmán%Garcia%NULL%1,    Beatriz Vicente%Montes%NULL%1,    Joaquim Fernández%Sola%NULL%1,    Javier%Ena%NULL%1,    Ruth Gonzalez%Ferrer%NULL%1,    Carmen Mella%Pérez%NULL%1,    Carlos Jorge%Ripper%NULL%1,    Jose Javier Napal%Lecumberri%NULL%1,    Iris El Attar%Acedo%NULL%1,    Susana Plaza%Canteli%NULL%1,    Sara Fuente%Cosío%NULL%1,    Francisco Amorós%Martínez%NULL%1,    Begoña Cortés%Rodríguez%NULL%1,    Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,    José Manuel%Ramos-Rincón%NULL%1,    Ricardo%Gómez-Huelgas%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims
+The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
+ We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
+Methods
+The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
+ Among them, adult patients with type 2 DM were included in this study.
+ Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
+Results
+Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
+ After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
+ In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
+ However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
+Conclusions
+id="Par4"&gt;Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
+ However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
+</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,     In-Ae%Song%songoficu@outlook.kr%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
+ Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
+ However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
+Methods
+We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
+ Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
+ ORs are reported for a 1 SD increase after standardisation.
+Results
+The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
+ Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
+ The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
+ In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
+ On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
+ Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
+Conclusions/interpretations
+id="Par4"&gt;In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
+Trial registration
+id="Par5"&gt;clinicaltrials.
+gov NCT04324736.
+Electronic supplementary material
+The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
+</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,     Matthieu%Wargny%NULL%2,     Matthieu%Wargny%NULL%0,     Matthieu%Pichelin%NULL%2,     Matthieu%Pichelin%NULL%0,     Abdallah%Al-Salameh%NULL%2,     Abdallah%Al-Salameh%NULL%0,     Ingrid%Allix%NULL%2,     Ingrid%Allix%NULL%0,     Coralie%Amadou%NULL%1,     Gwénaëlle%Arnault%NULL%2,     Gwénaëlle%Arnault%NULL%0,     Florence%Baudoux%NULL%1,     Bernard%Bauduceau%NULL%1,     Sophie%Borot%NULL%1,     Muriel%Bourgeon-Ghittori%NULL%2,     Muriel%Bourgeon-Ghittori%NULL%0,     Olivier%Bourron%NULL%1,     David%Boutoille%NULL%2,     David%Boutoille%NULL%0,     France%Cazenave-Roblot%NULL%2,     France%Cazenave-Roblot%NULL%0,     Claude%Chaumeil%NULL%2,     Claude%Chaumeil%NULL%0,     Emmanuel%Cosson%NULL%1,     Sandrine%Coudol%NULL%2,     Sandrine%Coudol%NULL%0,     Patrice%Darmon%NULL%1,     Emmanuel%Disse%NULL%2,     Emmanuel%Disse%NULL%0,     Amélie%Ducet-Boiffard%NULL%2,     Amélie%Ducet-Boiffard%NULL%0,     Bénédicte%Gaborit%NULL%1,     Michael%Joubert%NULL%2,     Michael%Joubert%NULL%0,     Véronique%Kerlan%NULL%2,     Véronique%Kerlan%NULL%0,     Bruno%Laviolle%NULL%1,     Lucien%Marchand%NULL%2,     Lucien%Marchand%NULL%0,     Laurent%Meyer%NULL%2,     Laurent%Meyer%NULL%0,     Louis%Potier%NULL%2,     Louis%Potier%NULL%0,     Gaëtan%Prevost%NULL%2,     Gaëtan%Prevost%NULL%0,     Jean-Pierre%Riveline%NULL%1,     René%Robert%NULL%2,     René%Robert%NULL%0,     Pierre-Jean%Saulnier%NULL%2,     Pierre-Jean%Saulnier%NULL%0,     Ariane%Sultan%NULL%2,     Ariane%Sultan%NULL%0,     Jean-François%Thébaut%NULL%2,     Jean-François%Thébaut%NULL%0,     Charles%Thivolet%NULL%2,     Charles%Thivolet%NULL%0,     Blandine%Tramunt%NULL%2,     Blandine%Tramunt%NULL%0,     Camille%Vatier%NULL%1,     Ronan%Roussel%NULL%2,     Ronan%Roussel%NULL%0,     Jean-François%Gautier%NULL%2,     Jean-François%Gautier%NULL%0,     Pierre%Gourdy%NULL%2,     Pierre%Gourdy%NULL%0,     NULL%NULL%NULL%14,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
+Methods
+We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
+ It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
+ In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
+ There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
+ To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
+Results
+A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
+ After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
+ No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
+Conclusions
+id="Par4"&gt;In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
+ Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
+Supplementary information
+Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
+</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,     José David%Torres-Peña%NULL%1,     María D.%López-Carmona%NULL%1,     M. Mar.%Ayala-Gutiérrez%NULL%1,     Francisco%Fuentes-Jiménez%NULL%1,     Lucía Jorge%Huerta%NULL%1,     Jaime Alonso%Muñoz%NULL%1,     Manuel%Rubio-Rivas%NULL%1,     Manel%Madrazo%NULL%1,     Marcos Guzmán%Garcia%NULL%1,     Beatriz Vicente%Montes%NULL%1,     Joaquim Fernández%Sola%NULL%1,     Javier%Ena%NULL%1,     Ruth Gonzalez%Ferrer%NULL%1,     Carmen Mella%Pérez%NULL%1,     Carlos Jorge%Ripper%NULL%1,     Jose Javier Napal%Lecumberri%NULL%1,     Iris El Attar%Acedo%NULL%1,     Susana Plaza%Canteli%NULL%1,     Sara Fuente%Cosío%NULL%1,     Francisco Amorós%Martínez%NULL%1,     Begoña Cortés%Rodríguez%NULL%1,     Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,     José Manuel%Ramos-Rincón%NULL%1,     Ricardo%Gómez-Huelgas%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims
+The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
+ We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
+Methods
+The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
+ Among them, adult patients with type 2 DM were included in this study.
+ Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
+Results
+Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
+ After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
+ In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
+ However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
+Conclusions
+Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
+ However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
+</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,      In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
+ Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
+ However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
+Methods
+We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
+ Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
+ ORs are reported for a 1 SD increase after standardisation.
+Results
+The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
+ Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
+ The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
+ In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
+ On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
+ Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
+Conclusions/interpretations
+In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
+Trial registration
+id="Par5"&gt;clinicaltrials.
+gov NCT04324736.
+Electronic supplementary material
+The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
+</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,      Matthieu%Wargny%NULL%2,      Matthieu%Wargny%NULL%0,      Matthieu%Pichelin%NULL%2,      Matthieu%Pichelin%NULL%0,      Abdallah%Al-Salameh%NULL%2,      Abdallah%Al-Salameh%NULL%0,      Ingrid%Allix%NULL%2,      Ingrid%Allix%NULL%0,      Coralie%Amadou%NULL%1,      Gwénaëlle%Arnault%NULL%2,      Gwénaëlle%Arnault%NULL%0,      Florence%Baudoux%NULL%1,      Bernard%Bauduceau%NULL%1,      Sophie%Borot%NULL%1,      Muriel%Bourgeon-Ghittori%NULL%2,      Muriel%Bourgeon-Ghittori%NULL%0,      Olivier%Bourron%NULL%1,      David%Boutoille%NULL%2,      David%Boutoille%NULL%0,      France%Cazenave-Roblot%NULL%2,      France%Cazenave-Roblot%NULL%0,      Claude%Chaumeil%NULL%2,      Claude%Chaumeil%NULL%0,      Emmanuel%Cosson%NULL%1,      Sandrine%Coudol%NULL%2,      Sandrine%Coudol%NULL%0,      Patrice%Darmon%NULL%1,      Emmanuel%Disse%NULL%2,      Emmanuel%Disse%NULL%0,      Amélie%Ducet-Boiffard%NULL%2,      Amélie%Ducet-Boiffard%NULL%0,      Bénédicte%Gaborit%NULL%1,      Michael%Joubert%NULL%2,      Michael%Joubert%NULL%0,      Véronique%Kerlan%NULL%2,      Véronique%Kerlan%NULL%0,      Bruno%Laviolle%NULL%1,      Lucien%Marchand%NULL%2,      Lucien%Marchand%NULL%0,      Laurent%Meyer%NULL%2,      Laurent%Meyer%NULL%0,      Louis%Potier%NULL%2,      Louis%Potier%NULL%0,      Gaëtan%Prevost%NULL%2,      Gaëtan%Prevost%NULL%0,      Jean-Pierre%Riveline%NULL%1,      René%Robert%NULL%2,      René%Robert%NULL%0,      Pierre-Jean%Saulnier%NULL%2,      Pierre-Jean%Saulnier%NULL%0,      Ariane%Sultan%NULL%2,      Ariane%Sultan%NULL%0,      Jean-François%Thébaut%NULL%2,      Jean-François%Thébaut%NULL%0,      Charles%Thivolet%NULL%2,      Charles%Thivolet%NULL%0,      Blandine%Tramunt%NULL%2,      Blandine%Tramunt%NULL%0,      Camille%Vatier%NULL%1,      Ronan%Roussel%NULL%2,      Ronan%Roussel%NULL%0,      Jean-François%Gautier%NULL%2,      Jean-François%Gautier%NULL%0,      Pierre%Gourdy%NULL%2,      Pierre%Gourdy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
+Methods
+We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
+ It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
+ In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
+ There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
+ To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
+Results
+A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
+ After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
+ No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
+Conclusions
+In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
+ Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
+Supplementary information
+Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
+</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,      José David%Torres-Peña%NULL%1,      María D.%López-Carmona%NULL%1,      M. Mar.%Ayala-Gutiérrez%NULL%1,      Francisco%Fuentes-Jiménez%NULL%1,      Lucía Jorge%Huerta%NULL%1,      Jaime Alonso%Muñoz%NULL%1,      Manuel%Rubio-Rivas%NULL%1,      Manel%Madrazo%NULL%1,      Marcos Guzmán%Garcia%NULL%1,      Beatriz Vicente%Montes%NULL%1,      Joaquim Fernández%Sola%NULL%1,      Javier%Ena%NULL%1,      Ruth Gonzalez%Ferrer%NULL%1,      Carmen Mella%Pérez%NULL%1,      Carlos Jorge%Ripper%NULL%1,      Jose Javier Napal%Lecumberri%NULL%1,      Iris El Attar%Acedo%NULL%1,      Susana Plaza%Canteli%NULL%1,      Sara Fuente%Cosío%NULL%1,      Francisco Amorós%Martínez%NULL%1,      Begoña Cortés%Rodríguez%NULL%1,      Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,      José Manuel%Ramos-Rincón%NULL%1,      Ricardo%Gómez-Huelgas%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
+ Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
+ However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
+Methods
+We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
+ Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
+ ORs are reported for a 1 SD increase after standardisation.
+Results
+The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
+ Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
+ The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
+ In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
+ On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
+ Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
+Conclusions/interpretations
+In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
+Trial registration
+clinicaltrials.
+gov NCT04324736.
+Electronic supplementary material
+The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
+</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,       Matthieu%Wargny%NULL%2,       Matthieu%Wargny%NULL%0,       Matthieu%Pichelin%NULL%2,       Matthieu%Pichelin%NULL%0,       Abdallah%Al-Salameh%NULL%2,       Abdallah%Al-Salameh%NULL%0,       Ingrid%Allix%NULL%2,       Ingrid%Allix%NULL%0,       Coralie%Amadou%NULL%1,       Gwénaëlle%Arnault%NULL%2,       Gwénaëlle%Arnault%NULL%0,       Florence%Baudoux%NULL%1,       Bernard%Bauduceau%NULL%1,       Sophie%Borot%NULL%1,       Muriel%Bourgeon-Ghittori%NULL%2,       Muriel%Bourgeon-Ghittori%NULL%0,       Olivier%Bourron%NULL%1,       David%Boutoille%NULL%2,       David%Boutoille%NULL%0,       France%Cazenave-Roblot%NULL%2,       France%Cazenave-Roblot%NULL%0,       Claude%Chaumeil%NULL%2,       Claude%Chaumeil%NULL%0,       Emmanuel%Cosson%NULL%1,       Sandrine%Coudol%NULL%2,       Sandrine%Coudol%NULL%0,       Patrice%Darmon%NULL%1,       Emmanuel%Disse%NULL%2,       Emmanuel%Disse%NULL%0,       Amélie%Ducet-Boiffard%NULL%2,       Amélie%Ducet-Boiffard%NULL%0,       Bénédicte%Gaborit%NULL%1,       Michael%Joubert%NULL%2,       Michael%Joubert%NULL%0,       Véronique%Kerlan%NULL%2,       Véronique%Kerlan%NULL%0,       Bruno%Laviolle%NULL%1,       Lucien%Marchand%NULL%2,       Lucien%Marchand%NULL%0,       Laurent%Meyer%NULL%2,       Laurent%Meyer%NULL%0,       Louis%Potier%NULL%2,       Louis%Potier%NULL%0,       Gaëtan%Prevost%NULL%2,       Gaëtan%Prevost%NULL%0,       Jean-Pierre%Riveline%NULL%1,       René%Robert%NULL%2,       René%Robert%NULL%0,       Pierre-Jean%Saulnier%NULL%2,       Pierre-Jean%Saulnier%NULL%0,       Ariane%Sultan%NULL%2,       Ariane%Sultan%NULL%0,       Jean-François%Thébaut%NULL%2,       Jean-François%Thébaut%NULL%0,       Charles%Thivolet%NULL%2,       Charles%Thivolet%NULL%0,       Blandine%Tramunt%NULL%2,       Blandine%Tramunt%NULL%0,       Camille%Vatier%NULL%1,       Ronan%Roussel%NULL%2,       Ronan%Roussel%NULL%0,       Jean-François%Gautier%NULL%2,       Jean-François%Gautier%NULL%0,       Pierre%Gourdy%NULL%2,       Pierre%Gourdy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1736,10 +2060,10 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>245</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -1944,10 +2268,10 @@
         <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -1996,10 +2320,10 @@
         <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>249</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="227">
   <si>
     <t>Doi</t>
   </si>
@@ -1074,330 +1074,6 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,   D.% Bates%null%1,   J. M.% Fiskio%null%1,   E. C.% Roche%null%1,   S.% Mora%null%1,   O. % Demler%null%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims
-The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
- We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
-Methods
-id="Par2"&gt;The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
- Among them, adult patients with type 2 DM were included in this study.
- Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
-Results
-id="Par3"&gt;Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
- After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
- In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
- However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
-Conclusions
-id="Par4"&gt;Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
- However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
-</t>
-  </si>
-  <si>
-    <t>[Tak Kyu%Oh%NULL%2,   In-Ae%Song%songoficu@outlook.kr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
- Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
- However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
-Methods
-id="Par2"&gt;We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
- Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
- ORs are reported for a 1 SD increase after standardisation.
-Results
-id="Par3"&gt;The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
- Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
- The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
- In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
- On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
- Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
-Conclusions/interpretations
-id="Par4"&gt;In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
-Trial registration
-id="Par5"&gt;clinicaltrials.
-gov NCT04324736.
-Electronic supplementary material
-The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
-</t>
-  </si>
-  <si>
-    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,   Matthieu%Wargny%NULL%0,   Matthieu%Wargny%NULL%0,   Matthieu%Pichelin%NULL%0,   Matthieu%Pichelin%NULL%0,   Abdallah%Al-Salameh%NULL%0,   Abdallah%Al-Salameh%NULL%0,   Ingrid%Allix%NULL%0,   Ingrid%Allix%NULL%0,   Coralie%Amadou%NULL%0,   Gwénaëlle%Arnault%NULL%2,   Gwénaëlle%Arnault%NULL%0,   Florence%Baudoux%NULL%1,   Bernard%Bauduceau%NULL%1,   Sophie%Borot%NULL%1,   Muriel%Bourgeon-Ghittori%NULL%2,   Muriel%Bourgeon-Ghittori%NULL%0,   Olivier%Bourron%NULL%0,   David%Boutoille%NULL%4,   David%Boutoille%NULL%0,   France%Cazenave-Roblot%NULL%3,   France%Cazenave-Roblot%NULL%0,   Claude%Chaumeil%NULL%2,   Claude%Chaumeil%NULL%0,   Emmanuel%Cosson%NULL%1,   Sandrine%Coudol%NULL%2,   Sandrine%Coudol%NULL%0,   Patrice%Darmon%NULL%1,   Emmanuel%Disse%NULL%2,   Emmanuel%Disse%NULL%0,   Amélie%Ducet-Boiffard%NULL%2,   Amélie%Ducet-Boiffard%NULL%0,   Bénédicte%Gaborit%NULL%1,   Michael%Joubert%NULL%0,   Michael%Joubert%NULL%0,   Véronique%Kerlan%NULL%2,   Véronique%Kerlan%NULL%0,   Bruno%Laviolle%NULL%1,   Lucien%Marchand%NULL%0,   Lucien%Marchand%NULL%0,   Laurent%Meyer%NULL%0,   Laurent%Meyer%NULL%0,   Louis%Potier%NULL%2,   Louis%Potier%NULL%0,   Gaëtan%Prevost%NULL%0,   Gaëtan%Prevost%NULL%0,   Jean-Pierre%Riveline%NULL%1,   René%Robert%NULL%2,   René%Robert%NULL%0,   Pierre-Jean%Saulnier%NULL%0,   Pierre-Jean%Saulnier%NULL%0,   Ariane%Sultan%NULL%2,   Ariane%Sultan%NULL%0,   Jean-François%Thébaut%NULL%2,   Jean-François%Thébaut%NULL%0,   Charles%Thivolet%NULL%0,   Charles%Thivolet%NULL%0,   Blandine%Tramunt%NULL%2,   Blandine%Tramunt%NULL%0,   Camille%Vatier%NULL%0,   Ronan%Roussel%NULL%0,   Ronan%Roussel%NULL%0,   Jean-François%Gautier%NULL%0,   Jean-François%Gautier%NULL%0,   Pierre%Gourdy%NULL%0,   Pierre%Gourdy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
-Methods
-id="Par2"&gt;We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
- It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
- In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
- There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
- To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
-Results
-id="Par3"&gt;A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
- After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
- No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
-Conclusions
-id="Par4"&gt;In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
- Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
-Supplementary information
-Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
-</t>
-  </si>
-  <si>
-    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,   José David%Torres-Peña%NULL%1,   María D.%López-Carmona%NULL%1,   M. Mar.%Ayala-Gutiérrez%NULL%1,   Francisco%Fuentes-Jiménez%NULL%1,   Lucía Jorge%Huerta%NULL%1,   Jaime Alonso%Muñoz%NULL%1,   Manuel%Rubio-Rivas%NULL%1,   Manel%Madrazo%NULL%1,   Marcos Guzmán%Garcia%NULL%1,   Beatriz Vicente%Montes%NULL%1,   Joaquim Fernández%Sola%NULL%1,   Javier%Ena%NULL%1,   Ruth Gonzalez%Ferrer%NULL%1,   Carmen Mella%Pérez%NULL%1,   Carlos Jorge%Ripper%NULL%1,   Jose Javier Napal%Lecumberri%NULL%1,   Iris El Attar%Acedo%NULL%1,   Susana Plaza%Canteli%NULL%1,   Sara Fuente%Cosío%NULL%1,   Francisco Amorós%Martínez%NULL%1,   Begoña Cortés%Rodríguez%NULL%1,   Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,   José Manuel%Ramos-Rincón%NULL%1,   Ricardo%Gómez-Huelgas%NULL%1,   NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims
-The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
- We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
-Methods
-The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
- Among them, adult patients with type 2 DM were included in this study.
- Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
-Results
-id="Par3"&gt;Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
- After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
- In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
- However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
-Conclusions
-id="Par4"&gt;Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
- However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
-</t>
-  </si>
-  <si>
-    <t>[Tak Kyu%Oh%NULL%2,    In-Ae%Song%songoficu@outlook.kr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
- Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
- However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
-Methods
-We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
- Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
- ORs are reported for a 1 SD increase after standardisation.
-Results
-id="Par3"&gt;The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
- Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
- The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
- In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
- On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
- Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
-Conclusions/interpretations
-id="Par4"&gt;In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
-Trial registration
-id="Par5"&gt;clinicaltrials.
-gov NCT04324736.
-Electronic supplementary material
-The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
-</t>
-  </si>
-  <si>
-    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,    Matthieu%Wargny%NULL%2,    Matthieu%Wargny%NULL%0,    Matthieu%Pichelin%NULL%2,    Matthieu%Pichelin%NULL%0,    Abdallah%Al-Salameh%NULL%2,    Abdallah%Al-Salameh%NULL%0,    Ingrid%Allix%NULL%2,    Ingrid%Allix%NULL%0,    Coralie%Amadou%NULL%1,    Gwénaëlle%Arnault%NULL%2,    Gwénaëlle%Arnault%NULL%0,    Florence%Baudoux%NULL%1,    Bernard%Bauduceau%NULL%1,    Sophie%Borot%NULL%1,    Muriel%Bourgeon-Ghittori%NULL%2,    Muriel%Bourgeon-Ghittori%NULL%0,    Olivier%Bourron%NULL%1,    David%Boutoille%NULL%2,    David%Boutoille%NULL%0,    France%Cazenave-Roblot%NULL%2,    France%Cazenave-Roblot%NULL%0,    Claude%Chaumeil%NULL%2,    Claude%Chaumeil%NULL%0,    Emmanuel%Cosson%NULL%1,    Sandrine%Coudol%NULL%2,    Sandrine%Coudol%NULL%0,    Patrice%Darmon%NULL%1,    Emmanuel%Disse%NULL%2,    Emmanuel%Disse%NULL%0,    Amélie%Ducet-Boiffard%NULL%2,    Amélie%Ducet-Boiffard%NULL%0,    Bénédicte%Gaborit%NULL%1,    Michael%Joubert%NULL%2,    Michael%Joubert%NULL%0,    Véronique%Kerlan%NULL%2,    Véronique%Kerlan%NULL%0,    Bruno%Laviolle%NULL%1,    Lucien%Marchand%NULL%2,    Lucien%Marchand%NULL%0,    Laurent%Meyer%NULL%2,    Laurent%Meyer%NULL%0,    Louis%Potier%NULL%2,    Louis%Potier%NULL%0,    Gaëtan%Prevost%NULL%2,    Gaëtan%Prevost%NULL%0,    Jean-Pierre%Riveline%NULL%1,    René%Robert%NULL%2,    René%Robert%NULL%0,    Pierre-Jean%Saulnier%NULL%2,    Pierre-Jean%Saulnier%NULL%0,    Ariane%Sultan%NULL%2,    Ariane%Sultan%NULL%0,    Jean-François%Thébaut%NULL%2,    Jean-François%Thébaut%NULL%0,    Charles%Thivolet%NULL%2,    Charles%Thivolet%NULL%0,    Blandine%Tramunt%NULL%2,    Blandine%Tramunt%NULL%0,    Camille%Vatier%NULL%1,    Ronan%Roussel%NULL%2,    Ronan%Roussel%NULL%0,    Jean-François%Gautier%NULL%2,    Jean-François%Gautier%NULL%0,    Pierre%Gourdy%NULL%2,    Pierre%Gourdy%NULL%0,    NULL%NULL%NULL%21,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
-Methods
-We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
- It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
- In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
- There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
- To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
-Results
-id="Par3"&gt;A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
- After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
- No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
-Conclusions
-id="Par4"&gt;In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
- Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
-Supplementary information
-Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
-</t>
-  </si>
-  <si>
-    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,    José David%Torres-Peña%NULL%1,    María D.%López-Carmona%NULL%1,    M. Mar.%Ayala-Gutiérrez%NULL%1,    Francisco%Fuentes-Jiménez%NULL%1,    Lucía Jorge%Huerta%NULL%1,    Jaime Alonso%Muñoz%NULL%1,    Manuel%Rubio-Rivas%NULL%1,    Manel%Madrazo%NULL%1,    Marcos Guzmán%Garcia%NULL%1,    Beatriz Vicente%Montes%NULL%1,    Joaquim Fernández%Sola%NULL%1,    Javier%Ena%NULL%1,    Ruth Gonzalez%Ferrer%NULL%1,    Carmen Mella%Pérez%NULL%1,    Carlos Jorge%Ripper%NULL%1,    Jose Javier Napal%Lecumberri%NULL%1,    Iris El Attar%Acedo%NULL%1,    Susana Plaza%Canteli%NULL%1,    Sara Fuente%Cosío%NULL%1,    Francisco Amorós%Martínez%NULL%1,    Begoña Cortés%Rodríguez%NULL%1,    Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,    José Manuel%Ramos-Rincón%NULL%1,    Ricardo%Gómez-Huelgas%NULL%1,    NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims
-The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
- We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
-Methods
-The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
- Among them, adult patients with type 2 DM were included in this study.
- Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
-Results
-Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
- After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
- In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
- However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
-Conclusions
-id="Par4"&gt;Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
- However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
-</t>
-  </si>
-  <si>
-    <t>[Tak Kyu%Oh%NULL%2,     In-Ae%Song%songoficu@outlook.kr%2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
- Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
- However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
-Methods
-We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
- Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
- ORs are reported for a 1 SD increase after standardisation.
-Results
-The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
- Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
- The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
- In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
- On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
- Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
-Conclusions/interpretations
-id="Par4"&gt;In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
-Trial registration
-id="Par5"&gt;clinicaltrials.
-gov NCT04324736.
-Electronic supplementary material
-The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
-</t>
-  </si>
-  <si>
-    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,     Matthieu%Wargny%NULL%2,     Matthieu%Wargny%NULL%0,     Matthieu%Pichelin%NULL%2,     Matthieu%Pichelin%NULL%0,     Abdallah%Al-Salameh%NULL%2,     Abdallah%Al-Salameh%NULL%0,     Ingrid%Allix%NULL%2,     Ingrid%Allix%NULL%0,     Coralie%Amadou%NULL%1,     Gwénaëlle%Arnault%NULL%2,     Gwénaëlle%Arnault%NULL%0,     Florence%Baudoux%NULL%1,     Bernard%Bauduceau%NULL%1,     Sophie%Borot%NULL%1,     Muriel%Bourgeon-Ghittori%NULL%2,     Muriel%Bourgeon-Ghittori%NULL%0,     Olivier%Bourron%NULL%1,     David%Boutoille%NULL%2,     David%Boutoille%NULL%0,     France%Cazenave-Roblot%NULL%2,     France%Cazenave-Roblot%NULL%0,     Claude%Chaumeil%NULL%2,     Claude%Chaumeil%NULL%0,     Emmanuel%Cosson%NULL%1,     Sandrine%Coudol%NULL%2,     Sandrine%Coudol%NULL%0,     Patrice%Darmon%NULL%1,     Emmanuel%Disse%NULL%2,     Emmanuel%Disse%NULL%0,     Amélie%Ducet-Boiffard%NULL%2,     Amélie%Ducet-Boiffard%NULL%0,     Bénédicte%Gaborit%NULL%1,     Michael%Joubert%NULL%2,     Michael%Joubert%NULL%0,     Véronique%Kerlan%NULL%2,     Véronique%Kerlan%NULL%0,     Bruno%Laviolle%NULL%1,     Lucien%Marchand%NULL%2,     Lucien%Marchand%NULL%0,     Laurent%Meyer%NULL%2,     Laurent%Meyer%NULL%0,     Louis%Potier%NULL%2,     Louis%Potier%NULL%0,     Gaëtan%Prevost%NULL%2,     Gaëtan%Prevost%NULL%0,     Jean-Pierre%Riveline%NULL%1,     René%Robert%NULL%2,     René%Robert%NULL%0,     Pierre-Jean%Saulnier%NULL%2,     Pierre-Jean%Saulnier%NULL%0,     Ariane%Sultan%NULL%2,     Ariane%Sultan%NULL%0,     Jean-François%Thébaut%NULL%2,     Jean-François%Thébaut%NULL%0,     Charles%Thivolet%NULL%2,     Charles%Thivolet%NULL%0,     Blandine%Tramunt%NULL%2,     Blandine%Tramunt%NULL%0,     Camille%Vatier%NULL%1,     Ronan%Roussel%NULL%2,     Ronan%Roussel%NULL%0,     Jean-François%Gautier%NULL%2,     Jean-François%Gautier%NULL%0,     Pierre%Gourdy%NULL%2,     Pierre%Gourdy%NULL%0,     NULL%NULL%NULL%14,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
-Methods
-We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
- It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
- In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
- There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
- To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
-Results
-A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
- After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
- No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
-Conclusions
-id="Par4"&gt;In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
- Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
-Supplementary information
-Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
-</t>
-  </si>
-  <si>
-    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,     José David%Torres-Peña%NULL%1,     María D.%López-Carmona%NULL%1,     M. Mar.%Ayala-Gutiérrez%NULL%1,     Francisco%Fuentes-Jiménez%NULL%1,     Lucía Jorge%Huerta%NULL%1,     Jaime Alonso%Muñoz%NULL%1,     Manuel%Rubio-Rivas%NULL%1,     Manel%Madrazo%NULL%1,     Marcos Guzmán%Garcia%NULL%1,     Beatriz Vicente%Montes%NULL%1,     Joaquim Fernández%Sola%NULL%1,     Javier%Ena%NULL%1,     Ruth Gonzalez%Ferrer%NULL%1,     Carmen Mella%Pérez%NULL%1,     Carlos Jorge%Ripper%NULL%1,     Jose Javier Napal%Lecumberri%NULL%1,     Iris El Attar%Acedo%NULL%1,     Susana Plaza%Canteli%NULL%1,     Sara Fuente%Cosío%NULL%1,     Francisco Amorós%Martínez%NULL%1,     Begoña Cortés%Rodríguez%NULL%1,     Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,     José Manuel%Ramos-Rincón%NULL%1,     Ricardo%Gómez-Huelgas%NULL%1,     NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims
-The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
- We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
-Methods
-The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
- Among them, adult patients with type 2 DM were included in this study.
- Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
-Results
-Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
- After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
- In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
- However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
-Conclusions
-Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
- However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
-Supplementary Information
-The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
-</t>
-  </si>
-  <si>
-    <t>[Tak Kyu%Oh%NULL%2,      In-Ae%Song%songoficu@outlook.kr%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
- Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
- However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
-Methods
-We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
- Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
- ORs are reported for a 1 SD increase after standardisation.
-Results
-The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
- Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
- The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
- In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
- On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
- Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
-Conclusions/interpretations
-In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
-Trial registration
-id="Par5"&gt;clinicaltrials.
-gov NCT04324736.
-Electronic supplementary material
-The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
-</t>
-  </si>
-  <si>
-    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,      Matthieu%Wargny%NULL%2,      Matthieu%Wargny%NULL%0,      Matthieu%Pichelin%NULL%2,      Matthieu%Pichelin%NULL%0,      Abdallah%Al-Salameh%NULL%2,      Abdallah%Al-Salameh%NULL%0,      Ingrid%Allix%NULL%2,      Ingrid%Allix%NULL%0,      Coralie%Amadou%NULL%1,      Gwénaëlle%Arnault%NULL%2,      Gwénaëlle%Arnault%NULL%0,      Florence%Baudoux%NULL%1,      Bernard%Bauduceau%NULL%1,      Sophie%Borot%NULL%1,      Muriel%Bourgeon-Ghittori%NULL%2,      Muriel%Bourgeon-Ghittori%NULL%0,      Olivier%Bourron%NULL%1,      David%Boutoille%NULL%2,      David%Boutoille%NULL%0,      France%Cazenave-Roblot%NULL%2,      France%Cazenave-Roblot%NULL%0,      Claude%Chaumeil%NULL%2,      Claude%Chaumeil%NULL%0,      Emmanuel%Cosson%NULL%1,      Sandrine%Coudol%NULL%2,      Sandrine%Coudol%NULL%0,      Patrice%Darmon%NULL%1,      Emmanuel%Disse%NULL%2,      Emmanuel%Disse%NULL%0,      Amélie%Ducet-Boiffard%NULL%2,      Amélie%Ducet-Boiffard%NULL%0,      Bénédicte%Gaborit%NULL%1,      Michael%Joubert%NULL%2,      Michael%Joubert%NULL%0,      Véronique%Kerlan%NULL%2,      Véronique%Kerlan%NULL%0,      Bruno%Laviolle%NULL%1,      Lucien%Marchand%NULL%2,      Lucien%Marchand%NULL%0,      Laurent%Meyer%NULL%2,      Laurent%Meyer%NULL%0,      Louis%Potier%NULL%2,      Louis%Potier%NULL%0,      Gaëtan%Prevost%NULL%2,      Gaëtan%Prevost%NULL%0,      Jean-Pierre%Riveline%NULL%1,      René%Robert%NULL%2,      René%Robert%NULL%0,      Pierre-Jean%Saulnier%NULL%2,      Pierre-Jean%Saulnier%NULL%0,      Ariane%Sultan%NULL%2,      Ariane%Sultan%NULL%0,      Jean-François%Thébaut%NULL%2,      Jean-François%Thébaut%NULL%0,      Charles%Thivolet%NULL%2,      Charles%Thivolet%NULL%0,      Blandine%Tramunt%NULL%2,      Blandine%Tramunt%NULL%0,      Camille%Vatier%NULL%1,      Ronan%Roussel%NULL%2,      Ronan%Roussel%NULL%0,      Jean-François%Gautier%NULL%2,      Jean-François%Gautier%NULL%0,      Pierre%Gourdy%NULL%2,      Pierre%Gourdy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
-Methods
-We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
- It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
- In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
- There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
- To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
-Results
-A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
- After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
- No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
-Conclusions
-In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
- Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
-Supplementary information
-Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
-</t>
-  </si>
-  <si>
-    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,      José David%Torres-Peña%NULL%1,      María D.%López-Carmona%NULL%1,      M. Mar.%Ayala-Gutiérrez%NULL%1,      Francisco%Fuentes-Jiménez%NULL%1,      Lucía Jorge%Huerta%NULL%1,      Jaime Alonso%Muñoz%NULL%1,      Manuel%Rubio-Rivas%NULL%1,      Manel%Madrazo%NULL%1,      Marcos Guzmán%Garcia%NULL%1,      Beatriz Vicente%Montes%NULL%1,      Joaquim Fernández%Sola%NULL%1,      Javier%Ena%NULL%1,      Ruth Gonzalez%Ferrer%NULL%1,      Carmen Mella%Pérez%NULL%1,      Carlos Jorge%Ripper%NULL%1,      Jose Javier Napal%Lecumberri%NULL%1,      Iris El Attar%Acedo%NULL%1,      Susana Plaza%Canteli%NULL%1,      Sara Fuente%Cosío%NULL%1,      Francisco Amorós%Martínez%NULL%1,      Begoña Cortés%Rodríguez%NULL%1,      Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,      José Manuel%Ramos-Rincón%NULL%1,      Ricardo%Gómez-Huelgas%NULL%1,      NULL%NULL%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aims/hypothesis
-Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
- Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
- However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
-Methods
-We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
- Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
- ORs are reported for a 1 SD increase after standardisation.
-Results
-The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
- Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
- The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
- In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
- On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
- Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
-Conclusions/interpretations
-In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
-Trial registration
-clinicaltrials.
-gov NCT04324736.
-Electronic supplementary material
-The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
-</t>
-  </si>
-  <si>
-    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%2,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,       Matthieu%Wargny%NULL%2,       Matthieu%Wargny%NULL%0,       Matthieu%Pichelin%NULL%2,       Matthieu%Pichelin%NULL%0,       Abdallah%Al-Salameh%NULL%2,       Abdallah%Al-Salameh%NULL%0,       Ingrid%Allix%NULL%2,       Ingrid%Allix%NULL%0,       Coralie%Amadou%NULL%1,       Gwénaëlle%Arnault%NULL%2,       Gwénaëlle%Arnault%NULL%0,       Florence%Baudoux%NULL%1,       Bernard%Bauduceau%NULL%1,       Sophie%Borot%NULL%1,       Muriel%Bourgeon-Ghittori%NULL%2,       Muriel%Bourgeon-Ghittori%NULL%0,       Olivier%Bourron%NULL%1,       David%Boutoille%NULL%2,       David%Boutoille%NULL%0,       France%Cazenave-Roblot%NULL%2,       France%Cazenave-Roblot%NULL%0,       Claude%Chaumeil%NULL%2,       Claude%Chaumeil%NULL%0,       Emmanuel%Cosson%NULL%1,       Sandrine%Coudol%NULL%2,       Sandrine%Coudol%NULL%0,       Patrice%Darmon%NULL%1,       Emmanuel%Disse%NULL%2,       Emmanuel%Disse%NULL%0,       Amélie%Ducet-Boiffard%NULL%2,       Amélie%Ducet-Boiffard%NULL%0,       Bénédicte%Gaborit%NULL%1,       Michael%Joubert%NULL%2,       Michael%Joubert%NULL%0,       Véronique%Kerlan%NULL%2,       Véronique%Kerlan%NULL%0,       Bruno%Laviolle%NULL%1,       Lucien%Marchand%NULL%2,       Lucien%Marchand%NULL%0,       Laurent%Meyer%NULL%2,       Laurent%Meyer%NULL%0,       Louis%Potier%NULL%2,       Louis%Potier%NULL%0,       Gaëtan%Prevost%NULL%2,       Gaëtan%Prevost%NULL%0,       Jean-Pierre%Riveline%NULL%1,       René%Robert%NULL%2,       René%Robert%NULL%0,       Pierre-Jean%Saulnier%NULL%2,       Pierre-Jean%Saulnier%NULL%0,       Ariane%Sultan%NULL%2,       Ariane%Sultan%NULL%0,       Jean-François%Thébaut%NULL%2,       Jean-François%Thébaut%NULL%0,       Charles%Thivolet%NULL%2,       Charles%Thivolet%NULL%0,       Blandine%Tramunt%NULL%2,       Blandine%Tramunt%NULL%0,       Camille%Vatier%NULL%1,       Ronan%Roussel%NULL%2,       Ronan%Roussel%NULL%0,       Jean-François%Gautier%NULL%2,       Jean-François%Gautier%NULL%0,       Pierre%Gourdy%NULL%2,       Pierre%Gourdy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -2060,10 +1736,10 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2268,10 +1944,10 @@
         <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -2320,10 +1996,10 @@
         <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>249</v>
+        <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="263">
   <si>
     <t>Doi</t>
   </si>
@@ -1074,6 +1074,114 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,   D.% Bates%null%1,   J. M.% Fiskio%null%1,   E. C.% Roche%null%1,   S.% Mora%null%1,   O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,   Jennifer M%Cooper%NULL%2,   Jennifer M%Cooper%NULL%0,   Krishna%Gokhale%NULL%1,   Dionisio%Acosta-Mena%NULL%1,   Samir%Dhalla%NULL%1,   Nathan%Byne%NULL%1,   Joht Singh%Chandan%NULL%1,   Astha%Anand%NULL%2,   Astha%Anand%NULL%0,   Kelvin%Okoth%NULL%1,   Anuradhaa%Subramanian%NULL%2,   Anuradhaa%Subramanian%NULL%0,   Mansoor N%Bangash%NULL%1,   Thomas%Jackson%NULL%2,   Thomas%Jackson%NULL%0,   Dawit%Zemedikun%NULL%2,   Dawit%Zemedikun%NULL%0,   Tom%Taverner%NULL%2,   Tom%Taverner%NULL%0,   Wasim%Hanif%NULL%1,   Sandip%Ghosh%NULL%1,   Parth%Narendran%NULL%1,   Konstantinos A%Toulis%NULL%1,   Abd A%Tahrani%NULL%2,   Abd A%Tahrani%NULL%0,   Rajendra%Surenthirakumaran%NULL%2,   Rajendra%Surenthirakumaran%NULL%0,   Nicola J%Adderley%NULL%1,   Shamil%Haroon%NULL%2,   Shamil%Haroon%NULL%0,   Kamlesh%Khunti%NULL%3,   Kamlesh%Khunti%NULL%0,   Christopher%Sainsbury%NULL%2,   Christopher%Sainsbury%NULL%0,   G Neil%Thomas%NULL%1,   Krishnarajah%Nirantharakumar%NULL%2,   Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,   Thomas%Servais%NULL%1,   Leïla%Belkhir%NULL%1,   Pierre-François%Laterre%NULL%1,   Jean-Paul%Thissen%NULL%1,   Bernard%Vandeleene%NULL%1,   Dominique%Maiter%NULL%1,   Jean C.%Yombi%NULL%1,   Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,   Abdallah%Al-Salameh%NULL%3,   Samy%Hadjadj%NULL%3,   Thomas%Goronflot%NULL%1,   Nicolas%Wiernsperger%NULL%1,   Matthieu%Pichelin%NULL%3,   Ingrid%Allix%NULL%3,   Coralie%Amadou%NULL%2,   Olivier%Bourron%NULL%2,   Thierry%Duriez%NULL%1,   Jean-François%Gautier%NULL%3,   Anne%Dutour%NULL%1,   Céline%Gonfroy%NULL%1,   Didier%Gouet%NULL%1,   Michael%Joubert%NULL%3,   Ingrid%Julier%NULL%1,   Etienne%Larger%NULL%1,   Lucien%Marchand%NULL%3,   Michel%Marre%NULL%1,   Laurent%Meyer%NULL%3,   Frédérique%Olivier%NULL%1,   Gaëtan%Prevost%NULL%3,   Pascale%Quiniou%NULL%1,   Christelle%Raffaitin-Cardin%NULL%1,   Ronan%Roussel%NULL%3,   Pierre-Jean%Saulnier%NULL%3,   Dominique%Seret-Begue%NULL%1,   Charles%Thivolet%NULL%3,   Camille%Vatier%NULL%2,   Rachel%Desailloud%NULL%1,   Matthieu%Wargny%NULL%3,   Pierre%Gourdy%NULL%3,   Bertrand%Cariou%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,   Zhenyuan%Chen%NULL%1,   Li%Liu%NULL%0,   Xiaoxv%Yin%NULL%1,   Heping%Yang%NULL%1,   Xiangping%Tan%NULL%1,   Jing%Wang%NULL%1,   Hui%Li%NULL%0,   Mengge%Tian%NULL%1,   Zuxun%Lu%NULL%1,   Nian%Xiong%NULL%4,   Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,   Ye-Mao%Liu%NULL%1,   Haomiao%Li%NULL%1,   Xin%Zhang%NULL%1,   Fang%Lei%NULL%1,   Juan-Juan%Qin%NULL%1,   Ze%Chen%NULL%1,   Ke-Qiong%Deng%NULL%1,   Lijin%Lin%NULL%1,   Ming-Ming%Chen%NULL%1,   Xiaohui%Song%NULL%1,   Meng%Xia%NULL%1,   Xuewei%Huang%NULL%1,   Weifang%Liu%NULL%1,   Jingjing%Cai%NULL%1,   Xiao-Jing%Zhang%NULL%1,   Feng%Zhou%NULL%1,   Peng%Zhang%NULL%1,   Yibin%Wang%NULL%1,   Xinliang%Ma%NULL%1,   Qingbo%Xu%NULL%1,   Juan%Yang%NULL%1,   Ping%Ye%NULL%1,   Weiming%Mao%NULL%1,   Xiaodong%Huang%NULL%1,   Jiahong%Xia%NULL%1,   Bing-Hong%Zhang%NULL%1,   Jiao%Guo%NULL%1,   Lihua%Zhu%NULL%1,   Zhibing%Lu%NULL%3,   Yufeng%Yuan%NULL%1,   Xiang%Wei%NULL%1,   Zhi-Gang%She%NULL%1,   Yan-Xiao%Ji%NULL%1,   Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,   Xi%Bai%NULL%1,   Xia%Han%NULL%1,   Wangyan%Jiang%NULL%1,   Lin%Qiu%NULL%2,   Shi%Chen%NULL%1,   Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,   Yanhong%Wei%NULL%1,   Min%Chen%NULL%2,   Qianqian%Wan%NULL%1,   Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,   Matteo%Monami%NULL%1,   Achille%Cernigliaro%NULL%1,   Enrica%Vigneri%NULL%1,   Valentina%Guarnotta%NULL%1,   Salvatore%Scondotto%NULL%1,   Vincenza A.%Allotta%NULL%1,   Michela%Conti%NULL%1,   Carla%Giordano%NULL%1,   Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,   Wen%Kong%NULL%1,   Pengfei%Xia%NULL%1,   Ying%Xu%NULL%1,   Li%Li%NULL%2,   Qin%Li%NULL%1,   Li%Yang%NULL%3,   Qi%Wei%NULL%3,   Hanyu%Wang%NULL%1,   Huiqing%Li%NULL%1,   Juan%Zheng%NULL%1,   Hui%Sun%NULL%1,   Wenfang%Xia%NULL%1,   Geng%Liu%NULL%1,   Xueyu%Zhong%NULL%1,   Kangli%Qiu%NULL%1,   Yan%Li%NULL%1,   Han%Wang%NULL%1,   Yuxiu%Wang%NULL%1,   Xiaoli%Song%NULL%1,   Hua%Liu%NULL%1,   Si%Xiong%NULL%1,   Yumei%Liu%NULL%1,   Zhenhai%Cui%NULL%1,   Yu%Hu%NULL%0,   Lulu%Chen%NULL%1,   An%Pan%NULL%1,   Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,   Qi%Wei%NULL%0,   Willis X%Li%NULL%1,   Karen C%McCowen%NULL%1,   Wei%Xiong%NULL%2,   Jiao%Liu%NULL%2,   Wenlijun%Jiang%NULL%2,   Traci%Marin%NULL%1,   Robert L%Thomas%NULL%1,   Ming%He%NULL%2,   Brendan%Gongol%NULL%1,   Mark%Hepokoski%NULL%2,   Jason X-J%Yuan%NULL%1,   John Y-J%Shyy%NULL%1,   Nian%Xiong%NULL%0,   Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,   Siyi%Xin%NULL%1,   Yaqi%Chen%NULL%1,   Leyu%Li%NULL%1,   Wanjun%Chen%NULL%1,   Wenjia%Li%NULL%1,   Baoan%Zhou%NULL%1,   Chenxia%Li%NULL%1,   Yu%Gong%NULL%1,   Fei%Li%NULL%1,   Peng%Duan%NULL%1,   Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,   John%Buse%NULL%2,   John%Buse%NULL%0,   Leonardo%Tamaritz%NULL%1,   Ana%Palacio%NULL%2,   Ken%Cohen%NULL%1,   Deneen%Vojta%NULL%2,   David%Liebovitz%NULL%1,   Nia%Mitchell%NULL%1,   Jacinda%Nicklas%NULL%1,   Ildiko%Lingvay%NULL%1,   Jeanne M.%Clark%NULL%1,   Louis J.%Aronne%NULL%1,   Erik%Anderson%NULL%1,   Michael%Usher%NULL%1,   Ryan%Demmer%NULL%1,   Genevieve B.%Melton%NULL%1,   Nicholas%Ingraham%NULL%1,   Christopher J.%Tignanelli%NULL%2,   Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,   In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,   Ana%Palacio%NULL%0,   Elissa%Dawkins%NULL%1,   Gordon%Chen%NULL%1,   Daniel%McCarter%NULL%1,   Emancia%Forbes%NULL%1,   Brian%Chung%NULL%1,   Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,   Qi%Wei%NULL%0,   Karen C.%McCowen%NULL%1,   Wei%Xiong%NULL%0,   Jiao%Liu%NULL%0,   Wenlijun%Jiang%NULL%0,   Robert L.%Thomas%NULL%1,   Mark%Hepokoski%NULL%0,   Ming%He%NULL%0,   John Y. J.%Shyy%NULL%1,   Atul%Malhotra%NULL%0,   Nian%Xiong%nianxiong@hust.edu.cn%0,   Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,   T. A. N.%Reed%NULL%2,   T. A. N.%Reed%NULL%0,   M.%Ardissino%NULL%1,   P.%Bassett%NULL%1,   A. M.%Whittington%NULL%1,   D. L.%Cohen%NULL%1,   N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,   Walter%Distaso%NULL%2,   Walter%Distaso%NULL%0,   Anjali%Amin%NULL%1,   Wei%Yang%NULL%2,   Oluwagbemiga%Idowu%NULL%1,   Julia S%Kenkre%NULL%1,   Ronak J%Shah%NULL%1,   Evelina%Woin%NULL%1,   Christine%Shi%NULL%1,   Nael%Alavi%NULL%2,   Nael%Alavi%NULL%0,   Hala%Bedri%NULL%1,   Niamh%Brady%NULL%1,   Sophie%Blackburn%NULL%1,   Martina%Leczycka%NULL%1,   Sanya%Patel%NULL%1,   Elizaveta%Sokol%NULL%1,   Edward%Toke-Bjolgerud%NULL%1,   Ambreen%Qayum%NULL%1,   Mariana%Abdel-Malek%NULL%1,   David C D%Hope%NULL%1,   Nick S%Oliver%NULL%1,   Vasiliki%Bravis%NULL%1,   Shivani%Misra%NULL%1,   Tricia M%Tan%NULL%1,   Neil E%Hill%NULL%2,   Neil E%Hill%NULL%0,   Victoria%Salem%NULL%2,   Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,   Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,   Tiffany%Grimes%NULL%1,   Peng%Li%NULL%1,   Matthew%Might%NULL%1,   Fernando%Ovalle%NULL%1,   Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,   Nicholas E%Ingraham%NULL%1,   Thomas A%Murray%NULL%1,   Schelomo%Marmor%NULL%1,   Shane%Hovertsen%NULL%1,   Jessica%Gronski%NULL%1,   Chace%McNeil%NULL%1,   Ruoying%Feng%NULL%1,   Gabriel%Guzman%NULL%1,   Nermine%Abdelwahab%NULL%1,   Samantha%King%NULL%1,   Leonardo%Tamariz%NULL%0,   Thomas%Meehan%NULL%1,   Kathryn M%Pendleton%NULL%1,   Bradley%Benson%NULL%1,   Deneen%Vojta%NULL%0,   Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,   Matthieu%Wargny%NULL%0,   Matthieu%Wargny%NULL%0,   Matthieu%Pichelin%NULL%0,   Matthieu%Pichelin%NULL%0,   Abdallah%Al-Salameh%NULL%0,   Abdallah%Al-Salameh%NULL%0,   Ingrid%Allix%NULL%0,   Ingrid%Allix%NULL%0,   Coralie%Amadou%NULL%0,   Gwénaëlle%Arnault%NULL%2,   Gwénaëlle%Arnault%NULL%0,   Florence%Baudoux%NULL%1,   Bernard%Bauduceau%NULL%1,   Sophie%Borot%NULL%1,   Muriel%Bourgeon-Ghittori%NULL%2,   Muriel%Bourgeon-Ghittori%NULL%0,   Olivier%Bourron%NULL%0,   David%Boutoille%NULL%4,   David%Boutoille%NULL%0,   France%Cazenave-Roblot%NULL%3,   France%Cazenave-Roblot%NULL%0,   Claude%Chaumeil%NULL%2,   Claude%Chaumeil%NULL%0,   Emmanuel%Cosson%NULL%1,   Sandrine%Coudol%NULL%2,   Sandrine%Coudol%NULL%0,   Patrice%Darmon%NULL%1,   Emmanuel%Disse%NULL%2,   Emmanuel%Disse%NULL%0,   Amélie%Ducet-Boiffard%NULL%2,   Amélie%Ducet-Boiffard%NULL%0,   Bénédicte%Gaborit%NULL%1,   Michael%Joubert%NULL%0,   Michael%Joubert%NULL%0,   Véronique%Kerlan%NULL%2,   Véronique%Kerlan%NULL%0,   Bruno%Laviolle%NULL%1,   Lucien%Marchand%NULL%0,   Lucien%Marchand%NULL%0,   Laurent%Meyer%NULL%0,   Laurent%Meyer%NULL%0,   Louis%Potier%NULL%2,   Louis%Potier%NULL%0,   Gaëtan%Prevost%NULL%0,   Gaëtan%Prevost%NULL%0,   Jean-Pierre%Riveline%NULL%1,   René%Robert%NULL%2,   René%Robert%NULL%0,   Pierre-Jean%Saulnier%NULL%0,   Pierre-Jean%Saulnier%NULL%0,   Ariane%Sultan%NULL%2,   Ariane%Sultan%NULL%0,   Jean-François%Thébaut%NULL%2,   Jean-François%Thébaut%NULL%0,   Charles%Thivolet%NULL%0,   Charles%Thivolet%NULL%0,   Blandine%Tramunt%NULL%2,   Blandine%Tramunt%NULL%0,   Camille%Vatier%NULL%0,   Ronan%Roussel%NULL%0,   Ronan%Roussel%NULL%0,   Jean-François%Gautier%NULL%0,   Jean-François%Gautier%NULL%0,   Pierre%Gourdy%NULL%0,   Pierre%Gourdy%NULL%0,   NULL%NULL%NULL%0,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,   Peter%Knighton%NULL%1,   Francesco%Zaccardi%NULL%1,   Chirag%Bakhai%NULL%1,   Emma%Barron%NULL%1,   Naomi%Holman%NULL%1,   Partha%Kar%NULL%1,   Claire%Meace%NULL%1,   Naveed%Sattar%NULL%1,   Stephen%Sharp%NULL%1,   Nicholas J%Wareham%NULL%1,   Andy%Weaver%NULL%1,   Emilia%Woch%NULL%1,   Bob%Young%NULL%1,   Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,   José David%Torres-Peña%NULL%1,   María D.%López-Carmona%NULL%1,   M. Mar.%Ayala-Gutiérrez%NULL%1,   Francisco%Fuentes-Jiménez%NULL%1,   Lucía Jorge%Huerta%NULL%1,   Jaime Alonso%Muñoz%NULL%1,   Manuel%Rubio-Rivas%NULL%1,   Manel%Madrazo%NULL%1,   Marcos Guzmán%Garcia%NULL%1,   Beatriz Vicente%Montes%NULL%1,   Joaquim Fernández%Sola%NULL%1,   Javier%Ena%NULL%1,   Ruth Gonzalez%Ferrer%NULL%1,   Carmen Mella%Pérez%NULL%1,   Carlos Jorge%Ripper%NULL%1,   Jose Javier Napal%Lecumberri%NULL%1,   Iris El Attar%Acedo%NULL%1,   Susana Plaza%Canteli%NULL%1,   Sara Fuente%Cosío%NULL%1,   Francisco Amorós%Martínez%NULL%1,   Begoña Cortés%Rodríguez%NULL%1,   Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,   José Manuel%Ramos-Rincón%NULL%1,   Ricardo%Gómez-Huelgas%NULL%1,   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,   Sang Won%Kim%NULL%1,   Jong Won%Park%NULL%1,   Kyu Hyang%Cho%NULL%1,   Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,   Philip%Tsoukas%NULL%1,   Christopher W.%Halladay%NULL%0,   Emily%O'Neill%NULL%1,   Stefan%Gravenstein%NULL%0,   James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,   Tao%Liu%NULL%7,   Weijun%Zhong%NULL%1,   Rong%Liu%NULL%1,   Honghao%Zhou%NULL%1,   Weihua%Huang%endeavor34852@aliyun.com%1,   Wei%Zhang%csuzhangwei@csu.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,   Jae-Han%Jeon%NULL%2,   Jae-Han%Jeon%NULL%0,   Sung-Woo%Kim%NULL%2,   Sung-Woo%Kim%NULL%0,   Jun Sung%Moon%NULL%1,   Nan Hee%Cho%NULL%1,   Eugene%Han%NULL%1,   Ji Hong%You%NULL%1,   Ji Yeon%Lee%NULL%4,   Miri%Hyun%NULL%1,   Jae Seok%Park%NULL%3,   Yong Shik%Kwon%NULL%1,   Yeon-Kyung%Choi%NULL%1,   Ki Tae%Kwon%NULL%1,   Shin Yup%Lee%NULL%1,   Eon Ju%Jeon%NULL%1,   Jin-Woo%Kim%NULL%1,   Hyo-Lim%Hong%NULL%1,   Hyun Hee%Kwon%NULL%1,   Chi Young%Jung%NULL%1,   Yin Young%Lee%NULL%1,   Eunyeoung%Ha%NULL%1,   Seung Min%Chung%NULL%1,   Jian%Hur%NULL%2,   June Hong%Ahn%NULL%3,   Na-young%Kim%NULL%0,   Shin-Woo%Kim%NULL%3,   Hyun Ha%Chang%NULL%1,   Yong Hoon%Lee%NULL%1,   Jaehee%Lee%NULL%1,   Keun-Gyu%Park%NULL%1,   Hyun Ah%Kim%NULL%1,   Ji-Hyun%Lee%NULL%2,   Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,   Lin%Qiu%NULL%0,   Yi%Liu%NULL%1,   Xiu-lan%Liu%NULL%1,   Jian-ling%Zheng%NULL%1,   Hui-ying%Xue%NULL%1,   Wen-hua%Liu%NULL%1,   Dong%Liu%NULL%1,   Juan%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,    N.% Smati%null%1,    C. S. J.% Wong%null%1,    K.% Aspey%null%1,    M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,    A.% Anisimovich%null%1,    J.% Baxter%null%1,    L.% Mackillop%null%1,    M. P.% Vizcaychipi%null%1,    A.% McCarthy%null%1,    R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,    D.% Bates%null%1,    J. M.% Fiskio%null%1,    E. C.% Roche%null%1,    S.% Mora%null%1,    O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1412,6 +1520,9 @@
       <c r="H1" t="s">
         <v>46</v>
       </c>
+      <c r="I1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1427,7 +1538,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1437,6 +1548,9 @@
       </c>
       <c r="H2" t="s">
         <v>52</v>
+      </c>
+      <c r="I2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="3">
@@ -1453,7 +1567,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1463,6 +1577,9 @@
       </c>
       <c r="H3" t="s">
         <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="4">
@@ -1479,7 +1596,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -1489,6 +1606,9 @@
       </c>
       <c r="H4" t="s">
         <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="5">
@@ -1505,7 +1625,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -1515,6 +1635,9 @@
       </c>
       <c r="H5" t="s">
         <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="6">
@@ -1531,7 +1654,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -1541,6 +1664,9 @@
       </c>
       <c r="H6" t="s">
         <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="7">
@@ -1557,7 +1683,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1567,6 +1693,9 @@
       </c>
       <c r="H7" t="s">
         <v>77</v>
+      </c>
+      <c r="I7" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="8">
@@ -1583,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -1593,6 +1722,9 @@
       </c>
       <c r="H8" t="s">
         <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="9">
@@ -1609,7 +1741,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -1619,6 +1751,9 @@
       </c>
       <c r="H9" t="s">
         <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="10">
@@ -1635,7 +1770,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -1645,6 +1780,9 @@
       </c>
       <c r="H10" t="s">
         <v>92</v>
+      </c>
+      <c r="I10" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="11">
@@ -1661,7 +1799,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -1671,6 +1809,9 @@
       </c>
       <c r="H11" t="s">
         <v>97</v>
+      </c>
+      <c r="I11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="12">
@@ -1687,7 +1828,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -1697,6 +1838,9 @@
       </c>
       <c r="H12" t="s">
         <v>102</v>
+      </c>
+      <c r="I12" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13">
@@ -1713,7 +1857,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -1723,6 +1867,9 @@
       </c>
       <c r="H13" t="s">
         <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1739,7 +1886,7 @@
         <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -1749,6 +1896,9 @@
       </c>
       <c r="H14" t="s">
         <v>112</v>
+      </c>
+      <c r="I14" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="15">
@@ -1765,7 +1915,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -1775,6 +1925,9 @@
       </c>
       <c r="H15" t="s">
         <v>117</v>
+      </c>
+      <c r="I15" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="16">
@@ -1791,7 +1944,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -1801,6 +1954,9 @@
       </c>
       <c r="H16" t="s">
         <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17">
@@ -1817,7 +1973,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -1827,6 +1983,9 @@
       </c>
       <c r="H17" t="s">
         <v>127</v>
+      </c>
+      <c r="I17" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="18">
@@ -1843,7 +2002,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -1853,6 +2012,9 @@
       </c>
       <c r="H18" t="s">
         <v>132</v>
+      </c>
+      <c r="I18" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19">
@@ -1869,7 +2031,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -1879,6 +2041,9 @@
       </c>
       <c r="H19" t="s">
         <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20">
@@ -1895,7 +2060,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -1905,6 +2070,9 @@
       </c>
       <c r="H20" t="s">
         <v>67</v>
+      </c>
+      <c r="I20" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="21">
@@ -1921,7 +2089,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -1931,6 +2099,9 @@
       </c>
       <c r="H21" t="s">
         <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="22">
@@ -1947,7 +2118,7 @@
         <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -1957,6 +2128,9 @@
       </c>
       <c r="H22" t="s">
         <v>149</v>
+      </c>
+      <c r="I22" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="23">
@@ -1973,7 +2147,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -1983,6 +2157,9 @@
       </c>
       <c r="H23" t="s">
         <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="24">
@@ -1999,7 +2176,7 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -2009,6 +2186,9 @@
       </c>
       <c r="H24" t="s">
         <v>158</v>
+      </c>
+      <c r="I24" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="25">
@@ -2025,7 +2205,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -2035,6 +2215,9 @@
       </c>
       <c r="H25" t="s">
         <v>163</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="26">
@@ -2062,6 +2245,9 @@
       <c r="H26" t="s">
         <v>52</v>
       </c>
+      <c r="I26" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -2077,7 +2263,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -2087,6 +2273,9 @@
       </c>
       <c r="H27" t="s">
         <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="28">
@@ -2103,7 +2292,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -2113,6 +2302,9 @@
       </c>
       <c r="H28" t="s">
         <v>172</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="29">
@@ -2129,7 +2321,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -2139,6 +2331,9 @@
       </c>
       <c r="H29" t="s">
         <v>177</v>
+      </c>
+      <c r="I29" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30">
@@ -2155,7 +2350,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -2165,6 +2360,9 @@
       </c>
       <c r="H30" t="s">
         <v>182</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="31">
@@ -2181,16 +2379,19 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
         <v>187</v>
+      </c>
+      <c r="I31" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="32">
@@ -2207,16 +2408,19 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G32" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
         <v>191</v>
+      </c>
+      <c r="I32" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="33">
@@ -2233,16 +2437,19 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>186</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
         <v>195</v>
+      </c>
+      <c r="I33" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="387">
   <si>
     <t>Doi</t>
   </si>
@@ -1182,6 +1182,378 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,    D.% Bates%null%1,    J. M.% Fiskio%null%1,    E. C.% Roche%null%1,    S.% Mora%null%1,    O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,    Jennifer M%Cooper%NULL%2,    Jennifer M%Cooper%NULL%0,    Krishna%Gokhale%NULL%1,    Dionisio%Acosta-Mena%NULL%1,    Samir%Dhalla%NULL%1,    Nathan%Byne%NULL%1,    Joht Singh%Chandan%NULL%1,    Astha%Anand%NULL%2,    Astha%Anand%NULL%0,    Kelvin%Okoth%NULL%1,    Anuradhaa%Subramanian%NULL%2,    Anuradhaa%Subramanian%NULL%0,    Mansoor N%Bangash%NULL%1,    Thomas%Jackson%NULL%2,    Thomas%Jackson%NULL%0,    Dawit%Zemedikun%NULL%2,    Dawit%Zemedikun%NULL%0,    Tom%Taverner%NULL%2,    Tom%Taverner%NULL%0,    Wasim%Hanif%NULL%1,    Sandip%Ghosh%NULL%1,    Parth%Narendran%NULL%1,    Konstantinos A%Toulis%NULL%1,    Abd A%Tahrani%NULL%2,    Abd A%Tahrani%NULL%0,    Rajendra%Surenthirakumaran%NULL%2,    Rajendra%Surenthirakumaran%NULL%0,    Nicola J%Adderley%NULL%1,    Shamil%Haroon%NULL%2,    Shamil%Haroon%NULL%0,    Kamlesh%Khunti%NULL%3,    Kamlesh%Khunti%NULL%0,    Christopher%Sainsbury%NULL%2,    Christopher%Sainsbury%NULL%0,    G Neil%Thomas%NULL%1,    Krishnarajah%Nirantharakumar%NULL%2,    Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,    Thomas%Servais%NULL%1,    Leïla%Belkhir%NULL%1,    Pierre-François%Laterre%NULL%1,    Jean-Paul%Thissen%NULL%1,    Bernard%Vandeleene%NULL%1,    Dominique%Maiter%NULL%1,    Jean C.%Yombi%NULL%1,    Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,    Abdallah%Al-Salameh%NULL%3,    Samy%Hadjadj%NULL%3,    Thomas%Goronflot%NULL%1,    Nicolas%Wiernsperger%NULL%1,    Matthieu%Pichelin%NULL%3,    Ingrid%Allix%NULL%3,    Coralie%Amadou%NULL%2,    Olivier%Bourron%NULL%2,    Thierry%Duriez%NULL%1,    Jean-François%Gautier%NULL%3,    Anne%Dutour%NULL%1,    Céline%Gonfroy%NULL%1,    Didier%Gouet%NULL%1,    Michael%Joubert%NULL%3,    Ingrid%Julier%NULL%1,    Etienne%Larger%NULL%1,    Lucien%Marchand%NULL%3,    Michel%Marre%NULL%1,    Laurent%Meyer%NULL%3,    Frédérique%Olivier%NULL%1,    Gaëtan%Prevost%NULL%3,    Pascale%Quiniou%NULL%1,    Christelle%Raffaitin-Cardin%NULL%1,    Ronan%Roussel%NULL%3,    Pierre-Jean%Saulnier%NULL%3,    Dominique%Seret-Begue%NULL%1,    Charles%Thivolet%NULL%3,    Camille%Vatier%NULL%2,    Rachel%Desailloud%NULL%1,    Matthieu%Wargny%NULL%3,    Pierre%Gourdy%NULL%3,    Bertrand%Cariou%NULL%1,    NULL%NULL%NULL%46]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,    Zhenyuan%Chen%NULL%1,    Li%Liu%NULL%3,    Xiaoxv%Yin%NULL%1,    Heping%Yang%NULL%1,    Xiangping%Tan%NULL%1,    Jing%Wang%NULL%1,    Hui%Li%NULL%0,    Mengge%Tian%NULL%1,    Zuxun%Lu%NULL%1,    Nian%Xiong%NULL%4,    Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,    Ye-Mao%Liu%NULL%1,    Haomiao%Li%NULL%1,    Xin%Zhang%NULL%1,    Fang%Lei%NULL%1,    Juan-Juan%Qin%NULL%1,    Ze%Chen%NULL%1,    Ke-Qiong%Deng%NULL%1,    Lijin%Lin%NULL%1,    Ming-Ming%Chen%NULL%1,    Xiaohui%Song%NULL%1,    Meng%Xia%NULL%1,    Xuewei%Huang%NULL%1,    Weifang%Liu%NULL%1,    Jingjing%Cai%NULL%1,    Xiao-Jing%Zhang%NULL%1,    Feng%Zhou%NULL%1,    Peng%Zhang%NULL%1,    Yibin%Wang%NULL%1,    Xinliang%Ma%NULL%1,    Qingbo%Xu%NULL%1,    Juan%Yang%NULL%1,    Ping%Ye%NULL%1,    Weiming%Mao%NULL%1,    Xiaodong%Huang%NULL%1,    Jiahong%Xia%NULL%1,    Bing-Hong%Zhang%NULL%1,    Jiao%Guo%NULL%1,    Lihua%Zhu%NULL%1,    Zhibing%Lu%NULL%3,    Yufeng%Yuan%NULL%1,    Xiang%Wei%NULL%1,    Zhi-Gang%She%NULL%1,    Yan-Xiao%Ji%NULL%1,    Hongliang%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,    Xi%Bai%NULL%1,    Xia%Han%NULL%1,    Wangyan%Jiang%NULL%1,    Lin%Qiu%NULL%2,    Shi%Chen%NULL%1,    Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,    Yanhong%Wei%NULL%1,    Min%Chen%NULL%2,    Qianqian%Wan%NULL%1,    Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,    Matteo%Monami%NULL%1,    Achille%Cernigliaro%NULL%1,    Enrica%Vigneri%NULL%1,    Valentina%Guarnotta%NULL%1,    Salvatore%Scondotto%NULL%1,    Vincenza A.%Allotta%NULL%1,    Michela%Conti%NULL%1,    Carla%Giordano%NULL%1,    Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,    Wen%Kong%NULL%1,    Pengfei%Xia%NULL%1,    Ying%Xu%NULL%1,    Li%Li%NULL%0,    Qin%Li%NULL%1,    Li%Yang%NULL%3,    Qi%Wei%NULL%3,    Hanyu%Wang%NULL%1,    Huiqing%Li%NULL%1,    Juan%Zheng%NULL%1,    Hui%Sun%NULL%1,    Wenfang%Xia%NULL%1,    Geng%Liu%NULL%1,    Xueyu%Zhong%NULL%1,    Kangli%Qiu%NULL%1,    Yan%Li%NULL%1,    Han%Wang%NULL%1,    Yuxiu%Wang%NULL%1,    Xiaoli%Song%NULL%1,    Hua%Liu%NULL%1,    Si%Xiong%NULL%1,    Yumei%Liu%NULL%1,    Zhenhai%Cui%NULL%1,    Yu%Hu%NULL%14,    Lulu%Chen%NULL%1,    An%Pan%NULL%1,    Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,    Qi%Wei%NULL%0,    Willis X%Li%NULL%1,    Karen C%McCowen%NULL%1,    Wei%Xiong%NULL%2,    Jiao%Liu%NULL%2,    Wenlijun%Jiang%NULL%2,    Traci%Marin%NULL%1,    Robert L%Thomas%NULL%1,    Ming%He%NULL%2,    Brendan%Gongol%NULL%1,    Mark%Hepokoski%NULL%2,    Jason X-J%Yuan%NULL%1,    John Y-J%Shyy%NULL%1,    Nian%Xiong%NULL%0,    Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,    Siyi%Xin%NULL%1,    Yaqi%Chen%NULL%1,    Leyu%Li%NULL%1,    Wanjun%Chen%NULL%1,    Wenjia%Li%NULL%1,    Baoan%Zhou%NULL%1,    Chenxia%Li%NULL%1,    Yu%Gong%NULL%1,    Fei%Li%NULL%1,    Peng%Duan%NULL%1,    Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,    John%Buse%NULL%2,    John%Buse%NULL%0,    Leonardo%Tamaritz%NULL%1,    Ana%Palacio%NULL%2,    Ken%Cohen%NULL%1,    Deneen%Vojta%NULL%2,    David%Liebovitz%NULL%1,    Nia%Mitchell%NULL%1,    Jacinda%Nicklas%NULL%1,    Ildiko%Lingvay%NULL%1,    Jeanne M.%Clark%NULL%1,    Louis J.%Aronne%NULL%1,    Erik%Anderson%NULL%1,    Michael%Usher%NULL%1,    Ryan%Demmer%NULL%1,    Genevieve B.%Melton%NULL%1,    Nicholas%Ingraham%NULL%1,    Christopher J.%Tignanelli%NULL%2,    Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,    In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,    Ana%Palacio%NULL%0,    Elissa%Dawkins%NULL%1,    Gordon%Chen%NULL%1,    Daniel%McCarter%NULL%1,    Emancia%Forbes%NULL%1,    Brian%Chung%NULL%1,    Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,    Qi%Wei%NULL%0,    Karen C.%McCowen%NULL%1,    Wei%Xiong%NULL%0,    Jiao%Liu%NULL%0,    Wenlijun%Jiang%NULL%0,    Robert L.%Thomas%NULL%1,    Mark%Hepokoski%NULL%0,    Ming%He%NULL%0,    John Y. J.%Shyy%NULL%1,    Atul%Malhotra%NULL%0,    Nian%Xiong%nianxiong@hust.edu.cn%0,    Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,    T. A. N.%Reed%NULL%2,    T. A. N.%Reed%NULL%0,    M.%Ardissino%NULL%1,    P.%Bassett%NULL%1,    A. M.%Whittington%NULL%1,    D. L.%Cohen%NULL%1,    N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,    Walter%Distaso%NULL%2,    Walter%Distaso%NULL%0,    Anjali%Amin%NULL%1,    Wei%Yang%NULL%2,    Oluwagbemiga%Idowu%NULL%1,    Julia S%Kenkre%NULL%1,    Ronak J%Shah%NULL%1,    Evelina%Woin%NULL%1,    Christine%Shi%NULL%1,    Nael%Alavi%NULL%2,    Nael%Alavi%NULL%0,    Hala%Bedri%NULL%1,    Niamh%Brady%NULL%1,    Sophie%Blackburn%NULL%1,    Martina%Leczycka%NULL%1,    Sanya%Patel%NULL%1,    Elizaveta%Sokol%NULL%1,    Edward%Toke-Bjolgerud%NULL%1,    Ambreen%Qayum%NULL%1,    Mariana%Abdel-Malek%NULL%1,    David C D%Hope%NULL%1,    Nick S%Oliver%NULL%1,    Vasiliki%Bravis%NULL%1,    Shivani%Misra%NULL%1,    Tricia M%Tan%NULL%1,    Neil E%Hill%NULL%2,    Neil E%Hill%NULL%0,    Victoria%Salem%NULL%2,    Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,    Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,    Tiffany%Grimes%NULL%1,    Peng%Li%NULL%1,    Matthew%Might%NULL%1,    Fernando%Ovalle%NULL%1,    Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,    Nicholas E%Ingraham%NULL%1,    Thomas A%Murray%NULL%1,    Schelomo%Marmor%NULL%1,    Shane%Hovertsen%NULL%1,    Jessica%Gronski%NULL%1,    Chace%McNeil%NULL%1,    Ruoying%Feng%NULL%1,    Gabriel%Guzman%NULL%1,    Nermine%Abdelwahab%NULL%1,    Samantha%King%NULL%1,    Leonardo%Tamariz%NULL%0,    Thomas%Meehan%NULL%1,    Kathryn M%Pendleton%NULL%1,    Bradley%Benson%NULL%1,    Deneen%Vojta%NULL%0,    Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,    Matthieu%Wargny%NULL%0,    Matthieu%Wargny%NULL%0,    Matthieu%Pichelin%NULL%0,    Matthieu%Pichelin%NULL%0,    Abdallah%Al-Salameh%NULL%0,    Abdallah%Al-Salameh%NULL%0,    Ingrid%Allix%NULL%0,    Ingrid%Allix%NULL%0,    Coralie%Amadou%NULL%0,    Gwénaëlle%Arnault%NULL%2,    Gwénaëlle%Arnault%NULL%0,    Florence%Baudoux%NULL%1,    Bernard%Bauduceau%NULL%1,    Sophie%Borot%NULL%1,    Muriel%Bourgeon-Ghittori%NULL%2,    Muriel%Bourgeon-Ghittori%NULL%0,    Olivier%Bourron%NULL%0,    David%Boutoille%NULL%4,    David%Boutoille%NULL%0,    France%Cazenave-Roblot%NULL%3,    France%Cazenave-Roblot%NULL%0,    Claude%Chaumeil%NULL%2,    Claude%Chaumeil%NULL%0,    Emmanuel%Cosson%NULL%1,    Sandrine%Coudol%NULL%2,    Sandrine%Coudol%NULL%0,    Patrice%Darmon%NULL%1,    Emmanuel%Disse%NULL%2,    Emmanuel%Disse%NULL%0,    Amélie%Ducet-Boiffard%NULL%2,    Amélie%Ducet-Boiffard%NULL%0,    Bénédicte%Gaborit%NULL%1,    Michael%Joubert%NULL%0,    Michael%Joubert%NULL%0,    Véronique%Kerlan%NULL%2,    Véronique%Kerlan%NULL%0,    Bruno%Laviolle%NULL%1,    Lucien%Marchand%NULL%0,    Lucien%Marchand%NULL%0,    Laurent%Meyer%NULL%0,    Laurent%Meyer%NULL%0,    Louis%Potier%NULL%2,    Louis%Potier%NULL%0,    Gaëtan%Prevost%NULL%0,    Gaëtan%Prevost%NULL%0,    Jean-Pierre%Riveline%NULL%1,    René%Robert%NULL%2,    René%Robert%NULL%0,    Pierre-Jean%Saulnier%NULL%0,    Pierre-Jean%Saulnier%NULL%0,    Ariane%Sultan%NULL%2,    Ariane%Sultan%NULL%0,    Jean-François%Thébaut%NULL%2,    Jean-François%Thébaut%NULL%0,    Charles%Thivolet%NULL%0,    Charles%Thivolet%NULL%0,    Blandine%Tramunt%NULL%2,    Blandine%Tramunt%NULL%0,    Camille%Vatier%NULL%0,    Ronan%Roussel%NULL%0,    Ronan%Roussel%NULL%0,    Jean-François%Gautier%NULL%0,    Jean-François%Gautier%NULL%0,    Pierre%Gourdy%NULL%0,    Pierre%Gourdy%NULL%0,    NULL%NULL%NULL%0,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,    Peter%Knighton%NULL%1,    Francesco%Zaccardi%NULL%1,    Chirag%Bakhai%NULL%1,    Emma%Barron%NULL%1,    Naomi%Holman%NULL%1,    Partha%Kar%NULL%1,    Claire%Meace%NULL%1,    Naveed%Sattar%NULL%1,    Stephen%Sharp%NULL%1,    Nicholas J%Wareham%NULL%1,    Andy%Weaver%NULL%1,    Emilia%Woch%NULL%1,    Bob%Young%NULL%1,    Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,    José David%Torres-Peña%NULL%1,    María D.%López-Carmona%NULL%1,    M. Mar.%Ayala-Gutiérrez%NULL%1,    Francisco%Fuentes-Jiménez%NULL%1,    Lucía Jorge%Huerta%NULL%1,    Jaime Alonso%Muñoz%NULL%1,    Manuel%Rubio-Rivas%NULL%1,    Manel%Madrazo%NULL%1,    Marcos Guzmán%Garcia%NULL%1,    Beatriz Vicente%Montes%NULL%1,    Joaquim Fernández%Sola%NULL%1,    Javier%Ena%NULL%1,    Ruth Gonzalez%Ferrer%NULL%1,    Carmen Mella%Pérez%NULL%1,    Carlos Jorge%Ripper%NULL%1,    Jose Javier Napal%Lecumberri%NULL%1,    Iris El Attar%Acedo%NULL%1,    Susana Plaza%Canteli%NULL%1,    Sara Fuente%Cosío%NULL%1,    Francisco Amorós%Martínez%NULL%1,    Begoña Cortés%Rodríguez%NULL%1,    Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,    José Manuel%Ramos-Rincón%NULL%1,    Ricardo%Gómez-Huelgas%NULL%1,    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,    Sang Won%Kim%NULL%1,    Jong Won%Park%NULL%1,    Kyu Hyang%Cho%NULL%1,    Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,    Philip%Tsoukas%NULL%1,    Christopher W.%Halladay%NULL%1,    Emily%O'Neill%NULL%1,    Stefan%Gravenstein%NULL%1,    James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,    Tao%Liu%NULL%7,    Weijun%Zhong%NULL%1,    Rong%Liu%NULL%1,    Honghao%Zhou%NULL%1,    Weihua%Huang%endeavor34852@aliyun.com%1,    Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,    Jae-Han%Jeon%NULL%2,    Jae-Han%Jeon%NULL%0,    Sung-Woo%Kim%NULL%2,    Sung-Woo%Kim%NULL%0,    Jun Sung%Moon%NULL%1,    Nan Hee%Cho%NULL%1,    Eugene%Han%NULL%1,    Ji Hong%You%NULL%1,    Ji Yeon%Lee%NULL%4,    Miri%Hyun%NULL%1,    Jae Seok%Park%NULL%3,    Yong Shik%Kwon%NULL%1,    Yeon-Kyung%Choi%NULL%1,    Ki Tae%Kwon%NULL%1,    Shin Yup%Lee%NULL%1,    Eon Ju%Jeon%NULL%1,    Jin-Woo%Kim%NULL%1,    Hyo-Lim%Hong%NULL%1,    Hyun Hee%Kwon%NULL%1,    Chi Young%Jung%NULL%1,    Yin Young%Lee%NULL%1,    Eunyeoung%Ha%NULL%1,    Seung Min%Chung%NULL%1,    Jian%Hur%NULL%2,    June Hong%Ahn%NULL%3,    Na-young%Kim%NULL%1,    Shin-Woo%Kim%NULL%3,    Hyun Ha%Chang%NULL%1,    Yong Hoon%Lee%NULL%1,    Jaehee%Lee%NULL%1,    Keun-Gyu%Park%NULL%1,    Hyun Ah%Kim%NULL%1,    Ji-Hyun%Lee%NULL%2,    Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,    Lin%Qiu%NULL%0,    Yi%Liu%NULL%1,    Xiu-lan%Liu%NULL%1,    Jian-ling%Zheng%NULL%1,    Hui-ying%Xue%NULL%1,    Wen-hua%Liu%NULL%1,    Dong%Liu%NULL%1,    Juan%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,     N.% Smati%null%1,     C. S. J.% Wong%null%1,     K.% Aspey%null%1,     M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,     A.% Anisimovich%null%1,     J.% Baxter%null%1,     L.% Mackillop%null%1,     M. P.% Vizcaychipi%null%1,     A.% McCarthy%null%1,     R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,     D.% Bates%null%1,     J. M.% Fiskio%null%1,     E. C.% Roche%null%1,     S.% Mora%null%1,     O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,     Jennifer M%Cooper%NULL%2,     Jennifer M%Cooper%NULL%0,     Krishna%Gokhale%NULL%1,     Dionisio%Acosta-Mena%NULL%1,     Samir%Dhalla%NULL%1,     Nathan%Byne%NULL%1,     Joht Singh%Chandan%NULL%1,     Astha%Anand%NULL%2,     Astha%Anand%NULL%0,     Kelvin%Okoth%NULL%1,     Anuradhaa%Subramanian%NULL%2,     Anuradhaa%Subramanian%NULL%0,     Mansoor N%Bangash%NULL%1,     Thomas%Jackson%NULL%2,     Thomas%Jackson%NULL%0,     Dawit%Zemedikun%NULL%2,     Dawit%Zemedikun%NULL%0,     Tom%Taverner%NULL%2,     Tom%Taverner%NULL%0,     Wasim%Hanif%NULL%1,     Sandip%Ghosh%NULL%1,     Parth%Narendran%NULL%1,     Konstantinos A%Toulis%NULL%1,     Abd A%Tahrani%NULL%2,     Abd A%Tahrani%NULL%0,     Rajendra%Surenthirakumaran%NULL%2,     Rajendra%Surenthirakumaran%NULL%0,     Nicola J%Adderley%NULL%1,     Shamil%Haroon%NULL%2,     Shamil%Haroon%NULL%0,     Kamlesh%Khunti%NULL%4,     Kamlesh%Khunti%NULL%0,     Christopher%Sainsbury%NULL%2,     Christopher%Sainsbury%NULL%0,     G Neil%Thomas%NULL%1,     Krishnarajah%Nirantharakumar%NULL%2,     Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,     Thomas%Servais%NULL%1,     Leïla%Belkhir%NULL%1,     Pierre-François%Laterre%NULL%1,     Jean-Paul%Thissen%NULL%1,     Bernard%Vandeleene%NULL%1,     Dominique%Maiter%NULL%1,     Jean C.%Yombi%NULL%1,     Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,     Abdallah%Al-Salameh%NULL%3,     Samy%Hadjadj%NULL%3,     Thomas%Goronflot%NULL%1,     Nicolas%Wiernsperger%NULL%1,     Matthieu%Pichelin%NULL%3,     Ingrid%Allix%NULL%3,     Coralie%Amadou%NULL%2,     Olivier%Bourron%NULL%2,     Thierry%Duriez%NULL%1,     Jean-François%Gautier%NULL%3,     Anne%Dutour%NULL%1,     Céline%Gonfroy%NULL%1,     Didier%Gouet%NULL%1,     Michael%Joubert%NULL%3,     Ingrid%Julier%NULL%1,     Etienne%Larger%NULL%1,     Lucien%Marchand%NULL%3,     Michel%Marre%NULL%1,     Laurent%Meyer%NULL%3,     Frédérique%Olivier%NULL%1,     Gaëtan%Prevost%NULL%3,     Pascale%Quiniou%NULL%1,     Christelle%Raffaitin-Cardin%NULL%1,     Ronan%Roussel%NULL%3,     Pierre-Jean%Saulnier%NULL%3,     Dominique%Seret-Begue%NULL%1,     Charles%Thivolet%NULL%3,     Camille%Vatier%NULL%2,     Rachel%Desailloud%NULL%1,     Matthieu%Wargny%NULL%3,     Pierre%Gourdy%NULL%3,     Bertrand%Cariou%NULL%1,     NULL%NULL%NULL%57]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,     Zhenyuan%Chen%NULL%1,     Li%Liu%NULL%4,     Xiaoxv%Yin%NULL%1,     Heping%Yang%NULL%1,     Xiangping%Tan%NULL%1,     Jing%Wang%NULL%2,     Hui%Li%NULL%0,     Mengge%Tian%NULL%1,     Zuxun%Lu%NULL%1,     Nian%Xiong%NULL%3,     Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,     Ye-Mao%Liu%NULL%2,     Haomiao%Li%NULL%1,     Xin%Zhang%NULL%1,     Fang%Lei%NULL%2,     Juan-Juan%Qin%NULL%2,     Ze%Chen%NULL%1,     Ke-Qiong%Deng%NULL%1,     Lijin%Lin%NULL%2,     Ming-Ming%Chen%NULL%2,     Xiaohui%Song%NULL%1,     Meng%Xia%NULL%2,     Xuewei%Huang%NULL%2,     Weifang%Liu%NULL%1,     Jingjing%Cai%NULL%2,     Xiao-Jing%Zhang%NULL%2,     Feng%Zhou%NULL%1,     Peng%Zhang%NULL%1,     Yibin%Wang%NULL%2,     Xinliang%Ma%NULL%1,     Qingbo%Xu%NULL%2,     Juan%Yang%NULL%3,     Ping%Ye%NULL%2,     Weiming%Mao%NULL%2,     Xiaodong%Huang%NULL%2,     Jiahong%Xia%NULL%2,     Bing-Hong%Zhang%NULL%2,     Jiao%Guo%NULL%1,     Lihua%Zhu%NULL%2,     Zhibing%Lu%NULL%4,     Yufeng%Yuan%NULL%2,     Xiang%Wei%NULL%1,     Zhi-Gang%She%NULL%2,     Yan-Xiao%Ji%NULL%2,     Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,     Xi%Bai%NULL%1,     Xia%Han%NULL%1,     Wangyan%Jiang%NULL%1,     Lin%Qiu%NULL%2,     Shi%Chen%NULL%1,     Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,     Yanhong%Wei%NULL%1,     Min%Chen%NULL%1,     Qianqian%Wan%NULL%1,     Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,     Matteo%Monami%NULL%1,     Achille%Cernigliaro%NULL%1,     Enrica%Vigneri%NULL%1,     Valentina%Guarnotta%NULL%1,     Salvatore%Scondotto%NULL%1,     Vincenza A.%Allotta%NULL%1,     Michela%Conti%NULL%1,     Carla%Giordano%NULL%1,     Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,     Wen%Kong%NULL%1,     Pengfei%Xia%NULL%1,     Ying%Xu%NULL%1,     Li%Li%NULL%0,     Qin%Li%NULL%1,     Li%Yang%NULL%1,     Qi%Wei%NULL%3,     Hanyu%Wang%NULL%1,     Huiqing%Li%NULL%1,     Juan%Zheng%NULL%1,     Hui%Sun%NULL%1,     Wenfang%Xia%NULL%1,     Geng%Liu%NULL%1,     Xueyu%Zhong%NULL%1,     Kangli%Qiu%NULL%1,     Yan%Li%NULL%1,     Han%Wang%NULL%1,     Yuxiu%Wang%NULL%1,     Xiaoli%Song%NULL%1,     Hua%Liu%NULL%1,     Si%Xiong%NULL%1,     Yumei%Liu%NULL%1,     Zhenhai%Cui%NULL%1,     Yu%Hu%NULL%14,     Lulu%Chen%NULL%1,     An%Pan%NULL%1,     Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,     Qi%Wei%NULL%0,     Willis X%Li%NULL%1,     Karen C%McCowen%NULL%1,     Wei%Xiong%NULL%2,     Jiao%Liu%NULL%2,     Wenlijun%Jiang%NULL%2,     Traci%Marin%NULL%1,     Robert L%Thomas%NULL%1,     Ming%He%NULL%2,     Brendan%Gongol%NULL%1,     Mark%Hepokoski%NULL%2,     Jason X-J%Yuan%NULL%1,     John Y-J%Shyy%NULL%1,     Nian%Xiong%NULL%0,     Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,     Siyi%Xin%NULL%1,     Yaqi%Chen%NULL%1,     Leyu%Li%NULL%1,     Wanjun%Chen%NULL%1,     Wenjia%Li%NULL%1,     Baoan%Zhou%NULL%1,     Chenxia%Li%NULL%1,     Yu%Gong%NULL%1,     Fei%Li%NULL%1,     Peng%Duan%NULL%1,     Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,     John%Buse%NULL%2,     John%Buse%NULL%0,     Leonardo%Tamaritz%NULL%1,     Ana%Palacio%NULL%2,     Ken%Cohen%NULL%1,     Deneen%Vojta%NULL%2,     David%Liebovitz%NULL%1,     Nia%Mitchell%NULL%1,     Jacinda%Nicklas%NULL%1,     Ildiko%Lingvay%NULL%1,     Jeanne M.%Clark%NULL%1,     Louis J.%Aronne%NULL%1,     Erik%Anderson%NULL%1,     Michael%Usher%NULL%1,     Ryan%Demmer%NULL%1,     Genevieve B.%Melton%NULL%1,     Nicholas%Ingraham%NULL%1,     Christopher J.%Tignanelli%NULL%2,     Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,     In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,     Ana%Palacio%NULL%0,     Elissa%Dawkins%NULL%1,     Gordon%Chen%NULL%1,     Daniel%McCarter%NULL%1,     Emancia%Forbes%NULL%1,     Brian%Chung%NULL%1,     Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,     Qi%Wei%NULL%0,     Karen C.%McCowen%NULL%1,     Wei%Xiong%NULL%0,     Jiao%Liu%NULL%0,     Wenlijun%Jiang%NULL%0,     Robert L.%Thomas%NULL%1,     Mark%Hepokoski%NULL%0,     Ming%He%NULL%0,     John Y. J.%Shyy%NULL%1,     Atul%Malhotra%NULL%0,     Nian%Xiong%nianxiong@hust.edu.cn%0,     Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,     T. A. N.%Reed%NULL%2,     T. A. N.%Reed%NULL%0,     M.%Ardissino%NULL%1,     P.%Bassett%NULL%1,     A. M.%Whittington%NULL%1,     D. L.%Cohen%NULL%1,     N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,     Walter%Distaso%NULL%2,     Walter%Distaso%NULL%0,     Anjali%Amin%NULL%1,     Wei%Yang%NULL%2,     Oluwagbemiga%Idowu%NULL%1,     Julia S%Kenkre%NULL%1,     Ronak J%Shah%NULL%1,     Evelina%Woin%NULL%1,     Christine%Shi%NULL%1,     Nael%Alavi%NULL%2,     Nael%Alavi%NULL%0,     Hala%Bedri%NULL%1,     Niamh%Brady%NULL%1,     Sophie%Blackburn%NULL%1,     Martina%Leczycka%NULL%1,     Sanya%Patel%NULL%1,     Elizaveta%Sokol%NULL%1,     Edward%Toke-Bjolgerud%NULL%1,     Ambreen%Qayum%NULL%1,     Mariana%Abdel-Malek%NULL%1,     David C D%Hope%NULL%1,     Nick S%Oliver%NULL%1,     Vasiliki%Bravis%NULL%1,     Shivani%Misra%NULL%1,     Tricia M%Tan%NULL%1,     Neil E%Hill%NULL%2,     Neil E%Hill%NULL%0,     Victoria%Salem%NULL%2,     Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,     Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,     Tiffany%Grimes%NULL%1,     Peng%Li%NULL%1,     Matthew%Might%NULL%1,     Fernando%Ovalle%NULL%1,     Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,     Nicholas E%Ingraham%NULL%1,     Thomas A%Murray%NULL%1,     Schelomo%Marmor%NULL%1,     Shane%Hovertsen%NULL%1,     Jessica%Gronski%NULL%1,     Chace%McNeil%NULL%1,     Ruoying%Feng%NULL%1,     Gabriel%Guzman%NULL%1,     Nermine%Abdelwahab%NULL%1,     Samantha%King%NULL%1,     Leonardo%Tamariz%NULL%0,     Thomas%Meehan%NULL%1,     Kathryn M%Pendleton%NULL%1,     Bradley%Benson%NULL%1,     Deneen%Vojta%NULL%0,     Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,     Matthieu%Wargny%NULL%0,     Matthieu%Wargny%NULL%0,     Matthieu%Pichelin%NULL%0,     Matthieu%Pichelin%NULL%0,     Abdallah%Al-Salameh%NULL%0,     Abdallah%Al-Salameh%NULL%0,     Ingrid%Allix%NULL%0,     Ingrid%Allix%NULL%0,     Coralie%Amadou%NULL%0,     Gwénaëlle%Arnault%NULL%2,     Gwénaëlle%Arnault%NULL%0,     Florence%Baudoux%NULL%1,     Bernard%Bauduceau%NULL%1,     Sophie%Borot%NULL%1,     Muriel%Bourgeon-Ghittori%NULL%2,     Muriel%Bourgeon-Ghittori%NULL%0,     Olivier%Bourron%NULL%0,     David%Boutoille%NULL%2,     David%Boutoille%NULL%0,     France%Cazenave-Roblot%NULL%2,     France%Cazenave-Roblot%NULL%0,     Claude%Chaumeil%NULL%2,     Claude%Chaumeil%NULL%0,     Emmanuel%Cosson%NULL%1,     Sandrine%Coudol%NULL%2,     Sandrine%Coudol%NULL%0,     Patrice%Darmon%NULL%1,     Emmanuel%Disse%NULL%2,     Emmanuel%Disse%NULL%0,     Amélie%Ducet-Boiffard%NULL%2,     Amélie%Ducet-Boiffard%NULL%0,     Bénédicte%Gaborit%NULL%1,     Michael%Joubert%NULL%0,     Michael%Joubert%NULL%0,     Véronique%Kerlan%NULL%2,     Véronique%Kerlan%NULL%0,     Bruno%Laviolle%NULL%1,     Lucien%Marchand%NULL%0,     Lucien%Marchand%NULL%0,     Laurent%Meyer%NULL%0,     Laurent%Meyer%NULL%0,     Louis%Potier%NULL%2,     Louis%Potier%NULL%0,     Gaëtan%Prevost%NULL%0,     Gaëtan%Prevost%NULL%0,     Jean-Pierre%Riveline%NULL%1,     René%Robert%NULL%2,     René%Robert%NULL%0,     Pierre-Jean%Saulnier%NULL%0,     Pierre-Jean%Saulnier%NULL%0,     Ariane%Sultan%NULL%2,     Ariane%Sultan%NULL%0,     Jean-François%Thébaut%NULL%2,     Jean-François%Thébaut%NULL%0,     Charles%Thivolet%NULL%0,     Charles%Thivolet%NULL%0,     Blandine%Tramunt%NULL%2,     Blandine%Tramunt%NULL%0,     Camille%Vatier%NULL%0,     Ronan%Roussel%NULL%0,     Ronan%Roussel%NULL%0,     Jean-François%Gautier%NULL%0,     Jean-François%Gautier%NULL%0,     Pierre%Gourdy%NULL%0,     Pierre%Gourdy%NULL%0,     NULL%NULL%NULL%0,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,     Peter%Knighton%NULL%1,     Francesco%Zaccardi%NULL%2,     Chirag%Bakhai%NULL%1,     Emma%Barron%NULL%1,     Naomi%Holman%NULL%1,     Partha%Kar%NULL%1,     Claire%Meace%NULL%1,     Naveed%Sattar%NULL%2,     Stephen%Sharp%NULL%1,     Nicholas J%Wareham%NULL%1,     Andy%Weaver%NULL%1,     Emilia%Woch%NULL%1,     Bob%Young%NULL%1,     Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,     José David%Torres-Peña%NULL%1,     María D.%López-Carmona%NULL%1,     M. Mar.%Ayala-Gutiérrez%NULL%1,     Francisco%Fuentes-Jiménez%NULL%1,     Lucía Jorge%Huerta%NULL%1,     Jaime Alonso%Muñoz%NULL%1,     Manuel%Rubio-Rivas%NULL%1,     Manel%Madrazo%NULL%1,     Marcos Guzmán%Garcia%NULL%1,     Beatriz Vicente%Montes%NULL%1,     Joaquim Fernández%Sola%NULL%1,     Javier%Ena%NULL%1,     Ruth Gonzalez%Ferrer%NULL%1,     Carmen Mella%Pérez%NULL%1,     Carlos Jorge%Ripper%NULL%1,     Jose Javier Napal%Lecumberri%NULL%1,     Iris El Attar%Acedo%NULL%1,     Susana Plaza%Canteli%NULL%1,     Sara Fuente%Cosío%NULL%1,     Francisco Amorós%Martínez%NULL%1,     Begoña Cortés%Rodríguez%NULL%1,     Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,     José Manuel%Ramos-Rincón%NULL%1,     Ricardo%Gómez-Huelgas%NULL%1,     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,     Sang Won%Kim%NULL%1,     Jong Won%Park%NULL%1,     Kyu Hyang%Cho%NULL%1,     Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,     Philip%Tsoukas%NULL%1,     Christopher W.%Halladay%NULL%1,     Emily%O'Neill%NULL%1,     Stefan%Gravenstein%NULL%1,     James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,     Tao%Liu%NULL%7,     Weijun%Zhong%NULL%1,     Rong%Liu%NULL%1,     Honghao%Zhou%NULL%1,     Weihua%Huang%endeavor34852@aliyun.com%1,     Wei%Zhang%csuzhangwei@csu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,     Jae-Han%Jeon%NULL%2,     Jae-Han%Jeon%NULL%0,     Sung-Woo%Kim%NULL%2,     Sung-Woo%Kim%NULL%0,     Jun Sung%Moon%NULL%1,     Nan Hee%Cho%NULL%1,     Eugene%Han%NULL%1,     Ji Hong%You%NULL%1,     Ji Yeon%Lee%NULL%2,     Miri%Hyun%NULL%1,     Jae Seok%Park%NULL%2,     Yong Shik%Kwon%NULL%2,     Yeon-Kyung%Choi%NULL%1,     Ki Tae%Kwon%NULL%1,     Shin Yup%Lee%NULL%1,     Eon Ju%Jeon%NULL%1,     Jin-Woo%Kim%NULL%1,     Hyo-Lim%Hong%NULL%1,     Hyun Hee%Kwon%NULL%1,     Chi Young%Jung%NULL%1,     Yin Young%Lee%NULL%1,     Eunyeoung%Ha%NULL%1,     Seung Min%Chung%NULL%1,     Jian%Hur%NULL%1,     June Hong%Ahn%NULL%5,     Na-young%Kim%NULL%1,     Shin-Woo%Kim%NULL%1,     Hyun Ha%Chang%NULL%1,     Yong Hoon%Lee%NULL%1,     Jaehee%Lee%NULL%1,     Keun-Gyu%Park%NULL%1,     Hyun Ah%Kim%NULL%1,     Ji-Hyun%Lee%NULL%2,     Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,     Lin%Qiu%NULL%0,     Yi%Liu%NULL%2,     Xiu-lan%Liu%NULL%1,     Jian-ling%Zheng%NULL%1,     Hui-ying%Xue%NULL%1,     Wen-hua%Liu%NULL%1,     Dong%Liu%NULL%3,     Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,      N.% Smati%null%1,      C. S. J.% Wong%null%1,      K.% Aspey%null%1,      M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,      A.% Anisimovich%null%1,      J.% Baxter%null%1,      L.% Mackillop%null%1,      M. P.% Vizcaychipi%null%1,      A.% McCarthy%null%1,      R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,      D.% Bates%null%1,      J. M.% Fiskio%null%1,      E. C.% Roche%null%1,      S.% Mora%null%1,      O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,      Jennifer M%Cooper%NULL%2,      Jennifer M%Cooper%NULL%0,      Krishna%Gokhale%NULL%1,      Dionisio%Acosta-Mena%NULL%1,      Samir%Dhalla%NULL%1,      Nathan%Byne%NULL%1,      Joht Singh%Chandan%NULL%1,      Astha%Anand%NULL%2,      Astha%Anand%NULL%0,      Kelvin%Okoth%NULL%1,      Anuradhaa%Subramanian%NULL%2,      Anuradhaa%Subramanian%NULL%0,      Mansoor N%Bangash%NULL%1,      Thomas%Jackson%NULL%2,      Thomas%Jackson%NULL%0,      Dawit%Zemedikun%NULL%2,      Dawit%Zemedikun%NULL%0,      Tom%Taverner%NULL%2,      Tom%Taverner%NULL%0,      Wasim%Hanif%NULL%1,      Sandip%Ghosh%NULL%1,      Parth%Narendran%NULL%1,      Konstantinos A%Toulis%NULL%1,      Abd A%Tahrani%NULL%2,      Abd A%Tahrani%NULL%0,      Rajendra%Surenthirakumaran%NULL%2,      Rajendra%Surenthirakumaran%NULL%0,      Nicola J%Adderley%NULL%1,      Shamil%Haroon%NULL%2,      Shamil%Haroon%NULL%0,      Kamlesh%Khunti%NULL%4,      Kamlesh%Khunti%NULL%0,      Christopher%Sainsbury%NULL%2,      Christopher%Sainsbury%NULL%0,      G Neil%Thomas%NULL%1,      Krishnarajah%Nirantharakumar%NULL%2,      Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,      Thomas%Servais%NULL%1,      Leïla%Belkhir%NULL%1,      Pierre-François%Laterre%NULL%1,      Jean-Paul%Thissen%NULL%1,      Bernard%Vandeleene%NULL%1,      Dominique%Maiter%NULL%1,      Jean C.%Yombi%NULL%1,      Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,      Abdallah%Al-Salameh%NULL%3,      Samy%Hadjadj%NULL%3,      Thomas%Goronflot%NULL%1,      Nicolas%Wiernsperger%NULL%1,      Matthieu%Pichelin%NULL%3,      Ingrid%Allix%NULL%3,      Coralie%Amadou%NULL%2,      Olivier%Bourron%NULL%2,      Thierry%Duriez%NULL%1,      Jean-François%Gautier%NULL%3,      Anne%Dutour%NULL%1,      Céline%Gonfroy%NULL%1,      Didier%Gouet%NULL%1,      Michael%Joubert%NULL%3,      Ingrid%Julier%NULL%1,      Etienne%Larger%NULL%1,      Lucien%Marchand%NULL%3,      Michel%Marre%NULL%1,      Laurent%Meyer%NULL%3,      Frédérique%Olivier%NULL%1,      Gaëtan%Prevost%NULL%3,      Pascale%Quiniou%NULL%1,      Christelle%Raffaitin-Cardin%NULL%1,      Ronan%Roussel%NULL%3,      Pierre-Jean%Saulnier%NULL%3,      Dominique%Seret-Begue%NULL%1,      Charles%Thivolet%NULL%3,      Camille%Vatier%NULL%2,      Rachel%Desailloud%NULL%1,      Matthieu%Wargny%NULL%3,      Pierre%Gourdy%NULL%3,      Bertrand%Cariou%NULL%1,      NULL%NULL%NULL%53]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,      Zhenyuan%Chen%NULL%1,      Li%Liu%NULL%4,      Xiaoxv%Yin%NULL%1,      Heping%Yang%NULL%1,      Xiangping%Tan%NULL%1,      Jing%Wang%NULL%2,      Hui%Li%NULL%0,      Mengge%Tian%NULL%1,      Zuxun%Lu%NULL%1,      Nian%Xiong%NULL%3,      Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,      Ye-Mao%Liu%NULL%2,      Haomiao%Li%NULL%1,      Xin%Zhang%NULL%1,      Fang%Lei%NULL%2,      Juan-Juan%Qin%NULL%2,      Ze%Chen%NULL%1,      Ke-Qiong%Deng%NULL%1,      Lijin%Lin%NULL%2,      Ming-Ming%Chen%NULL%2,      Xiaohui%Song%NULL%1,      Meng%Xia%NULL%2,      Xuewei%Huang%NULL%2,      Weifang%Liu%NULL%1,      Jingjing%Cai%NULL%2,      Xiao-Jing%Zhang%NULL%2,      Feng%Zhou%NULL%1,      Peng%Zhang%NULL%1,      Yibin%Wang%NULL%2,      Xinliang%Ma%NULL%1,      Qingbo%Xu%NULL%2,      Juan%Yang%NULL%3,      Ping%Ye%NULL%2,      Weiming%Mao%NULL%2,      Xiaodong%Huang%NULL%2,      Jiahong%Xia%NULL%2,      Bing-Hong%Zhang%NULL%2,      Jiao%Guo%NULL%1,      Lihua%Zhu%NULL%2,      Zhibing%Lu%NULL%4,      Yufeng%Yuan%NULL%2,      Xiang%Wei%NULL%1,      Zhi-Gang%She%NULL%2,      Yan-Xiao%Ji%NULL%2,      Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,      Xi%Bai%NULL%1,      Xia%Han%NULL%1,      Wangyan%Jiang%NULL%1,      Lin%Qiu%NULL%2,      Shi%Chen%NULL%1,      Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,      Yanhong%Wei%NULL%1,      Min%Chen%NULL%1,      Qianqian%Wan%NULL%1,      Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,      Matteo%Monami%NULL%1,      Achille%Cernigliaro%NULL%1,      Enrica%Vigneri%NULL%1,      Valentina%Guarnotta%NULL%1,      Salvatore%Scondotto%NULL%1,      Vincenza A.%Allotta%NULL%1,      Michela%Conti%NULL%1,      Carla%Giordano%NULL%1,      Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,      Wen%Kong%NULL%1,      Pengfei%Xia%NULL%1,      Ying%Xu%NULL%1,      Li%Li%NULL%0,      Qin%Li%NULL%1,      Li%Yang%NULL%1,      Qi%Wei%NULL%3,      Hanyu%Wang%NULL%1,      Huiqing%Li%NULL%1,      Juan%Zheng%NULL%1,      Hui%Sun%NULL%1,      Wenfang%Xia%NULL%1,      Geng%Liu%NULL%1,      Xueyu%Zhong%NULL%1,      Kangli%Qiu%NULL%1,      Yan%Li%NULL%1,      Han%Wang%NULL%1,      Yuxiu%Wang%NULL%1,      Xiaoli%Song%NULL%1,      Hua%Liu%NULL%1,      Si%Xiong%NULL%1,      Yumei%Liu%NULL%1,      Zhenhai%Cui%NULL%1,      Yu%Hu%NULL%14,      Lulu%Chen%NULL%1,      An%Pan%NULL%1,      Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,      Qi%Wei%NULL%0,      Willis X%Li%NULL%1,      Karen C%McCowen%NULL%1,      Wei%Xiong%NULL%2,      Jiao%Liu%NULL%2,      Wenlijun%Jiang%NULL%2,      Traci%Marin%NULL%1,      Robert L%Thomas%NULL%1,      Ming%He%NULL%2,      Brendan%Gongol%NULL%1,      Mark%Hepokoski%NULL%2,      Jason X-J%Yuan%NULL%1,      John Y-J%Shyy%NULL%1,      Nian%Xiong%NULL%0,      Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,      Siyi%Xin%NULL%1,      Yaqi%Chen%NULL%1,      Leyu%Li%NULL%1,      Wanjun%Chen%NULL%1,      Wenjia%Li%NULL%1,      Baoan%Zhou%NULL%1,      Chenxia%Li%NULL%1,      Yu%Gong%NULL%1,      Fei%Li%NULL%1,      Peng%Duan%NULL%1,      Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,      John%Buse%NULL%2,      John%Buse%NULL%0,      Leonardo%Tamaritz%NULL%1,      Ana%Palacio%NULL%2,      Ken%Cohen%NULL%1,      Deneen%Vojta%NULL%2,      David%Liebovitz%NULL%1,      Nia%Mitchell%NULL%1,      Jacinda%Nicklas%NULL%1,      Ildiko%Lingvay%NULL%1,      Jeanne M.%Clark%NULL%1,      Louis J.%Aronne%NULL%1,      Erik%Anderson%NULL%1,      Michael%Usher%NULL%1,      Ryan%Demmer%NULL%1,      Genevieve B.%Melton%NULL%1,      Nicholas%Ingraham%NULL%1,      Christopher J.%Tignanelli%NULL%2,      Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,      In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,      Ana%Palacio%NULL%0,      Elissa%Dawkins%NULL%1,      Gordon%Chen%NULL%1,      Daniel%McCarter%NULL%1,      Emancia%Forbes%NULL%1,      Brian%Chung%NULL%1,      Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,      Qi%Wei%NULL%0,      Karen C.%McCowen%NULL%1,      Wei%Xiong%NULL%0,      Jiao%Liu%NULL%0,      Wenlijun%Jiang%NULL%0,      Robert L.%Thomas%NULL%1,      Mark%Hepokoski%NULL%0,      Ming%He%NULL%0,      John Y. J.%Shyy%NULL%1,      Atul%Malhotra%NULL%0,      Nian%Xiong%nianxiong@hust.edu.cn%0,      Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,      T. A. N.%Reed%NULL%2,      T. A. N.%Reed%NULL%0,      M.%Ardissino%NULL%1,      P.%Bassett%NULL%1,      A. M.%Whittington%NULL%1,      D. L.%Cohen%NULL%1,      N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,      Walter%Distaso%NULL%2,      Walter%Distaso%NULL%0,      Anjali%Amin%NULL%1,      Wei%Yang%NULL%2,      Oluwagbemiga%Idowu%NULL%1,      Julia S%Kenkre%NULL%1,      Ronak J%Shah%NULL%1,      Evelina%Woin%NULL%1,      Christine%Shi%NULL%1,      Nael%Alavi%NULL%2,      Nael%Alavi%NULL%0,      Hala%Bedri%NULL%1,      Niamh%Brady%NULL%1,      Sophie%Blackburn%NULL%1,      Martina%Leczycka%NULL%1,      Sanya%Patel%NULL%1,      Elizaveta%Sokol%NULL%1,      Edward%Toke-Bjolgerud%NULL%1,      Ambreen%Qayum%NULL%1,      Mariana%Abdel-Malek%NULL%1,      David C D%Hope%NULL%1,      Nick S%Oliver%NULL%1,      Vasiliki%Bravis%NULL%1,      Shivani%Misra%NULL%1,      Tricia M%Tan%NULL%1,      Neil E%Hill%NULL%2,      Neil E%Hill%NULL%0,      Victoria%Salem%NULL%2,      Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,      Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,      Tiffany%Grimes%NULL%1,      Peng%Li%NULL%1,      Matthew%Might%NULL%1,      Fernando%Ovalle%NULL%1,      Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,      Nicholas E%Ingraham%NULL%1,      Thomas A%Murray%NULL%1,      Schelomo%Marmor%NULL%1,      Shane%Hovertsen%NULL%1,      Jessica%Gronski%NULL%1,      Chace%McNeil%NULL%1,      Ruoying%Feng%NULL%1,      Gabriel%Guzman%NULL%1,      Nermine%Abdelwahab%NULL%1,      Samantha%King%NULL%1,      Leonardo%Tamariz%NULL%0,      Thomas%Meehan%NULL%1,      Kathryn M%Pendleton%NULL%1,      Bradley%Benson%NULL%1,      Deneen%Vojta%NULL%0,      Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,      Matthieu%Wargny%NULL%0,      Matthieu%Wargny%NULL%0,      Matthieu%Pichelin%NULL%0,      Matthieu%Pichelin%NULL%0,      Abdallah%Al-Salameh%NULL%0,      Abdallah%Al-Salameh%NULL%0,      Ingrid%Allix%NULL%0,      Ingrid%Allix%NULL%0,      Coralie%Amadou%NULL%0,      Gwénaëlle%Arnault%NULL%2,      Gwénaëlle%Arnault%NULL%0,      Florence%Baudoux%NULL%1,      Bernard%Bauduceau%NULL%1,      Sophie%Borot%NULL%1,      Muriel%Bourgeon-Ghittori%NULL%2,      Muriel%Bourgeon-Ghittori%NULL%0,      Olivier%Bourron%NULL%0,      David%Boutoille%NULL%2,      David%Boutoille%NULL%0,      France%Cazenave-Roblot%NULL%2,      France%Cazenave-Roblot%NULL%0,      Claude%Chaumeil%NULL%2,      Claude%Chaumeil%NULL%0,      Emmanuel%Cosson%NULL%1,      Sandrine%Coudol%NULL%2,      Sandrine%Coudol%NULL%0,      Patrice%Darmon%NULL%1,      Emmanuel%Disse%NULL%2,      Emmanuel%Disse%NULL%0,      Amélie%Ducet-Boiffard%NULL%2,      Amélie%Ducet-Boiffard%NULL%0,      Bénédicte%Gaborit%NULL%1,      Michael%Joubert%NULL%0,      Michael%Joubert%NULL%0,      Véronique%Kerlan%NULL%2,      Véronique%Kerlan%NULL%0,      Bruno%Laviolle%NULL%1,      Lucien%Marchand%NULL%0,      Lucien%Marchand%NULL%0,      Laurent%Meyer%NULL%0,      Laurent%Meyer%NULL%0,      Louis%Potier%NULL%2,      Louis%Potier%NULL%0,      Gaëtan%Prevost%NULL%0,      Gaëtan%Prevost%NULL%0,      Jean-Pierre%Riveline%NULL%1,      René%Robert%NULL%2,      René%Robert%NULL%0,      Pierre-Jean%Saulnier%NULL%0,      Pierre-Jean%Saulnier%NULL%0,      Ariane%Sultan%NULL%2,      Ariane%Sultan%NULL%0,      Jean-François%Thébaut%NULL%2,      Jean-François%Thébaut%NULL%0,      Charles%Thivolet%NULL%0,      Charles%Thivolet%NULL%0,      Blandine%Tramunt%NULL%2,      Blandine%Tramunt%NULL%0,      Camille%Vatier%NULL%0,      Ronan%Roussel%NULL%0,      Ronan%Roussel%NULL%0,      Jean-François%Gautier%NULL%0,      Jean-François%Gautier%NULL%0,      Pierre%Gourdy%NULL%0,      Pierre%Gourdy%NULL%0,      NULL%NULL%NULL%0,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,      Peter%Knighton%NULL%1,      Francesco%Zaccardi%NULL%2,      Chirag%Bakhai%NULL%1,      Emma%Barron%NULL%1,      Naomi%Holman%NULL%1,      Partha%Kar%NULL%1,      Claire%Meace%NULL%1,      Naveed%Sattar%NULL%2,      Stephen%Sharp%NULL%1,      Nicholas J%Wareham%NULL%1,      Andy%Weaver%NULL%1,      Emilia%Woch%NULL%1,      Bob%Young%NULL%1,      Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,      José David%Torres-Peña%NULL%1,      María D.%López-Carmona%NULL%1,      M. Mar.%Ayala-Gutiérrez%NULL%1,      Francisco%Fuentes-Jiménez%NULL%1,      Lucía Jorge%Huerta%NULL%1,      Jaime Alonso%Muñoz%NULL%1,      Manuel%Rubio-Rivas%NULL%1,      Manel%Madrazo%NULL%1,      Marcos Guzmán%Garcia%NULL%1,      Beatriz Vicente%Montes%NULL%1,      Joaquim Fernández%Sola%NULL%1,      Javier%Ena%NULL%1,      Ruth Gonzalez%Ferrer%NULL%1,      Carmen Mella%Pérez%NULL%1,      Carlos Jorge%Ripper%NULL%1,      Jose Javier Napal%Lecumberri%NULL%1,      Iris El Attar%Acedo%NULL%1,      Susana Plaza%Canteli%NULL%1,      Sara Fuente%Cosío%NULL%1,      Francisco Amorós%Martínez%NULL%1,      Begoña Cortés%Rodríguez%NULL%1,      Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,      José Manuel%Ramos-Rincón%NULL%1,      Ricardo%Gómez-Huelgas%NULL%1,      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,      Sang Won%Kim%NULL%1,      Jong Won%Park%NULL%1,      Kyu Hyang%Cho%NULL%1,      Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,      Philip%Tsoukas%NULL%1,      Christopher W.%Halladay%NULL%1,      Emily%O'Neill%NULL%1,      Stefan%Gravenstein%NULL%1,      James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,      Tao%Liu%NULL%6,      Weijun%Zhong%NULL%1,      Rong%Liu%NULL%1,      Honghao%Zhou%NULL%1,      Weihua%Huang%endeavor34852@aliyun.com%1,      Wei%Zhang%csuzhangwei@csu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,      Jae-Han%Jeon%NULL%2,      Jae-Han%Jeon%NULL%0,      Sung-Woo%Kim%NULL%2,      Sung-Woo%Kim%NULL%0,      Jun Sung%Moon%NULL%1,      Nan Hee%Cho%NULL%1,      Eugene%Han%NULL%1,      Ji Hong%You%NULL%1,      Ji Yeon%Lee%NULL%2,      Miri%Hyun%NULL%1,      Jae Seok%Park%NULL%2,      Yong Shik%Kwon%NULL%2,      Yeon-Kyung%Choi%NULL%1,      Ki Tae%Kwon%NULL%1,      Shin Yup%Lee%NULL%1,      Eon Ju%Jeon%NULL%1,      Jin-Woo%Kim%NULL%1,      Hyo-Lim%Hong%NULL%1,      Hyun Hee%Kwon%NULL%1,      Chi Young%Jung%NULL%1,      Yin Young%Lee%NULL%1,      Eunyeoung%Ha%NULL%1,      Seung Min%Chung%NULL%1,      Jian%Hur%NULL%1,      June Hong%Ahn%NULL%5,      Na-young%Kim%NULL%1,      Shin-Woo%Kim%NULL%1,      Hyun Ha%Chang%NULL%1,      Yong Hoon%Lee%NULL%1,      Jaehee%Lee%NULL%1,      Keun-Gyu%Park%NULL%1,      Hyun Ah%Kim%NULL%1,      Ji-Hyun%Lee%NULL%2,      Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,      Lin%Qiu%NULL%0,      Yi%Liu%NULL%2,      Xiu-lan%Liu%NULL%1,      Jian-ling%Zheng%NULL%1,      Hui-ying%Xue%NULL%1,      Wen-hua%Liu%NULL%1,      Dong%Liu%NULL%3,      Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,       N.% Smati%null%1,       C. S. J.% Wong%null%1,       K.% Aspey%null%1,       M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,       A.% Anisimovich%null%1,       J.% Baxter%null%1,       L.% Mackillop%null%1,       M. P.% Vizcaychipi%null%1,       A.% McCarthy%null%1,       R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,       D.% Bates%null%1,       J. M.% Fiskio%null%1,       E. C.% Roche%null%1,       S.% Mora%null%1,       O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,       Jennifer M%Cooper%NULL%2,       Jennifer M%Cooper%NULL%0,       Krishna%Gokhale%NULL%1,       Dionisio%Acosta-Mena%NULL%1,       Samir%Dhalla%NULL%1,       Nathan%Byne%NULL%1,       Joht Singh%Chandan%NULL%1,       Astha%Anand%NULL%2,       Astha%Anand%NULL%0,       Kelvin%Okoth%NULL%1,       Anuradhaa%Subramanian%NULL%2,       Anuradhaa%Subramanian%NULL%0,       Mansoor N%Bangash%NULL%1,       Thomas%Jackson%NULL%2,       Thomas%Jackson%NULL%0,       Dawit%Zemedikun%NULL%2,       Dawit%Zemedikun%NULL%0,       Tom%Taverner%NULL%2,       Tom%Taverner%NULL%0,       Wasim%Hanif%NULL%1,       Sandip%Ghosh%NULL%1,       Parth%Narendran%NULL%1,       Konstantinos A%Toulis%NULL%1,       Abd A%Tahrani%NULL%2,       Abd A%Tahrani%NULL%0,       Rajendra%Surenthirakumaran%NULL%2,       Rajendra%Surenthirakumaran%NULL%0,       Nicola J%Adderley%NULL%1,       Shamil%Haroon%NULL%2,       Shamil%Haroon%NULL%0,       Kamlesh%Khunti%NULL%4,       Kamlesh%Khunti%NULL%0,       Christopher%Sainsbury%NULL%2,       Christopher%Sainsbury%NULL%0,       G Neil%Thomas%NULL%1,       Krishnarajah%Nirantharakumar%NULL%2,       Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,       Thomas%Servais%NULL%1,       Leïla%Belkhir%NULL%1,       Pierre-François%Laterre%NULL%1,       Jean-Paul%Thissen%NULL%1,       Bernard%Vandeleene%NULL%1,       Dominique%Maiter%NULL%1,       Jean C.%Yombi%NULL%1,       Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,       Abdallah%Al-Salameh%NULL%3,       Samy%Hadjadj%NULL%3,       Thomas%Goronflot%NULL%1,       Nicolas%Wiernsperger%NULL%1,       Matthieu%Pichelin%NULL%3,       Ingrid%Allix%NULL%3,       Coralie%Amadou%NULL%2,       Olivier%Bourron%NULL%2,       Thierry%Duriez%NULL%1,       Jean-François%Gautier%NULL%3,       Anne%Dutour%NULL%1,       Céline%Gonfroy%NULL%1,       Didier%Gouet%NULL%1,       Michael%Joubert%NULL%3,       Ingrid%Julier%NULL%1,       Etienne%Larger%NULL%1,       Lucien%Marchand%NULL%3,       Michel%Marre%NULL%1,       Laurent%Meyer%NULL%3,       Frédérique%Olivier%NULL%1,       Gaëtan%Prevost%NULL%3,       Pascale%Quiniou%NULL%1,       Christelle%Raffaitin-Cardin%NULL%1,       Ronan%Roussel%NULL%3,       Pierre-Jean%Saulnier%NULL%3,       Dominique%Seret-Begue%NULL%1,       Charles%Thivolet%NULL%3,       Camille%Vatier%NULL%2,       Rachel%Desailloud%NULL%1,       Matthieu%Wargny%NULL%3,       Pierre%Gourdy%NULL%3,       Bertrand%Cariou%NULL%1,       NULL%NULL%NULL%53]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,       Zhenyuan%Chen%NULL%1,       Li%Liu%NULL%4,       Xiaoxv%Yin%NULL%1,       Heping%Yang%NULL%1,       Xiangping%Tan%NULL%1,       Jing%Wang%NULL%2,       Hui%Li%NULL%0,       Mengge%Tian%NULL%1,       Zuxun%Lu%NULL%1,       Nian%Xiong%NULL%3,       Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,       Ye-Mao%Liu%NULL%2,       Haomiao%Li%NULL%1,       Xin%Zhang%NULL%1,       Fang%Lei%NULL%2,       Juan-Juan%Qin%NULL%2,       Ze%Chen%NULL%1,       Ke-Qiong%Deng%NULL%1,       Lijin%Lin%NULL%2,       Ming-Ming%Chen%NULL%2,       Xiaohui%Song%NULL%1,       Meng%Xia%NULL%2,       Xuewei%Huang%NULL%2,       Weifang%Liu%NULL%1,       Jingjing%Cai%NULL%2,       Xiao-Jing%Zhang%NULL%2,       Feng%Zhou%NULL%1,       Peng%Zhang%NULL%1,       Yibin%Wang%NULL%2,       Xinliang%Ma%NULL%1,       Qingbo%Xu%NULL%2,       Juan%Yang%NULL%3,       Ping%Ye%NULL%2,       Weiming%Mao%NULL%2,       Xiaodong%Huang%NULL%2,       Jiahong%Xia%NULL%2,       Bing-Hong%Zhang%NULL%2,       Jiao%Guo%NULL%1,       Lihua%Zhu%NULL%2,       Zhibing%Lu%NULL%4,       Yufeng%Yuan%NULL%2,       Xiang%Wei%NULL%1,       Zhi-Gang%She%NULL%2,       Yan-Xiao%Ji%NULL%2,       Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,       Xi%Bai%NULL%1,       Xia%Han%NULL%1,       Wangyan%Jiang%NULL%1,       Lin%Qiu%NULL%2,       Shi%Chen%NULL%1,       Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,       Yanhong%Wei%NULL%1,       Min%Chen%NULL%1,       Qianqian%Wan%NULL%1,       Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,       Matteo%Monami%NULL%1,       Achille%Cernigliaro%NULL%1,       Enrica%Vigneri%NULL%1,       Valentina%Guarnotta%NULL%1,       Salvatore%Scondotto%NULL%1,       Vincenza A.%Allotta%NULL%1,       Michela%Conti%NULL%1,       Carla%Giordano%NULL%1,       Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,       Wen%Kong%NULL%1,       Pengfei%Xia%NULL%1,       Ying%Xu%NULL%1,       Li%Li%NULL%0,       Qin%Li%NULL%1,       Li%Yang%NULL%1,       Qi%Wei%NULL%3,       Hanyu%Wang%NULL%1,       Huiqing%Li%NULL%1,       Juan%Zheng%NULL%1,       Hui%Sun%NULL%1,       Wenfang%Xia%NULL%1,       Geng%Liu%NULL%1,       Xueyu%Zhong%NULL%1,       Kangli%Qiu%NULL%1,       Yan%Li%NULL%1,       Han%Wang%NULL%1,       Yuxiu%Wang%NULL%1,       Xiaoli%Song%NULL%1,       Hua%Liu%NULL%1,       Si%Xiong%NULL%1,       Yumei%Liu%NULL%1,       Zhenhai%Cui%NULL%1,       Yu%Hu%NULL%14,       Lulu%Chen%NULL%1,       An%Pan%NULL%1,       Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,       Qi%Wei%NULL%0,       Willis X%Li%NULL%1,       Karen C%McCowen%NULL%1,       Wei%Xiong%NULL%2,       Jiao%Liu%NULL%2,       Wenlijun%Jiang%NULL%2,       Traci%Marin%NULL%1,       Robert L%Thomas%NULL%1,       Ming%He%NULL%2,       Brendan%Gongol%NULL%1,       Mark%Hepokoski%NULL%2,       Jason X-J%Yuan%NULL%1,       John Y-J%Shyy%NULL%1,       Nian%Xiong%NULL%0,       Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,       Siyi%Xin%NULL%1,       Yaqi%Chen%NULL%1,       Leyu%Li%NULL%1,       Wanjun%Chen%NULL%1,       Wenjia%Li%NULL%1,       Baoan%Zhou%NULL%1,       Chenxia%Li%NULL%1,       Yu%Gong%NULL%1,       Fei%Li%NULL%1,       Peng%Duan%NULL%1,       Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,       John%Buse%NULL%2,       John%Buse%NULL%0,       Leonardo%Tamaritz%NULL%1,       Ana%Palacio%NULL%2,       Ken%Cohen%NULL%1,       Deneen%Vojta%NULL%2,       David%Liebovitz%NULL%1,       Nia%Mitchell%NULL%1,       Jacinda%Nicklas%NULL%1,       Ildiko%Lingvay%NULL%1,       Jeanne M.%Clark%NULL%1,       Louis J.%Aronne%NULL%1,       Erik%Anderson%NULL%1,       Michael%Usher%NULL%1,       Ryan%Demmer%NULL%1,       Genevieve B.%Melton%NULL%1,       Nicholas%Ingraham%NULL%1,       Christopher J.%Tignanelli%NULL%2,       Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,       In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,       Ana%Palacio%NULL%0,       Elissa%Dawkins%NULL%1,       Gordon%Chen%NULL%1,       Daniel%McCarter%NULL%1,       Emancia%Forbes%NULL%1,       Brian%Chung%NULL%1,       Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,       Qi%Wei%NULL%0,       Karen C.%McCowen%NULL%1,       Wei%Xiong%NULL%0,       Jiao%Liu%NULL%0,       Wenlijun%Jiang%NULL%0,       Robert L.%Thomas%NULL%1,       Mark%Hepokoski%NULL%0,       Ming%He%NULL%0,       John Y. J.%Shyy%NULL%1,       Atul%Malhotra%NULL%0,       Nian%Xiong%nianxiong@hust.edu.cn%0,       Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,       T. A. N.%Reed%NULL%2,       T. A. N.%Reed%NULL%0,       M.%Ardissino%NULL%1,       P.%Bassett%NULL%1,       A. M.%Whittington%NULL%1,       D. L.%Cohen%NULL%1,       N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,       Walter%Distaso%NULL%2,       Walter%Distaso%NULL%0,       Anjali%Amin%NULL%1,       Wei%Yang%NULL%2,       Oluwagbemiga%Idowu%NULL%1,       Julia S%Kenkre%NULL%1,       Ronak J%Shah%NULL%1,       Evelina%Woin%NULL%1,       Christine%Shi%NULL%1,       Nael%Alavi%NULL%2,       Nael%Alavi%NULL%0,       Hala%Bedri%NULL%1,       Niamh%Brady%NULL%1,       Sophie%Blackburn%NULL%1,       Martina%Leczycka%NULL%1,       Sanya%Patel%NULL%1,       Elizaveta%Sokol%NULL%1,       Edward%Toke-Bjolgerud%NULL%1,       Ambreen%Qayum%NULL%1,       Mariana%Abdel-Malek%NULL%1,       David C D%Hope%NULL%1,       Nick S%Oliver%NULL%1,       Vasiliki%Bravis%NULL%1,       Shivani%Misra%NULL%1,       Tricia M%Tan%NULL%1,       Neil E%Hill%NULL%2,       Neil E%Hill%NULL%0,       Victoria%Salem%NULL%2,       Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,       Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,       Tiffany%Grimes%NULL%1,       Peng%Li%NULL%1,       Matthew%Might%NULL%1,       Fernando%Ovalle%NULL%1,       Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,       Nicholas E%Ingraham%NULL%1,       Thomas A%Murray%NULL%1,       Schelomo%Marmor%NULL%1,       Shane%Hovertsen%NULL%1,       Jessica%Gronski%NULL%1,       Chace%McNeil%NULL%1,       Ruoying%Feng%NULL%1,       Gabriel%Guzman%NULL%1,       Nermine%Abdelwahab%NULL%1,       Samantha%King%NULL%1,       Leonardo%Tamariz%NULL%0,       Thomas%Meehan%NULL%1,       Kathryn M%Pendleton%NULL%1,       Bradley%Benson%NULL%1,       Deneen%Vojta%NULL%0,       Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,       Matthieu%Wargny%NULL%0,       Matthieu%Wargny%NULL%0,       Matthieu%Pichelin%NULL%0,       Matthieu%Pichelin%NULL%0,       Abdallah%Al-Salameh%NULL%0,       Abdallah%Al-Salameh%NULL%0,       Ingrid%Allix%NULL%0,       Ingrid%Allix%NULL%0,       Coralie%Amadou%NULL%0,       Gwénaëlle%Arnault%NULL%2,       Gwénaëlle%Arnault%NULL%0,       Florence%Baudoux%NULL%1,       Bernard%Bauduceau%NULL%1,       Sophie%Borot%NULL%1,       Muriel%Bourgeon-Ghittori%NULL%2,       Muriel%Bourgeon-Ghittori%NULL%0,       Olivier%Bourron%NULL%0,       David%Boutoille%NULL%2,       David%Boutoille%NULL%0,       France%Cazenave-Roblot%NULL%2,       France%Cazenave-Roblot%NULL%0,       Claude%Chaumeil%NULL%2,       Claude%Chaumeil%NULL%0,       Emmanuel%Cosson%NULL%1,       Sandrine%Coudol%NULL%2,       Sandrine%Coudol%NULL%0,       Patrice%Darmon%NULL%1,       Emmanuel%Disse%NULL%2,       Emmanuel%Disse%NULL%0,       Amélie%Ducet-Boiffard%NULL%2,       Amélie%Ducet-Boiffard%NULL%0,       Bénédicte%Gaborit%NULL%1,       Michael%Joubert%NULL%0,       Michael%Joubert%NULL%0,       Véronique%Kerlan%NULL%2,       Véronique%Kerlan%NULL%0,       Bruno%Laviolle%NULL%1,       Lucien%Marchand%NULL%0,       Lucien%Marchand%NULL%0,       Laurent%Meyer%NULL%0,       Laurent%Meyer%NULL%0,       Louis%Potier%NULL%2,       Louis%Potier%NULL%0,       Gaëtan%Prevost%NULL%0,       Gaëtan%Prevost%NULL%0,       Jean-Pierre%Riveline%NULL%1,       René%Robert%NULL%2,       René%Robert%NULL%0,       Pierre-Jean%Saulnier%NULL%0,       Pierre-Jean%Saulnier%NULL%0,       Ariane%Sultan%NULL%2,       Ariane%Sultan%NULL%0,       Jean-François%Thébaut%NULL%2,       Jean-François%Thébaut%NULL%0,       Charles%Thivolet%NULL%0,       Charles%Thivolet%NULL%0,       Blandine%Tramunt%NULL%2,       Blandine%Tramunt%NULL%0,       Camille%Vatier%NULL%0,       Ronan%Roussel%NULL%0,       Ronan%Roussel%NULL%0,       Jean-François%Gautier%NULL%0,       Jean-François%Gautier%NULL%0,       Pierre%Gourdy%NULL%0,       Pierre%Gourdy%NULL%0,       NULL%NULL%NULL%0,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,       Peter%Knighton%NULL%1,       Francesco%Zaccardi%NULL%2,       Chirag%Bakhai%NULL%1,       Emma%Barron%NULL%1,       Naomi%Holman%NULL%1,       Partha%Kar%NULL%1,       Claire%Meace%NULL%1,       Naveed%Sattar%NULL%2,       Stephen%Sharp%NULL%1,       Nicholas J%Wareham%NULL%1,       Andy%Weaver%NULL%1,       Emilia%Woch%NULL%1,       Bob%Young%NULL%1,       Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,       José David%Torres-Peña%NULL%1,       María D.%López-Carmona%NULL%1,       M. Mar.%Ayala-Gutiérrez%NULL%1,       Francisco%Fuentes-Jiménez%NULL%1,       Lucía Jorge%Huerta%NULL%1,       Jaime Alonso%Muñoz%NULL%1,       Manuel%Rubio-Rivas%NULL%1,       Manel%Madrazo%NULL%1,       Marcos Guzmán%Garcia%NULL%1,       Beatriz Vicente%Montes%NULL%1,       Joaquim Fernández%Sola%NULL%1,       Javier%Ena%NULL%1,       Ruth Gonzalez%Ferrer%NULL%1,       Carmen Mella%Pérez%NULL%1,       Carlos Jorge%Ripper%NULL%1,       Jose Javier Napal%Lecumberri%NULL%1,       Iris El Attar%Acedo%NULL%1,       Susana Plaza%Canteli%NULL%1,       Sara Fuente%Cosío%NULL%1,       Francisco Amorós%Martínez%NULL%1,       Begoña Cortés%Rodríguez%NULL%1,       Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,       José Manuel%Ramos-Rincón%NULL%1,       Ricardo%Gómez-Huelgas%NULL%1,       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,       Sang Won%Kim%NULL%1,       Jong Won%Park%NULL%1,       Kyu Hyang%Cho%NULL%1,       Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,       Philip%Tsoukas%NULL%1,       Christopher W.%Halladay%NULL%1,       Emily%O'Neill%NULL%1,       Stefan%Gravenstein%NULL%1,       James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,       Tao%Liu%NULL%6,       Weijun%Zhong%NULL%1,       Rong%Liu%NULL%1,       Honghao%Zhou%NULL%1,       Weihua%Huang%endeavor34852@aliyun.com%1,       Wei%Zhang%csuzhangwei@csu.edu.cn%3]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,       Jae-Han%Jeon%NULL%2,       Jae-Han%Jeon%NULL%0,       Sung-Woo%Kim%NULL%2,       Sung-Woo%Kim%NULL%0,       Jun Sung%Moon%NULL%1,       Nan Hee%Cho%NULL%1,       Eugene%Han%NULL%1,       Ji Hong%You%NULL%1,       Ji Yeon%Lee%NULL%2,       Miri%Hyun%NULL%1,       Jae Seok%Park%NULL%2,       Yong Shik%Kwon%NULL%2,       Yeon-Kyung%Choi%NULL%1,       Ki Tae%Kwon%NULL%1,       Shin Yup%Lee%NULL%1,       Eon Ju%Jeon%NULL%1,       Jin-Woo%Kim%NULL%1,       Hyo-Lim%Hong%NULL%1,       Hyun Hee%Kwon%NULL%1,       Chi Young%Jung%NULL%1,       Yin Young%Lee%NULL%1,       Eunyeoung%Ha%NULL%1,       Seung Min%Chung%NULL%1,       Jian%Hur%NULL%1,       June Hong%Ahn%NULL%5,       Na-young%Kim%NULL%1,       Shin-Woo%Kim%NULL%1,       Hyun Ha%Chang%NULL%1,       Yong Hoon%Lee%NULL%1,       Jaehee%Lee%NULL%1,       Keun-Gyu%Park%NULL%1,       Hyun Ah%Kim%NULL%1,       Ji-Hyun%Lee%NULL%2,       Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,       Lin%Qiu%NULL%0,       Yi%Liu%NULL%2,       Xiu-lan%Liu%NULL%1,       Jian-ling%Zheng%NULL%1,       Hui-ying%Xue%NULL%1,       Wen-hua%Liu%NULL%1,       Dong%Liu%NULL%3,       Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,        N.% Smati%null%1,        C. S. J.% Wong%null%1,        K.% Aspey%null%1,        M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,        A.% Anisimovich%null%1,        J.% Baxter%null%1,        L.% Mackillop%null%1,        M. P.% Vizcaychipi%null%1,        A.% McCarthy%null%1,        R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,        D.% Bates%null%1,        J. M.% Fiskio%null%1,        E. C.% Roche%null%1,        S.% Mora%null%1,        O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1910,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>228</v>
+        <v>356</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1567,7 +1939,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>357</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1596,7 +1968,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -1625,7 +1997,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -1654,7 +2026,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>234</v>
+        <v>360</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -1683,7 +2055,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>361</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -1712,7 +2084,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -1741,7 +2113,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>237</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -1770,7 +2142,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -1799,7 +2171,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>239</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -1828,7 +2200,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>240</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -1857,7 +2229,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>241</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -1886,7 +2258,7 @@
         <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>242</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -1915,7 +2287,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>244</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -1944,7 +2316,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>245</v>
+        <v>370</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -1973,7 +2345,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>246</v>
+        <v>371</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -2002,7 +2374,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>247</v>
+        <v>372</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2031,7 +2403,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -2060,7 +2432,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>249</v>
+        <v>374</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -2089,7 +2461,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>250</v>
+        <v>375</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -2118,7 +2490,7 @@
         <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>251</v>
+        <v>376</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -2147,7 +2519,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>252</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -2176,7 +2548,7 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>253</v>
+        <v>378</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -2205,7 +2577,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>254</v>
+        <v>379</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -2263,7 +2635,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>255</v>
+        <v>380</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -2292,7 +2664,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>256</v>
+        <v>381</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -2321,7 +2693,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>257</v>
+        <v>382</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -2350,7 +2722,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>258</v>
+        <v>383</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -2379,7 +2751,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>259</v>
+        <v>384</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -2408,7 +2780,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>261</v>
+        <v>385</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -2437,7 +2809,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>262</v>
+        <v>386</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1851" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="455">
   <si>
     <t>Doi</t>
   </si>
@@ -1554,6 +1554,218 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,        D.% Bates%null%1,        J. M.% Fiskio%null%1,        E. C.% Roche%null%1,        S.% Mora%null%1,        O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,        Jennifer M%Cooper%NULL%2,        Jennifer M%Cooper%NULL%0,        Krishna%Gokhale%NULL%1,        Dionisio%Acosta-Mena%NULL%1,        Samir%Dhalla%NULL%1,        Nathan%Byne%NULL%1,        Joht Singh%Chandan%NULL%1,        Astha%Anand%NULL%2,        Astha%Anand%NULL%0,        Kelvin%Okoth%NULL%1,        Anuradhaa%Subramanian%NULL%2,        Anuradhaa%Subramanian%NULL%0,        Mansoor N%Bangash%NULL%1,        Thomas%Jackson%NULL%2,        Thomas%Jackson%NULL%0,        Dawit%Zemedikun%NULL%2,        Dawit%Zemedikun%NULL%0,        Tom%Taverner%NULL%2,        Tom%Taverner%NULL%0,        Wasim%Hanif%NULL%1,        Sandip%Ghosh%NULL%1,        Parth%Narendran%NULL%1,        Konstantinos A%Toulis%NULL%1,        Abd A%Tahrani%NULL%2,        Abd A%Tahrani%NULL%0,        Rajendra%Surenthirakumaran%NULL%2,        Rajendra%Surenthirakumaran%NULL%0,        Nicola J%Adderley%NULL%1,        Shamil%Haroon%NULL%2,        Shamil%Haroon%NULL%0,        Kamlesh%Khunti%NULL%4,        Kamlesh%Khunti%NULL%0,        Christopher%Sainsbury%NULL%2,        Christopher%Sainsbury%NULL%0,        G Neil%Thomas%NULL%1,        Krishnarajah%Nirantharakumar%NULL%2,        Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,        Thomas%Servais%NULL%1,        Leïla%Belkhir%NULL%1,        Pierre-François%Laterre%NULL%1,        Jean-Paul%Thissen%NULL%1,        Bernard%Vandeleene%NULL%1,        Dominique%Maiter%NULL%1,        Jean C.%Yombi%NULL%1,        Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,        Abdallah%Al-Salameh%NULL%3,        Samy%Hadjadj%NULL%3,        Thomas%Goronflot%NULL%1,        Nicolas%Wiernsperger%NULL%1,        Matthieu%Pichelin%NULL%3,        Ingrid%Allix%NULL%3,        Coralie%Amadou%NULL%2,        Olivier%Bourron%NULL%2,        Thierry%Duriez%NULL%1,        Jean-François%Gautier%NULL%3,        Anne%Dutour%NULL%1,        Céline%Gonfroy%NULL%1,        Didier%Gouet%NULL%1,        Michael%Joubert%NULL%3,        Ingrid%Julier%NULL%1,        Etienne%Larger%NULL%1,        Lucien%Marchand%NULL%3,        Michel%Marre%NULL%1,        Laurent%Meyer%NULL%3,        Frédérique%Olivier%NULL%1,        Gaëtan%Prevost%NULL%3,        Pascale%Quiniou%NULL%1,        Christelle%Raffaitin-Cardin%NULL%1,        Ronan%Roussel%NULL%3,        Pierre-Jean%Saulnier%NULL%3,        Dominique%Seret-Begue%NULL%1,        Charles%Thivolet%NULL%3,        Camille%Vatier%NULL%2,        Rachel%Desailloud%NULL%1,        Matthieu%Wargny%NULL%3,        Pierre%Gourdy%NULL%3,        Bertrand%Cariou%NULL%1,        NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,        Zhenyuan%Chen%NULL%1,        Li%Liu%NULL%3,        Xiaoxv%Yin%NULL%1,        Heping%Yang%NULL%1,        Xiangping%Tan%NULL%1,        Jing%Wang%NULL%2,        Hui%Li%NULL%0,        Mengge%Tian%NULL%1,        Zuxun%Lu%NULL%1,        Nian%Xiong%NULL%4,        Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,        Ye-Mao%Liu%NULL%2,        Haomiao%Li%NULL%1,        Xin%Zhang%NULL%1,        Fang%Lei%NULL%2,        Juan-Juan%Qin%NULL%2,        Ze%Chen%NULL%1,        Ke-Qiong%Deng%NULL%1,        Lijin%Lin%NULL%2,        Ming-Ming%Chen%NULL%2,        Xiaohui%Song%NULL%1,        Meng%Xia%NULL%2,        Xuewei%Huang%NULL%2,        Weifang%Liu%NULL%1,        Jingjing%Cai%NULL%2,        Xiao-Jing%Zhang%NULL%2,        Feng%Zhou%NULL%1,        Peng%Zhang%NULL%1,        Yibin%Wang%NULL%2,        Xinliang%Ma%NULL%1,        Qingbo%Xu%NULL%2,        Juan%Yang%NULL%3,        Ping%Ye%NULL%2,        Weiming%Mao%NULL%2,        Xiaodong%Huang%NULL%2,        Jiahong%Xia%NULL%2,        Bing-Hong%Zhang%NULL%2,        Jiao%Guo%NULL%1,        Lihua%Zhu%NULL%2,        Zhibing%Lu%NULL%3,        Yufeng%Yuan%NULL%2,        Xiang%Wei%NULL%1,        Zhi-Gang%She%NULL%2,        Yan-Xiao%Ji%NULL%2,        Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,        Xi%Bai%NULL%1,        Xia%Han%NULL%1,        Wangyan%Jiang%NULL%1,        Lin%Qiu%NULL%2,        Shi%Chen%NULL%1,        Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,        Yanhong%Wei%NULL%1,        Min%Chen%NULL%1,        Qianqian%Wan%NULL%1,        Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,        Matteo%Monami%NULL%1,        Achille%Cernigliaro%NULL%1,        Enrica%Vigneri%NULL%1,        Valentina%Guarnotta%NULL%1,        Salvatore%Scondotto%NULL%1,        Vincenza A.%Allotta%NULL%1,        Michela%Conti%NULL%1,        Carla%Giordano%NULL%1,        Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,        Wen%Kong%NULL%1,        Pengfei%Xia%NULL%1,        Ying%Xu%NULL%1,        Li%Li%NULL%0,        Qin%Li%NULL%1,        Li%Yang%NULL%3,        Qi%Wei%NULL%3,        Hanyu%Wang%NULL%1,        Huiqing%Li%NULL%1,        Juan%Zheng%NULL%1,        Hui%Sun%NULL%1,        Wenfang%Xia%NULL%1,        Geng%Liu%NULL%1,        Xueyu%Zhong%NULL%1,        Kangli%Qiu%NULL%1,        Yan%Li%NULL%1,        Han%Wang%NULL%1,        Yuxiu%Wang%NULL%1,        Xiaoli%Song%NULL%1,        Hua%Liu%NULL%1,        Si%Xiong%NULL%1,        Yumei%Liu%NULL%1,        Zhenhai%Cui%NULL%1,        Yu%Hu%NULL%6,        Lulu%Chen%NULL%1,        An%Pan%NULL%1,        Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,        Qi%Wei%NULL%0,        Willis X%Li%NULL%1,        Karen C%McCowen%NULL%1,        Wei%Xiong%NULL%2,        Jiao%Liu%NULL%2,        Wenlijun%Jiang%NULL%2,        Traci%Marin%NULL%1,        Robert L%Thomas%NULL%1,        Ming%He%NULL%2,        Brendan%Gongol%NULL%1,        Mark%Hepokoski%NULL%2,        Jason X-J%Yuan%NULL%1,        John Y-J%Shyy%NULL%1,        Nian%Xiong%NULL%0,        Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,        Siyi%Xin%NULL%1,        Yaqi%Chen%NULL%1,        Leyu%Li%NULL%1,        Wanjun%Chen%NULL%1,        Wenjia%Li%NULL%1,        Baoan%Zhou%NULL%1,        Chenxia%Li%NULL%1,        Yu%Gong%NULL%1,        Fei%Li%NULL%1,        Peng%Duan%NULL%1,        Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,        John%Buse%NULL%2,        John%Buse%NULL%0,        Leonardo%Tamaritz%NULL%1,        Ana%Palacio%NULL%2,        Ken%Cohen%NULL%1,        Deneen%Vojta%NULL%2,        David%Liebovitz%NULL%1,        Nia%Mitchell%NULL%1,        Jacinda%Nicklas%NULL%1,        Ildiko%Lingvay%NULL%1,        Jeanne M.%Clark%NULL%1,        Louis J.%Aronne%NULL%1,        Erik%Anderson%NULL%1,        Michael%Usher%NULL%1,        Ryan%Demmer%NULL%1,        Genevieve B.%Melton%NULL%1,        Nicholas%Ingraham%NULL%1,        Christopher J.%Tignanelli%NULL%2,        Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,        In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,        Ana%Palacio%NULL%0,        Elissa%Dawkins%NULL%1,        Gordon%Chen%NULL%1,        Daniel%McCarter%NULL%1,        Emancia%Forbes%NULL%1,        Brian%Chung%NULL%1,        Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,        Qi%Wei%NULL%0,        Karen C.%McCowen%NULL%1,        Wei%Xiong%NULL%0,        Jiao%Liu%NULL%0,        Wenlijun%Jiang%NULL%0,        Robert L.%Thomas%NULL%1,        Mark%Hepokoski%NULL%0,        Ming%He%NULL%0,        John Y. J.%Shyy%NULL%1,        Atul%Malhotra%NULL%0,        Nian%Xiong%nianxiong@hust.edu.cn%0,        Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,        T. A. N.%Reed%NULL%2,        T. A. N.%Reed%NULL%0,        M.%Ardissino%NULL%1,        P.%Bassett%NULL%1,        A. M.%Whittington%NULL%1,        D. L.%Cohen%NULL%1,        N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,        Walter%Distaso%NULL%2,        Walter%Distaso%NULL%0,        Anjali%Amin%NULL%1,        Wei%Yang%NULL%1,        Oluwagbemiga%Idowu%NULL%1,        Julia S%Kenkre%NULL%1,        Ronak J%Shah%NULL%1,        Evelina%Woin%NULL%1,        Christine%Shi%NULL%1,        Nael%Alavi%NULL%2,        Nael%Alavi%NULL%0,        Hala%Bedri%NULL%1,        Niamh%Brady%NULL%1,        Sophie%Blackburn%NULL%1,        Martina%Leczycka%NULL%1,        Sanya%Patel%NULL%1,        Elizaveta%Sokol%NULL%1,        Edward%Toke-Bjolgerud%NULL%1,        Ambreen%Qayum%NULL%1,        Mariana%Abdel-Malek%NULL%1,        David C D%Hope%NULL%1,        Nick S%Oliver%NULL%1,        Vasiliki%Bravis%NULL%1,        Shivani%Misra%NULL%1,        Tricia M%Tan%NULL%1,        Neil E%Hill%NULL%2,        Neil E%Hill%NULL%0,        Victoria%Salem%NULL%2,        Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,        Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,        Tiffany%Grimes%NULL%1,        Peng%Li%NULL%1,        Matthew%Might%NULL%1,        Fernando%Ovalle%NULL%1,        Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,        Nicholas E%Ingraham%NULL%1,        Thomas A%Murray%NULL%1,        Schelomo%Marmor%NULL%1,        Shane%Hovertsen%NULL%1,        Jessica%Gronski%NULL%1,        Chace%McNeil%NULL%1,        Ruoying%Feng%NULL%1,        Gabriel%Guzman%NULL%1,        Nermine%Abdelwahab%NULL%1,        Samantha%King%NULL%1,        Leonardo%Tamariz%NULL%0,        Thomas%Meehan%NULL%1,        Kathryn M%Pendleton%NULL%1,        Bradley%Benson%NULL%1,        Deneen%Vojta%NULL%0,        Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,        Matthieu%Wargny%NULL%0,        Matthieu%Wargny%NULL%0,        Matthieu%Pichelin%NULL%0,        Matthieu%Pichelin%NULL%0,        Abdallah%Al-Salameh%NULL%0,        Abdallah%Al-Salameh%NULL%0,        Ingrid%Allix%NULL%0,        Ingrid%Allix%NULL%0,        Coralie%Amadou%NULL%0,        Gwénaëlle%Arnault%NULL%2,        Gwénaëlle%Arnault%NULL%0,        Florence%Baudoux%NULL%1,        Bernard%Bauduceau%NULL%1,        Sophie%Borot%NULL%1,        Muriel%Bourgeon-Ghittori%NULL%2,        Muriel%Bourgeon-Ghittori%NULL%0,        Olivier%Bourron%NULL%0,        David%Boutoille%NULL%4,        David%Boutoille%NULL%0,        France%Cazenave-Roblot%NULL%3,        France%Cazenave-Roblot%NULL%0,        Claude%Chaumeil%NULL%2,        Claude%Chaumeil%NULL%0,        Emmanuel%Cosson%NULL%1,        Sandrine%Coudol%NULL%2,        Sandrine%Coudol%NULL%0,        Patrice%Darmon%NULL%1,        Emmanuel%Disse%NULL%2,        Emmanuel%Disse%NULL%0,        Amélie%Ducet-Boiffard%NULL%2,        Amélie%Ducet-Boiffard%NULL%0,        Bénédicte%Gaborit%NULL%1,        Michael%Joubert%NULL%0,        Michael%Joubert%NULL%0,        Véronique%Kerlan%NULL%2,        Véronique%Kerlan%NULL%0,        Bruno%Laviolle%NULL%1,        Lucien%Marchand%NULL%0,        Lucien%Marchand%NULL%0,        Laurent%Meyer%NULL%0,        Laurent%Meyer%NULL%0,        Louis%Potier%NULL%2,        Louis%Potier%NULL%0,        Gaëtan%Prevost%NULL%0,        Gaëtan%Prevost%NULL%0,        Jean-Pierre%Riveline%NULL%1,        René%Robert%NULL%2,        René%Robert%NULL%0,        Pierre-Jean%Saulnier%NULL%0,        Pierre-Jean%Saulnier%NULL%0,        Ariane%Sultan%NULL%2,        Ariane%Sultan%NULL%0,        Jean-François%Thébaut%NULL%2,        Jean-François%Thébaut%NULL%0,        Charles%Thivolet%NULL%0,        Charles%Thivolet%NULL%0,        Blandine%Tramunt%NULL%2,        Blandine%Tramunt%NULL%0,        Camille%Vatier%NULL%0,        Ronan%Roussel%NULL%0,        Ronan%Roussel%NULL%0,        Jean-François%Gautier%NULL%0,        Jean-François%Gautier%NULL%0,        Pierre%Gourdy%NULL%0,        Pierre%Gourdy%NULL%0,        NULL%NULL%NULL%0,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,        Peter%Knighton%NULL%1,        Francesco%Zaccardi%NULL%2,        Chirag%Bakhai%NULL%1,        Emma%Barron%NULL%1,        Naomi%Holman%NULL%1,        Partha%Kar%NULL%1,        Claire%Meace%NULL%1,        Naveed%Sattar%NULL%1,        Stephen%Sharp%NULL%1,        Nicholas J%Wareham%NULL%1,        Andy%Weaver%NULL%1,        Emilia%Woch%NULL%1,        Bob%Young%NULL%1,        Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,        José David%Torres-Peña%NULL%1,        María D.%López-Carmona%NULL%1,        M. Mar.%Ayala-Gutiérrez%NULL%1,        Francisco%Fuentes-Jiménez%NULL%1,        Lucía Jorge%Huerta%NULL%1,        Jaime Alonso%Muñoz%NULL%1,        Manuel%Rubio-Rivas%NULL%1,        Manel%Madrazo%NULL%1,        Marcos Guzmán%Garcia%NULL%1,        Beatriz Vicente%Montes%NULL%1,        Joaquim Fernández%Sola%NULL%1,        Javier%Ena%NULL%1,        Ruth Gonzalez%Ferrer%NULL%1,        Carmen Mella%Pérez%NULL%1,        Carlos Jorge%Ripper%NULL%1,        Jose Javier Napal%Lecumberri%NULL%1,        Iris El Attar%Acedo%NULL%1,        Susana Plaza%Canteli%NULL%1,        Sara Fuente%Cosío%NULL%1,        Francisco Amorós%Martínez%NULL%1,        Begoña Cortés%Rodríguez%NULL%1,        Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,        José Manuel%Ramos-Rincón%NULL%1,        Ricardo%Gómez-Huelgas%NULL%1,        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,        Sang Won%Kim%NULL%1,        Jong Won%Park%NULL%1,        Kyu Hyang%Cho%NULL%1,        Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Clinical Characteristics and Outcomes of Patients With Diabetes and COVID-19 in Association With Glucose-Lowering Medication"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"\n                  OBJECTIVE\n                  Diabetes is one of the most distinct comorbidities of COVID-19. Here, we describe the clinical characteristics of and outcomes in patients with diabetes in whom COVID-19 was confirmed or clinically diagnosed (with typical features on lung imaging and symptoms) and their association with glucose-lowering or blood pressure\u2013lowering medications.
+\n               \n               \n                  RESEARCH DESIGN AND METHODS\n                  In this retrospective study involving 904 patients with COVID-19 (136 with diabetes, mostly type 2 diabetes), clinical and laboratory characteristics were collected and compared between the group with diabetes and the group without diabetes, and between groups taking different medications.
+ Logistic regression was used to explore risk factors associated with mortality or poor prognosis.
+\n               \n               \n                  RESULTS\n                  The proportion of comorbid diabetes is similar between cases of confirmed and of clinically diagnosed COVID-19. Risk factors for higher mortality of patients with diabetes and COVID-19 were older age (adjusted odds ratio [aOR] 1.09 [95% CI 1.04, 1.15] per year increase; P = 0.001) and elevated C-reactive protein (aOR 1.12 [95% CI 1.00, 1.24]; P = 0.043).
+ Insulin usage (aOR 3.58 [95% CI 1.37, 9.35]; P = 0.009) was associated with poor prognosis.
+ Clinical outcomes of those who use an ACE inhibitor (ACEI) or angiotensin II type-I receptor blocker (ARB) were comparable with those of patients who do not use ACEI\/ARB among COVID-19 patients with diabetes and hypertension.
+\n               \n               \n                  CONCLUSIONS\n                  C-reactive protein may help to identify patients with diabetes who are at greater risk of dying during hospitalization.
+ Older patients with diabetes were prone to death related to COVID-19. Attention needs to be paid to patients with diabetes and COVID-19 who use insulin.
+ ACEI\/ARB use showed no significant impact on patients with diabetes and hypertension who have COVID-19.\n               </t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0, Dong%Yang%xref no email%0, Biao%Cheng%xref no email%0, Jian%Chen%xref no email%0, Anlin%Peng%xref no email%0, Chen%Yang%xref no email%0, Chong%Liu%xref no email%0, Mingrui%Xiong%xref no email%0, Aiping%Deng%xref no email%0, Yu%Zhang%xref no email%0, Ling%Zheng%xref no email%0, Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,        Philip%Tsoukas%NULL%1,        Christopher W.%Halladay%NULL%1,        Emily%O'Neill%NULL%1,        Stefan%Gravenstein%NULL%1,        James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,        Tao%Liu%NULL%2,        Weijun%Zhong%NULL%1,        Rong%Liu%NULL%1,        Honghao%Zhou%NULL%1,        Weihua%Huang%endeavor34852@aliyun.com%1,        Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,        Jae-Han%Jeon%NULL%2,        Jae-Han%Jeon%NULL%0,        Sung-Woo%Kim%NULL%2,        Sung-Woo%Kim%NULL%0,        Jun Sung%Moon%NULL%1,        Nan Hee%Cho%NULL%1,        Eugene%Han%NULL%1,        Ji Hong%You%NULL%1,        Ji Yeon%Lee%NULL%4,        Miri%Hyun%NULL%1,        Jae Seok%Park%NULL%4,        Yong Shik%Kwon%NULL%2,        Yeon-Kyung%Choi%NULL%1,        Ki Tae%Kwon%NULL%1,        Shin Yup%Lee%NULL%1,        Eon Ju%Jeon%NULL%1,        Jin-Woo%Kim%NULL%1,        Hyo-Lim%Hong%NULL%1,        Hyun Hee%Kwon%NULL%1,        Chi Young%Jung%NULL%1,        Yin Young%Lee%NULL%1,        Eunyeoung%Ha%NULL%1,        Seung Min%Chung%NULL%1,        Jian%Hur%NULL%2,        June Hong%Ahn%NULL%3,        Na-young%Kim%NULL%1,        Shin-Woo%Kim%NULL%3,        Hyun Ha%Chang%NULL%1,        Yong Hoon%Lee%NULL%1,        Jaehee%Lee%NULL%1,        Keun-Gyu%Park%NULL%1,        Hyun Ah%Kim%NULL%1,        Ji-Hyun%Lee%NULL%2,        Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,        Lin%Qiu%NULL%0,        Yi%Liu%NULL%2,        Xiu-lan%Liu%NULL%1,        Jian-ling%Zheng%NULL%1,        Hui-ying%Xue%NULL%1,        Wen-hua%Liu%NULL%1,        Dong%Liu%NULL%3,        Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,         N.% Smati%null%1,         C. S. J.% Wong%null%1,         K.% Aspey%null%1,         M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,         A.% Anisimovich%null%1,         J.% Baxter%null%1,         L.% Mackillop%null%1,         M. P.% Vizcaychipi%null%1,         A.% McCarthy%null%1,         R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,         D.% Bates%null%1,         J. M.% Fiskio%null%1,         E. C.% Roche%null%1,         S.% Mora%null%1,         O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,         Jennifer M%Cooper%NULL%2,         Jennifer M%Cooper%NULL%0,         Krishna%Gokhale%NULL%1,         Dionisio%Acosta-Mena%NULL%1,         Samir%Dhalla%NULL%1,         Nathan%Byne%NULL%1,         Joht Singh%Chandan%NULL%1,         Astha%Anand%NULL%2,         Astha%Anand%NULL%0,         Kelvin%Okoth%NULL%1,         Anuradhaa%Subramanian%NULL%2,         Anuradhaa%Subramanian%NULL%0,         Mansoor N%Bangash%NULL%1,         Thomas%Jackson%NULL%2,         Thomas%Jackson%NULL%0,         Dawit%Zemedikun%NULL%2,         Dawit%Zemedikun%NULL%0,         Tom%Taverner%NULL%2,         Tom%Taverner%NULL%0,         Wasim%Hanif%NULL%1,         Sandip%Ghosh%NULL%1,         Parth%Narendran%NULL%1,         Konstantinos A%Toulis%NULL%1,         Abd A%Tahrani%NULL%2,         Abd A%Tahrani%NULL%0,         Rajendra%Surenthirakumaran%NULL%2,         Rajendra%Surenthirakumaran%NULL%0,         Nicola J%Adderley%NULL%1,         Shamil%Haroon%NULL%2,         Shamil%Haroon%NULL%0,         Kamlesh%Khunti%NULL%4,         Kamlesh%Khunti%NULL%0,         Christopher%Sainsbury%NULL%2,         Christopher%Sainsbury%NULL%0,         G Neil%Thomas%NULL%1,         Krishnarajah%Nirantharakumar%NULL%2,         Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,         Thomas%Servais%NULL%1,         Leïla%Belkhir%NULL%1,         Pierre-François%Laterre%NULL%1,         Jean-Paul%Thissen%NULL%1,         Bernard%Vandeleene%NULL%1,         Dominique%Maiter%NULL%1,         Jean C.%Yombi%NULL%1,         Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,         Abdallah%Al-Salameh%NULL%3,         Samy%Hadjadj%NULL%3,         Thomas%Goronflot%NULL%1,         Nicolas%Wiernsperger%NULL%1,         Matthieu%Pichelin%NULL%3,         Ingrid%Allix%NULL%3,         Coralie%Amadou%NULL%2,         Olivier%Bourron%NULL%2,         Thierry%Duriez%NULL%1,         Jean-François%Gautier%NULL%3,         Anne%Dutour%NULL%1,         Céline%Gonfroy%NULL%1,         Didier%Gouet%NULL%1,         Michael%Joubert%NULL%3,         Ingrid%Julier%NULL%1,         Etienne%Larger%NULL%1,         Lucien%Marchand%NULL%3,         Michel%Marre%NULL%1,         Laurent%Meyer%NULL%3,         Frédérique%Olivier%NULL%1,         Gaëtan%Prevost%NULL%3,         Pascale%Quiniou%NULL%1,         Christelle%Raffaitin-Cardin%NULL%1,         Ronan%Roussel%NULL%3,         Pierre-Jean%Saulnier%NULL%3,         Dominique%Seret-Begue%NULL%1,         Charles%Thivolet%NULL%3,         Camille%Vatier%NULL%2,         Rachel%Desailloud%NULL%1,         Matthieu%Wargny%NULL%3,         Pierre%Gourdy%NULL%3,         Bertrand%Cariou%NULL%1,         NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,         Zhenyuan%Chen%NULL%1,         Li%Liu%NULL%3,         Xiaoxv%Yin%NULL%1,         Heping%Yang%NULL%1,         Xiangping%Tan%NULL%1,         Jing%Wang%NULL%2,         Hui%Li%NULL%0,         Mengge%Tian%NULL%1,         Zuxun%Lu%NULL%1,         Nian%Xiong%NULL%4,         Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,         Ye-Mao%Liu%NULL%2,         Haomiao%Li%NULL%1,         Xin%Zhang%NULL%1,         Fang%Lei%NULL%2,         Juan-Juan%Qin%NULL%2,         Ze%Chen%NULL%1,         Ke-Qiong%Deng%NULL%1,         Lijin%Lin%NULL%2,         Ming-Ming%Chen%NULL%2,         Xiaohui%Song%NULL%1,         Meng%Xia%NULL%2,         Xuewei%Huang%NULL%2,         Weifang%Liu%NULL%1,         Jingjing%Cai%NULL%2,         Xiao-Jing%Zhang%NULL%2,         Feng%Zhou%NULL%1,         Peng%Zhang%NULL%1,         Yibin%Wang%NULL%2,         Xinliang%Ma%NULL%1,         Qingbo%Xu%NULL%2,         Juan%Yang%NULL%3,         Ping%Ye%NULL%2,         Weiming%Mao%NULL%2,         Xiaodong%Huang%NULL%2,         Jiahong%Xia%NULL%2,         Bing-Hong%Zhang%NULL%2,         Jiao%Guo%NULL%1,         Lihua%Zhu%NULL%2,         Zhibing%Lu%NULL%3,         Yufeng%Yuan%NULL%2,         Xiang%Wei%NULL%1,         Zhi-Gang%She%NULL%2,         Yan-Xiao%Ji%NULL%2,         Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,         Xi%Bai%NULL%1,         Xia%Han%NULL%1,         Wangyan%Jiang%NULL%1,         Lin%Qiu%NULL%2,         Shi%Chen%NULL%1,         Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,         Yanhong%Wei%NULL%1,         Min%Chen%NULL%1,         Qianqian%Wan%NULL%1,         Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,         Matteo%Monami%NULL%1,         Achille%Cernigliaro%NULL%1,         Enrica%Vigneri%NULL%1,         Valentina%Guarnotta%NULL%1,         Salvatore%Scondotto%NULL%1,         Vincenza A.%Allotta%NULL%1,         Michela%Conti%NULL%1,         Carla%Giordano%NULL%1,         Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,         Wen%Kong%NULL%1,         Pengfei%Xia%NULL%1,         Ying%Xu%NULL%1,         Li%Li%NULL%0,         Qin%Li%NULL%1,         Li%Yang%NULL%3,         Qi%Wei%NULL%3,         Hanyu%Wang%NULL%1,         Huiqing%Li%NULL%1,         Juan%Zheng%NULL%1,         Hui%Sun%NULL%1,         Wenfang%Xia%NULL%1,         Geng%Liu%NULL%1,         Xueyu%Zhong%NULL%1,         Kangli%Qiu%NULL%1,         Yan%Li%NULL%1,         Han%Wang%NULL%1,         Yuxiu%Wang%NULL%1,         Xiaoli%Song%NULL%1,         Hua%Liu%NULL%1,         Si%Xiong%NULL%1,         Yumei%Liu%NULL%1,         Zhenhai%Cui%NULL%1,         Yu%Hu%NULL%6,         Lulu%Chen%NULL%1,         An%Pan%NULL%1,         Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,         Qi%Wei%NULL%0,         Willis X%Li%NULL%1,         Karen C%McCowen%NULL%1,         Wei%Xiong%NULL%2,         Jiao%Liu%NULL%2,         Wenlijun%Jiang%NULL%2,         Traci%Marin%NULL%1,         Robert L%Thomas%NULL%1,         Ming%He%NULL%2,         Brendan%Gongol%NULL%1,         Mark%Hepokoski%NULL%2,         Jason X-J%Yuan%NULL%1,         John Y-J%Shyy%NULL%1,         Nian%Xiong%NULL%0,         Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,         Siyi%Xin%NULL%1,         Yaqi%Chen%NULL%1,         Leyu%Li%NULL%1,         Wanjun%Chen%NULL%1,         Wenjia%Li%NULL%1,         Baoan%Zhou%NULL%1,         Chenxia%Li%NULL%1,         Yu%Gong%NULL%1,         Fei%Li%NULL%1,         Peng%Duan%NULL%1,         Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,         John%Buse%NULL%2,         John%Buse%NULL%0,         Leonardo%Tamaritz%NULL%1,         Ana%Palacio%NULL%2,         Ken%Cohen%NULL%1,         Deneen%Vojta%NULL%2,         David%Liebovitz%NULL%1,         Nia%Mitchell%NULL%1,         Jacinda%Nicklas%NULL%1,         Ildiko%Lingvay%NULL%1,         Jeanne M.%Clark%NULL%1,         Louis J.%Aronne%NULL%1,         Erik%Anderson%NULL%1,         Michael%Usher%NULL%1,         Ryan%Demmer%NULL%1,         Genevieve B.%Melton%NULL%1,         Nicholas%Ingraham%NULL%1,         Christopher J.%Tignanelli%NULL%2,         Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,         In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,         Ana%Palacio%NULL%0,         Elissa%Dawkins%NULL%1,         Gordon%Chen%NULL%1,         Daniel%McCarter%NULL%1,         Emancia%Forbes%NULL%1,         Brian%Chung%NULL%1,         Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,         Qi%Wei%NULL%0,         Karen C.%McCowen%NULL%1,         Wei%Xiong%NULL%0,         Jiao%Liu%NULL%0,         Wenlijun%Jiang%NULL%0,         Robert L.%Thomas%NULL%1,         Mark%Hepokoski%NULL%0,         Ming%He%NULL%0,         John Y. J.%Shyy%NULL%1,         Atul%Malhotra%NULL%0,         Nian%Xiong%nianxiong@hust.edu.cn%0,         Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,         T. A. N.%Reed%NULL%2,         T. A. N.%Reed%NULL%0,         M.%Ardissino%NULL%1,         P.%Bassett%NULL%1,         A. M.%Whittington%NULL%1,         D. L.%Cohen%NULL%1,         N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,         Walter%Distaso%NULL%2,         Walter%Distaso%NULL%0,         Anjali%Amin%NULL%1,         Wei%Yang%NULL%1,         Oluwagbemiga%Idowu%NULL%1,         Julia S%Kenkre%NULL%1,         Ronak J%Shah%NULL%1,         Evelina%Woin%NULL%1,         Christine%Shi%NULL%1,         Nael%Alavi%NULL%2,         Nael%Alavi%NULL%0,         Hala%Bedri%NULL%1,         Niamh%Brady%NULL%1,         Sophie%Blackburn%NULL%1,         Martina%Leczycka%NULL%1,         Sanya%Patel%NULL%1,         Elizaveta%Sokol%NULL%1,         Edward%Toke-Bjolgerud%NULL%1,         Ambreen%Qayum%NULL%1,         Mariana%Abdel-Malek%NULL%1,         David C D%Hope%NULL%1,         Nick S%Oliver%NULL%1,         Vasiliki%Bravis%NULL%1,         Shivani%Misra%NULL%1,         Tricia M%Tan%NULL%1,         Neil E%Hill%NULL%2,         Neil E%Hill%NULL%0,         Victoria%Salem%NULL%2,         Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,         Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,         Tiffany%Grimes%NULL%1,         Peng%Li%NULL%1,         Matthew%Might%NULL%1,         Fernando%Ovalle%NULL%1,         Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,         Nicholas E%Ingraham%NULL%1,         Thomas A%Murray%NULL%1,         Schelomo%Marmor%NULL%1,         Shane%Hovertsen%NULL%1,         Jessica%Gronski%NULL%1,         Chace%McNeil%NULL%1,         Ruoying%Feng%NULL%1,         Gabriel%Guzman%NULL%1,         Nermine%Abdelwahab%NULL%1,         Samantha%King%NULL%1,         Leonardo%Tamariz%NULL%0,         Thomas%Meehan%NULL%1,         Kathryn M%Pendleton%NULL%1,         Bradley%Benson%NULL%1,         Deneen%Vojta%NULL%0,         Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,         Matthieu%Wargny%NULL%0,         Matthieu%Wargny%NULL%0,         Matthieu%Pichelin%NULL%0,         Matthieu%Pichelin%NULL%0,         Abdallah%Al-Salameh%NULL%0,         Abdallah%Al-Salameh%NULL%0,         Ingrid%Allix%NULL%0,         Ingrid%Allix%NULL%0,         Coralie%Amadou%NULL%0,         Gwénaëlle%Arnault%NULL%2,         Gwénaëlle%Arnault%NULL%0,         Florence%Baudoux%NULL%1,         Bernard%Bauduceau%NULL%1,         Sophie%Borot%NULL%1,         Muriel%Bourgeon-Ghittori%NULL%2,         Muriel%Bourgeon-Ghittori%NULL%0,         Olivier%Bourron%NULL%0,         David%Boutoille%NULL%4,         David%Boutoille%NULL%0,         France%Cazenave-Roblot%NULL%3,         France%Cazenave-Roblot%NULL%0,         Claude%Chaumeil%NULL%2,         Claude%Chaumeil%NULL%0,         Emmanuel%Cosson%NULL%1,         Sandrine%Coudol%NULL%2,         Sandrine%Coudol%NULL%0,         Patrice%Darmon%NULL%1,         Emmanuel%Disse%NULL%2,         Emmanuel%Disse%NULL%0,         Amélie%Ducet-Boiffard%NULL%2,         Amélie%Ducet-Boiffard%NULL%0,         Bénédicte%Gaborit%NULL%1,         Michael%Joubert%NULL%0,         Michael%Joubert%NULL%0,         Véronique%Kerlan%NULL%2,         Véronique%Kerlan%NULL%0,         Bruno%Laviolle%NULL%1,         Lucien%Marchand%NULL%0,         Lucien%Marchand%NULL%0,         Laurent%Meyer%NULL%0,         Laurent%Meyer%NULL%0,         Louis%Potier%NULL%2,         Louis%Potier%NULL%0,         Gaëtan%Prevost%NULL%0,         Gaëtan%Prevost%NULL%0,         Jean-Pierre%Riveline%NULL%1,         René%Robert%NULL%2,         René%Robert%NULL%0,         Pierre-Jean%Saulnier%NULL%0,         Pierre-Jean%Saulnier%NULL%0,         Ariane%Sultan%NULL%2,         Ariane%Sultan%NULL%0,         Jean-François%Thébaut%NULL%2,         Jean-François%Thébaut%NULL%0,         Charles%Thivolet%NULL%0,         Charles%Thivolet%NULL%0,         Blandine%Tramunt%NULL%2,         Blandine%Tramunt%NULL%0,         Camille%Vatier%NULL%0,         Ronan%Roussel%NULL%0,         Ronan%Roussel%NULL%0,         Jean-François%Gautier%NULL%0,         Jean-François%Gautier%NULL%0,         Pierre%Gourdy%NULL%0,         Pierre%Gourdy%NULL%0,         NULL%NULL%NULL%0,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,         Peter%Knighton%NULL%1,         Francesco%Zaccardi%NULL%2,         Chirag%Bakhai%NULL%1,         Emma%Barron%NULL%1,         Naomi%Holman%NULL%1,         Partha%Kar%NULL%1,         Claire%Meace%NULL%1,         Naveed%Sattar%NULL%1,         Stephen%Sharp%NULL%1,         Nicholas J%Wareham%NULL%1,         Andy%Weaver%NULL%1,         Emilia%Woch%NULL%1,         Bob%Young%NULL%1,         Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,         José David%Torres-Peña%NULL%1,         María D.%López-Carmona%NULL%1,         M. Mar.%Ayala-Gutiérrez%NULL%1,         Francisco%Fuentes-Jiménez%NULL%1,         Lucía Jorge%Huerta%NULL%1,         Jaime Alonso%Muñoz%NULL%1,         Manuel%Rubio-Rivas%NULL%1,         Manel%Madrazo%NULL%1,         Marcos Guzmán%Garcia%NULL%1,         Beatriz Vicente%Montes%NULL%1,         Joaquim Fernández%Sola%NULL%1,         Javier%Ena%NULL%1,         Ruth Gonzalez%Ferrer%NULL%1,         Carmen Mella%Pérez%NULL%1,         Carlos Jorge%Ripper%NULL%1,         Jose Javier Napal%Lecumberri%NULL%1,         Iris El Attar%Acedo%NULL%1,         Susana Plaza%Canteli%NULL%1,         Sara Fuente%Cosío%NULL%1,         Francisco Amorós%Martínez%NULL%1,         Begoña Cortés%Rodríguez%NULL%1,         Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,         José Manuel%Ramos-Rincón%NULL%1,         Ricardo%Gómez-Huelgas%NULL%1,         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,         Sang Won%Kim%NULL%1,         Jong Won%Park%NULL%1,         Kyu Hyang%Cho%NULL%1,         Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,  Dong%Yang%xref no email%0,  Biao%Cheng%xref no email%0,  Jian%Chen%xref no email%0,  Anlin%Peng%xref no email%0,  Chen%Yang%xref no email%0,  Chong%Liu%xref no email%0,  Mingrui%Xiong%xref no email%0,  Aiping%Deng%xref no email%0,  Yu%Zhang%xref no email%0,  Ling%Zheng%xref no email%0,  Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,         Philip%Tsoukas%NULL%1,         Christopher W.%Halladay%NULL%1,         Emily%O'Neill%NULL%1,         Stefan%Gravenstein%NULL%1,         James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,         Tao%Liu%NULL%2,         Weijun%Zhong%NULL%1,         Rong%Liu%NULL%1,         Honghao%Zhou%NULL%1,         Weihua%Huang%endeavor34852@aliyun.com%1,         Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,         Jae-Han%Jeon%NULL%2,         Jae-Han%Jeon%NULL%0,         Sung-Woo%Kim%NULL%2,         Sung-Woo%Kim%NULL%0,         Jun Sung%Moon%NULL%1,         Nan Hee%Cho%NULL%1,         Eugene%Han%NULL%1,         Ji Hong%You%NULL%1,         Ji Yeon%Lee%NULL%4,         Miri%Hyun%NULL%1,         Jae Seok%Park%NULL%4,         Yong Shik%Kwon%NULL%2,         Yeon-Kyung%Choi%NULL%1,         Ki Tae%Kwon%NULL%1,         Shin Yup%Lee%NULL%1,         Eon Ju%Jeon%NULL%1,         Jin-Woo%Kim%NULL%1,         Hyo-Lim%Hong%NULL%1,         Hyun Hee%Kwon%NULL%1,         Chi Young%Jung%NULL%1,         Yin Young%Lee%NULL%1,         Eunyeoung%Ha%NULL%1,         Seung Min%Chung%NULL%1,         Jian%Hur%NULL%2,         June Hong%Ahn%NULL%3,         Na-young%Kim%NULL%1,         Shin-Woo%Kim%NULL%3,         Hyun Ha%Chang%NULL%1,         Yong Hoon%Lee%NULL%1,         Jaehee%Lee%NULL%1,         Keun-Gyu%Park%NULL%1,         Hyun Ah%Kim%NULL%1,         Ji-Hyun%Lee%NULL%2,         Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,         Lin%Qiu%NULL%0,         Yi%Liu%NULL%2,         Xiu-lan%Liu%NULL%1,         Jian-ling%Zheng%NULL%1,         Hui-ying%Xue%NULL%1,         Wen-hua%Liu%NULL%1,         Dong%Liu%NULL%3,         Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,          N.% Smati%null%1,          C. S. J.% Wong%null%1,          K.% Aspey%null%1,          M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,          A.% Anisimovich%null%1,          J.% Baxter%null%1,          L.% Mackillop%null%1,          M. P.% Vizcaychipi%null%1,          A.% McCarthy%null%1,          R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,          D.% Bates%null%1,          J. M.% Fiskio%null%1,          E. C.% Roche%null%1,          S.% Mora%null%1,          O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +2122,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>356</v>
+        <v>423</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -1939,7 +2151,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -1968,7 +2180,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>425</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -1997,7 +2209,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>359</v>
+        <v>426</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2026,7 +2238,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>427</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2055,7 +2267,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>428</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2084,7 +2296,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>429</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2113,7 +2325,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2142,7 +2354,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>431</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -2171,7 +2383,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2200,7 +2412,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -2229,7 +2441,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>434</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -2258,7 +2470,7 @@
         <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>435</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2287,7 +2499,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -2316,7 +2528,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>437</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -2345,7 +2557,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>438</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -2374,7 +2586,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2403,7 +2615,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -2432,7 +2644,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -2461,7 +2673,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>442</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -2490,7 +2702,7 @@
         <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>443</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -2519,7 +2731,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>377</v>
+        <v>444</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -2548,7 +2760,7 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>378</v>
+        <v>445</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -2577,7 +2789,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>379</v>
+        <v>446</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -2600,22 +2812,22 @@
         <v>44013.0</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>411</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>447</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>415</v>
       </c>
       <c r="I26" t="s">
         <v>134</v>
@@ -2635,7 +2847,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>448</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -2664,7 +2876,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>381</v>
+        <v>449</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -2693,7 +2905,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>450</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -2722,7 +2934,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>383</v>
+        <v>451</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -2751,7 +2963,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -2780,7 +2992,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -2809,7 +3021,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="519">
   <si>
     <t>Doi</t>
   </si>
@@ -1766,6 +1766,198 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,          D.% Bates%null%1,          J. M.% Fiskio%null%1,          E. C.% Roche%null%1,          S.% Mora%null%1,          O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,          Jennifer M%Cooper%NULL%2,          Jennifer M%Cooper%NULL%0,          Krishna%Gokhale%NULL%1,          Dionisio%Acosta-Mena%NULL%1,          Samir%Dhalla%NULL%1,          Nathan%Byne%NULL%1,          Joht Singh%Chandan%NULL%1,          Astha%Anand%NULL%2,          Astha%Anand%NULL%0,          Kelvin%Okoth%NULL%1,          Anuradhaa%Subramanian%NULL%2,          Anuradhaa%Subramanian%NULL%0,          Mansoor N%Bangash%NULL%1,          Thomas%Jackson%NULL%2,          Thomas%Jackson%NULL%0,          Dawit%Zemedikun%NULL%2,          Dawit%Zemedikun%NULL%0,          Tom%Taverner%NULL%2,          Tom%Taverner%NULL%0,          Wasim%Hanif%NULL%1,          Sandip%Ghosh%NULL%1,          Parth%Narendran%NULL%1,          Konstantinos A%Toulis%NULL%1,          Abd A%Tahrani%NULL%2,          Abd A%Tahrani%NULL%0,          Rajendra%Surenthirakumaran%NULL%2,          Rajendra%Surenthirakumaran%NULL%0,          Nicola J%Adderley%NULL%1,          Shamil%Haroon%NULL%2,          Shamil%Haroon%NULL%0,          Kamlesh%Khunti%NULL%4,          Kamlesh%Khunti%NULL%0,          Christopher%Sainsbury%NULL%2,          Christopher%Sainsbury%NULL%0,          G Neil%Thomas%NULL%1,          Krishnarajah%Nirantharakumar%NULL%2,          Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,          Thomas%Servais%NULL%1,          Leïla%Belkhir%NULL%1,          Pierre-François%Laterre%NULL%1,          Jean-Paul%Thissen%NULL%1,          Bernard%Vandeleene%NULL%1,          Dominique%Maiter%NULL%1,          Jean C.%Yombi%NULL%1,          Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,          Abdallah%Al-Salameh%NULL%3,          Samy%Hadjadj%NULL%3,          Thomas%Goronflot%NULL%1,          Nicolas%Wiernsperger%NULL%1,          Matthieu%Pichelin%NULL%3,          Ingrid%Allix%NULL%3,          Coralie%Amadou%NULL%2,          Olivier%Bourron%NULL%2,          Thierry%Duriez%NULL%1,          Jean-François%Gautier%NULL%3,          Anne%Dutour%NULL%1,          Céline%Gonfroy%NULL%1,          Didier%Gouet%NULL%1,          Michael%Joubert%NULL%3,          Ingrid%Julier%NULL%1,          Etienne%Larger%NULL%1,          Lucien%Marchand%NULL%3,          Michel%Marre%NULL%1,          Laurent%Meyer%NULL%3,          Frédérique%Olivier%NULL%1,          Gaëtan%Prevost%NULL%3,          Pascale%Quiniou%NULL%1,          Christelle%Raffaitin-Cardin%NULL%1,          Ronan%Roussel%NULL%3,          Pierre-Jean%Saulnier%NULL%3,          Dominique%Seret-Begue%NULL%1,          Charles%Thivolet%NULL%3,          Camille%Vatier%NULL%2,          Rachel%Desailloud%NULL%1,          Matthieu%Wargny%NULL%3,          Pierre%Gourdy%NULL%3,          Bertrand%Cariou%NULL%1,          NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,          Zhenyuan%Chen%NULL%1,          Li%Liu%NULL%3,          Xiaoxv%Yin%NULL%1,          Heping%Yang%NULL%1,          Xiangping%Tan%NULL%1,          Jing%Wang%NULL%2,          Hui%Li%NULL%0,          Mengge%Tian%NULL%1,          Zuxun%Lu%NULL%1,          Nian%Xiong%NULL%4,          Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,          Ye-Mao%Liu%NULL%2,          Haomiao%Li%NULL%1,          Xin%Zhang%NULL%1,          Fang%Lei%NULL%2,          Juan-Juan%Qin%NULL%2,          Ze%Chen%NULL%1,          Ke-Qiong%Deng%NULL%1,          Lijin%Lin%NULL%2,          Ming-Ming%Chen%NULL%2,          Xiaohui%Song%NULL%1,          Meng%Xia%NULL%2,          Xuewei%Huang%NULL%2,          Weifang%Liu%NULL%1,          Jingjing%Cai%NULL%2,          Xiao-Jing%Zhang%NULL%2,          Feng%Zhou%NULL%1,          Peng%Zhang%NULL%1,          Yibin%Wang%NULL%2,          Xinliang%Ma%NULL%1,          Qingbo%Xu%NULL%2,          Juan%Yang%NULL%3,          Ping%Ye%NULL%2,          Weiming%Mao%NULL%2,          Xiaodong%Huang%NULL%2,          Jiahong%Xia%NULL%2,          Bing-Hong%Zhang%NULL%2,          Jiao%Guo%NULL%1,          Lihua%Zhu%NULL%2,          Zhibing%Lu%NULL%3,          Yufeng%Yuan%NULL%2,          Xiang%Wei%NULL%1,          Zhi-Gang%She%NULL%2,          Yan-Xiao%Ji%NULL%2,          Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,          Xi%Bai%NULL%1,          Xia%Han%NULL%1,          Wangyan%Jiang%NULL%1,          Lin%Qiu%NULL%2,          Shi%Chen%NULL%1,          Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,          Yanhong%Wei%NULL%1,          Min%Chen%NULL%1,          Qianqian%Wan%NULL%1,          Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,          Matteo%Monami%NULL%1,          Achille%Cernigliaro%NULL%1,          Enrica%Vigneri%NULL%1,          Valentina%Guarnotta%NULL%1,          Salvatore%Scondotto%NULL%1,          Vincenza A.%Allotta%NULL%1,          Michela%Conti%NULL%1,          Carla%Giordano%NULL%1,          Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,          Wen%Kong%NULL%1,          Pengfei%Xia%NULL%1,          Ying%Xu%NULL%1,          Li%Li%NULL%0,          Qin%Li%NULL%1,          Li%Yang%NULL%3,          Qi%Wei%NULL%3,          Hanyu%Wang%NULL%1,          Huiqing%Li%NULL%1,          Juan%Zheng%NULL%1,          Hui%Sun%NULL%1,          Wenfang%Xia%NULL%1,          Geng%Liu%NULL%1,          Xueyu%Zhong%NULL%1,          Kangli%Qiu%NULL%1,          Yan%Li%NULL%1,          Han%Wang%NULL%1,          Yuxiu%Wang%NULL%1,          Xiaoli%Song%NULL%1,          Hua%Liu%NULL%1,          Si%Xiong%NULL%1,          Yumei%Liu%NULL%1,          Zhenhai%Cui%NULL%1,          Yu%Hu%NULL%6,          Lulu%Chen%NULL%1,          An%Pan%NULL%1,          Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,          Qi%Wei%NULL%0,          Willis X%Li%NULL%1,          Karen C%McCowen%NULL%1,          Wei%Xiong%NULL%2,          Jiao%Liu%NULL%2,          Wenlijun%Jiang%NULL%2,          Traci%Marin%NULL%1,          Robert L%Thomas%NULL%1,          Ming%He%NULL%2,          Brendan%Gongol%NULL%1,          Mark%Hepokoski%NULL%2,          Jason X-J%Yuan%NULL%1,          John Y-J%Shyy%NULL%1,          Nian%Xiong%NULL%0,          Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,          Siyi%Xin%NULL%1,          Yaqi%Chen%NULL%1,          Leyu%Li%NULL%1,          Wanjun%Chen%NULL%1,          Wenjia%Li%NULL%1,          Baoan%Zhou%NULL%1,          Chenxia%Li%NULL%1,          Yu%Gong%NULL%1,          Fei%Li%NULL%1,          Peng%Duan%NULL%1,          Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,          John%Buse%NULL%2,          John%Buse%NULL%0,          Leonardo%Tamaritz%NULL%1,          Ana%Palacio%NULL%2,          Ken%Cohen%NULL%1,          Deneen%Vojta%NULL%2,          David%Liebovitz%NULL%1,          Nia%Mitchell%NULL%1,          Jacinda%Nicklas%NULL%1,          Ildiko%Lingvay%NULL%1,          Jeanne M.%Clark%NULL%1,          Louis J.%Aronne%NULL%1,          Erik%Anderson%NULL%1,          Michael%Usher%NULL%1,          Ryan%Demmer%NULL%1,          Genevieve B.%Melton%NULL%1,          Nicholas%Ingraham%NULL%1,          Christopher J.%Tignanelli%NULL%2,          Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,          In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,          Ana%Palacio%NULL%0,          Elissa%Dawkins%NULL%1,          Gordon%Chen%NULL%1,          Daniel%McCarter%NULL%1,          Emancia%Forbes%NULL%1,          Brian%Chung%NULL%1,          Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,          Qi%Wei%NULL%0,          Karen C.%McCowen%NULL%1,          Wei%Xiong%NULL%0,          Jiao%Liu%NULL%0,          Wenlijun%Jiang%NULL%0,          Robert L.%Thomas%NULL%1,          Mark%Hepokoski%NULL%0,          Ming%He%NULL%0,          John Y. J.%Shyy%NULL%1,          Atul%Malhotra%NULL%0,          Nian%Xiong%nianxiong@hust.edu.cn%0,          Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,          T. A. N.%Reed%NULL%2,          T. A. N.%Reed%NULL%0,          M.%Ardissino%NULL%1,          P.%Bassett%NULL%1,          A. M.%Whittington%NULL%1,          D. L.%Cohen%NULL%1,          N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,          Walter%Distaso%NULL%2,          Walter%Distaso%NULL%0,          Anjali%Amin%NULL%1,          Wei%Yang%NULL%1,          Oluwagbemiga%Idowu%NULL%1,          Julia S%Kenkre%NULL%1,          Ronak J%Shah%NULL%1,          Evelina%Woin%NULL%1,          Christine%Shi%NULL%1,          Nael%Alavi%NULL%2,          Nael%Alavi%NULL%0,          Hala%Bedri%NULL%1,          Niamh%Brady%NULL%1,          Sophie%Blackburn%NULL%1,          Martina%Leczycka%NULL%1,          Sanya%Patel%NULL%1,          Elizaveta%Sokol%NULL%1,          Edward%Toke-Bjolgerud%NULL%1,          Ambreen%Qayum%NULL%1,          Mariana%Abdel-Malek%NULL%1,          David C D%Hope%NULL%1,          Nick S%Oliver%NULL%1,          Vasiliki%Bravis%NULL%1,          Shivani%Misra%NULL%1,          Tricia M%Tan%NULL%1,          Neil E%Hill%NULL%2,          Neil E%Hill%NULL%0,          Victoria%Salem%NULL%2,          Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,          Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,          Tiffany%Grimes%NULL%1,          Peng%Li%NULL%1,          Matthew%Might%NULL%1,          Fernando%Ovalle%NULL%1,          Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,          Nicholas E%Ingraham%NULL%1,          Thomas A%Murray%NULL%1,          Schelomo%Marmor%NULL%1,          Shane%Hovertsen%NULL%1,          Jessica%Gronski%NULL%1,          Chace%McNeil%NULL%1,          Ruoying%Feng%NULL%1,          Gabriel%Guzman%NULL%1,          Nermine%Abdelwahab%NULL%1,          Samantha%King%NULL%1,          Leonardo%Tamariz%NULL%0,          Thomas%Meehan%NULL%1,          Kathryn M%Pendleton%NULL%1,          Bradley%Benson%NULL%1,          Deneen%Vojta%NULL%0,          Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,          Matthieu%Wargny%NULL%0,          Matthieu%Wargny%NULL%0,          Matthieu%Pichelin%NULL%0,          Matthieu%Pichelin%NULL%0,          Abdallah%Al-Salameh%NULL%0,          Abdallah%Al-Salameh%NULL%0,          Ingrid%Allix%NULL%0,          Ingrid%Allix%NULL%0,          Coralie%Amadou%NULL%0,          Gwénaëlle%Arnault%NULL%2,          Gwénaëlle%Arnault%NULL%0,          Florence%Baudoux%NULL%1,          Bernard%Bauduceau%NULL%1,          Sophie%Borot%NULL%1,          Muriel%Bourgeon-Ghittori%NULL%2,          Muriel%Bourgeon-Ghittori%NULL%0,          Olivier%Bourron%NULL%0,          David%Boutoille%NULL%4,          David%Boutoille%NULL%0,          France%Cazenave-Roblot%NULL%3,          France%Cazenave-Roblot%NULL%0,          Claude%Chaumeil%NULL%2,          Claude%Chaumeil%NULL%0,          Emmanuel%Cosson%NULL%1,          Sandrine%Coudol%NULL%2,          Sandrine%Coudol%NULL%0,          Patrice%Darmon%NULL%1,          Emmanuel%Disse%NULL%2,          Emmanuel%Disse%NULL%0,          Amélie%Ducet-Boiffard%NULL%2,          Amélie%Ducet-Boiffard%NULL%0,          Bénédicte%Gaborit%NULL%1,          Michael%Joubert%NULL%0,          Michael%Joubert%NULL%0,          Véronique%Kerlan%NULL%2,          Véronique%Kerlan%NULL%0,          Bruno%Laviolle%NULL%1,          Lucien%Marchand%NULL%0,          Lucien%Marchand%NULL%0,          Laurent%Meyer%NULL%0,          Laurent%Meyer%NULL%0,          Louis%Potier%NULL%2,          Louis%Potier%NULL%0,          Gaëtan%Prevost%NULL%0,          Gaëtan%Prevost%NULL%0,          Jean-Pierre%Riveline%NULL%1,          René%Robert%NULL%2,          René%Robert%NULL%0,          Pierre-Jean%Saulnier%NULL%0,          Pierre-Jean%Saulnier%NULL%0,          Ariane%Sultan%NULL%2,          Ariane%Sultan%NULL%0,          Jean-François%Thébaut%NULL%2,          Jean-François%Thébaut%NULL%0,          Charles%Thivolet%NULL%0,          Charles%Thivolet%NULL%0,          Blandine%Tramunt%NULL%2,          Blandine%Tramunt%NULL%0,          Camille%Vatier%NULL%0,          Ronan%Roussel%NULL%0,          Ronan%Roussel%NULL%0,          Jean-François%Gautier%NULL%0,          Jean-François%Gautier%NULL%0,          Pierre%Gourdy%NULL%0,          Pierre%Gourdy%NULL%0,          NULL%NULL%NULL%0,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,          Peter%Knighton%NULL%1,          Francesco%Zaccardi%NULL%2,          Chirag%Bakhai%NULL%1,          Emma%Barron%NULL%1,          Naomi%Holman%NULL%1,          Partha%Kar%NULL%1,          Claire%Meace%NULL%1,          Naveed%Sattar%NULL%1,          Stephen%Sharp%NULL%1,          Nicholas J%Wareham%NULL%1,          Andy%Weaver%NULL%1,          Emilia%Woch%NULL%1,          Bob%Young%NULL%1,          Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,          José David%Torres-Peña%NULL%1,          María D.%López-Carmona%NULL%1,          M. Mar.%Ayala-Gutiérrez%NULL%1,          Francisco%Fuentes-Jiménez%NULL%1,          Lucía Jorge%Huerta%NULL%1,          Jaime Alonso%Muñoz%NULL%1,          Manuel%Rubio-Rivas%NULL%1,          Manel%Madrazo%NULL%1,          Marcos Guzmán%Garcia%NULL%1,          Beatriz Vicente%Montes%NULL%1,          Joaquim Fernández%Sola%NULL%1,          Javier%Ena%NULL%1,          Ruth Gonzalez%Ferrer%NULL%1,          Carmen Mella%Pérez%NULL%1,          Carlos Jorge%Ripper%NULL%1,          Jose Javier Napal%Lecumberri%NULL%1,          Iris El Attar%Acedo%NULL%1,          Susana Plaza%Canteli%NULL%1,          Sara Fuente%Cosío%NULL%1,          Francisco Amorós%Martínez%NULL%1,          Begoña Cortés%Rodríguez%NULL%1,          Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,          José Manuel%Ramos-Rincón%NULL%1,          Ricardo%Gómez-Huelgas%NULL%1,          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,          Sang Won%Kim%NULL%1,          Jong Won%Park%NULL%1,          Kyu Hyang%Cho%NULL%1,          Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,   Dong%Yang%xref no email%0,   Biao%Cheng%xref no email%0,   Jian%Chen%xref no email%0,   Anlin%Peng%xref no email%0,   Chen%Yang%xref no email%0,   Chong%Liu%xref no email%0,   Mingrui%Xiong%xref no email%0,   Aiping%Deng%xref no email%0,   Yu%Zhang%xref no email%0,   Ling%Zheng%xref no email%0,   Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,          Philip%Tsoukas%NULL%1,          Christopher W.%Halladay%NULL%1,          Emily%O'Neill%NULL%1,          Stefan%Gravenstein%NULL%1,          James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,          Tao%Liu%NULL%2,          Weijun%Zhong%NULL%1,          Rong%Liu%NULL%1,          Honghao%Zhou%NULL%1,          Weihua%Huang%endeavor34852@aliyun.com%1,          Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,          Jae-Han%Jeon%NULL%2,          Jae-Han%Jeon%NULL%0,          Sung-Woo%Kim%NULL%2,          Sung-Woo%Kim%NULL%0,          Jun Sung%Moon%NULL%1,          Nan Hee%Cho%NULL%1,          Eugene%Han%NULL%1,          Ji Hong%You%NULL%1,          Ji Yeon%Lee%NULL%4,          Miri%Hyun%NULL%1,          Jae Seok%Park%NULL%4,          Yong Shik%Kwon%NULL%2,          Yeon-Kyung%Choi%NULL%1,          Ki Tae%Kwon%NULL%1,          Shin Yup%Lee%NULL%1,          Eon Ju%Jeon%NULL%1,          Jin-Woo%Kim%NULL%1,          Hyo-Lim%Hong%NULL%1,          Hyun Hee%Kwon%NULL%1,          Chi Young%Jung%NULL%1,          Yin Young%Lee%NULL%1,          Eunyeoung%Ha%NULL%1,          Seung Min%Chung%NULL%1,          Jian%Hur%NULL%2,          June Hong%Ahn%NULL%3,          Na-young%Kim%NULL%1,          Shin-Woo%Kim%NULL%3,          Hyun Ha%Chang%NULL%1,          Yong Hoon%Lee%NULL%1,          Jaehee%Lee%NULL%1,          Keun-Gyu%Park%NULL%1,          Hyun Ah%Kim%NULL%1,          Ji-Hyun%Lee%NULL%2,          Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,          Lin%Qiu%NULL%0,          Yi%Liu%NULL%2,          Xiu-lan%Liu%NULL%1,          Jian-ling%Zheng%NULL%1,          Hui-ying%Xue%NULL%1,          Wen-hua%Liu%NULL%1,          Dong%Liu%NULL%3,          Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,           N.% Smati%null%1,           C. S. J.% Wong%null%1,           K.% Aspey%null%1,           M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,           A.% Anisimovich%null%1,           J.% Baxter%null%1,           L.% Mackillop%null%1,           M. P.% Vizcaychipi%null%1,           A.% McCarthy%null%1,           R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,           D.% Bates%null%1,           J. M.% Fiskio%null%1,           E. C.% Roche%null%1,           S.% Mora%null%1,           O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,           Jennifer M%Cooper%NULL%2,           Jennifer M%Cooper%NULL%0,           Krishna%Gokhale%NULL%1,           Dionisio%Acosta-Mena%NULL%1,           Samir%Dhalla%NULL%1,           Nathan%Byne%NULL%1,           Joht Singh%Chandan%NULL%1,           Astha%Anand%NULL%2,           Astha%Anand%NULL%0,           Kelvin%Okoth%NULL%1,           Anuradhaa%Subramanian%NULL%2,           Anuradhaa%Subramanian%NULL%0,           Mansoor N%Bangash%NULL%1,           Thomas%Jackson%NULL%2,           Thomas%Jackson%NULL%0,           Dawit%Zemedikun%NULL%2,           Dawit%Zemedikun%NULL%0,           Tom%Taverner%NULL%2,           Tom%Taverner%NULL%0,           Wasim%Hanif%NULL%1,           Sandip%Ghosh%NULL%1,           Parth%Narendran%NULL%1,           Konstantinos A%Toulis%NULL%1,           Abd A%Tahrani%NULL%2,           Abd A%Tahrani%NULL%0,           Rajendra%Surenthirakumaran%NULL%2,           Rajendra%Surenthirakumaran%NULL%0,           Nicola J%Adderley%NULL%1,           Shamil%Haroon%NULL%2,           Shamil%Haroon%NULL%0,           Kamlesh%Khunti%NULL%4,           Kamlesh%Khunti%NULL%0,           Christopher%Sainsbury%NULL%2,           Christopher%Sainsbury%NULL%0,           G Neil%Thomas%NULL%1,           Krishnarajah%Nirantharakumar%NULL%2,           Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,           Thomas%Servais%NULL%1,           Leïla%Belkhir%NULL%1,           Pierre-François%Laterre%NULL%1,           Jean-Paul%Thissen%NULL%1,           Bernard%Vandeleene%NULL%1,           Dominique%Maiter%NULL%1,           Jean C.%Yombi%NULL%1,           Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,           Abdallah%Al-Salameh%NULL%3,           Samy%Hadjadj%NULL%3,           Thomas%Goronflot%NULL%1,           Nicolas%Wiernsperger%NULL%1,           Matthieu%Pichelin%NULL%3,           Ingrid%Allix%NULL%3,           Coralie%Amadou%NULL%2,           Olivier%Bourron%NULL%2,           Thierry%Duriez%NULL%1,           Jean-François%Gautier%NULL%3,           Anne%Dutour%NULL%1,           Céline%Gonfroy%NULL%1,           Didier%Gouet%NULL%1,           Michael%Joubert%NULL%3,           Ingrid%Julier%NULL%1,           Etienne%Larger%NULL%1,           Lucien%Marchand%NULL%3,           Michel%Marre%NULL%1,           Laurent%Meyer%NULL%3,           Frédérique%Olivier%NULL%1,           Gaëtan%Prevost%NULL%3,           Pascale%Quiniou%NULL%1,           Christelle%Raffaitin-Cardin%NULL%1,           Ronan%Roussel%NULL%3,           Pierre-Jean%Saulnier%NULL%3,           Dominique%Seret-Begue%NULL%1,           Charles%Thivolet%NULL%3,           Camille%Vatier%NULL%2,           Rachel%Desailloud%NULL%1,           Matthieu%Wargny%NULL%3,           Pierre%Gourdy%NULL%3,           Bertrand%Cariou%NULL%1,           NULL%NULL%NULL%48]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,           Zhenyuan%Chen%NULL%1,           Li%Liu%NULL%3,           Xiaoxv%Yin%NULL%1,           Heping%Yang%NULL%1,           Xiangping%Tan%NULL%1,           Jing%Wang%NULL%2,           Hui%Li%NULL%0,           Mengge%Tian%NULL%1,           Zuxun%Lu%NULL%1,           Nian%Xiong%NULL%4,           Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,           Ye-Mao%Liu%NULL%2,           Haomiao%Li%NULL%1,           Xin%Zhang%NULL%1,           Fang%Lei%NULL%2,           Juan-Juan%Qin%NULL%2,           Ze%Chen%NULL%1,           Ke-Qiong%Deng%NULL%1,           Lijin%Lin%NULL%2,           Ming-Ming%Chen%NULL%2,           Xiaohui%Song%NULL%1,           Meng%Xia%NULL%2,           Xuewei%Huang%NULL%2,           Weifang%Liu%NULL%1,           Jingjing%Cai%NULL%2,           Xiao-Jing%Zhang%NULL%2,           Feng%Zhou%NULL%1,           Peng%Zhang%NULL%1,           Yibin%Wang%NULL%2,           Xinliang%Ma%NULL%1,           Qingbo%Xu%NULL%2,           Juan%Yang%NULL%3,           Ping%Ye%NULL%2,           Weiming%Mao%NULL%2,           Xiaodong%Huang%NULL%2,           Jiahong%Xia%NULL%2,           Bing-Hong%Zhang%NULL%2,           Jiao%Guo%NULL%1,           Lihua%Zhu%NULL%2,           Zhibing%Lu%NULL%3,           Yufeng%Yuan%NULL%2,           Xiang%Wei%NULL%1,           Zhi-Gang%She%NULL%2,           Yan-Xiao%Ji%NULL%2,           Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,           Xi%Bai%NULL%1,           Xia%Han%NULL%1,           Wangyan%Jiang%NULL%1,           Lin%Qiu%NULL%2,           Shi%Chen%NULL%1,           Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,           Yanhong%Wei%NULL%1,           Min%Chen%NULL%1,           Qianqian%Wan%NULL%1,           Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,           Matteo%Monami%NULL%1,           Achille%Cernigliaro%NULL%1,           Enrica%Vigneri%NULL%1,           Valentina%Guarnotta%NULL%1,           Salvatore%Scondotto%NULL%1,           Vincenza A.%Allotta%NULL%1,           Michela%Conti%NULL%1,           Carla%Giordano%NULL%1,           Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,           Wen%Kong%NULL%1,           Pengfei%Xia%NULL%1,           Ying%Xu%NULL%1,           Li%Li%NULL%0,           Qin%Li%NULL%1,           Li%Yang%NULL%3,           Qi%Wei%NULL%3,           Hanyu%Wang%NULL%1,           Huiqing%Li%NULL%1,           Juan%Zheng%NULL%1,           Hui%Sun%NULL%1,           Wenfang%Xia%NULL%1,           Geng%Liu%NULL%1,           Xueyu%Zhong%NULL%1,           Kangli%Qiu%NULL%1,           Yan%Li%NULL%1,           Han%Wang%NULL%1,           Yuxiu%Wang%NULL%1,           Xiaoli%Song%NULL%1,           Hua%Liu%NULL%1,           Si%Xiong%NULL%1,           Yumei%Liu%NULL%1,           Zhenhai%Cui%NULL%1,           Yu%Hu%NULL%7,           Lulu%Chen%NULL%1,           An%Pan%NULL%1,           Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,           Qi%Wei%NULL%0,           Willis X%Li%NULL%1,           Karen C%McCowen%NULL%1,           Wei%Xiong%NULL%2,           Jiao%Liu%NULL%2,           Wenlijun%Jiang%NULL%2,           Traci%Marin%NULL%1,           Robert L%Thomas%NULL%1,           Ming%He%NULL%2,           Brendan%Gongol%NULL%1,           Mark%Hepokoski%NULL%2,           Jason X-J%Yuan%NULL%1,           John Y-J%Shyy%NULL%1,           Nian%Xiong%NULL%0,           Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,           Siyi%Xin%NULL%1,           Yaqi%Chen%NULL%1,           Leyu%Li%NULL%1,           Wanjun%Chen%NULL%1,           Wenjia%Li%NULL%1,           Baoan%Zhou%NULL%1,           Chenxia%Li%NULL%1,           Yu%Gong%NULL%1,           Fei%Li%NULL%1,           Peng%Duan%NULL%1,           Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,           John%Buse%NULL%2,           John%Buse%NULL%0,           Leonardo%Tamaritz%NULL%1,           Ana%Palacio%NULL%2,           Ken%Cohen%NULL%1,           Deneen%Vojta%NULL%2,           David%Liebovitz%NULL%1,           Nia%Mitchell%NULL%1,           Jacinda%Nicklas%NULL%1,           Ildiko%Lingvay%NULL%1,           Jeanne M.%Clark%NULL%1,           Louis J.%Aronne%NULL%1,           Erik%Anderson%NULL%1,           Michael%Usher%NULL%1,           Ryan%Demmer%NULL%1,           Genevieve B.%Melton%NULL%1,           Nicholas%Ingraham%NULL%1,           Christopher J.%Tignanelli%NULL%2,           Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,           In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,           Ana%Palacio%NULL%0,           Elissa%Dawkins%NULL%1,           Gordon%Chen%NULL%1,           Daniel%McCarter%NULL%1,           Emancia%Forbes%NULL%1,           Brian%Chung%NULL%1,           Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,           Qi%Wei%NULL%0,           Karen C.%McCowen%NULL%1,           Wei%Xiong%NULL%0,           Jiao%Liu%NULL%0,           Wenlijun%Jiang%NULL%0,           Robert L.%Thomas%NULL%1,           Mark%Hepokoski%NULL%0,           Ming%He%NULL%0,           John Y. J.%Shyy%NULL%1,           Atul%Malhotra%NULL%0,           Nian%Xiong%nianxiong@hust.edu.cn%0,           Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,           T. A. N.%Reed%NULL%2,           T. A. N.%Reed%NULL%0,           M.%Ardissino%NULL%1,           P.%Bassett%NULL%1,           A. M.%Whittington%NULL%1,           D. L.%Cohen%NULL%1,           N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,           Walter%Distaso%NULL%2,           Walter%Distaso%NULL%0,           Anjali%Amin%NULL%1,           Wei%Yang%NULL%2,           Oluwagbemiga%Idowu%NULL%1,           Julia S%Kenkre%NULL%1,           Ronak J%Shah%NULL%1,           Evelina%Woin%NULL%1,           Christine%Shi%NULL%1,           Nael%Alavi%NULL%2,           Nael%Alavi%NULL%0,           Hala%Bedri%NULL%1,           Niamh%Brady%NULL%1,           Sophie%Blackburn%NULL%1,           Martina%Leczycka%NULL%1,           Sanya%Patel%NULL%1,           Elizaveta%Sokol%NULL%1,           Edward%Toke-Bjolgerud%NULL%1,           Ambreen%Qayum%NULL%1,           Mariana%Abdel-Malek%NULL%1,           David C D%Hope%NULL%1,           Nick S%Oliver%NULL%1,           Vasiliki%Bravis%NULL%1,           Shivani%Misra%NULL%1,           Tricia M%Tan%NULL%1,           Neil E%Hill%NULL%2,           Neil E%Hill%NULL%0,           Victoria%Salem%NULL%2,           Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,           Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,           Tiffany%Grimes%NULL%1,           Peng%Li%NULL%1,           Matthew%Might%NULL%1,           Fernando%Ovalle%NULL%1,           Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,           Nicholas E%Ingraham%NULL%1,           Thomas A%Murray%NULL%1,           Schelomo%Marmor%NULL%1,           Shane%Hovertsen%NULL%1,           Jessica%Gronski%NULL%1,           Chace%McNeil%NULL%1,           Ruoying%Feng%NULL%1,           Gabriel%Guzman%NULL%1,           Nermine%Abdelwahab%NULL%1,           Samantha%King%NULL%1,           Leonardo%Tamariz%NULL%0,           Thomas%Meehan%NULL%1,           Kathryn M%Pendleton%NULL%1,           Bradley%Benson%NULL%1,           Deneen%Vojta%NULL%0,           Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,           Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,           Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,           Matthieu%Wargny%NULL%0,           Matthieu%Wargny%NULL%0,           Matthieu%Pichelin%NULL%0,           Matthieu%Pichelin%NULL%0,           Abdallah%Al-Salameh%NULL%0,           Abdallah%Al-Salameh%NULL%0,           Ingrid%Allix%NULL%0,           Ingrid%Allix%NULL%0,           Coralie%Amadou%NULL%0,           Gwénaëlle%Arnault%NULL%2,           Gwénaëlle%Arnault%NULL%0,           Florence%Baudoux%NULL%1,           Bernard%Bauduceau%NULL%1,           Sophie%Borot%NULL%1,           Muriel%Bourgeon-Ghittori%NULL%2,           Muriel%Bourgeon-Ghittori%NULL%0,           Olivier%Bourron%NULL%0,           David%Boutoille%NULL%4,           David%Boutoille%NULL%0,           France%Cazenave-Roblot%NULL%3,           France%Cazenave-Roblot%NULL%0,           Claude%Chaumeil%NULL%2,           Claude%Chaumeil%NULL%0,           Emmanuel%Cosson%NULL%1,           Sandrine%Coudol%NULL%2,           Sandrine%Coudol%NULL%0,           Patrice%Darmon%NULL%1,           Emmanuel%Disse%NULL%2,           Emmanuel%Disse%NULL%0,           Amélie%Ducet-Boiffard%NULL%2,           Amélie%Ducet-Boiffard%NULL%0,           Bénédicte%Gaborit%NULL%1,           Michael%Joubert%NULL%0,           Michael%Joubert%NULL%0,           Véronique%Kerlan%NULL%2,           Véronique%Kerlan%NULL%0,           Bruno%Laviolle%NULL%1,           Lucien%Marchand%NULL%0,           Lucien%Marchand%NULL%0,           Laurent%Meyer%NULL%0,           Laurent%Meyer%NULL%0,           Louis%Potier%NULL%2,           Louis%Potier%NULL%0,           Gaëtan%Prevost%NULL%0,           Gaëtan%Prevost%NULL%0,           Jean-Pierre%Riveline%NULL%1,           René%Robert%NULL%2,           René%Robert%NULL%0,           Pierre-Jean%Saulnier%NULL%0,           Pierre-Jean%Saulnier%NULL%0,           Ariane%Sultan%NULL%2,           Ariane%Sultan%NULL%0,           Jean-François%Thébaut%NULL%2,           Jean-François%Thébaut%NULL%0,           Charles%Thivolet%NULL%0,           Charles%Thivolet%NULL%0,           Blandine%Tramunt%NULL%2,           Blandine%Tramunt%NULL%0,           Camille%Vatier%NULL%0,           Ronan%Roussel%NULL%0,           Ronan%Roussel%NULL%0,           Jean-François%Gautier%NULL%0,           Jean-François%Gautier%NULL%0,           Pierre%Gourdy%NULL%0,           Pierre%Gourdy%NULL%0,           NULL%NULL%NULL%0,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,           Peter%Knighton%NULL%1,           Francesco%Zaccardi%NULL%2,           Chirag%Bakhai%NULL%1,           Emma%Barron%NULL%1,           Naomi%Holman%NULL%1,           Partha%Kar%NULL%1,           Claire%Meace%NULL%1,           Naveed%Sattar%NULL%1,           Stephen%Sharp%NULL%1,           Nicholas J%Wareham%NULL%1,           Andy%Weaver%NULL%1,           Emilia%Woch%NULL%1,           Bob%Young%NULL%1,           Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,           José David%Torres-Peña%NULL%1,           María D.%López-Carmona%NULL%1,           M. Mar.%Ayala-Gutiérrez%NULL%1,           Francisco%Fuentes-Jiménez%NULL%1,           Lucía Jorge%Huerta%NULL%1,           Jaime Alonso%Muñoz%NULL%1,           Manuel%Rubio-Rivas%NULL%1,           Manel%Madrazo%NULL%1,           Marcos Guzmán%Garcia%NULL%1,           Beatriz Vicente%Montes%NULL%1,           Joaquim Fernández%Sola%NULL%1,           Javier%Ena%NULL%1,           Ruth Gonzalez%Ferrer%NULL%1,           Carmen Mella%Pérez%NULL%1,           Carlos Jorge%Ripper%NULL%1,           Jose Javier Napal%Lecumberri%NULL%1,           Iris El Attar%Acedo%NULL%1,           Susana Plaza%Canteli%NULL%1,           Sara Fuente%Cosío%NULL%1,           Francisco Amorós%Martínez%NULL%1,           Begoña Cortés%Rodríguez%NULL%1,           Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,           José Manuel%Ramos-Rincón%NULL%1,           Ricardo%Gómez-Huelgas%NULL%1,           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,           Sang Won%Kim%NULL%1,           Jong Won%Park%NULL%1,           Kyu Hyang%Cho%NULL%1,           Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,    Dong%Yang%xref no email%0,    Biao%Cheng%xref no email%0,    Jian%Chen%xref no email%0,    Anlin%Peng%xref no email%0,    Chen%Yang%xref no email%0,    Chong%Liu%xref no email%0,    Mingrui%Xiong%xref no email%0,    Aiping%Deng%xref no email%0,    Yu%Zhang%xref no email%0,    Ling%Zheng%xref no email%0,    Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,           Philip%Tsoukas%NULL%1,           Christopher W.%Halladay%NULL%1,           Emily%O'Neill%NULL%1,           Stefan%Gravenstein%NULL%1,           James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,           Tao%Liu%NULL%3,           Weijun%Zhong%NULL%1,           Rong%Liu%NULL%1,           Honghao%Zhou%NULL%1,           Weihua%Huang%endeavor34852@aliyun.com%1,           Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,           Jae-Han%Jeon%NULL%2,           Jae-Han%Jeon%NULL%0,           Sung-Woo%Kim%NULL%2,           Sung-Woo%Kim%NULL%0,           Jun Sung%Moon%NULL%1,           Nan Hee%Cho%NULL%1,           Eugene%Han%NULL%1,           Ji Hong%You%NULL%1,           Ji Yeon%Lee%NULL%4,           Miri%Hyun%NULL%1,           Jae Seok%Park%NULL%4,           Yong Shik%Kwon%NULL%2,           Yeon-Kyung%Choi%NULL%1,           Ki Tae%Kwon%NULL%1,           Shin Yup%Lee%NULL%1,           Eon Ju%Jeon%NULL%1,           Jin-Woo%Kim%NULL%1,           Hyo-Lim%Hong%NULL%1,           Hyun Hee%Kwon%NULL%1,           Chi Young%Jung%NULL%1,           Yin Young%Lee%NULL%1,           Eunyeoung%Ha%NULL%1,           Seung Min%Chung%NULL%1,           Jian%Hur%NULL%2,           June Hong%Ahn%NULL%3,           Na-young%Kim%NULL%1,           Shin-Woo%Kim%NULL%3,           Hyun Ha%Chang%NULL%1,           Yong Hoon%Lee%NULL%1,           Jaehee%Lee%NULL%1,           Keun-Gyu%Park%NULL%1,           Hyun Ah%Kim%NULL%1,           Ji-Hyun%Lee%NULL%2,           Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,           Lin%Qiu%NULL%0,           Yi%Liu%NULL%2,           Xiu-lan%Liu%NULL%1,           Jian-ling%Zheng%NULL%1,           Hui-ying%Xue%NULL%1,           Wen-hua%Liu%NULL%1,           Dong%Liu%NULL%3,           Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,            N.% Smati%null%1,            C. S. J.% Wong%null%1,            K.% Aspey%null%1,            M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,            A.% Anisimovich%null%1,            J.% Baxter%null%1,            L.% Mackillop%null%1,            M. P.% Vizcaychipi%null%1,            A.% McCarthy%null%1,            R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,            D.% Bates%null%1,            J. M.% Fiskio%null%1,            E. C.% Roche%null%1,            S.% Mora%null%1,            O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2314,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>423</v>
+        <v>487</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2151,7 +2343,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2180,7 +2372,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>425</v>
+        <v>489</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -2209,7 +2401,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>426</v>
+        <v>490</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2238,7 +2430,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>427</v>
+        <v>491</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2267,7 +2459,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>428</v>
+        <v>492</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2296,7 +2488,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>429</v>
+        <v>493</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2325,7 +2517,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>430</v>
+        <v>494</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2354,7 +2546,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>431</v>
+        <v>495</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -2383,7 +2575,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>432</v>
+        <v>496</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2412,7 +2604,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>433</v>
+        <v>497</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -2441,7 +2633,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>434</v>
+        <v>498</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -2470,7 +2662,7 @@
         <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>435</v>
+        <v>499</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2499,7 +2691,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>436</v>
+        <v>500</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -2528,7 +2720,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>437</v>
+        <v>501</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -2557,7 +2749,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>438</v>
+        <v>502</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -2586,7 +2778,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>439</v>
+        <v>503</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2615,7 +2807,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>440</v>
+        <v>504</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -2644,7 +2836,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>441</v>
+        <v>505</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -2673,7 +2865,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -2702,7 +2894,7 @@
         <v>146</v>
       </c>
       <c r="E22" t="s">
-        <v>443</v>
+        <v>507</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -2731,7 +2923,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -2760,7 +2952,7 @@
         <v>155</v>
       </c>
       <c r="E24" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -2789,7 +2981,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -2818,7 +3010,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -2847,7 +3039,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -2876,7 +3068,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>449</v>
+        <v>513</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -2905,7 +3097,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>450</v>
+        <v>514</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -2934,7 +3126,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>451</v>
+        <v>515</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -2963,7 +3155,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>452</v>
+        <v>516</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -2992,7 +3184,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>453</v>
+        <v>517</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3021,7 +3213,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>454</v>
+        <v>518</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="586">
   <si>
     <t>Doi</t>
   </si>
@@ -1958,6 +1958,263 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,            D.% Bates%null%1,            J. M.% Fiskio%null%1,            E. C.% Roche%null%1,            S.% Mora%null%1,            O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,            Jennifer M%Cooper%NULL%2,            Jennifer M%Cooper%NULL%0,            Krishna%Gokhale%NULL%1,            Dionisio%Acosta-Mena%NULL%1,            Samir%Dhalla%NULL%1,            Nathan%Byne%NULL%1,            Joht Singh%Chandan%NULL%1,            Astha%Anand%NULL%2,            Astha%Anand%NULL%0,            Kelvin%Okoth%NULL%1,            Anuradhaa%Subramanian%NULL%2,            Anuradhaa%Subramanian%NULL%0,            Mansoor N%Bangash%NULL%1,            Thomas%Jackson%NULL%2,            Thomas%Jackson%NULL%0,            Dawit%Zemedikun%NULL%2,            Dawit%Zemedikun%NULL%0,            Tom%Taverner%NULL%2,            Tom%Taverner%NULL%0,            Wasim%Hanif%NULL%1,            Sandip%Ghosh%NULL%1,            Parth%Narendran%NULL%1,            Konstantinos A%Toulis%NULL%1,            Abd A%Tahrani%NULL%2,            Abd A%Tahrani%NULL%0,            Rajendra%Surenthirakumaran%NULL%2,            Rajendra%Surenthirakumaran%NULL%0,            Nicola J%Adderley%NULL%1,            Shamil%Haroon%NULL%2,            Shamil%Haroon%NULL%0,            Kamlesh%Khunti%NULL%4,            Kamlesh%Khunti%NULL%0,            Christopher%Sainsbury%NULL%2,            Christopher%Sainsbury%NULL%0,            G Neil%Thomas%NULL%1,            Krishnarajah%Nirantharakumar%NULL%2,            Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,            Thomas%Servais%NULL%1,            Leïla%Belkhir%NULL%1,            Pierre-François%Laterre%NULL%1,            Jean-Paul%Thissen%NULL%1,            Bernard%Vandeleene%NULL%1,            Dominique%Maiter%NULL%1,            Jean C.%Yombi%NULL%1,            Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,            Abdallah%Al-Salameh%NULL%3,            Samy%Hadjadj%NULL%3,            Thomas%Goronflot%NULL%1,            Nicolas%Wiernsperger%NULL%1,            Matthieu%Pichelin%NULL%3,            Ingrid%Allix%NULL%3,            Coralie%Amadou%NULL%2,            Olivier%Bourron%NULL%2,            Thierry%Duriez%NULL%1,            Jean-François%Gautier%NULL%3,            Anne%Dutour%NULL%1,            Céline%Gonfroy%NULL%1,            Didier%Gouet%NULL%1,            Michael%Joubert%NULL%3,            Ingrid%Julier%NULL%1,            Etienne%Larger%NULL%1,            Lucien%Marchand%NULL%3,            Michel%Marre%NULL%1,            Laurent%Meyer%NULL%3,            Frédérique%Olivier%NULL%1,            Gaëtan%Prevost%NULL%3,            Pascale%Quiniou%NULL%1,            Christelle%Raffaitin-Cardin%NULL%1,            Ronan%Roussel%NULL%3,            Pierre-Jean%Saulnier%NULL%3,            Dominique%Seret-Begue%NULL%1,            Charles%Thivolet%NULL%3,            Camille%Vatier%NULL%2,            Rachel%Desailloud%NULL%1,            Matthieu%Wargny%NULL%3,            Pierre%Gourdy%NULL%3,            Bertrand%Cariou%NULL%1,            NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,            Zhenyuan%Chen%NULL%1,            Li%Liu%NULL%3,            Xiaoxv%Yin%NULL%1,            Heping%Yang%NULL%1,            Xiangping%Tan%NULL%1,            Jing%Wang%NULL%2,            Hui%Li%NULL%0,            Mengge%Tian%NULL%1,            Zuxun%Lu%NULL%1,            Nian%Xiong%NULL%4,            Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,            Ye-Mao%Liu%NULL%2,            Haomiao%Li%NULL%1,            Xin%Zhang%NULL%1,            Fang%Lei%NULL%2,            Juan-Juan%Qin%NULL%2,            Ze%Chen%NULL%1,            Ke-Qiong%Deng%NULL%1,            Lijin%Lin%NULL%2,            Ming-Ming%Chen%NULL%2,            Xiaohui%Song%NULL%1,            Meng%Xia%NULL%2,            Xuewei%Huang%NULL%2,            Weifang%Liu%NULL%1,            Jingjing%Cai%NULL%2,            Xiao-Jing%Zhang%NULL%2,            Feng%Zhou%NULL%1,            Peng%Zhang%NULL%1,            Yibin%Wang%NULL%2,            Xinliang%Ma%NULL%1,            Qingbo%Xu%NULL%2,            Juan%Yang%NULL%3,            Ping%Ye%NULL%2,            Weiming%Mao%NULL%2,            Xiaodong%Huang%NULL%2,            Jiahong%Xia%NULL%2,            Bing-Hong%Zhang%NULL%2,            Jiao%Guo%NULL%1,            Lihua%Zhu%NULL%2,            Zhibing%Lu%NULL%3,            Yufeng%Yuan%NULL%2,            Xiang%Wei%NULL%1,            Zhi-Gang%She%NULL%2,            Yan-Xiao%Ji%NULL%2,            Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,            Xi%Bai%NULL%1,            Xia%Han%NULL%1,            Wangyan%Jiang%NULL%1,            Lin%Qiu%NULL%2,            Shi%Chen%NULL%1,            Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,            Yanhong%Wei%NULL%1,            Min%Chen%NULL%1,            Qianqian%Wan%NULL%1,            Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,            Matteo%Monami%NULL%1,            Achille%Cernigliaro%NULL%1,            Enrica%Vigneri%NULL%1,            Valentina%Guarnotta%NULL%1,            Salvatore%Scondotto%NULL%1,            Vincenza A.%Allotta%NULL%1,            Michela%Conti%NULL%1,            Carla%Giordano%NULL%1,            Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,            Wen%Kong%NULL%1,            Pengfei%Xia%NULL%1,            Ying%Xu%NULL%1,            Li%Li%NULL%0,            Qin%Li%NULL%1,            Li%Yang%NULL%3,            Qi%Wei%NULL%3,            Hanyu%Wang%NULL%1,            Huiqing%Li%NULL%1,            Juan%Zheng%NULL%1,            Hui%Sun%NULL%1,            Wenfang%Xia%NULL%1,            Geng%Liu%NULL%1,            Xueyu%Zhong%NULL%1,            Kangli%Qiu%NULL%1,            Yan%Li%NULL%1,            Han%Wang%NULL%1,            Yuxiu%Wang%NULL%1,            Xiaoli%Song%NULL%1,            Hua%Liu%NULL%1,            Si%Xiong%NULL%1,            Yumei%Liu%NULL%1,            Zhenhai%Cui%NULL%1,            Yu%Hu%NULL%6,            Lulu%Chen%NULL%1,            An%Pan%NULL%1,            Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,            Qi%Wei%NULL%0,            Willis X%Li%NULL%1,            Karen C%McCowen%NULL%1,            Wei%Xiong%NULL%2,            Jiao%Liu%NULL%2,            Wenlijun%Jiang%NULL%2,            Traci%Marin%NULL%1,            Robert L%Thomas%NULL%1,            Ming%He%NULL%2,            Brendan%Gongol%NULL%1,            Mark%Hepokoski%NULL%2,            Jason X-J%Yuan%NULL%1,            John Y-J%Shyy%NULL%1,            Nian%Xiong%NULL%0,            Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,            Siyi%Xin%NULL%1,            Yaqi%Chen%NULL%1,            Leyu%Li%NULL%1,            Wanjun%Chen%NULL%1,            Wenjia%Li%NULL%1,            Baoan%Zhou%NULL%1,            Chenxia%Li%NULL%1,            Yu%Gong%NULL%1,            Fei%Li%NULL%1,            Peng%Duan%NULL%1,            Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,            John%Buse%NULL%2,            John%Buse%NULL%0,            Leonardo%Tamaritz%NULL%1,            Ana%Palacio%NULL%2,            Ken%Cohen%NULL%1,            Deneen%Vojta%NULL%2,            David%Liebovitz%NULL%1,            Nia%Mitchell%NULL%1,            Jacinda%Nicklas%NULL%1,            Ildiko%Lingvay%NULL%1,            Jeanne M.%Clark%NULL%1,            Louis J.%Aronne%NULL%1,            Erik%Anderson%NULL%1,            Michael%Usher%NULL%1,            Ryan%Demmer%NULL%1,            Genevieve B.%Melton%NULL%1,            Nicholas%Ingraham%NULL%1,            Christopher J.%Tignanelli%NULL%2,            Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims
+The relationship between metformin therapy and the risk of coronavirus disease (COVID-19) has not been reported among patients with type 2 diabetes mellitus (DM).
+ We aimed to investigate whether metformin therapy was associated with the incidence of COVID-19 among type 2 DM patients in South Korea.
+Methods
+The National Health Insurance Service-COVID-19 cohort database, comprising COVID-19 patients from 1 January 2020 to 4 June 2020, was used for this study.
+ Among them, adult patients with type 2 DM were included in this study.
+ Metformin users were defined as those who had been prescribed continuous oral metformin for over a period of ≥ 90 days, and the control group was defined as all other patients.
+Results
+Overall, 27,493 patients with type 2 DM (7204, metformin user group; 20,289, control group) were included.
+ After propensity score matching, 11,892 patients (5946 patients in each group) were included in the final analysis.
+ In the logistic regression analysis, the odds of metformin users developing COVID-19 was 30% lower than that of the control group [odds ratio (OR): 0.70, 95% confidence interval (CI): 0.61–0.80; P &amp;lt; 0.001].
+ However, in the multivariate model, metformin use was not associated with hospital mortality when compared with that of the control group (OR: 1.26, 95% CI: 0.81–1.95; P = 0.301).
+Conclusions
+Metformin therapy might have potential benefits for the prevention of COVID-19 among patients with type 2 DM in South Korea.
+ However, it did not affect the hospital mortality of type 2 DM patients diagnosed with COVID-19.
+Supplementary Information
+The online version contains supplementary material available at 10.1007/s00592-020-01666-7.
+</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,            In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,            Ana%Palacio%NULL%0,            Elissa%Dawkins%NULL%1,            Gordon%Chen%NULL%1,            Daniel%McCarter%NULL%1,            Emancia%Forbes%NULL%1,            Brian%Chung%NULL%1,            Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,            Qi%Wei%NULL%0,            Karen C.%McCowen%NULL%1,            Wei%Xiong%NULL%0,            Jiao%Liu%NULL%0,            Wenlijun%Jiang%NULL%0,            Robert L.%Thomas%NULL%1,            Mark%Hepokoski%NULL%0,            Ming%He%NULL%0,            John Y. J.%Shyy%NULL%1,            Atul%Malhotra%NULL%0,            Nian%Xiong%nianxiong@hust.edu.cn%0,            Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,            T. A. N.%Reed%NULL%2,            T. A. N.%Reed%NULL%0,            M.%Ardissino%NULL%1,            P.%Bassett%NULL%1,            A. M.%Whittington%NULL%1,            D. L.%Cohen%NULL%1,            N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,            Walter%Distaso%NULL%2,            Walter%Distaso%NULL%0,            Anjali%Amin%NULL%1,            Wei%Yang%NULL%1,            Oluwagbemiga%Idowu%NULL%1,            Julia S%Kenkre%NULL%1,            Ronak J%Shah%NULL%1,            Evelina%Woin%NULL%1,            Christine%Shi%NULL%1,            Nael%Alavi%NULL%2,            Nael%Alavi%NULL%0,            Hala%Bedri%NULL%1,            Niamh%Brady%NULL%1,            Sophie%Blackburn%NULL%1,            Martina%Leczycka%NULL%1,            Sanya%Patel%NULL%1,            Elizaveta%Sokol%NULL%1,            Edward%Toke-Bjolgerud%NULL%1,            Ambreen%Qayum%NULL%1,            Mariana%Abdel-Malek%NULL%1,            David C D%Hope%NULL%1,            Nick S%Oliver%NULL%1,            Vasiliki%Bravis%NULL%1,            Shivani%Misra%NULL%1,            Tricia M%Tan%NULL%1,            Neil E%Hill%NULL%2,            Neil E%Hill%NULL%0,            Victoria%Salem%NULL%2,            Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,            Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,            Tiffany%Grimes%NULL%1,            Peng%Li%NULL%1,            Matthew%Might%NULL%1,            Fernando%Ovalle%NULL%1,            Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,            Nicholas E%Ingraham%NULL%1,            Thomas A%Murray%NULL%1,            Schelomo%Marmor%NULL%1,            Shane%Hovertsen%NULL%1,            Jessica%Gronski%NULL%1,            Chace%McNeil%NULL%1,            Ruoying%Feng%NULL%1,            Gabriel%Guzman%NULL%1,            Nermine%Abdelwahab%NULL%1,            Samantha%King%NULL%1,            Leonardo%Tamariz%NULL%0,            Thomas%Meehan%NULL%1,            Kathryn M%Pendleton%NULL%1,            Bradley%Benson%NULL%1,            Deneen%Vojta%NULL%0,            Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aims/hypothesis
+Coronavirus disease-2019 (COVID-19) is a life-threatening infection caused by the severe acute respiratory syndrome coronavirus-2 (SARS-CoV-2) virus.
+ Diabetes has rapidly emerged as a major comorbidity for COVID-19 severity.
+ However, the phenotypic characteristics of diabetes in COVID-19 patients are unknown.
+Methods
+We conducted a nationwide multicentre observational study in people with diabetes hospitalised for COVID-19 in 53 French centres in the period 10–31 March 2020. The primary outcome combined tracheal intubation for mechanical ventilation and/or death within 7 days of admission.
+ Age- and sex-adjusted multivariable logistic regressions were performed to assess the prognostic value of clinical and biological features with the endpoint.
+ ORs are reported for a 1 SD increase after standardisation.
+Results
+The current analysis focused on 1317 participants: 64.9% men, mean age 69.8 ± 13.0 years, median BMI 28.4 (25th–75th percentile: 25.0–32.7) kg/m2; with a predominance of type 2 diabetes (88.5%).
+ Microvascular and macrovascular diabetic complications were found in 46.8% and 40.8% of cases, respectively.
+ The primary outcome was encountered in 29.0% (95% CI 26.6, 31.5) of participants, while 10.6% (9.0, 12.4) died and 18.0% (16.0, 20.2) were discharged on day 7. In univariate analysis, characteristics prior to admission significantly associated with the primary outcome were sex, BMI and previous treatment with renin–angiotensin–aldosterone system (RAAS) blockers, but not age, type of diabetes, HbA1c, diabetic complications or glucose-lowering therapies.
+ In multivariable analyses with covariates prior to admission, only BMI remained positively associated with the primary outcome (OR 1.28 [1.10, 1.47]).
+ On admission, dyspnoea (OR 2.10 [1.31, 3.35]), as well as lymphocyte count (OR 0.67 [0.50, 0.88]), C-reactive protein (OR 1.93 [1.43, 2.59]) and AST (OR 2.23 [1.70, 2.93]) levels were independent predictors of the primary outcome.
+ Finally, age (OR 2.48 [1.74, 3.53]), treated obstructive sleep apnoea (OR 2.80 [1.46, 5.38]), and microvascular (OR 2.14 [1.16, 3.94]) and macrovascular complications (OR 2.54 [1.44, 4.50]) were independently associated with the risk of death on day 7.
+Conclusions/interpretations
+In people with diabetes hospitalised for COVID-19, BMI, but not long-term glucose control, was positively and independently associated with tracheal intubation and/or death within 7 days.
+Trial registration
+clinicaltrials.
+gov NCT04324736.
+Electronic supplementary material
+The online version of this article (10.1007/s00125-020-05180-x) contains peer-reviewed but unedited supplementary material, which is available to authorised users.
+</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,            Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,            Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,            Matthieu%Wargny%NULL%0,            Matthieu%Wargny%NULL%0,            Matthieu%Pichelin%NULL%0,            Matthieu%Pichelin%NULL%0,            Abdallah%Al-Salameh%NULL%0,            Abdallah%Al-Salameh%NULL%0,            Ingrid%Allix%NULL%0,            Ingrid%Allix%NULL%0,            Coralie%Amadou%NULL%0,            Gwénaëlle%Arnault%NULL%2,            Gwénaëlle%Arnault%NULL%0,            Florence%Baudoux%NULL%1,            Bernard%Bauduceau%NULL%1,            Sophie%Borot%NULL%1,            Muriel%Bourgeon-Ghittori%NULL%2,            Muriel%Bourgeon-Ghittori%NULL%0,            Olivier%Bourron%NULL%0,            David%Boutoille%NULL%4,            David%Boutoille%NULL%0,            France%Cazenave-Roblot%NULL%3,            France%Cazenave-Roblot%NULL%0,            Claude%Chaumeil%NULL%2,            Claude%Chaumeil%NULL%0,            Emmanuel%Cosson%NULL%1,            Sandrine%Coudol%NULL%2,            Sandrine%Coudol%NULL%0,            Patrice%Darmon%NULL%1,            Emmanuel%Disse%NULL%2,            Emmanuel%Disse%NULL%0,            Amélie%Ducet-Boiffard%NULL%2,            Amélie%Ducet-Boiffard%NULL%0,            Bénédicte%Gaborit%NULL%1,            Michael%Joubert%NULL%0,            Michael%Joubert%NULL%0,            Véronique%Kerlan%NULL%2,            Véronique%Kerlan%NULL%0,            Bruno%Laviolle%NULL%1,            Lucien%Marchand%NULL%0,            Lucien%Marchand%NULL%0,            Laurent%Meyer%NULL%0,            Laurent%Meyer%NULL%0,            Louis%Potier%NULL%2,            Louis%Potier%NULL%0,            Gaëtan%Prevost%NULL%0,            Gaëtan%Prevost%NULL%0,            Jean-Pierre%Riveline%NULL%1,            René%Robert%NULL%2,            René%Robert%NULL%0,            Pierre-Jean%Saulnier%NULL%0,            Pierre-Jean%Saulnier%NULL%0,            Ariane%Sultan%NULL%2,            Ariane%Sultan%NULL%0,            Jean-François%Thébaut%NULL%2,            Jean-François%Thébaut%NULL%0,            Charles%Thivolet%NULL%0,            Charles%Thivolet%NULL%0,            Blandine%Tramunt%NULL%2,            Blandine%Tramunt%NULL%0,            Camille%Vatier%NULL%0,            Ronan%Roussel%NULL%0,            Ronan%Roussel%NULL%0,            Jean-François%Gautier%NULL%0,            Jean-François%Gautier%NULL%0,            Pierre%Gourdy%NULL%0,            Pierre%Gourdy%NULL%0,            NULL%NULL%NULL%0,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,            Peter%Knighton%NULL%1,            Francesco%Zaccardi%NULL%2,            Chirag%Bakhai%NULL%1,            Emma%Barron%NULL%1,            Naomi%Holman%NULL%1,            Partha%Kar%NULL%1,            Claire%Meace%NULL%1,            Naveed%Sattar%NULL%1,            Stephen%Sharp%NULL%1,            Nicholas J%Wareham%NULL%1,            Andy%Weaver%NULL%1,            Emilia%Woch%NULL%1,            Bob%Young%NULL%1,            Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Limited evidence exists on the role of glucose-lowering drugs in patients with COVID-19. Our main objective was to examine the association between in-hospital death and each routine at-home glucose-lowering drug both individually and in combination with metformin in patients with type 2 diabetes mellitus admitted for COVID-19. We also evaluated their association with the composite outcome of the need for ICU admission, invasive and non-invasive mechanical ventilation, or in-hospital death as well as on the development of in-hospital complications and a long-time hospital stay.
+Methods
+We selected all patients with type 2 diabetes mellitus in the Spanish Society of Internal Medicine’s registry of COVID-19 patients (SEMI-COVID-19 Registry).
+ It is an ongoing, observational, multicenter, nationwide cohort of patients admitted for COVID-19 in Spain from March 1, 2020. Each glucose-lowering drug user was matched with a user of other glucose-lowering drugs in a 1:1 manner by propensity scores.
+ In order to assess the adequacy of propensity score matching, we used the standardized mean difference found in patient characteristics after matching.
+ There was considered to be a significant imbalance in the group if a standardized mean difference &amp;gt; 10% was found.
+ To evaluate the association between treatment and study outcomes, both conditional logit and mixed effect logistic regressions were used when the sample size was ≥ 100.
+Results
+A total of 2666 patients were found in the SEMI-COVID-19 Registry, 1297 on glucose-lowering drugs in monotherapy and 465 in combination with metformin.
+ After propensity matching, 249 patients on metformin, 105 on dipeptidyl peptidase-4 inhibitors, 129 on insulin, 127 on metformin/dipeptidyl peptidase-4 inhibitors, 34 on metformin/sodium-glucose cotransporter 2 inhibitor, and 67 on metformin/insulin were selected.
+ No at-home glucose-lowering drugs showed a significant association with in-hospital death; the composite outcome of the need of intensive care unit admission, mechanical ventilation, or in-hospital death; in-hospital complications; or long-time hospital stays.
+Conclusions
+In patients with type 2 diabetes mellitus admitted for COVID-19, at-home glucose-lowering drugs showed no significant association with mortality and adverse outcomes.
+ Given the close relationship between diabetes and COVID-19 and the limited evidence on the role of glucose-lowering drugs, prospective studies are needed.
+Supplementary information
+Supplementary information accompanies this paper at 10.1186/s12916-020-01832-2.
+</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,            José David%Torres-Peña%NULL%1,            María D.%López-Carmona%NULL%1,            M. Mar.%Ayala-Gutiérrez%NULL%1,            Francisco%Fuentes-Jiménez%NULL%1,            Lucía Jorge%Huerta%NULL%1,            Jaime Alonso%Muñoz%NULL%1,            Manuel%Rubio-Rivas%NULL%1,            Manel%Madrazo%NULL%1,            Marcos Guzmán%Garcia%NULL%1,            Beatriz Vicente%Montes%NULL%1,            Joaquim Fernández%Sola%NULL%1,            Javier%Ena%NULL%1,            Ruth Gonzalez%Ferrer%NULL%1,            Carmen Mella%Pérez%NULL%1,            Carlos Jorge%Ripper%NULL%1,            Jose Javier Napal%Lecumberri%NULL%1,            Iris El Attar%Acedo%NULL%1,            Susana Plaza%Canteli%NULL%1,            Sara Fuente%Cosío%NULL%1,            Francisco Amorós%Martínez%NULL%1,            Begoña Cortés%Rodríguez%NULL%1,            Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,            José Manuel%Ramos-Rincón%NULL%1,            Ricardo%Gómez-Huelgas%NULL%1,            NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,            Sang Won%Kim%NULL%1,            Jong Won%Park%NULL%1,            Kyu Hyang%Cho%NULL%1,            Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,     Dong%Yang%xref no email%0,     Biao%Cheng%xref no email%0,     Jian%Chen%xref no email%0,     Anlin%Peng%xref no email%0,     Chen%Yang%xref no email%0,     Chong%Liu%xref no email%0,     Mingrui%Xiong%xref no email%0,     Aiping%Deng%xref no email%0,     Yu%Zhang%xref no email%0,     Ling%Zheng%xref no email%0,     Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,            Philip%Tsoukas%NULL%1,            Christopher W.%Halladay%NULL%1,            Emily%O'Neill%NULL%1,            Stefan%Gravenstein%NULL%1,            James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,            Tao%Liu%NULL%2,            Weijun%Zhong%NULL%1,            Rong%Liu%NULL%1,            Honghao%Zhou%NULL%1,            Weihua%Huang%endeavor34852@aliyun.com%1,            Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,            Jae-Han%Jeon%NULL%2,            Jae-Han%Jeon%NULL%0,            Sung-Woo%Kim%NULL%2,            Sung-Woo%Kim%NULL%0,            Jun Sung%Moon%NULL%1,            Nan Hee%Cho%NULL%1,            Eugene%Han%NULL%1,            Ji Hong%You%NULL%1,            Ji Yeon%Lee%NULL%4,            Miri%Hyun%NULL%1,            Jae Seok%Park%NULL%4,            Yong Shik%Kwon%NULL%2,            Yeon-Kyung%Choi%NULL%1,            Ki Tae%Kwon%NULL%1,            Shin Yup%Lee%NULL%1,            Eon Ju%Jeon%NULL%1,            Jin-Woo%Kim%NULL%1,            Hyo-Lim%Hong%NULL%1,            Hyun Hee%Kwon%NULL%1,            Chi Young%Jung%NULL%1,            Yin Young%Lee%NULL%1,            Eunyeoung%Ha%NULL%1,            Seung Min%Chung%NULL%1,            Jian%Hur%NULL%2,            June Hong%Ahn%NULL%3,            Na-young%Kim%NULL%1,            Shin-Woo%Kim%NULL%3,            Hyun Ha%Chang%NULL%1,            Yong Hoon%Lee%NULL%1,            Jaehee%Lee%NULL%1,            Keun-Gyu%Park%NULL%1,            Hyun Ah%Kim%NULL%1,            Ji-Hyun%Lee%NULL%2,            Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,            Lin%Qiu%NULL%0,            Yi%Liu%NULL%2,            Xiu-lan%Liu%NULL%1,            Jian-ling%Zheng%NULL%1,            Hui-ying%Xue%NULL%1,            Wen-hua%Liu%NULL%1,            Dong%Liu%NULL%3,            Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,             N.% Smati%null%1,             C. S. J.% Wong%null%1,             K.% Aspey%null%1,             M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,             A.% Anisimovich%null%1,             J.% Baxter%null%1,             L.% Mackillop%null%1,             M. P.% Vizcaychipi%null%1,             A.% McCarthy%null%1,             R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,             D.% Bates%null%1,             J. M.% Fiskio%null%1,             E. C.% Roche%null%1,             S.% Mora%null%1,             O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,             Jennifer M%Cooper%NULL%2,             Jennifer M%Cooper%NULL%0,             Krishna%Gokhale%NULL%1,             Dionisio%Acosta-Mena%NULL%1,             Samir%Dhalla%NULL%1,             Nathan%Byne%NULL%1,             Joht Singh%Chandan%NULL%1,             Astha%Anand%NULL%2,             Astha%Anand%NULL%0,             Kelvin%Okoth%NULL%1,             Anuradhaa%Subramanian%NULL%2,             Anuradhaa%Subramanian%NULL%0,             Mansoor N%Bangash%NULL%1,             Thomas%Jackson%NULL%2,             Thomas%Jackson%NULL%0,             Dawit%Zemedikun%NULL%2,             Dawit%Zemedikun%NULL%0,             Tom%Taverner%NULL%2,             Tom%Taverner%NULL%0,             Wasim%Hanif%NULL%1,             Sandip%Ghosh%NULL%1,             Parth%Narendran%NULL%1,             Konstantinos A%Toulis%NULL%1,             Abd A%Tahrani%NULL%2,             Abd A%Tahrani%NULL%0,             Rajendra%Surenthirakumaran%NULL%2,             Rajendra%Surenthirakumaran%NULL%0,             Nicola J%Adderley%NULL%1,             Shamil%Haroon%NULL%2,             Shamil%Haroon%NULL%0,             Kamlesh%Khunti%NULL%4,             Kamlesh%Khunti%NULL%0,             Christopher%Sainsbury%NULL%2,             Christopher%Sainsbury%NULL%0,             G Neil%Thomas%NULL%1,             Krishnarajah%Nirantharakumar%NULL%2,             Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,             Thomas%Servais%NULL%1,             Leïla%Belkhir%NULL%1,             Pierre-François%Laterre%NULL%1,             Jean-Paul%Thissen%NULL%1,             Bernard%Vandeleene%NULL%1,             Dominique%Maiter%NULL%1,             Jean C.%Yombi%NULL%1,             Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,             Abdallah%Al-Salameh%NULL%3,             Samy%Hadjadj%NULL%3,             Thomas%Goronflot%NULL%1,             Nicolas%Wiernsperger%NULL%1,             Matthieu%Pichelin%NULL%3,             Ingrid%Allix%NULL%3,             Coralie%Amadou%NULL%2,             Olivier%Bourron%NULL%2,             Thierry%Duriez%NULL%1,             Jean-François%Gautier%NULL%3,             Anne%Dutour%NULL%1,             Céline%Gonfroy%NULL%1,             Didier%Gouet%NULL%1,             Michael%Joubert%NULL%3,             Ingrid%Julier%NULL%1,             Etienne%Larger%NULL%1,             Lucien%Marchand%NULL%3,             Michel%Marre%NULL%1,             Laurent%Meyer%NULL%3,             Frédérique%Olivier%NULL%1,             Gaëtan%Prevost%NULL%3,             Pascale%Quiniou%NULL%1,             Christelle%Raffaitin-Cardin%NULL%1,             Ronan%Roussel%NULL%3,             Pierre-Jean%Saulnier%NULL%3,             Dominique%Seret-Begue%NULL%1,             Charles%Thivolet%NULL%3,             Camille%Vatier%NULL%2,             Rachel%Desailloud%NULL%1,             Matthieu%Wargny%NULL%3,             Pierre%Gourdy%NULL%3,             Bertrand%Cariou%NULL%1,             NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,             Zhenyuan%Chen%NULL%1,             Li%Liu%NULL%3,             Xiaoxv%Yin%NULL%1,             Heping%Yang%NULL%1,             Xiangping%Tan%NULL%1,             Jing%Wang%NULL%2,             Hui%Li%NULL%0,             Mengge%Tian%NULL%1,             Zuxun%Lu%NULL%1,             Nian%Xiong%NULL%4,             Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,             Ye-Mao%Liu%NULL%2,             Haomiao%Li%NULL%1,             Xin%Zhang%NULL%1,             Fang%Lei%NULL%2,             Juan-Juan%Qin%NULL%2,             Ze%Chen%NULL%1,             Ke-Qiong%Deng%NULL%1,             Lijin%Lin%NULL%2,             Ming-Ming%Chen%NULL%2,             Xiaohui%Song%NULL%1,             Meng%Xia%NULL%2,             Xuewei%Huang%NULL%2,             Weifang%Liu%NULL%1,             Jingjing%Cai%NULL%2,             Xiao-Jing%Zhang%NULL%2,             Feng%Zhou%NULL%1,             Peng%Zhang%NULL%1,             Yibin%Wang%NULL%2,             Xinliang%Ma%NULL%1,             Qingbo%Xu%NULL%2,             Juan%Yang%NULL%3,             Ping%Ye%NULL%2,             Weiming%Mao%NULL%2,             Xiaodong%Huang%NULL%2,             Jiahong%Xia%NULL%2,             Bing-Hong%Zhang%NULL%2,             Jiao%Guo%NULL%1,             Lihua%Zhu%NULL%2,             Zhibing%Lu%NULL%3,             Yufeng%Yuan%NULL%2,             Xiang%Wei%NULL%1,             Zhi-Gang%She%NULL%2,             Yan-Xiao%Ji%NULL%2,             Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,             Xi%Bai%NULL%1,             Xia%Han%NULL%1,             Wangyan%Jiang%NULL%1,             Lin%Qiu%NULL%2,             Shi%Chen%NULL%1,             Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,             Yanhong%Wei%NULL%1,             Min%Chen%NULL%1,             Qianqian%Wan%NULL%1,             Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,             Matteo%Monami%NULL%1,             Achille%Cernigliaro%NULL%1,             Enrica%Vigneri%NULL%1,             Valentina%Guarnotta%NULL%1,             Salvatore%Scondotto%NULL%1,             Vincenza A.%Allotta%NULL%1,             Michela%Conti%NULL%1,             Carla%Giordano%NULL%1,             Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,             Wen%Kong%NULL%1,             Pengfei%Xia%NULL%1,             Ying%Xu%NULL%1,             Li%Li%NULL%0,             Qin%Li%NULL%1,             Li%Yang%NULL%3,             Qi%Wei%NULL%3,             Hanyu%Wang%NULL%1,             Huiqing%Li%NULL%1,             Juan%Zheng%NULL%1,             Hui%Sun%NULL%1,             Wenfang%Xia%NULL%1,             Geng%Liu%NULL%1,             Xueyu%Zhong%NULL%1,             Kangli%Qiu%NULL%1,             Yan%Li%NULL%1,             Han%Wang%NULL%1,             Yuxiu%Wang%NULL%1,             Xiaoli%Song%NULL%1,             Hua%Liu%NULL%1,             Si%Xiong%NULL%1,             Yumei%Liu%NULL%1,             Zhenhai%Cui%NULL%1,             Yu%Hu%NULL%6,             Lulu%Chen%NULL%1,             An%Pan%NULL%1,             Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,             Qi%Wei%NULL%0,             Willis X%Li%NULL%1,             Karen C%McCowen%NULL%1,             Wei%Xiong%NULL%2,             Jiao%Liu%NULL%2,             Wenlijun%Jiang%NULL%2,             Traci%Marin%NULL%1,             Robert L%Thomas%NULL%1,             Ming%He%NULL%2,             Brendan%Gongol%NULL%1,             Mark%Hepokoski%NULL%2,             Jason X-J%Yuan%NULL%1,             John Y-J%Shyy%NULL%1,             Nian%Xiong%NULL%0,             Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,             Siyi%Xin%NULL%1,             Yaqi%Chen%NULL%1,             Leyu%Li%NULL%1,             Wanjun%Chen%NULL%1,             Wenjia%Li%NULL%1,             Baoan%Zhou%NULL%1,             Chenxia%Li%NULL%1,             Yu%Gong%NULL%1,             Fei%Li%NULL%1,             Peng%Duan%NULL%1,             Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,             John%Buse%NULL%2,             John%Buse%NULL%0,             Leonardo%Tamaritz%NULL%1,             Ana%Palacio%NULL%2,             Ken%Cohen%NULL%1,             Deneen%Vojta%NULL%2,             David%Liebovitz%NULL%1,             Nia%Mitchell%NULL%1,             Jacinda%Nicklas%NULL%1,             Ildiko%Lingvay%NULL%1,             Jeanne M.%Clark%NULL%1,             Louis J.%Aronne%NULL%1,             Erik%Anderson%NULL%1,             Michael%Usher%NULL%1,             Ryan%Demmer%NULL%1,             Genevieve B.%Melton%NULL%1,             Nicholas%Ingraham%NULL%1,             Christopher J.%Tignanelli%NULL%2,             Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,             In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,             Ana%Palacio%NULL%0,             Elissa%Dawkins%NULL%1,             Gordon%Chen%NULL%1,             Daniel%McCarter%NULL%1,             Emancia%Forbes%NULL%1,             Brian%Chung%NULL%1,             Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,             Qi%Wei%NULL%0,             Karen C.%McCowen%NULL%1,             Wei%Xiong%NULL%0,             Jiao%Liu%NULL%0,             Wenlijun%Jiang%NULL%0,             Robert L.%Thomas%NULL%1,             Mark%Hepokoski%NULL%0,             Ming%He%NULL%0,             John Y. J.%Shyy%NULL%1,             Atul%Malhotra%NULL%0,             Nian%Xiong%nianxiong@hust.edu.cn%0,             Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,             T. A. N.%Reed%NULL%2,             T. A. N.%Reed%NULL%0,             M.%Ardissino%NULL%1,             P.%Bassett%NULL%1,             A. M.%Whittington%NULL%1,             D. L.%Cohen%NULL%1,             N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,             Walter%Distaso%NULL%2,             Walter%Distaso%NULL%0,             Anjali%Amin%NULL%1,             Wei%Yang%NULL%1,             Oluwagbemiga%Idowu%NULL%1,             Julia S%Kenkre%NULL%1,             Ronak J%Shah%NULL%1,             Evelina%Woin%NULL%1,             Christine%Shi%NULL%1,             Nael%Alavi%NULL%2,             Nael%Alavi%NULL%0,             Hala%Bedri%NULL%1,             Niamh%Brady%NULL%1,             Sophie%Blackburn%NULL%1,             Martina%Leczycka%NULL%1,             Sanya%Patel%NULL%1,             Elizaveta%Sokol%NULL%1,             Edward%Toke-Bjolgerud%NULL%1,             Ambreen%Qayum%NULL%1,             Mariana%Abdel-Malek%NULL%1,             David C D%Hope%NULL%1,             Nick S%Oliver%NULL%1,             Vasiliki%Bravis%NULL%1,             Shivani%Misra%NULL%1,             Tricia M%Tan%NULL%1,             Neil E%Hill%NULL%2,             Neil E%Hill%NULL%0,             Victoria%Salem%NULL%2,             Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,             Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,             Tiffany%Grimes%NULL%1,             Peng%Li%NULL%1,             Matthew%Might%NULL%1,             Fernando%Ovalle%NULL%1,             Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,             Nicholas E%Ingraham%NULL%1,             Thomas A%Murray%NULL%1,             Schelomo%Marmor%NULL%1,             Shane%Hovertsen%NULL%1,             Jessica%Gronski%NULL%1,             Chace%McNeil%NULL%1,             Ruoying%Feng%NULL%1,             Gabriel%Guzman%NULL%1,             Nermine%Abdelwahab%NULL%1,             Samantha%King%NULL%1,             Leonardo%Tamariz%NULL%0,             Thomas%Meehan%NULL%1,             Kathryn M%Pendleton%NULL%1,             Bradley%Benson%NULL%1,             Deneen%Vojta%NULL%0,             Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,             Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,             Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,             Matthieu%Wargny%NULL%0,             Matthieu%Wargny%NULL%0,             Matthieu%Pichelin%NULL%0,             Matthieu%Pichelin%NULL%0,             Abdallah%Al-Salameh%NULL%0,             Abdallah%Al-Salameh%NULL%0,             Ingrid%Allix%NULL%0,             Ingrid%Allix%NULL%0,             Coralie%Amadou%NULL%0,             Gwénaëlle%Arnault%NULL%2,             Gwénaëlle%Arnault%NULL%0,             Florence%Baudoux%NULL%1,             Bernard%Bauduceau%NULL%1,             Sophie%Borot%NULL%1,             Muriel%Bourgeon-Ghittori%NULL%2,             Muriel%Bourgeon-Ghittori%NULL%0,             Olivier%Bourron%NULL%0,             David%Boutoille%NULL%4,             David%Boutoille%NULL%0,             France%Cazenave-Roblot%NULL%3,             France%Cazenave-Roblot%NULL%0,             Claude%Chaumeil%NULL%2,             Claude%Chaumeil%NULL%0,             Emmanuel%Cosson%NULL%1,             Sandrine%Coudol%NULL%2,             Sandrine%Coudol%NULL%0,             Patrice%Darmon%NULL%1,             Emmanuel%Disse%NULL%2,             Emmanuel%Disse%NULL%0,             Amélie%Ducet-Boiffard%NULL%2,             Amélie%Ducet-Boiffard%NULL%0,             Bénédicte%Gaborit%NULL%1,             Michael%Joubert%NULL%0,             Michael%Joubert%NULL%0,             Véronique%Kerlan%NULL%2,             Véronique%Kerlan%NULL%0,             Bruno%Laviolle%NULL%1,             Lucien%Marchand%NULL%0,             Lucien%Marchand%NULL%0,             Laurent%Meyer%NULL%0,             Laurent%Meyer%NULL%0,             Louis%Potier%NULL%2,             Louis%Potier%NULL%0,             Gaëtan%Prevost%NULL%0,             Gaëtan%Prevost%NULL%0,             Jean-Pierre%Riveline%NULL%1,             René%Robert%NULL%2,             René%Robert%NULL%0,             Pierre-Jean%Saulnier%NULL%0,             Pierre-Jean%Saulnier%NULL%0,             Ariane%Sultan%NULL%2,             Ariane%Sultan%NULL%0,             Jean-François%Thébaut%NULL%2,             Jean-François%Thébaut%NULL%0,             Charles%Thivolet%NULL%0,             Charles%Thivolet%NULL%0,             Blandine%Tramunt%NULL%2,             Blandine%Tramunt%NULL%0,             Camille%Vatier%NULL%0,             Ronan%Roussel%NULL%0,             Ronan%Roussel%NULL%0,             Jean-François%Gautier%NULL%0,             Jean-François%Gautier%NULL%0,             Pierre%Gourdy%NULL%0,             Pierre%Gourdy%NULL%0,             NULL%NULL%NULL%0,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,             Peter%Knighton%NULL%1,             Francesco%Zaccardi%NULL%2,             Chirag%Bakhai%NULL%1,             Emma%Barron%NULL%1,             Naomi%Holman%NULL%1,             Partha%Kar%NULL%1,             Claire%Meace%NULL%1,             Naveed%Sattar%NULL%1,             Stephen%Sharp%NULL%1,             Nicholas J%Wareham%NULL%1,             Andy%Weaver%NULL%1,             Emilia%Woch%NULL%1,             Bob%Young%NULL%1,             Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,             José David%Torres-Peña%NULL%1,             María D.%López-Carmona%NULL%1,             M. Mar.%Ayala-Gutiérrez%NULL%1,             Francisco%Fuentes-Jiménez%NULL%1,             Lucía Jorge%Huerta%NULL%1,             Jaime Alonso%Muñoz%NULL%1,             Manuel%Rubio-Rivas%NULL%1,             Manel%Madrazo%NULL%1,             Marcos Guzmán%Garcia%NULL%1,             Beatriz Vicente%Montes%NULL%1,             Joaquim Fernández%Sola%NULL%1,             Javier%Ena%NULL%1,             Ruth Gonzalez%Ferrer%NULL%1,             Carmen Mella%Pérez%NULL%1,             Carlos Jorge%Ripper%NULL%1,             Jose Javier Napal%Lecumberri%NULL%1,             Iris El Attar%Acedo%NULL%1,             Susana Plaza%Canteli%NULL%1,             Sara Fuente%Cosío%NULL%1,             Francisco Amorós%Martínez%NULL%1,             Begoña Cortés%Rodríguez%NULL%1,             Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,             José Manuel%Ramos-Rincón%NULL%1,             Ricardo%Gómez-Huelgas%NULL%1,             NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,             Sang Won%Kim%NULL%1,             Jong Won%Park%NULL%1,             Kyu Hyang%Cho%NULL%1,             Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,      Dong%Yang%xref no email%0,      Biao%Cheng%xref no email%0,      Jian%Chen%xref no email%0,      Anlin%Peng%xref no email%0,      Chen%Yang%xref no email%0,      Chong%Liu%xref no email%0,      Mingrui%Xiong%xref no email%0,      Aiping%Deng%xref no email%0,      Yu%Zhang%xref no email%0,      Ling%Zheng%xref no email%0,      Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,             Philip%Tsoukas%NULL%1,             Christopher W.%Halladay%NULL%1,             Emily%O'Neill%NULL%1,             Stefan%Gravenstein%NULL%1,             James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,             Tao%Liu%NULL%2,             Weijun%Zhong%NULL%1,             Rong%Liu%NULL%1,             Honghao%Zhou%NULL%1,             Weihua%Huang%endeavor34852@aliyun.com%1,             Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,             Jae-Han%Jeon%NULL%2,             Jae-Han%Jeon%NULL%0,             Sung-Woo%Kim%NULL%2,             Sung-Woo%Kim%NULL%0,             Jun Sung%Moon%NULL%1,             Nan Hee%Cho%NULL%1,             Eugene%Han%NULL%1,             Ji Hong%You%NULL%1,             Ji Yeon%Lee%NULL%4,             Miri%Hyun%NULL%1,             Jae Seok%Park%NULL%4,             Yong Shik%Kwon%NULL%2,             Yeon-Kyung%Choi%NULL%1,             Ki Tae%Kwon%NULL%1,             Shin Yup%Lee%NULL%1,             Eon Ju%Jeon%NULL%1,             Jin-Woo%Kim%NULL%1,             Hyo-Lim%Hong%NULL%1,             Hyun Hee%Kwon%NULL%1,             Chi Young%Jung%NULL%1,             Yin Young%Lee%NULL%1,             Eunyeoung%Ha%NULL%1,             Seung Min%Chung%NULL%1,             Jian%Hur%NULL%2,             June Hong%Ahn%NULL%3,             Na-young%Kim%NULL%1,             Shin-Woo%Kim%NULL%3,             Hyun Ha%Chang%NULL%1,             Yong Hoon%Lee%NULL%1,             Jaehee%Lee%NULL%1,             Keun-Gyu%Park%NULL%1,             Hyun Ah%Kim%NULL%1,             Ji-Hyun%Lee%NULL%2,             Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,             Lin%Qiu%NULL%0,             Yi%Liu%NULL%2,             Xiu-lan%Liu%NULL%1,             Jian-ling%Zheng%NULL%1,             Hui-ying%Xue%NULL%1,             Wen-hua%Liu%NULL%1,             Dong%Liu%NULL%3,             Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,              N.% Smati%null%1,              C. S. J.% Wong%null%1,              K.% Aspey%null%1,              M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,              A.% Anisimovich%null%1,              J.% Baxter%null%1,              L.% Mackillop%null%1,              M. P.% Vizcaychipi%null%1,              A.% McCarthy%null%1,              R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,              D.% Bates%null%1,              J. M.% Fiskio%null%1,              E. C.% Roche%null%1,              S.% Mora%null%1,              O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -2314,7 +2571,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>487</v>
+        <v>554</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2343,7 +2600,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2372,7 +2629,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -2401,7 +2658,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2430,7 +2687,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>491</v>
+        <v>558</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2459,7 +2716,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2488,7 +2745,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>493</v>
+        <v>560</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2517,7 +2774,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>494</v>
+        <v>561</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2546,7 +2803,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>495</v>
+        <v>562</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -2575,7 +2832,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2604,7 +2861,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>497</v>
+        <v>564</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -2633,7 +2890,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>498</v>
+        <v>565</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -2659,10 +2916,10 @@
         <v>108</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2691,7 +2948,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>500</v>
+        <v>567</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -2720,7 +2977,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>501</v>
+        <v>568</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -2749,7 +3006,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>502</v>
+        <v>569</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -2778,7 +3035,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>503</v>
+        <v>570</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -2807,7 +3064,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -2836,7 +3093,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>505</v>
+        <v>572</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -2865,7 +3122,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>506</v>
+        <v>573</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -2891,10 +3148,10 @@
         <v>145</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>507</v>
+        <v>574</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -2923,7 +3180,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>508</v>
+        <v>575</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -2949,10 +3206,10 @@
         <v>154</v>
       </c>
       <c r="D24" t="s">
-        <v>155</v>
+        <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>509</v>
+        <v>576</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -2981,7 +3238,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>510</v>
+        <v>577</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3010,7 +3267,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>511</v>
+        <v>578</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3039,7 +3296,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>512</v>
+        <v>579</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3068,7 +3325,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>513</v>
+        <v>580</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3097,7 +3354,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>514</v>
+        <v>581</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3126,7 +3383,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>515</v>
+        <v>582</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -3155,7 +3412,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>516</v>
+        <v>583</v>
       </c>
       <c r="F31" t="s">
         <v>44</v>
@@ -3184,7 +3441,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>517</v>
+        <v>584</v>
       </c>
       <c r="F32" t="s">
         <v>44</v>
@@ -3213,7 +3470,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>518</v>
+        <v>585</v>
       </c>
       <c r="F33" t="s">
         <v>44</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3237" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="619">
   <si>
     <t>Doi</t>
   </si>
@@ -2215,6 +2215,105 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,              D.% Bates%null%1,              J. M.% Fiskio%null%1,              E. C.% Roche%null%1,              S.% Mora%null%1,              O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,              Jennifer M%Cooper%NULL%2,              Jennifer M%Cooper%NULL%0,              Krishna%Gokhale%NULL%1,              Dionisio%Acosta-Mena%NULL%1,              Samir%Dhalla%NULL%1,              Nathan%Byne%NULL%1,              Joht Singh%Chandan%NULL%1,              Astha%Anand%NULL%2,              Astha%Anand%NULL%0,              Kelvin%Okoth%NULL%1,              Anuradhaa%Subramanian%NULL%2,              Anuradhaa%Subramanian%NULL%0,              Mansoor N%Bangash%NULL%1,              Thomas%Jackson%NULL%2,              Thomas%Jackson%NULL%0,              Dawit%Zemedikun%NULL%2,              Dawit%Zemedikun%NULL%0,              Tom%Taverner%NULL%2,              Tom%Taverner%NULL%0,              Wasim%Hanif%NULL%1,              Sandip%Ghosh%NULL%1,              Parth%Narendran%NULL%1,              Konstantinos A%Toulis%NULL%1,              Abd A%Tahrani%NULL%2,              Abd A%Tahrani%NULL%0,              Rajendra%Surenthirakumaran%NULL%2,              Rajendra%Surenthirakumaran%NULL%0,              Nicola J%Adderley%NULL%1,              Shamil%Haroon%NULL%2,              Shamil%Haroon%NULL%0,              Kamlesh%Khunti%NULL%4,              Kamlesh%Khunti%NULL%0,              Christopher%Sainsbury%NULL%2,              Christopher%Sainsbury%NULL%0,              G Neil%Thomas%NULL%1,              Krishnarajah%Nirantharakumar%NULL%2,              Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,              Thomas%Servais%NULL%1,              Leïla%Belkhir%NULL%1,              Pierre-François%Laterre%NULL%1,              Jean-Paul%Thissen%NULL%1,              Bernard%Vandeleene%NULL%1,              Dominique%Maiter%NULL%1,              Jean C.%Yombi%NULL%1,              Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,              Abdallah%Al-Salameh%NULL%3,              Samy%Hadjadj%NULL%3,              Thomas%Goronflot%NULL%1,              Nicolas%Wiernsperger%NULL%1,              Matthieu%Pichelin%NULL%3,              Ingrid%Allix%NULL%3,              Coralie%Amadou%NULL%2,              Olivier%Bourron%NULL%2,              Thierry%Duriez%NULL%1,              Jean-François%Gautier%NULL%3,              Anne%Dutour%NULL%1,              Céline%Gonfroy%NULL%1,              Didier%Gouet%NULL%1,              Michael%Joubert%NULL%3,              Ingrid%Julier%NULL%1,              Etienne%Larger%NULL%1,              Lucien%Marchand%NULL%3,              Michel%Marre%NULL%1,              Laurent%Meyer%NULL%3,              Frédérique%Olivier%NULL%1,              Gaëtan%Prevost%NULL%3,              Pascale%Quiniou%NULL%1,              Christelle%Raffaitin-Cardin%NULL%1,              Ronan%Roussel%NULL%3,              Pierre-Jean%Saulnier%NULL%3,              Dominique%Seret-Begue%NULL%1,              Charles%Thivolet%NULL%3,              Camille%Vatier%NULL%2,              Rachel%Desailloud%NULL%1,              Matthieu%Wargny%NULL%3,              Pierre%Gourdy%NULL%3,              Bertrand%Cariou%NULL%1,              NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,              Zhenyuan%Chen%NULL%1,              Li%Liu%NULL%3,              Xiaoxv%Yin%NULL%1,              Heping%Yang%NULL%1,              Xiangping%Tan%NULL%1,              Jing%Wang%NULL%2,              Hui%Li%NULL%0,              Mengge%Tian%NULL%1,              Zuxun%Lu%NULL%1,              Nian%Xiong%NULL%4,              Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,              Ye-Mao%Liu%NULL%2,              Haomiao%Li%NULL%1,              Xin%Zhang%NULL%1,              Fang%Lei%NULL%2,              Juan-Juan%Qin%NULL%2,              Ze%Chen%NULL%1,              Ke-Qiong%Deng%NULL%1,              Lijin%Lin%NULL%2,              Ming-Ming%Chen%NULL%2,              Xiaohui%Song%NULL%1,              Meng%Xia%NULL%2,              Xuewei%Huang%NULL%2,              Weifang%Liu%NULL%1,              Jingjing%Cai%NULL%2,              Xiao-Jing%Zhang%NULL%2,              Feng%Zhou%NULL%1,              Peng%Zhang%NULL%1,              Yibin%Wang%NULL%2,              Xinliang%Ma%NULL%1,              Qingbo%Xu%NULL%2,              Juan%Yang%NULL%3,              Ping%Ye%NULL%2,              Weiming%Mao%NULL%2,              Xiaodong%Huang%NULL%2,              Jiahong%Xia%NULL%2,              Bing-Hong%Zhang%NULL%2,              Jiao%Guo%NULL%1,              Lihua%Zhu%NULL%2,              Zhibing%Lu%NULL%3,              Yufeng%Yuan%NULL%2,              Xiang%Wei%NULL%1,              Zhi-Gang%She%NULL%2,              Yan-Xiao%Ji%NULL%2,              Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,              Xi%Bai%NULL%1,              Xia%Han%NULL%1,              Wangyan%Jiang%NULL%1,              Lin%Qiu%NULL%2,              Shi%Chen%NULL%1,              Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,              Yanhong%Wei%NULL%1,              Min%Chen%NULL%1,              Qianqian%Wan%NULL%1,              Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,              Matteo%Monami%NULL%1,              Achille%Cernigliaro%NULL%1,              Enrica%Vigneri%NULL%1,              Valentina%Guarnotta%NULL%1,              Salvatore%Scondotto%NULL%1,              Vincenza A.%Allotta%NULL%1,              Michela%Conti%NULL%1,              Carla%Giordano%NULL%1,              Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,              Wen%Kong%NULL%1,              Pengfei%Xia%NULL%1,              Ying%Xu%NULL%1,              Li%Li%NULL%0,              Qin%Li%NULL%1,              Li%Yang%NULL%3,              Qi%Wei%NULL%3,              Hanyu%Wang%NULL%1,              Huiqing%Li%NULL%1,              Juan%Zheng%NULL%1,              Hui%Sun%NULL%1,              Wenfang%Xia%NULL%1,              Geng%Liu%NULL%1,              Xueyu%Zhong%NULL%1,              Kangli%Qiu%NULL%1,              Yan%Li%NULL%1,              Han%Wang%NULL%1,              Yuxiu%Wang%NULL%1,              Xiaoli%Song%NULL%1,              Hua%Liu%NULL%1,              Si%Xiong%NULL%1,              Yumei%Liu%NULL%1,              Zhenhai%Cui%NULL%1,              Yu%Hu%NULL%6,              Lulu%Chen%NULL%1,              An%Pan%NULL%1,              Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,              Qi%Wei%NULL%0,              Willis X%Li%NULL%1,              Karen C%McCowen%NULL%1,              Wei%Xiong%NULL%2,              Jiao%Liu%NULL%2,              Wenlijun%Jiang%NULL%2,              Traci%Marin%NULL%1,              Robert L%Thomas%NULL%1,              Ming%He%NULL%2,              Brendan%Gongol%NULL%1,              Mark%Hepokoski%NULL%2,              Jason X-J%Yuan%NULL%1,              John Y-J%Shyy%NULL%1,              Nian%Xiong%NULL%0,              Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,              Siyi%Xin%NULL%1,              Yaqi%Chen%NULL%1,              Leyu%Li%NULL%1,              Wanjun%Chen%NULL%1,              Wenjia%Li%NULL%1,              Baoan%Zhou%NULL%1,              Chenxia%Li%NULL%1,              Yu%Gong%NULL%1,              Fei%Li%NULL%1,              Peng%Duan%NULL%1,              Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,              John%Buse%NULL%2,              John%Buse%NULL%0,              Leonardo%Tamaritz%NULL%1,              Ana%Palacio%NULL%2,              Ken%Cohen%NULL%1,              Deneen%Vojta%NULL%2,              David%Liebovitz%NULL%1,              Nia%Mitchell%NULL%1,              Jacinda%Nicklas%NULL%1,              Ildiko%Lingvay%NULL%1,              Jeanne M.%Clark%NULL%1,              Louis J.%Aronne%NULL%1,              Erik%Anderson%NULL%1,              Michael%Usher%NULL%1,              Ryan%Demmer%NULL%1,              Genevieve B.%Melton%NULL%1,              Nicholas%Ingraham%NULL%1,              Christopher J.%Tignanelli%NULL%2,              Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,              In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,              Ana%Palacio%NULL%0,              Elissa%Dawkins%NULL%1,              Gordon%Chen%NULL%1,              Daniel%McCarter%NULL%1,              Emancia%Forbes%NULL%1,              Brian%Chung%NULL%1,              Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,              Qi%Wei%NULL%0,              Karen C.%McCowen%NULL%1,              Wei%Xiong%NULL%0,              Jiao%Liu%NULL%0,              Wenlijun%Jiang%NULL%0,              Robert L.%Thomas%NULL%1,              Mark%Hepokoski%NULL%0,              Ming%He%NULL%0,              John Y. J.%Shyy%NULL%1,              Atul%Malhotra%NULL%0,              Nian%Xiong%nianxiong@hust.edu.cn%0,              Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,              T. A. N.%Reed%NULL%2,              T. A. N.%Reed%NULL%0,              M.%Ardissino%NULL%1,              P.%Bassett%NULL%1,              A. M.%Whittington%NULL%1,              D. L.%Cohen%NULL%1,              N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,              Walter%Distaso%NULL%2,              Walter%Distaso%NULL%0,              Anjali%Amin%NULL%1,              Wei%Yang%NULL%1,              Oluwagbemiga%Idowu%NULL%1,              Julia S%Kenkre%NULL%1,              Ronak J%Shah%NULL%1,              Evelina%Woin%NULL%1,              Christine%Shi%NULL%1,              Nael%Alavi%NULL%2,              Nael%Alavi%NULL%0,              Hala%Bedri%NULL%1,              Niamh%Brady%NULL%1,              Sophie%Blackburn%NULL%1,              Martina%Leczycka%NULL%1,              Sanya%Patel%NULL%1,              Elizaveta%Sokol%NULL%1,              Edward%Toke-Bjolgerud%NULL%1,              Ambreen%Qayum%NULL%1,              Mariana%Abdel-Malek%NULL%1,              David C D%Hope%NULL%1,              Nick S%Oliver%NULL%1,              Vasiliki%Bravis%NULL%1,              Shivani%Misra%NULL%1,              Tricia M%Tan%NULL%1,              Neil E%Hill%NULL%2,              Neil E%Hill%NULL%0,              Victoria%Salem%NULL%2,              Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,              Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,              Tiffany%Grimes%NULL%1,              Peng%Li%NULL%1,              Matthew%Might%NULL%1,              Fernando%Ovalle%NULL%1,              Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,              Nicholas E%Ingraham%NULL%1,              Thomas A%Murray%NULL%1,              Schelomo%Marmor%NULL%1,              Shane%Hovertsen%NULL%1,              Jessica%Gronski%NULL%1,              Chace%McNeil%NULL%1,              Ruoying%Feng%NULL%1,              Gabriel%Guzman%NULL%1,              Nermine%Abdelwahab%NULL%1,              Samantha%King%NULL%1,              Leonardo%Tamariz%NULL%0,              Thomas%Meehan%NULL%1,              Kathryn M%Pendleton%NULL%1,              Bradley%Benson%NULL%1,              Deneen%Vojta%NULL%0,              Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,              Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,              Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,              Matthieu%Wargny%NULL%0,              Matthieu%Wargny%NULL%0,              Matthieu%Pichelin%NULL%0,              Matthieu%Pichelin%NULL%0,              Abdallah%Al-Salameh%NULL%0,              Abdallah%Al-Salameh%NULL%0,              Ingrid%Allix%NULL%0,              Ingrid%Allix%NULL%0,              Coralie%Amadou%NULL%0,              Gwénaëlle%Arnault%NULL%2,              Gwénaëlle%Arnault%NULL%0,              Florence%Baudoux%NULL%1,              Bernard%Bauduceau%NULL%1,              Sophie%Borot%NULL%1,              Muriel%Bourgeon-Ghittori%NULL%2,              Muriel%Bourgeon-Ghittori%NULL%0,              Olivier%Bourron%NULL%0,              David%Boutoille%NULL%4,              David%Boutoille%NULL%0,              France%Cazenave-Roblot%NULL%3,              France%Cazenave-Roblot%NULL%0,              Claude%Chaumeil%NULL%2,              Claude%Chaumeil%NULL%0,              Emmanuel%Cosson%NULL%1,              Sandrine%Coudol%NULL%2,              Sandrine%Coudol%NULL%0,              Patrice%Darmon%NULL%1,              Emmanuel%Disse%NULL%2,              Emmanuel%Disse%NULL%0,              Amélie%Ducet-Boiffard%NULL%2,              Amélie%Ducet-Boiffard%NULL%0,              Bénédicte%Gaborit%NULL%1,              Michael%Joubert%NULL%0,              Michael%Joubert%NULL%0,              Véronique%Kerlan%NULL%2,              Véronique%Kerlan%NULL%0,              Bruno%Laviolle%NULL%1,              Lucien%Marchand%NULL%0,              Lucien%Marchand%NULL%0,              Laurent%Meyer%NULL%0,              Laurent%Meyer%NULL%0,              Louis%Potier%NULL%2,              Louis%Potier%NULL%0,              Gaëtan%Prevost%NULL%0,              Gaëtan%Prevost%NULL%0,              Jean-Pierre%Riveline%NULL%1,              René%Robert%NULL%2,              René%Robert%NULL%0,              Pierre-Jean%Saulnier%NULL%0,              Pierre-Jean%Saulnier%NULL%0,              Ariane%Sultan%NULL%2,              Ariane%Sultan%NULL%0,              Jean-François%Thébaut%NULL%2,              Jean-François%Thébaut%NULL%0,              Charles%Thivolet%NULL%0,              Charles%Thivolet%NULL%0,              Blandine%Tramunt%NULL%2,              Blandine%Tramunt%NULL%0,              Camille%Vatier%NULL%0,              Ronan%Roussel%NULL%0,              Ronan%Roussel%NULL%0,              Jean-François%Gautier%NULL%0,              Jean-François%Gautier%NULL%0,              Pierre%Gourdy%NULL%0,              Pierre%Gourdy%NULL%0,              NULL%NULL%NULL%0,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,              Peter%Knighton%NULL%1,              Francesco%Zaccardi%NULL%2,              Chirag%Bakhai%NULL%1,              Emma%Barron%NULL%1,              Naomi%Holman%NULL%1,              Partha%Kar%NULL%1,              Claire%Meace%NULL%1,              Naveed%Sattar%NULL%1,              Stephen%Sharp%NULL%1,              Nicholas J%Wareham%NULL%1,              Andy%Weaver%NULL%1,              Emilia%Woch%NULL%1,              Bob%Young%NULL%1,              Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,              José David%Torres-Peña%NULL%1,              María D.%López-Carmona%NULL%1,              M. Mar.%Ayala-Gutiérrez%NULL%1,              Francisco%Fuentes-Jiménez%NULL%1,              Lucía Jorge%Huerta%NULL%1,              Jaime Alonso%Muñoz%NULL%1,              Manuel%Rubio-Rivas%NULL%1,              Manel%Madrazo%NULL%1,              Marcos Guzmán%Garcia%NULL%1,              Beatriz Vicente%Montes%NULL%1,              Joaquim Fernández%Sola%NULL%1,              Javier%Ena%NULL%1,              Ruth Gonzalez%Ferrer%NULL%1,              Carmen Mella%Pérez%NULL%1,              Carlos Jorge%Ripper%NULL%1,              Jose Javier Napal%Lecumberri%NULL%1,              Iris El Attar%Acedo%NULL%1,              Susana Plaza%Canteli%NULL%1,              Sara Fuente%Cosío%NULL%1,              Francisco Amorós%Martínez%NULL%1,              Begoña Cortés%Rodríguez%NULL%1,              Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,              José Manuel%Ramos-Rincón%NULL%1,              Ricardo%Gómez-Huelgas%NULL%1,              NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,              Sang Won%Kim%NULL%1,              Jong Won%Park%NULL%1,              Kyu Hyang%Cho%NULL%1,              Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,       Dong%Yang%xref no email%0,       Biao%Cheng%xref no email%0,       Jian%Chen%xref no email%0,       Anlin%Peng%xref no email%0,       Chen%Yang%xref no email%0,       Chong%Liu%xref no email%0,       Mingrui%Xiong%xref no email%0,       Aiping%Deng%xref no email%0,       Yu%Zhang%xref no email%0,       Ling%Zheng%xref no email%0,       Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,              Philip%Tsoukas%NULL%1,              Christopher W.%Halladay%NULL%1,              Emily%O'Neill%NULL%1,              Stefan%Gravenstein%NULL%1,              James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,              Tao%Liu%NULL%2,              Weijun%Zhong%NULL%1,              Rong%Liu%NULL%1,              Honghao%Zhou%NULL%1,              Weihua%Huang%endeavor34852@aliyun.com%1,              Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,              Jae-Han%Jeon%NULL%2,              Jae-Han%Jeon%NULL%0,              Sung-Woo%Kim%NULL%2,              Sung-Woo%Kim%NULL%0,              Jun Sung%Moon%NULL%1,              Nan Hee%Cho%NULL%1,              Eugene%Han%NULL%1,              Ji Hong%You%NULL%1,              Ji Yeon%Lee%NULL%4,              Miri%Hyun%NULL%1,              Jae Seok%Park%NULL%4,              Yong Shik%Kwon%NULL%2,              Yeon-Kyung%Choi%NULL%1,              Ki Tae%Kwon%NULL%1,              Shin Yup%Lee%NULL%1,              Eon Ju%Jeon%NULL%1,              Jin-Woo%Kim%NULL%1,              Hyo-Lim%Hong%NULL%1,              Hyun Hee%Kwon%NULL%1,              Chi Young%Jung%NULL%1,              Yin Young%Lee%NULL%1,              Eunyeoung%Ha%NULL%1,              Seung Min%Chung%NULL%1,              Jian%Hur%NULL%2,              June Hong%Ahn%NULL%3,              Na-young%Kim%NULL%1,              Shin-Woo%Kim%NULL%3,              Hyun Ha%Chang%NULL%1,              Yong Hoon%Lee%NULL%1,              Jaehee%Lee%NULL%1,              Keun-Gyu%Park%NULL%1,              Hyun Ah%Kim%NULL%1,              Ji-Hyun%Lee%NULL%2,              Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,              Lin%Qiu%NULL%0,              Yi%Liu%NULL%2,              Xiu-lan%Liu%NULL%1,              Jian-ling%Zheng%NULL%1,              Hui-ying%Xue%NULL%1,              Wen-hua%Liu%NULL%1,              Dong%Liu%NULL%3,              Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,               N.% Smati%null%1,               C. S. J.% Wong%null%1,               K.% Aspey%null%1,               M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>medrxiv/biorxiv doi</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,               A.% Anisimovich%null%1,               J.% Baxter%null%1,               L.% Mackillop%null%1,               M. P.% Vizcaychipi%null%1,               A.% McCarthy%null%1,               R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,               D.% Bates%null%1,               J. M.% Fiskio%null%1,               E. C.% Roche%null%1,               S.% Mora%null%1,               O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -2571,7 +2670,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2600,7 +2699,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2629,7 +2728,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -2658,7 +2757,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2687,7 +2786,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2716,7 +2815,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2745,7 +2844,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2774,7 +2873,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2803,7 +2902,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -2832,7 +2931,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2861,7 +2960,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -2890,7 +2989,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -2919,7 +3018,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -2948,7 +3047,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -2977,7 +3076,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3006,7 +3105,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>569</v>
+        <v>601</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3035,7 +3134,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3064,7 +3163,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3093,7 +3192,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3122,7 +3221,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3151,7 +3250,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3180,7 +3279,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3209,7 +3308,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3238,7 +3337,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3267,7 +3366,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3296,7 +3395,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3325,7 +3424,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3354,7 +3453,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3383,7 +3482,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -3412,13 +3511,13 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>616</v>
       </c>
       <c r="H31" t="s">
         <v>187</v>
@@ -3441,13 +3540,13 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>584</v>
+        <v>617</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>616</v>
       </c>
       <c r="H32" t="s">
         <v>191</v>
@@ -3470,13 +3569,13 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>585</v>
+        <v>618</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>616</v>
       </c>
       <c r="H33" t="s">
         <v>195</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3468" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="651">
   <si>
     <t>Doi</t>
   </si>
@@ -2314,6 +2314,102 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,               D.% Bates%null%1,               J. M.% Fiskio%null%1,               E. C.% Roche%null%1,               S.% Mora%null%1,               O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,               Jennifer M%Cooper%NULL%2,               Jennifer M%Cooper%NULL%0,               Krishna%Gokhale%NULL%1,               Dionisio%Acosta-Mena%NULL%1,               Samir%Dhalla%NULL%1,               Nathan%Byne%NULL%1,               Joht Singh%Chandan%NULL%1,               Astha%Anand%NULL%2,               Astha%Anand%NULL%0,               Kelvin%Okoth%NULL%1,               Anuradhaa%Subramanian%NULL%2,               Anuradhaa%Subramanian%NULL%0,               Mansoor N%Bangash%NULL%1,               Thomas%Jackson%NULL%2,               Thomas%Jackson%NULL%0,               Dawit%Zemedikun%NULL%2,               Dawit%Zemedikun%NULL%0,               Tom%Taverner%NULL%2,               Tom%Taverner%NULL%0,               Wasim%Hanif%NULL%1,               Sandip%Ghosh%NULL%1,               Parth%Narendran%NULL%1,               Konstantinos A%Toulis%NULL%1,               Abd A%Tahrani%NULL%2,               Abd A%Tahrani%NULL%0,               Rajendra%Surenthirakumaran%NULL%2,               Rajendra%Surenthirakumaran%NULL%0,               Nicola J%Adderley%NULL%1,               Shamil%Haroon%NULL%2,               Shamil%Haroon%NULL%0,               Kamlesh%Khunti%NULL%4,               Kamlesh%Khunti%NULL%0,               Christopher%Sainsbury%NULL%2,               Christopher%Sainsbury%NULL%0,               G Neil%Thomas%NULL%1,               Krishnarajah%Nirantharakumar%NULL%2,               Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,               Thomas%Servais%NULL%1,               Leïla%Belkhir%NULL%1,               Pierre-François%Laterre%NULL%1,               Jean-Paul%Thissen%NULL%1,               Bernard%Vandeleene%NULL%1,               Dominique%Maiter%NULL%1,               Jean C.%Yombi%NULL%1,               Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,               Abdallah%Al-Salameh%NULL%3,               Samy%Hadjadj%NULL%3,               Thomas%Goronflot%NULL%1,               Nicolas%Wiernsperger%NULL%1,               Matthieu%Pichelin%NULL%3,               Ingrid%Allix%NULL%3,               Coralie%Amadou%NULL%2,               Olivier%Bourron%NULL%2,               Thierry%Duriez%NULL%1,               Jean-François%Gautier%NULL%3,               Anne%Dutour%NULL%1,               Céline%Gonfroy%NULL%1,               Didier%Gouet%NULL%1,               Michael%Joubert%NULL%3,               Ingrid%Julier%NULL%1,               Etienne%Larger%NULL%1,               Lucien%Marchand%NULL%3,               Michel%Marre%NULL%1,               Laurent%Meyer%NULL%3,               Frédérique%Olivier%NULL%1,               Gaëtan%Prevost%NULL%3,               Pascale%Quiniou%NULL%1,               Christelle%Raffaitin-Cardin%NULL%1,               Ronan%Roussel%NULL%3,               Pierre-Jean%Saulnier%NULL%3,               Dominique%Seret-Begue%NULL%1,               Charles%Thivolet%NULL%3,               Camille%Vatier%NULL%2,               Rachel%Desailloud%NULL%1,               Matthieu%Wargny%NULL%3,               Pierre%Gourdy%NULL%3,               Bertrand%Cariou%NULL%1,               NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,               Zhenyuan%Chen%NULL%1,               Li%Liu%NULL%3,               Xiaoxv%Yin%NULL%1,               Heping%Yang%NULL%1,               Xiangping%Tan%NULL%1,               Jing%Wang%NULL%2,               Hui%Li%NULL%0,               Mengge%Tian%NULL%1,               Zuxun%Lu%NULL%1,               Nian%Xiong%NULL%4,               Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,               Ye-Mao%Liu%NULL%2,               Haomiao%Li%NULL%1,               Xin%Zhang%NULL%1,               Fang%Lei%NULL%2,               Juan-Juan%Qin%NULL%2,               Ze%Chen%NULL%1,               Ke-Qiong%Deng%NULL%1,               Lijin%Lin%NULL%2,               Ming-Ming%Chen%NULL%2,               Xiaohui%Song%NULL%1,               Meng%Xia%NULL%2,               Xuewei%Huang%NULL%2,               Weifang%Liu%NULL%1,               Jingjing%Cai%NULL%2,               Xiao-Jing%Zhang%NULL%2,               Feng%Zhou%NULL%1,               Peng%Zhang%NULL%1,               Yibin%Wang%NULL%2,               Xinliang%Ma%NULL%1,               Qingbo%Xu%NULL%2,               Juan%Yang%NULL%3,               Ping%Ye%NULL%2,               Weiming%Mao%NULL%2,               Xiaodong%Huang%NULL%2,               Jiahong%Xia%NULL%2,               Bing-Hong%Zhang%NULL%2,               Jiao%Guo%NULL%1,               Lihua%Zhu%NULL%2,               Zhibing%Lu%NULL%3,               Yufeng%Yuan%NULL%2,               Xiang%Wei%NULL%1,               Zhi-Gang%She%NULL%2,               Yan-Xiao%Ji%NULL%2,               Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,               Xi%Bai%NULL%1,               Xia%Han%NULL%1,               Wangyan%Jiang%NULL%1,               Lin%Qiu%NULL%2,               Shi%Chen%NULL%1,               Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,               Yanhong%Wei%NULL%1,               Min%Chen%NULL%1,               Qianqian%Wan%NULL%1,               Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,               Matteo%Monami%NULL%1,               Achille%Cernigliaro%NULL%1,               Enrica%Vigneri%NULL%1,               Valentina%Guarnotta%NULL%1,               Salvatore%Scondotto%NULL%1,               Vincenza A.%Allotta%NULL%1,               Michela%Conti%NULL%1,               Carla%Giordano%NULL%1,               Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,               Wen%Kong%NULL%1,               Pengfei%Xia%NULL%1,               Ying%Xu%NULL%1,               Li%Li%NULL%0,               Qin%Li%NULL%1,               Li%Yang%NULL%3,               Qi%Wei%NULL%3,               Hanyu%Wang%NULL%1,               Huiqing%Li%NULL%1,               Juan%Zheng%NULL%1,               Hui%Sun%NULL%1,               Wenfang%Xia%NULL%1,               Geng%Liu%NULL%1,               Xueyu%Zhong%NULL%1,               Kangli%Qiu%NULL%1,               Yan%Li%NULL%1,               Han%Wang%NULL%1,               Yuxiu%Wang%NULL%1,               Xiaoli%Song%NULL%1,               Hua%Liu%NULL%1,               Si%Xiong%NULL%1,               Yumei%Liu%NULL%1,               Zhenhai%Cui%NULL%1,               Yu%Hu%NULL%6,               Lulu%Chen%NULL%1,               An%Pan%NULL%1,               Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,               Qi%Wei%NULL%0,               Willis X%Li%NULL%1,               Karen C%McCowen%NULL%1,               Wei%Xiong%NULL%2,               Jiao%Liu%NULL%2,               Wenlijun%Jiang%NULL%2,               Traci%Marin%NULL%1,               Robert L%Thomas%NULL%1,               Ming%He%NULL%2,               Brendan%Gongol%NULL%1,               Mark%Hepokoski%NULL%2,               Jason X-J%Yuan%NULL%1,               John Y-J%Shyy%NULL%1,               Nian%Xiong%NULL%0,               Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,               Siyi%Xin%NULL%1,               Yaqi%Chen%NULL%1,               Leyu%Li%NULL%1,               Wanjun%Chen%NULL%1,               Wenjia%Li%NULL%1,               Baoan%Zhou%NULL%1,               Chenxia%Li%NULL%1,               Yu%Gong%NULL%1,               Fei%Li%NULL%1,               Peng%Duan%NULL%1,               Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,               John%Buse%NULL%2,               John%Buse%NULL%0,               Leonardo%Tamaritz%NULL%1,               Ana%Palacio%NULL%2,               Ken%Cohen%NULL%1,               Deneen%Vojta%NULL%2,               David%Liebovitz%NULL%1,               Nia%Mitchell%NULL%1,               Jacinda%Nicklas%NULL%1,               Ildiko%Lingvay%NULL%1,               Jeanne M.%Clark%NULL%1,               Louis J.%Aronne%NULL%1,               Erik%Anderson%NULL%1,               Michael%Usher%NULL%1,               Ryan%Demmer%NULL%1,               Genevieve B.%Melton%NULL%1,               Nicholas%Ingraham%NULL%1,               Christopher J.%Tignanelli%NULL%2,               Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,               In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,               Ana%Palacio%NULL%0,               Elissa%Dawkins%NULL%1,               Gordon%Chen%NULL%1,               Daniel%McCarter%NULL%1,               Emancia%Forbes%NULL%1,               Brian%Chung%NULL%1,               Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,               Qi%Wei%NULL%0,               Karen C.%McCowen%NULL%1,               Wei%Xiong%NULL%0,               Jiao%Liu%NULL%0,               Wenlijun%Jiang%NULL%0,               Robert L.%Thomas%NULL%1,               Mark%Hepokoski%NULL%0,               Ming%He%NULL%0,               John Y. J.%Shyy%NULL%1,               Atul%Malhotra%NULL%0,               Nian%Xiong%nianxiong@hust.edu.cn%0,               Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,               T. A. N.%Reed%NULL%2,               T. A. N.%Reed%NULL%0,               M.%Ardissino%NULL%1,               P.%Bassett%NULL%1,               A. M.%Whittington%NULL%1,               D. L.%Cohen%NULL%1,               N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,               Walter%Distaso%NULL%2,               Walter%Distaso%NULL%0,               Anjali%Amin%NULL%1,               Wei%Yang%NULL%1,               Oluwagbemiga%Idowu%NULL%1,               Julia S%Kenkre%NULL%1,               Ronak J%Shah%NULL%1,               Evelina%Woin%NULL%1,               Christine%Shi%NULL%1,               Nael%Alavi%NULL%2,               Nael%Alavi%NULL%0,               Hala%Bedri%NULL%1,               Niamh%Brady%NULL%1,               Sophie%Blackburn%NULL%1,               Martina%Leczycka%NULL%1,               Sanya%Patel%NULL%1,               Elizaveta%Sokol%NULL%1,               Edward%Toke-Bjolgerud%NULL%1,               Ambreen%Qayum%NULL%1,               Mariana%Abdel-Malek%NULL%1,               David C D%Hope%NULL%1,               Nick S%Oliver%NULL%1,               Vasiliki%Bravis%NULL%1,               Shivani%Misra%NULL%1,               Tricia M%Tan%NULL%1,               Neil E%Hill%NULL%2,               Neil E%Hill%NULL%0,               Victoria%Salem%NULL%2,               Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,               Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,               Tiffany%Grimes%NULL%1,               Peng%Li%NULL%1,               Matthew%Might%NULL%1,               Fernando%Ovalle%NULL%1,               Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,               Nicholas E%Ingraham%NULL%1,               Thomas A%Murray%NULL%1,               Schelomo%Marmor%NULL%1,               Shane%Hovertsen%NULL%1,               Jessica%Gronski%NULL%1,               Chace%McNeil%NULL%1,               Ruoying%Feng%NULL%1,               Gabriel%Guzman%NULL%1,               Nermine%Abdelwahab%NULL%1,               Samantha%King%NULL%1,               Leonardo%Tamariz%NULL%0,               Thomas%Meehan%NULL%1,               Kathryn M%Pendleton%NULL%1,               Bradley%Benson%NULL%1,               Deneen%Vojta%NULL%0,               Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,               Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,               Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,               Matthieu%Wargny%NULL%0,               Matthieu%Wargny%NULL%0,               Matthieu%Pichelin%NULL%0,               Matthieu%Pichelin%NULL%0,               Abdallah%Al-Salameh%NULL%0,               Abdallah%Al-Salameh%NULL%0,               Ingrid%Allix%NULL%0,               Ingrid%Allix%NULL%0,               Coralie%Amadou%NULL%0,               Gwénaëlle%Arnault%NULL%2,               Gwénaëlle%Arnault%NULL%0,               Florence%Baudoux%NULL%1,               Bernard%Bauduceau%NULL%1,               Sophie%Borot%NULL%1,               Muriel%Bourgeon-Ghittori%NULL%2,               Muriel%Bourgeon-Ghittori%NULL%0,               Olivier%Bourron%NULL%0,               David%Boutoille%NULL%4,               David%Boutoille%NULL%0,               France%Cazenave-Roblot%NULL%3,               France%Cazenave-Roblot%NULL%0,               Claude%Chaumeil%NULL%2,               Claude%Chaumeil%NULL%0,               Emmanuel%Cosson%NULL%1,               Sandrine%Coudol%NULL%2,               Sandrine%Coudol%NULL%0,               Patrice%Darmon%NULL%1,               Emmanuel%Disse%NULL%2,               Emmanuel%Disse%NULL%0,               Amélie%Ducet-Boiffard%NULL%2,               Amélie%Ducet-Boiffard%NULL%0,               Bénédicte%Gaborit%NULL%1,               Michael%Joubert%NULL%0,               Michael%Joubert%NULL%0,               Véronique%Kerlan%NULL%2,               Véronique%Kerlan%NULL%0,               Bruno%Laviolle%NULL%1,               Lucien%Marchand%NULL%0,               Lucien%Marchand%NULL%0,               Laurent%Meyer%NULL%0,               Laurent%Meyer%NULL%0,               Louis%Potier%NULL%2,               Louis%Potier%NULL%0,               Gaëtan%Prevost%NULL%0,               Gaëtan%Prevost%NULL%0,               Jean-Pierre%Riveline%NULL%1,               René%Robert%NULL%2,               René%Robert%NULL%0,               Pierre-Jean%Saulnier%NULL%0,               Pierre-Jean%Saulnier%NULL%0,               Ariane%Sultan%NULL%2,               Ariane%Sultan%NULL%0,               Jean-François%Thébaut%NULL%2,               Jean-François%Thébaut%NULL%0,               Charles%Thivolet%NULL%0,               Charles%Thivolet%NULL%0,               Blandine%Tramunt%NULL%2,               Blandine%Tramunt%NULL%0,               Camille%Vatier%NULL%0,               Ronan%Roussel%NULL%0,               Ronan%Roussel%NULL%0,               Jean-François%Gautier%NULL%0,               Jean-François%Gautier%NULL%0,               Pierre%Gourdy%NULL%0,               Pierre%Gourdy%NULL%0,               NULL%NULL%NULL%0,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,               Peter%Knighton%NULL%1,               Francesco%Zaccardi%NULL%2,               Chirag%Bakhai%NULL%1,               Emma%Barron%NULL%1,               Naomi%Holman%NULL%1,               Partha%Kar%NULL%1,               Claire%Meace%NULL%1,               Naveed%Sattar%NULL%1,               Stephen%Sharp%NULL%1,               Nicholas J%Wareham%NULL%1,               Andy%Weaver%NULL%1,               Emilia%Woch%NULL%1,               Bob%Young%NULL%1,               Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,               José David%Torres-Peña%NULL%1,               María D.%López-Carmona%NULL%1,               M. Mar.%Ayala-Gutiérrez%NULL%1,               Francisco%Fuentes-Jiménez%NULL%1,               Lucía Jorge%Huerta%NULL%1,               Jaime Alonso%Muñoz%NULL%1,               Manuel%Rubio-Rivas%NULL%1,               Manel%Madrazo%NULL%1,               Marcos Guzmán%Garcia%NULL%1,               Beatriz Vicente%Montes%NULL%1,               Joaquim Fernández%Sola%NULL%1,               Javier%Ena%NULL%1,               Ruth Gonzalez%Ferrer%NULL%1,               Carmen Mella%Pérez%NULL%1,               Carlos Jorge%Ripper%NULL%1,               Jose Javier Napal%Lecumberri%NULL%1,               Iris El Attar%Acedo%NULL%1,               Susana Plaza%Canteli%NULL%1,               Sara Fuente%Cosío%NULL%1,               Francisco Amorós%Martínez%NULL%1,               Begoña Cortés%Rodríguez%NULL%1,               Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,               José Manuel%Ramos-Rincón%NULL%1,               Ricardo%Gómez-Huelgas%NULL%1,               NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,               Sang Won%Kim%NULL%1,               Jong Won%Park%NULL%1,               Kyu Hyang%Cho%NULL%1,               Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,        Dong%Yang%xref no email%0,        Biao%Cheng%xref no email%0,        Jian%Chen%xref no email%0,        Anlin%Peng%xref no email%0,        Chen%Yang%xref no email%0,        Chong%Liu%xref no email%0,        Mingrui%Xiong%xref no email%0,        Aiping%Deng%xref no email%0,        Yu%Zhang%xref no email%0,        Ling%Zheng%xref no email%0,        Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,               Philip%Tsoukas%NULL%1,               Christopher W.%Halladay%NULL%1,               Emily%O'Neill%NULL%1,               Stefan%Gravenstein%NULL%1,               James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,               Tao%Liu%NULL%2,               Weijun%Zhong%NULL%1,               Rong%Liu%NULL%1,               Honghao%Zhou%NULL%1,               Weihua%Huang%endeavor34852@aliyun.com%1,               Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,               Jae-Han%Jeon%NULL%2,               Jae-Han%Jeon%NULL%0,               Sung-Woo%Kim%NULL%2,               Sung-Woo%Kim%NULL%0,               Jun Sung%Moon%NULL%1,               Nan Hee%Cho%NULL%1,               Eugene%Han%NULL%1,               Ji Hong%You%NULL%1,               Ji Yeon%Lee%NULL%4,               Miri%Hyun%NULL%1,               Jae Seok%Park%NULL%4,               Yong Shik%Kwon%NULL%2,               Yeon-Kyung%Choi%NULL%1,               Ki Tae%Kwon%NULL%1,               Shin Yup%Lee%NULL%1,               Eon Ju%Jeon%NULL%1,               Jin-Woo%Kim%NULL%1,               Hyo-Lim%Hong%NULL%1,               Hyun Hee%Kwon%NULL%1,               Chi Young%Jung%NULL%1,               Yin Young%Lee%NULL%1,               Eunyeoung%Ha%NULL%1,               Seung Min%Chung%NULL%1,               Jian%Hur%NULL%2,               June Hong%Ahn%NULL%3,               Na-young%Kim%NULL%1,               Shin-Woo%Kim%NULL%3,               Hyun Ha%Chang%NULL%1,               Yong Hoon%Lee%NULL%1,               Jaehee%Lee%NULL%1,               Keun-Gyu%Park%NULL%1,               Hyun Ah%Kim%NULL%1,               Ji-Hyun%Lee%NULL%2,               Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,               Lin%Qiu%NULL%0,               Yi%Liu%NULL%2,               Xiu-lan%Liu%NULL%1,               Jian-ling%Zheng%NULL%1,               Hui-ying%Xue%NULL%1,               Wen-hua%Liu%NULL%1,               Dong%Liu%NULL%3,               Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                N.% Smati%null%1,                C. S. J.% Wong%null%1,                K.% Aspey%null%1,                M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                A.% Anisimovich%null%1,                J.% Baxter%null%1,                L.% Mackillop%null%1,                M. P.% Vizcaychipi%null%1,                A.% McCarthy%null%1,                R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                D.% Bates%null%1,                J. M.% Fiskio%null%1,                E. C.% Roche%null%1,                S.% Mora%null%1,                O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -2670,7 +2766,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>619</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2699,7 +2795,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>587</v>
+        <v>620</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2728,7 +2824,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>588</v>
+        <v>621</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -2757,7 +2853,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>589</v>
+        <v>622</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2786,7 +2882,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2815,7 +2911,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2844,7 +2940,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2873,7 +2969,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2902,7 +2998,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -2931,7 +3027,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -2960,7 +3056,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -2989,7 +3085,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3018,7 +3114,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -3047,7 +3143,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3076,7 +3172,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3105,7 +3201,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3134,7 +3230,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3163,7 +3259,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3192,7 +3288,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3221,7 +3317,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3250,7 +3346,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3279,7 +3375,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3308,7 +3404,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3337,7 +3433,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3366,7 +3462,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3395,7 +3491,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3424,7 +3520,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3453,7 +3549,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3482,7 +3578,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -3511,7 +3607,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -3540,7 +3636,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -3569,7 +3665,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="715">
   <si>
     <t>Doi</t>
   </si>
@@ -2410,6 +2410,198 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,                D.% Bates%null%1,                J. M.% Fiskio%null%1,                E. C.% Roche%null%1,                S.% Mora%null%1,                O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                Jennifer M%Cooper%NULL%2,                Jennifer M%Cooper%NULL%0,                Krishna%Gokhale%NULL%1,                Dionisio%Acosta-Mena%NULL%1,                Samir%Dhalla%NULL%1,                Nathan%Byne%NULL%1,                Joht Singh%Chandan%NULL%1,                Astha%Anand%NULL%2,                Astha%Anand%NULL%0,                Kelvin%Okoth%NULL%1,                Anuradhaa%Subramanian%NULL%2,                Anuradhaa%Subramanian%NULL%0,                Mansoor N%Bangash%NULL%1,                Thomas%Jackson%NULL%2,                Thomas%Jackson%NULL%0,                Dawit%Zemedikun%NULL%2,                Dawit%Zemedikun%NULL%0,                Tom%Taverner%NULL%2,                Tom%Taverner%NULL%0,                Wasim%Hanif%NULL%1,                Sandip%Ghosh%NULL%1,                Parth%Narendran%NULL%1,                Konstantinos A%Toulis%NULL%1,                Abd A%Tahrani%NULL%2,                Abd A%Tahrani%NULL%0,                Rajendra%Surenthirakumaran%NULL%2,                Rajendra%Surenthirakumaran%NULL%0,                Nicola J%Adderley%NULL%1,                Shamil%Haroon%NULL%2,                Shamil%Haroon%NULL%0,                Kamlesh%Khunti%NULL%4,                Kamlesh%Khunti%NULL%0,                Christopher%Sainsbury%NULL%2,                Christopher%Sainsbury%NULL%0,                G Neil%Thomas%NULL%1,                Krishnarajah%Nirantharakumar%NULL%2,                Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                Thomas%Servais%NULL%1,                Leïla%Belkhir%NULL%1,                Pierre-François%Laterre%NULL%1,                Jean-Paul%Thissen%NULL%1,                Bernard%Vandeleene%NULL%1,                Dominique%Maiter%NULL%1,                Jean C.%Yombi%NULL%1,                Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                Abdallah%Al-Salameh%NULL%3,                Samy%Hadjadj%NULL%3,                Thomas%Goronflot%NULL%1,                Nicolas%Wiernsperger%NULL%1,                Matthieu%Pichelin%NULL%3,                Ingrid%Allix%NULL%3,                Coralie%Amadou%NULL%2,                Olivier%Bourron%NULL%2,                Thierry%Duriez%NULL%1,                Jean-François%Gautier%NULL%3,                Anne%Dutour%NULL%1,                Céline%Gonfroy%NULL%1,                Didier%Gouet%NULL%1,                Michael%Joubert%NULL%3,                Ingrid%Julier%NULL%1,                Etienne%Larger%NULL%1,                Lucien%Marchand%NULL%3,                Michel%Marre%NULL%1,                Laurent%Meyer%NULL%3,                Frédérique%Olivier%NULL%1,                Gaëtan%Prevost%NULL%3,                Pascale%Quiniou%NULL%1,                Christelle%Raffaitin-Cardin%NULL%1,                Ronan%Roussel%NULL%3,                Pierre-Jean%Saulnier%NULL%3,                Dominique%Seret-Begue%NULL%1,                Charles%Thivolet%NULL%3,                Camille%Vatier%NULL%2,                Rachel%Desailloud%NULL%1,                Matthieu%Wargny%NULL%3,                Pierre%Gourdy%NULL%3,                Bertrand%Cariou%NULL%1,                NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                Zhenyuan%Chen%NULL%1,                Li%Liu%NULL%3,                Xiaoxv%Yin%NULL%1,                Heping%Yang%NULL%1,                Xiangping%Tan%NULL%1,                Jing%Wang%NULL%2,                Hui%Li%NULL%0,                Mengge%Tian%NULL%1,                Zuxun%Lu%NULL%1,                Nian%Xiong%NULL%4,                Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                Ye-Mao%Liu%NULL%2,                Haomiao%Li%NULL%1,                Xin%Zhang%NULL%1,                Fang%Lei%NULL%2,                Juan-Juan%Qin%NULL%2,                Ze%Chen%NULL%1,                Ke-Qiong%Deng%NULL%1,                Lijin%Lin%NULL%2,                Ming-Ming%Chen%NULL%2,                Xiaohui%Song%NULL%1,                Meng%Xia%NULL%2,                Xuewei%Huang%NULL%2,                Weifang%Liu%NULL%1,                Jingjing%Cai%NULL%2,                Xiao-Jing%Zhang%NULL%2,                Feng%Zhou%NULL%1,                Peng%Zhang%NULL%1,                Yibin%Wang%NULL%2,                Xinliang%Ma%NULL%1,                Qingbo%Xu%NULL%2,                Juan%Yang%NULL%3,                Ping%Ye%NULL%2,                Weiming%Mao%NULL%2,                Xiaodong%Huang%NULL%2,                Jiahong%Xia%NULL%2,                Bing-Hong%Zhang%NULL%2,                Jiao%Guo%NULL%1,                Lihua%Zhu%NULL%2,                Zhibing%Lu%NULL%3,                Yufeng%Yuan%NULL%2,                Xiang%Wei%NULL%1,                Zhi-Gang%She%NULL%2,                Yan-Xiao%Ji%NULL%2,                Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                Xi%Bai%NULL%1,                Xia%Han%NULL%1,                Wangyan%Jiang%NULL%1,                Lin%Qiu%NULL%2,                Shi%Chen%NULL%1,                Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                Yanhong%Wei%NULL%1,                Min%Chen%NULL%1,                Qianqian%Wan%NULL%1,                Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                Matteo%Monami%NULL%1,                Achille%Cernigliaro%NULL%1,                Enrica%Vigneri%NULL%1,                Valentina%Guarnotta%NULL%1,                Salvatore%Scondotto%NULL%1,                Vincenza A.%Allotta%NULL%1,                Michela%Conti%NULL%1,                Carla%Giordano%NULL%1,                Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                Wen%Kong%NULL%1,                Pengfei%Xia%NULL%1,                Ying%Xu%NULL%1,                Li%Li%NULL%0,                Qin%Li%NULL%1,                Li%Yang%NULL%3,                Qi%Wei%NULL%3,                Hanyu%Wang%NULL%1,                Huiqing%Li%NULL%1,                Juan%Zheng%NULL%1,                Hui%Sun%NULL%1,                Wenfang%Xia%NULL%1,                Geng%Liu%NULL%1,                Xueyu%Zhong%NULL%1,                Kangli%Qiu%NULL%1,                Yan%Li%NULL%1,                Han%Wang%NULL%1,                Yuxiu%Wang%NULL%1,                Xiaoli%Song%NULL%1,                Hua%Liu%NULL%1,                Si%Xiong%NULL%1,                Yumei%Liu%NULL%1,                Zhenhai%Cui%NULL%1,                Yu%Hu%NULL%6,                Lulu%Chen%NULL%1,                An%Pan%NULL%1,                Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                Qi%Wei%NULL%0,                Willis X%Li%NULL%1,                Karen C%McCowen%NULL%1,                Wei%Xiong%NULL%2,                Jiao%Liu%NULL%2,                Wenlijun%Jiang%NULL%2,                Traci%Marin%NULL%1,                Robert L%Thomas%NULL%1,                Ming%He%NULL%2,                Brendan%Gongol%NULL%1,                Mark%Hepokoski%NULL%2,                Jason X-J%Yuan%NULL%1,                John Y-J%Shyy%NULL%1,                Nian%Xiong%NULL%0,                Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                Siyi%Xin%NULL%1,                Yaqi%Chen%NULL%1,                Leyu%Li%NULL%1,                Wanjun%Chen%NULL%1,                Wenjia%Li%NULL%1,                Baoan%Zhou%NULL%1,                Chenxia%Li%NULL%1,                Yu%Gong%NULL%1,                Fei%Li%NULL%1,                Peng%Duan%NULL%1,                Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                John%Buse%NULL%2,                John%Buse%NULL%0,                Leonardo%Tamaritz%NULL%1,                Ana%Palacio%NULL%2,                Ken%Cohen%NULL%1,                Deneen%Vojta%NULL%2,                David%Liebovitz%NULL%1,                Nia%Mitchell%NULL%1,                Jacinda%Nicklas%NULL%1,                Ildiko%Lingvay%NULL%1,                Jeanne M.%Clark%NULL%1,                Louis J.%Aronne%NULL%1,                Erik%Anderson%NULL%1,                Michael%Usher%NULL%1,                Ryan%Demmer%NULL%1,                Genevieve B.%Melton%NULL%1,                Nicholas%Ingraham%NULL%1,                Christopher J.%Tignanelli%NULL%2,                Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                Ana%Palacio%NULL%0,                Elissa%Dawkins%NULL%1,                Gordon%Chen%NULL%1,                Daniel%McCarter%NULL%1,                Emancia%Forbes%NULL%1,                Brian%Chung%NULL%1,                Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                Qi%Wei%NULL%0,                Karen C.%McCowen%NULL%1,                Wei%Xiong%NULL%0,                Jiao%Liu%NULL%0,                Wenlijun%Jiang%NULL%0,                Robert L.%Thomas%NULL%1,                Mark%Hepokoski%NULL%0,                Ming%He%NULL%0,                John Y. J.%Shyy%NULL%1,                Atul%Malhotra%NULL%0,                Nian%Xiong%nianxiong@hust.edu.cn%0,                Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                T. A. N.%Reed%NULL%2,                T. A. N.%Reed%NULL%0,                M.%Ardissino%NULL%1,                P.%Bassett%NULL%1,                A. M.%Whittington%NULL%1,                D. L.%Cohen%NULL%1,                N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                Walter%Distaso%NULL%2,                Walter%Distaso%NULL%0,                Anjali%Amin%NULL%1,                Wei%Yang%NULL%1,                Oluwagbemiga%Idowu%NULL%1,                Julia S%Kenkre%NULL%1,                Ronak J%Shah%NULL%1,                Evelina%Woin%NULL%1,                Christine%Shi%NULL%1,                Nael%Alavi%NULL%2,                Nael%Alavi%NULL%0,                Hala%Bedri%NULL%1,                Niamh%Brady%NULL%1,                Sophie%Blackburn%NULL%1,                Martina%Leczycka%NULL%1,                Sanya%Patel%NULL%1,                Elizaveta%Sokol%NULL%1,                Edward%Toke-Bjolgerud%NULL%1,                Ambreen%Qayum%NULL%1,                Mariana%Abdel-Malek%NULL%1,                David C D%Hope%NULL%1,                Nick S%Oliver%NULL%1,                Vasiliki%Bravis%NULL%1,                Shivani%Misra%NULL%1,                Tricia M%Tan%NULL%1,                Neil E%Hill%NULL%2,                Neil E%Hill%NULL%0,                Victoria%Salem%NULL%2,                Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                Tiffany%Grimes%NULL%1,                Peng%Li%NULL%1,                Matthew%Might%NULL%1,                Fernando%Ovalle%NULL%1,                Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                Nicholas E%Ingraham%NULL%1,                Thomas A%Murray%NULL%1,                Schelomo%Marmor%NULL%1,                Shane%Hovertsen%NULL%1,                Jessica%Gronski%NULL%1,                Chace%McNeil%NULL%1,                Ruoying%Feng%NULL%1,                Gabriel%Guzman%NULL%1,                Nermine%Abdelwahab%NULL%1,                Samantha%King%NULL%1,                Leonardo%Tamariz%NULL%0,                Thomas%Meehan%NULL%1,                Kathryn M%Pendleton%NULL%1,                Bradley%Benson%NULL%1,                Deneen%Vojta%NULL%0,                Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                Matthieu%Wargny%NULL%0,                Matthieu%Wargny%NULL%0,                Matthieu%Pichelin%NULL%0,                Matthieu%Pichelin%NULL%0,                Abdallah%Al-Salameh%NULL%0,                Abdallah%Al-Salameh%NULL%0,                Ingrid%Allix%NULL%0,                Ingrid%Allix%NULL%0,                Coralie%Amadou%NULL%0,                Gwénaëlle%Arnault%NULL%2,                Gwénaëlle%Arnault%NULL%0,                Florence%Baudoux%NULL%1,                Bernard%Bauduceau%NULL%1,                Sophie%Borot%NULL%1,                Muriel%Bourgeon-Ghittori%NULL%2,                Muriel%Bourgeon-Ghittori%NULL%0,                Olivier%Bourron%NULL%0,                David%Boutoille%NULL%4,                David%Boutoille%NULL%0,                France%Cazenave-Roblot%NULL%3,                France%Cazenave-Roblot%NULL%0,                Claude%Chaumeil%NULL%2,                Claude%Chaumeil%NULL%0,                Emmanuel%Cosson%NULL%1,                Sandrine%Coudol%NULL%2,                Sandrine%Coudol%NULL%0,                Patrice%Darmon%NULL%1,                Emmanuel%Disse%NULL%2,                Emmanuel%Disse%NULL%0,                Amélie%Ducet-Boiffard%NULL%2,                Amélie%Ducet-Boiffard%NULL%0,                Bénédicte%Gaborit%NULL%1,                Michael%Joubert%NULL%0,                Michael%Joubert%NULL%0,                Véronique%Kerlan%NULL%2,                Véronique%Kerlan%NULL%0,                Bruno%Laviolle%NULL%1,                Lucien%Marchand%NULL%0,                Lucien%Marchand%NULL%0,                Laurent%Meyer%NULL%0,                Laurent%Meyer%NULL%0,                Louis%Potier%NULL%2,                Louis%Potier%NULL%0,                Gaëtan%Prevost%NULL%0,                Gaëtan%Prevost%NULL%0,                Jean-Pierre%Riveline%NULL%1,                René%Robert%NULL%2,                René%Robert%NULL%0,                Pierre-Jean%Saulnier%NULL%0,                Pierre-Jean%Saulnier%NULL%0,                Ariane%Sultan%NULL%2,                Ariane%Sultan%NULL%0,                Jean-François%Thébaut%NULL%2,                Jean-François%Thébaut%NULL%0,                Charles%Thivolet%NULL%0,                Charles%Thivolet%NULL%0,                Blandine%Tramunt%NULL%2,                Blandine%Tramunt%NULL%0,                Camille%Vatier%NULL%0,                Ronan%Roussel%NULL%0,                Ronan%Roussel%NULL%0,                Jean-François%Gautier%NULL%0,                Jean-François%Gautier%NULL%0,                Pierre%Gourdy%NULL%0,                Pierre%Gourdy%NULL%0,                NULL%NULL%NULL%0,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                Peter%Knighton%NULL%1,                Francesco%Zaccardi%NULL%2,                Chirag%Bakhai%NULL%1,                Emma%Barron%NULL%1,                Naomi%Holman%NULL%1,                Partha%Kar%NULL%1,                Claire%Meace%NULL%1,                Naveed%Sattar%NULL%1,                Stephen%Sharp%NULL%1,                Nicholas J%Wareham%NULL%1,                Andy%Weaver%NULL%1,                Emilia%Woch%NULL%1,                Bob%Young%NULL%1,                Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                José David%Torres-Peña%NULL%1,                María D.%López-Carmona%NULL%1,                M. Mar.%Ayala-Gutiérrez%NULL%1,                Francisco%Fuentes-Jiménez%NULL%1,                Lucía Jorge%Huerta%NULL%1,                Jaime Alonso%Muñoz%NULL%1,                Manuel%Rubio-Rivas%NULL%1,                Manel%Madrazo%NULL%1,                Marcos Guzmán%Garcia%NULL%1,                Beatriz Vicente%Montes%NULL%1,                Joaquim Fernández%Sola%NULL%1,                Javier%Ena%NULL%1,                Ruth Gonzalez%Ferrer%NULL%1,                Carmen Mella%Pérez%NULL%1,                Carlos Jorge%Ripper%NULL%1,                Jose Javier Napal%Lecumberri%NULL%1,                Iris El Attar%Acedo%NULL%1,                Susana Plaza%Canteli%NULL%1,                Sara Fuente%Cosío%NULL%1,                Francisco Amorós%Martínez%NULL%1,                Begoña Cortés%Rodríguez%NULL%1,                Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                José Manuel%Ramos-Rincón%NULL%1,                Ricardo%Gómez-Huelgas%NULL%1,                NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                Sang Won%Kim%NULL%1,                Jong Won%Park%NULL%1,                Kyu Hyang%Cho%NULL%1,                Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,         Dong%Yang%xref no email%0,         Biao%Cheng%xref no email%0,         Jian%Chen%xref no email%0,         Anlin%Peng%xref no email%0,         Chen%Yang%xref no email%0,         Chong%Liu%xref no email%0,         Mingrui%Xiong%xref no email%0,         Aiping%Deng%xref no email%0,         Yu%Zhang%xref no email%0,         Ling%Zheng%xref no email%0,         Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                Philip%Tsoukas%NULL%1,                Christopher W.%Halladay%NULL%1,                Emily%O'Neill%NULL%1,                Stefan%Gravenstein%NULL%1,                James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                Tao%Liu%NULL%2,                Weijun%Zhong%NULL%1,                Rong%Liu%NULL%1,                Honghao%Zhou%NULL%1,                Weihua%Huang%endeavor34852@aliyun.com%1,                Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                Jae-Han%Jeon%NULL%2,                Jae-Han%Jeon%NULL%0,                Sung-Woo%Kim%NULL%2,                Sung-Woo%Kim%NULL%0,                Jun Sung%Moon%NULL%1,                Nan Hee%Cho%NULL%1,                Eugene%Han%NULL%1,                Ji Hong%You%NULL%1,                Ji Yeon%Lee%NULL%4,                Miri%Hyun%NULL%1,                Jae Seok%Park%NULL%4,                Yong Shik%Kwon%NULL%2,                Yeon-Kyung%Choi%NULL%1,                Ki Tae%Kwon%NULL%1,                Shin Yup%Lee%NULL%1,                Eon Ju%Jeon%NULL%1,                Jin-Woo%Kim%NULL%1,                Hyo-Lim%Hong%NULL%1,                Hyun Hee%Kwon%NULL%1,                Chi Young%Jung%NULL%1,                Yin Young%Lee%NULL%1,                Eunyeoung%Ha%NULL%1,                Seung Min%Chung%NULL%1,                Jian%Hur%NULL%2,                June Hong%Ahn%NULL%3,                Na-young%Kim%NULL%1,                Shin-Woo%Kim%NULL%3,                Hyun Ha%Chang%NULL%1,                Yong Hoon%Lee%NULL%1,                Jaehee%Lee%NULL%1,                Keun-Gyu%Park%NULL%1,                Hyun Ah%Kim%NULL%1,                Ji-Hyun%Lee%NULL%2,                Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                Lin%Qiu%NULL%0,                Yi%Liu%NULL%2,                Xiu-lan%Liu%NULL%1,                Jian-ling%Zheng%NULL%1,                Hui-ying%Xue%NULL%1,                Wen-hua%Liu%NULL%1,                Dong%Liu%NULL%3,                Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                 N.% Smati%null%1,                 C. S. J.% Wong%null%1,                 K.% Aspey%null%1,                 M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                 A.% Anisimovich%null%1,                 J.% Baxter%null%1,                 L.% Mackillop%null%1,                 M. P.% Vizcaychipi%null%1,                 A.% McCarthy%null%1,                 R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                 D.% Bates%null%1,                 J. M.% Fiskio%null%1,                 E. C.% Roche%null%1,                 S.% Mora%null%1,                 O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                 Jennifer M%Cooper%NULL%2,                 Jennifer M%Cooper%NULL%0,                 Krishna%Gokhale%NULL%1,                 Dionisio%Acosta-Mena%NULL%1,                 Samir%Dhalla%NULL%1,                 Nathan%Byne%NULL%1,                 Joht Singh%Chandan%NULL%1,                 Astha%Anand%NULL%2,                 Astha%Anand%NULL%0,                 Kelvin%Okoth%NULL%1,                 Anuradhaa%Subramanian%NULL%2,                 Anuradhaa%Subramanian%NULL%0,                 Mansoor N%Bangash%NULL%1,                 Thomas%Jackson%NULL%2,                 Thomas%Jackson%NULL%0,                 Dawit%Zemedikun%NULL%2,                 Dawit%Zemedikun%NULL%0,                 Tom%Taverner%NULL%2,                 Tom%Taverner%NULL%0,                 Wasim%Hanif%NULL%1,                 Sandip%Ghosh%NULL%1,                 Parth%Narendran%NULL%1,                 Konstantinos A%Toulis%NULL%1,                 Abd A%Tahrani%NULL%2,                 Abd A%Tahrani%NULL%0,                 Rajendra%Surenthirakumaran%NULL%2,                 Rajendra%Surenthirakumaran%NULL%0,                 Nicola J%Adderley%NULL%1,                 Shamil%Haroon%NULL%2,                 Shamil%Haroon%NULL%0,                 Kamlesh%Khunti%NULL%4,                 Kamlesh%Khunti%NULL%0,                 Christopher%Sainsbury%NULL%2,                 Christopher%Sainsbury%NULL%0,                 G Neil%Thomas%NULL%1,                 Krishnarajah%Nirantharakumar%NULL%2,                 Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                 Thomas%Servais%NULL%1,                 Leïla%Belkhir%NULL%1,                 Pierre-François%Laterre%NULL%1,                 Jean-Paul%Thissen%NULL%1,                 Bernard%Vandeleene%NULL%1,                 Dominique%Maiter%NULL%1,                 Jean C.%Yombi%NULL%1,                 Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                 Abdallah%Al-Salameh%NULL%3,                 Samy%Hadjadj%NULL%3,                 Thomas%Goronflot%NULL%1,                 Nicolas%Wiernsperger%NULL%1,                 Matthieu%Pichelin%NULL%3,                 Ingrid%Allix%NULL%3,                 Coralie%Amadou%NULL%2,                 Olivier%Bourron%NULL%2,                 Thierry%Duriez%NULL%1,                 Jean-François%Gautier%NULL%3,                 Anne%Dutour%NULL%1,                 Céline%Gonfroy%NULL%1,                 Didier%Gouet%NULL%1,                 Michael%Joubert%NULL%3,                 Ingrid%Julier%NULL%1,                 Etienne%Larger%NULL%1,                 Lucien%Marchand%NULL%3,                 Michel%Marre%NULL%1,                 Laurent%Meyer%NULL%3,                 Frédérique%Olivier%NULL%1,                 Gaëtan%Prevost%NULL%3,                 Pascale%Quiniou%NULL%1,                 Christelle%Raffaitin-Cardin%NULL%1,                 Ronan%Roussel%NULL%3,                 Pierre-Jean%Saulnier%NULL%3,                 Dominique%Seret-Begue%NULL%1,                 Charles%Thivolet%NULL%3,                 Camille%Vatier%NULL%2,                 Rachel%Desailloud%NULL%1,                 Matthieu%Wargny%NULL%3,                 Pierre%Gourdy%NULL%3,                 Bertrand%Cariou%NULL%1,                 NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                 Zhenyuan%Chen%NULL%1,                 Li%Liu%NULL%3,                 Xiaoxv%Yin%NULL%1,                 Heping%Yang%NULL%1,                 Xiangping%Tan%NULL%1,                 Jing%Wang%NULL%2,                 Hui%Li%NULL%0,                 Mengge%Tian%NULL%1,                 Zuxun%Lu%NULL%1,                 Nian%Xiong%NULL%4,                 Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                 Ye-Mao%Liu%NULL%2,                 Haomiao%Li%NULL%1,                 Xin%Zhang%NULL%1,                 Fang%Lei%NULL%2,                 Juan-Juan%Qin%NULL%2,                 Ze%Chen%NULL%1,                 Ke-Qiong%Deng%NULL%1,                 Lijin%Lin%NULL%2,                 Ming-Ming%Chen%NULL%2,                 Xiaohui%Song%NULL%1,                 Meng%Xia%NULL%2,                 Xuewei%Huang%NULL%2,                 Weifang%Liu%NULL%1,                 Jingjing%Cai%NULL%2,                 Xiao-Jing%Zhang%NULL%2,                 Feng%Zhou%NULL%1,                 Peng%Zhang%NULL%1,                 Yibin%Wang%NULL%2,                 Xinliang%Ma%NULL%1,                 Qingbo%Xu%NULL%2,                 Juan%Yang%NULL%3,                 Ping%Ye%NULL%2,                 Weiming%Mao%NULL%2,                 Xiaodong%Huang%NULL%2,                 Jiahong%Xia%NULL%2,                 Bing-Hong%Zhang%NULL%2,                 Jiao%Guo%NULL%1,                 Lihua%Zhu%NULL%2,                 Zhibing%Lu%NULL%3,                 Yufeng%Yuan%NULL%2,                 Xiang%Wei%NULL%1,                 Zhi-Gang%She%NULL%2,                 Yan-Xiao%Ji%NULL%2,                 Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                 Xi%Bai%NULL%1,                 Xia%Han%NULL%1,                 Wangyan%Jiang%NULL%1,                 Lin%Qiu%NULL%2,                 Shi%Chen%NULL%1,                 Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                 Yanhong%Wei%NULL%1,                 Min%Chen%NULL%1,                 Qianqian%Wan%NULL%1,                 Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                 Matteo%Monami%NULL%1,                 Achille%Cernigliaro%NULL%1,                 Enrica%Vigneri%NULL%1,                 Valentina%Guarnotta%NULL%1,                 Salvatore%Scondotto%NULL%1,                 Vincenza A.%Allotta%NULL%1,                 Michela%Conti%NULL%1,                 Carla%Giordano%NULL%1,                 Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                 Wen%Kong%NULL%1,                 Pengfei%Xia%NULL%1,                 Ying%Xu%NULL%1,                 Li%Li%NULL%0,                 Qin%Li%NULL%1,                 Li%Yang%NULL%3,                 Qi%Wei%NULL%3,                 Hanyu%Wang%NULL%1,                 Huiqing%Li%NULL%1,                 Juan%Zheng%NULL%1,                 Hui%Sun%NULL%1,                 Wenfang%Xia%NULL%1,                 Geng%Liu%NULL%1,                 Xueyu%Zhong%NULL%1,                 Kangli%Qiu%NULL%1,                 Yan%Li%NULL%1,                 Han%Wang%NULL%1,                 Yuxiu%Wang%NULL%1,                 Xiaoli%Song%NULL%1,                 Hua%Liu%NULL%1,                 Si%Xiong%NULL%1,                 Yumei%Liu%NULL%1,                 Zhenhai%Cui%NULL%1,                 Yu%Hu%NULL%6,                 Lulu%Chen%NULL%1,                 An%Pan%NULL%1,                 Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                 Qi%Wei%NULL%0,                 Willis X%Li%NULL%1,                 Karen C%McCowen%NULL%1,                 Wei%Xiong%NULL%2,                 Jiao%Liu%NULL%2,                 Wenlijun%Jiang%NULL%2,                 Traci%Marin%NULL%1,                 Robert L%Thomas%NULL%1,                 Ming%He%NULL%2,                 Brendan%Gongol%NULL%1,                 Mark%Hepokoski%NULL%2,                 Jason X-J%Yuan%NULL%1,                 John Y-J%Shyy%NULL%1,                 Nian%Xiong%NULL%0,                 Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                 Siyi%Xin%NULL%1,                 Yaqi%Chen%NULL%1,                 Leyu%Li%NULL%1,                 Wanjun%Chen%NULL%1,                 Wenjia%Li%NULL%1,                 Baoan%Zhou%NULL%1,                 Chenxia%Li%NULL%1,                 Yu%Gong%NULL%1,                 Fei%Li%NULL%1,                 Peng%Duan%NULL%1,                 Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                 John%Buse%NULL%2,                 John%Buse%NULL%0,                 Leonardo%Tamaritz%NULL%1,                 Ana%Palacio%NULL%2,                 Ken%Cohen%NULL%1,                 Deneen%Vojta%NULL%2,                 David%Liebovitz%NULL%1,                 Nia%Mitchell%NULL%1,                 Jacinda%Nicklas%NULL%1,                 Ildiko%Lingvay%NULL%1,                 Jeanne M.%Clark%NULL%1,                 Louis J.%Aronne%NULL%1,                 Erik%Anderson%NULL%1,                 Michael%Usher%NULL%1,                 Ryan%Demmer%NULL%1,                 Genevieve B.%Melton%NULL%1,                 Nicholas%Ingraham%NULL%1,                 Christopher J.%Tignanelli%NULL%2,                 Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                 In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                 Ana%Palacio%NULL%0,                 Elissa%Dawkins%NULL%1,                 Gordon%Chen%NULL%1,                 Daniel%McCarter%NULL%1,                 Emancia%Forbes%NULL%1,                 Brian%Chung%NULL%1,                 Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                 Qi%Wei%NULL%0,                 Karen C.%McCowen%NULL%1,                 Wei%Xiong%NULL%0,                 Jiao%Liu%NULL%0,                 Wenlijun%Jiang%NULL%0,                 Robert L.%Thomas%NULL%1,                 Mark%Hepokoski%NULL%0,                 Ming%He%NULL%0,                 John Y. J.%Shyy%NULL%1,                 Atul%Malhotra%NULL%0,                 Nian%Xiong%nianxiong@hust.edu.cn%0,                 Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                 T. A. N.%Reed%NULL%2,                 T. A. N.%Reed%NULL%0,                 M.%Ardissino%NULL%1,                 P.%Bassett%NULL%1,                 A. M.%Whittington%NULL%1,                 D. L.%Cohen%NULL%1,                 N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                 Walter%Distaso%NULL%2,                 Walter%Distaso%NULL%0,                 Anjali%Amin%NULL%1,                 Wei%Yang%NULL%1,                 Oluwagbemiga%Idowu%NULL%1,                 Julia S%Kenkre%NULL%1,                 Ronak J%Shah%NULL%1,                 Evelina%Woin%NULL%1,                 Christine%Shi%NULL%1,                 Nael%Alavi%NULL%2,                 Nael%Alavi%NULL%0,                 Hala%Bedri%NULL%1,                 Niamh%Brady%NULL%1,                 Sophie%Blackburn%NULL%1,                 Martina%Leczycka%NULL%1,                 Sanya%Patel%NULL%1,                 Elizaveta%Sokol%NULL%1,                 Edward%Toke-Bjolgerud%NULL%1,                 Ambreen%Qayum%NULL%1,                 Mariana%Abdel-Malek%NULL%1,                 David C D%Hope%NULL%1,                 Nick S%Oliver%NULL%1,                 Vasiliki%Bravis%NULL%1,                 Shivani%Misra%NULL%1,                 Tricia M%Tan%NULL%1,                 Neil E%Hill%NULL%2,                 Neil E%Hill%NULL%0,                 Victoria%Salem%NULL%2,                 Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                 Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                 Tiffany%Grimes%NULL%1,                 Peng%Li%NULL%1,                 Matthew%Might%NULL%1,                 Fernando%Ovalle%NULL%1,                 Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                 Nicholas E%Ingraham%NULL%1,                 Thomas A%Murray%NULL%1,                 Schelomo%Marmor%NULL%1,                 Shane%Hovertsen%NULL%1,                 Jessica%Gronski%NULL%1,                 Chace%McNeil%NULL%1,                 Ruoying%Feng%NULL%1,                 Gabriel%Guzman%NULL%1,                 Nermine%Abdelwahab%NULL%1,                 Samantha%King%NULL%1,                 Leonardo%Tamariz%NULL%0,                 Thomas%Meehan%NULL%1,                 Kathryn M%Pendleton%NULL%1,                 Bradley%Benson%NULL%1,                 Deneen%Vojta%NULL%0,                 Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                 Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                 Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                 Matthieu%Wargny%NULL%0,                 Matthieu%Wargny%NULL%0,                 Matthieu%Pichelin%NULL%0,                 Matthieu%Pichelin%NULL%0,                 Abdallah%Al-Salameh%NULL%0,                 Abdallah%Al-Salameh%NULL%0,                 Ingrid%Allix%NULL%0,                 Ingrid%Allix%NULL%0,                 Coralie%Amadou%NULL%0,                 Gwénaëlle%Arnault%NULL%2,                 Gwénaëlle%Arnault%NULL%0,                 Florence%Baudoux%NULL%1,                 Bernard%Bauduceau%NULL%1,                 Sophie%Borot%NULL%1,                 Muriel%Bourgeon-Ghittori%NULL%2,                 Muriel%Bourgeon-Ghittori%NULL%0,                 Olivier%Bourron%NULL%0,                 David%Boutoille%NULL%4,                 David%Boutoille%NULL%0,                 France%Cazenave-Roblot%NULL%3,                 France%Cazenave-Roblot%NULL%0,                 Claude%Chaumeil%NULL%2,                 Claude%Chaumeil%NULL%0,                 Emmanuel%Cosson%NULL%1,                 Sandrine%Coudol%NULL%2,                 Sandrine%Coudol%NULL%0,                 Patrice%Darmon%NULL%1,                 Emmanuel%Disse%NULL%2,                 Emmanuel%Disse%NULL%0,                 Amélie%Ducet-Boiffard%NULL%2,                 Amélie%Ducet-Boiffard%NULL%0,                 Bénédicte%Gaborit%NULL%1,                 Michael%Joubert%NULL%0,                 Michael%Joubert%NULL%0,                 Véronique%Kerlan%NULL%2,                 Véronique%Kerlan%NULL%0,                 Bruno%Laviolle%NULL%1,                 Lucien%Marchand%NULL%0,                 Lucien%Marchand%NULL%0,                 Laurent%Meyer%NULL%0,                 Laurent%Meyer%NULL%0,                 Louis%Potier%NULL%2,                 Louis%Potier%NULL%0,                 Gaëtan%Prevost%NULL%0,                 Gaëtan%Prevost%NULL%0,                 Jean-Pierre%Riveline%NULL%1,                 René%Robert%NULL%2,                 René%Robert%NULL%0,                 Pierre-Jean%Saulnier%NULL%0,                 Pierre-Jean%Saulnier%NULL%0,                 Ariane%Sultan%NULL%2,                 Ariane%Sultan%NULL%0,                 Jean-François%Thébaut%NULL%2,                 Jean-François%Thébaut%NULL%0,                 Charles%Thivolet%NULL%0,                 Charles%Thivolet%NULL%0,                 Blandine%Tramunt%NULL%2,                 Blandine%Tramunt%NULL%0,                 Camille%Vatier%NULL%0,                 Ronan%Roussel%NULL%0,                 Ronan%Roussel%NULL%0,                 Jean-François%Gautier%NULL%0,                 Jean-François%Gautier%NULL%0,                 Pierre%Gourdy%NULL%0,                 Pierre%Gourdy%NULL%0,                 NULL%NULL%NULL%0,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                 Peter%Knighton%NULL%1,                 Francesco%Zaccardi%NULL%2,                 Chirag%Bakhai%NULL%1,                 Emma%Barron%NULL%1,                 Naomi%Holman%NULL%1,                 Partha%Kar%NULL%1,                 Claire%Meace%NULL%1,                 Naveed%Sattar%NULL%1,                 Stephen%Sharp%NULL%1,                 Nicholas J%Wareham%NULL%1,                 Andy%Weaver%NULL%1,                 Emilia%Woch%NULL%1,                 Bob%Young%NULL%1,                 Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                 José David%Torres-Peña%NULL%1,                 María D.%López-Carmona%NULL%1,                 M. Mar.%Ayala-Gutiérrez%NULL%1,                 Francisco%Fuentes-Jiménez%NULL%1,                 Lucía Jorge%Huerta%NULL%1,                 Jaime Alonso%Muñoz%NULL%1,                 Manuel%Rubio-Rivas%NULL%1,                 Manel%Madrazo%NULL%1,                 Marcos Guzmán%Garcia%NULL%1,                 Beatriz Vicente%Montes%NULL%1,                 Joaquim Fernández%Sola%NULL%1,                 Javier%Ena%NULL%1,                 Ruth Gonzalez%Ferrer%NULL%1,                 Carmen Mella%Pérez%NULL%1,                 Carlos Jorge%Ripper%NULL%1,                 Jose Javier Napal%Lecumberri%NULL%1,                 Iris El Attar%Acedo%NULL%1,                 Susana Plaza%Canteli%NULL%1,                 Sara Fuente%Cosío%NULL%1,                 Francisco Amorós%Martínez%NULL%1,                 Begoña Cortés%Rodríguez%NULL%1,                 Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                 José Manuel%Ramos-Rincón%NULL%1,                 Ricardo%Gómez-Huelgas%NULL%1,                 NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                 Sang Won%Kim%NULL%1,                 Jong Won%Park%NULL%1,                 Kyu Hyang%Cho%NULL%1,                 Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,          Dong%Yang%xref no email%0,          Biao%Cheng%xref no email%0,          Jian%Chen%xref no email%0,          Anlin%Peng%xref no email%0,          Chen%Yang%xref no email%0,          Chong%Liu%xref no email%0,          Mingrui%Xiong%xref no email%0,          Aiping%Deng%xref no email%0,          Yu%Zhang%xref no email%0,          Ling%Zheng%xref no email%0,          Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                 Philip%Tsoukas%NULL%1,                 Christopher W.%Halladay%NULL%1,                 Emily%O'Neill%NULL%1,                 Stefan%Gravenstein%NULL%1,                 James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                 Tao%Liu%NULL%2,                 Weijun%Zhong%NULL%1,                 Rong%Liu%NULL%1,                 Honghao%Zhou%NULL%1,                 Weihua%Huang%endeavor34852@aliyun.com%1,                 Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                 Jae-Han%Jeon%NULL%2,                 Jae-Han%Jeon%NULL%0,                 Sung-Woo%Kim%NULL%2,                 Sung-Woo%Kim%NULL%0,                 Jun Sung%Moon%NULL%1,                 Nan Hee%Cho%NULL%1,                 Eugene%Han%NULL%1,                 Ji Hong%You%NULL%1,                 Ji Yeon%Lee%NULL%4,                 Miri%Hyun%NULL%1,                 Jae Seok%Park%NULL%4,                 Yong Shik%Kwon%NULL%2,                 Yeon-Kyung%Choi%NULL%1,                 Ki Tae%Kwon%NULL%1,                 Shin Yup%Lee%NULL%1,                 Eon Ju%Jeon%NULL%1,                 Jin-Woo%Kim%NULL%1,                 Hyo-Lim%Hong%NULL%1,                 Hyun Hee%Kwon%NULL%1,                 Chi Young%Jung%NULL%1,                 Yin Young%Lee%NULL%1,                 Eunyeoung%Ha%NULL%1,                 Seung Min%Chung%NULL%1,                 Jian%Hur%NULL%2,                 June Hong%Ahn%NULL%3,                 Na-young%Kim%NULL%1,                 Shin-Woo%Kim%NULL%3,                 Hyun Ha%Chang%NULL%1,                 Yong Hoon%Lee%NULL%1,                 Jaehee%Lee%NULL%1,                 Keun-Gyu%Park%NULL%1,                 Hyun Ah%Kim%NULL%1,                 Ji-Hyun%Lee%NULL%2,                 Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                 Lin%Qiu%NULL%0,                 Yi%Liu%NULL%2,                 Xiu-lan%Liu%NULL%1,                 Jian-ling%Zheng%NULL%1,                 Hui-ying%Xue%NULL%1,                 Wen-hua%Liu%NULL%1,                 Dong%Liu%NULL%3,                 Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                  N.% Smati%null%1,                  C. S. J.% Wong%null%1,                  K.% Aspey%null%1,                  M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                  A.% Anisimovich%null%1,                  J.% Baxter%null%1,                  L.% Mackillop%null%1,                  M. P.% Vizcaychipi%null%1,                  A.% McCarthy%null%1,                  R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                  D.% Bates%null%1,                  J. M.% Fiskio%null%1,                  E. C.% Roche%null%1,                  S.% Mora%null%1,                  O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -2766,7 +2958,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>619</v>
+        <v>683</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2795,7 +2987,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>620</v>
+        <v>684</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -2824,7 +3016,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>621</v>
+        <v>685</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -2853,7 +3045,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>622</v>
+        <v>686</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -2882,7 +3074,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>623</v>
+        <v>687</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -2911,7 +3103,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>624</v>
+        <v>688</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -2940,7 +3132,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>625</v>
+        <v>689</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -2969,7 +3161,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>626</v>
+        <v>690</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2998,7 +3190,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>627</v>
+        <v>691</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3027,7 +3219,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>628</v>
+        <v>692</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3056,7 +3248,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3085,7 +3277,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>630</v>
+        <v>694</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3114,7 +3306,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>631</v>
+        <v>695</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -3143,7 +3335,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3172,7 +3364,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>633</v>
+        <v>697</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3201,7 +3393,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3230,7 +3422,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>635</v>
+        <v>699</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3259,7 +3451,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>636</v>
+        <v>700</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3288,7 +3480,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>637</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3317,7 +3509,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>638</v>
+        <v>702</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3346,7 +3538,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>639</v>
+        <v>703</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3375,7 +3567,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>640</v>
+        <v>704</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3404,7 +3596,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>641</v>
+        <v>705</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3433,7 +3625,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>642</v>
+        <v>706</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3462,7 +3654,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>643</v>
+        <v>707</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3491,7 +3683,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>644</v>
+        <v>708</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3520,7 +3712,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>645</v>
+        <v>709</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3549,7 +3741,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>646</v>
+        <v>710</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3578,7 +3770,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>647</v>
+        <v>711</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -3607,7 +3799,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -3636,7 +3828,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>649</v>
+        <v>713</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -3665,7 +3857,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>650</v>
+        <v>714</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4161" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="747">
   <si>
     <t>Doi</t>
   </si>
@@ -2602,6 +2602,102 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,                  D.% Bates%null%1,                  J. M.% Fiskio%null%1,                  E. C.% Roche%null%1,                  S.% Mora%null%1,                  O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                  Jennifer M%Cooper%NULL%2,                  Jennifer M%Cooper%NULL%0,                  Krishna%Gokhale%NULL%1,                  Dionisio%Acosta-Mena%NULL%1,                  Samir%Dhalla%NULL%1,                  Nathan%Byne%NULL%1,                  Joht Singh%Chandan%NULL%1,                  Astha%Anand%NULL%2,                  Astha%Anand%NULL%0,                  Kelvin%Okoth%NULL%1,                  Anuradhaa%Subramanian%NULL%2,                  Anuradhaa%Subramanian%NULL%0,                  Mansoor N%Bangash%NULL%1,                  Thomas%Jackson%NULL%2,                  Thomas%Jackson%NULL%0,                  Dawit%Zemedikun%NULL%2,                  Dawit%Zemedikun%NULL%0,                  Tom%Taverner%NULL%2,                  Tom%Taverner%NULL%0,                  Wasim%Hanif%NULL%1,                  Sandip%Ghosh%NULL%1,                  Parth%Narendran%NULL%1,                  Konstantinos A%Toulis%NULL%1,                  Abd A%Tahrani%NULL%2,                  Abd A%Tahrani%NULL%0,                  Rajendra%Surenthirakumaran%NULL%2,                  Rajendra%Surenthirakumaran%NULL%0,                  Nicola J%Adderley%NULL%1,                  Shamil%Haroon%NULL%2,                  Shamil%Haroon%NULL%0,                  Kamlesh%Khunti%NULL%4,                  Kamlesh%Khunti%NULL%0,                  Christopher%Sainsbury%NULL%2,                  Christopher%Sainsbury%NULL%0,                  G Neil%Thomas%NULL%1,                  Krishnarajah%Nirantharakumar%NULL%2,                  Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                  Thomas%Servais%NULL%1,                  Leïla%Belkhir%NULL%1,                  Pierre-François%Laterre%NULL%1,                  Jean-Paul%Thissen%NULL%1,                  Bernard%Vandeleene%NULL%1,                  Dominique%Maiter%NULL%1,                  Jean C.%Yombi%NULL%1,                  Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                  Abdallah%Al-Salameh%NULL%3,                  Samy%Hadjadj%NULL%3,                  Thomas%Goronflot%NULL%1,                  Nicolas%Wiernsperger%NULL%1,                  Matthieu%Pichelin%NULL%3,                  Ingrid%Allix%NULL%3,                  Coralie%Amadou%NULL%2,                  Olivier%Bourron%NULL%2,                  Thierry%Duriez%NULL%1,                  Jean-François%Gautier%NULL%3,                  Anne%Dutour%NULL%1,                  Céline%Gonfroy%NULL%1,                  Didier%Gouet%NULL%1,                  Michael%Joubert%NULL%3,                  Ingrid%Julier%NULL%1,                  Etienne%Larger%NULL%1,                  Lucien%Marchand%NULL%3,                  Michel%Marre%NULL%1,                  Laurent%Meyer%NULL%3,                  Frédérique%Olivier%NULL%1,                  Gaëtan%Prevost%NULL%3,                  Pascale%Quiniou%NULL%1,                  Christelle%Raffaitin-Cardin%NULL%1,                  Ronan%Roussel%NULL%3,                  Pierre-Jean%Saulnier%NULL%3,                  Dominique%Seret-Begue%NULL%1,                  Charles%Thivolet%NULL%3,                  Camille%Vatier%NULL%2,                  Rachel%Desailloud%NULL%1,                  Matthieu%Wargny%NULL%3,                  Pierre%Gourdy%NULL%3,                  Bertrand%Cariou%NULL%1,                  NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                  Zhenyuan%Chen%NULL%1,                  Li%Liu%NULL%3,                  Xiaoxv%Yin%NULL%1,                  Heping%Yang%NULL%1,                  Xiangping%Tan%NULL%1,                  Jing%Wang%NULL%2,                  Hui%Li%NULL%0,                  Mengge%Tian%NULL%1,                  Zuxun%Lu%NULL%1,                  Nian%Xiong%NULL%4,                  Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                  Ye-Mao%Liu%NULL%2,                  Haomiao%Li%NULL%1,                  Xin%Zhang%NULL%1,                  Fang%Lei%NULL%2,                  Juan-Juan%Qin%NULL%2,                  Ze%Chen%NULL%1,                  Ke-Qiong%Deng%NULL%1,                  Lijin%Lin%NULL%2,                  Ming-Ming%Chen%NULL%2,                  Xiaohui%Song%NULL%1,                  Meng%Xia%NULL%2,                  Xuewei%Huang%NULL%2,                  Weifang%Liu%NULL%1,                  Jingjing%Cai%NULL%2,                  Xiao-Jing%Zhang%NULL%2,                  Feng%Zhou%NULL%1,                  Peng%Zhang%NULL%1,                  Yibin%Wang%NULL%2,                  Xinliang%Ma%NULL%1,                  Qingbo%Xu%NULL%2,                  Juan%Yang%NULL%3,                  Ping%Ye%NULL%2,                  Weiming%Mao%NULL%2,                  Xiaodong%Huang%NULL%2,                  Jiahong%Xia%NULL%2,                  Bing-Hong%Zhang%NULL%2,                  Jiao%Guo%NULL%1,                  Lihua%Zhu%NULL%2,                  Zhibing%Lu%NULL%3,                  Yufeng%Yuan%NULL%2,                  Xiang%Wei%NULL%1,                  Zhi-Gang%She%NULL%2,                  Yan-Xiao%Ji%NULL%2,                  Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                  Xi%Bai%NULL%1,                  Xia%Han%NULL%1,                  Wangyan%Jiang%NULL%1,                  Lin%Qiu%NULL%2,                  Shi%Chen%NULL%1,                  Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                  Yanhong%Wei%NULL%1,                  Min%Chen%NULL%1,                  Qianqian%Wan%NULL%1,                  Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                  Matteo%Monami%NULL%1,                  Achille%Cernigliaro%NULL%1,                  Enrica%Vigneri%NULL%1,                  Valentina%Guarnotta%NULL%1,                  Salvatore%Scondotto%NULL%1,                  Vincenza A.%Allotta%NULL%1,                  Michela%Conti%NULL%1,                  Carla%Giordano%NULL%1,                  Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                  Wen%Kong%NULL%1,                  Pengfei%Xia%NULL%1,                  Ying%Xu%NULL%1,                  Li%Li%NULL%0,                  Qin%Li%NULL%1,                  Li%Yang%NULL%3,                  Qi%Wei%NULL%3,                  Hanyu%Wang%NULL%1,                  Huiqing%Li%NULL%1,                  Juan%Zheng%NULL%1,                  Hui%Sun%NULL%1,                  Wenfang%Xia%NULL%1,                  Geng%Liu%NULL%1,                  Xueyu%Zhong%NULL%1,                  Kangli%Qiu%NULL%1,                  Yan%Li%NULL%1,                  Han%Wang%NULL%1,                  Yuxiu%Wang%NULL%1,                  Xiaoli%Song%NULL%1,                  Hua%Liu%NULL%1,                  Si%Xiong%NULL%1,                  Yumei%Liu%NULL%1,                  Zhenhai%Cui%NULL%1,                  Yu%Hu%NULL%6,                  Lulu%Chen%NULL%1,                  An%Pan%NULL%1,                  Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                  Qi%Wei%NULL%0,                  Willis X%Li%NULL%1,                  Karen C%McCowen%NULL%1,                  Wei%Xiong%NULL%2,                  Jiao%Liu%NULL%2,                  Wenlijun%Jiang%NULL%2,                  Traci%Marin%NULL%1,                  Robert L%Thomas%NULL%1,                  Ming%He%NULL%2,                  Brendan%Gongol%NULL%1,                  Mark%Hepokoski%NULL%2,                  Jason X-J%Yuan%NULL%1,                  John Y-J%Shyy%NULL%1,                  Nian%Xiong%NULL%0,                  Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                  Siyi%Xin%NULL%1,                  Yaqi%Chen%NULL%1,                  Leyu%Li%NULL%1,                  Wanjun%Chen%NULL%1,                  Wenjia%Li%NULL%1,                  Baoan%Zhou%NULL%1,                  Chenxia%Li%NULL%1,                  Yu%Gong%NULL%1,                  Fei%Li%NULL%1,                  Peng%Duan%NULL%1,                  Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                  John%Buse%NULL%2,                  John%Buse%NULL%0,                  Leonardo%Tamaritz%NULL%1,                  Ana%Palacio%NULL%2,                  Ken%Cohen%NULL%1,                  Deneen%Vojta%NULL%2,                  David%Liebovitz%NULL%1,                  Nia%Mitchell%NULL%1,                  Jacinda%Nicklas%NULL%1,                  Ildiko%Lingvay%NULL%1,                  Jeanne M.%Clark%NULL%1,                  Louis J.%Aronne%NULL%1,                  Erik%Anderson%NULL%1,                  Michael%Usher%NULL%1,                  Ryan%Demmer%NULL%1,                  Genevieve B.%Melton%NULL%1,                  Nicholas%Ingraham%NULL%1,                  Christopher J.%Tignanelli%NULL%2,                  Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                  In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                  Ana%Palacio%NULL%0,                  Elissa%Dawkins%NULL%1,                  Gordon%Chen%NULL%1,                  Daniel%McCarter%NULL%1,                  Emancia%Forbes%NULL%1,                  Brian%Chung%NULL%1,                  Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                  Qi%Wei%NULL%0,                  Karen C.%McCowen%NULL%1,                  Wei%Xiong%NULL%0,                  Jiao%Liu%NULL%0,                  Wenlijun%Jiang%NULL%0,                  Robert L.%Thomas%NULL%1,                  Mark%Hepokoski%NULL%0,                  Ming%He%NULL%0,                  John Y. J.%Shyy%NULL%1,                  Atul%Malhotra%NULL%0,                  Nian%Xiong%nianxiong@hust.edu.cn%0,                  Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                  T. A. N.%Reed%NULL%2,                  T. A. N.%Reed%NULL%0,                  M.%Ardissino%NULL%1,                  P.%Bassett%NULL%1,                  A. M.%Whittington%NULL%1,                  D. L.%Cohen%NULL%1,                  N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                  Walter%Distaso%NULL%2,                  Walter%Distaso%NULL%0,                  Anjali%Amin%NULL%1,                  Wei%Yang%NULL%1,                  Oluwagbemiga%Idowu%NULL%1,                  Julia S%Kenkre%NULL%1,                  Ronak J%Shah%NULL%1,                  Evelina%Woin%NULL%1,                  Christine%Shi%NULL%1,                  Nael%Alavi%NULL%2,                  Nael%Alavi%NULL%0,                  Hala%Bedri%NULL%1,                  Niamh%Brady%NULL%1,                  Sophie%Blackburn%NULL%1,                  Martina%Leczycka%NULL%1,                  Sanya%Patel%NULL%1,                  Elizaveta%Sokol%NULL%1,                  Edward%Toke-Bjolgerud%NULL%1,                  Ambreen%Qayum%NULL%1,                  Mariana%Abdel-Malek%NULL%1,                  David C D%Hope%NULL%1,                  Nick S%Oliver%NULL%1,                  Vasiliki%Bravis%NULL%1,                  Shivani%Misra%NULL%1,                  Tricia M%Tan%NULL%1,                  Neil E%Hill%NULL%2,                  Neil E%Hill%NULL%0,                  Victoria%Salem%NULL%2,                  Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                  Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                  Tiffany%Grimes%NULL%1,                  Peng%Li%NULL%1,                  Matthew%Might%NULL%1,                  Fernando%Ovalle%NULL%1,                  Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                  Nicholas E%Ingraham%NULL%1,                  Thomas A%Murray%NULL%1,                  Schelomo%Marmor%NULL%1,                  Shane%Hovertsen%NULL%1,                  Jessica%Gronski%NULL%1,                  Chace%McNeil%NULL%1,                  Ruoying%Feng%NULL%1,                  Gabriel%Guzman%NULL%1,                  Nermine%Abdelwahab%NULL%1,                  Samantha%King%NULL%1,                  Leonardo%Tamariz%NULL%0,                  Thomas%Meehan%NULL%1,                  Kathryn M%Pendleton%NULL%1,                  Bradley%Benson%NULL%1,                  Deneen%Vojta%NULL%0,                  Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                  Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                  Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                  Matthieu%Wargny%NULL%0,                  Matthieu%Wargny%NULL%0,                  Matthieu%Pichelin%NULL%0,                  Matthieu%Pichelin%NULL%0,                  Abdallah%Al-Salameh%NULL%0,                  Abdallah%Al-Salameh%NULL%0,                  Ingrid%Allix%NULL%0,                  Ingrid%Allix%NULL%0,                  Coralie%Amadou%NULL%0,                  Gwénaëlle%Arnault%NULL%2,                  Gwénaëlle%Arnault%NULL%0,                  Florence%Baudoux%NULL%1,                  Bernard%Bauduceau%NULL%1,                  Sophie%Borot%NULL%1,                  Muriel%Bourgeon-Ghittori%NULL%2,                  Muriel%Bourgeon-Ghittori%NULL%0,                  Olivier%Bourron%NULL%0,                  David%Boutoille%NULL%4,                  David%Boutoille%NULL%0,                  France%Cazenave-Roblot%NULL%3,                  France%Cazenave-Roblot%NULL%0,                  Claude%Chaumeil%NULL%2,                  Claude%Chaumeil%NULL%0,                  Emmanuel%Cosson%NULL%1,                  Sandrine%Coudol%NULL%2,                  Sandrine%Coudol%NULL%0,                  Patrice%Darmon%NULL%1,                  Emmanuel%Disse%NULL%2,                  Emmanuel%Disse%NULL%0,                  Amélie%Ducet-Boiffard%NULL%2,                  Amélie%Ducet-Boiffard%NULL%0,                  Bénédicte%Gaborit%NULL%1,                  Michael%Joubert%NULL%0,                  Michael%Joubert%NULL%0,                  Véronique%Kerlan%NULL%2,                  Véronique%Kerlan%NULL%0,                  Bruno%Laviolle%NULL%1,                  Lucien%Marchand%NULL%0,                  Lucien%Marchand%NULL%0,                  Laurent%Meyer%NULL%0,                  Laurent%Meyer%NULL%0,                  Louis%Potier%NULL%2,                  Louis%Potier%NULL%0,                  Gaëtan%Prevost%NULL%0,                  Gaëtan%Prevost%NULL%0,                  Jean-Pierre%Riveline%NULL%1,                  René%Robert%NULL%2,                  René%Robert%NULL%0,                  Pierre-Jean%Saulnier%NULL%0,                  Pierre-Jean%Saulnier%NULL%0,                  Ariane%Sultan%NULL%2,                  Ariane%Sultan%NULL%0,                  Jean-François%Thébaut%NULL%2,                  Jean-François%Thébaut%NULL%0,                  Charles%Thivolet%NULL%0,                  Charles%Thivolet%NULL%0,                  Blandine%Tramunt%NULL%2,                  Blandine%Tramunt%NULL%0,                  Camille%Vatier%NULL%0,                  Ronan%Roussel%NULL%0,                  Ronan%Roussel%NULL%0,                  Jean-François%Gautier%NULL%0,                  Jean-François%Gautier%NULL%0,                  Pierre%Gourdy%NULL%0,                  Pierre%Gourdy%NULL%0,                  NULL%NULL%NULL%0,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                  Peter%Knighton%NULL%1,                  Francesco%Zaccardi%NULL%2,                  Chirag%Bakhai%NULL%1,                  Emma%Barron%NULL%1,                  Naomi%Holman%NULL%1,                  Partha%Kar%NULL%1,                  Claire%Meace%NULL%1,                  Naveed%Sattar%NULL%1,                  Stephen%Sharp%NULL%1,                  Nicholas J%Wareham%NULL%1,                  Andy%Weaver%NULL%1,                  Emilia%Woch%NULL%1,                  Bob%Young%NULL%1,                  Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                  José David%Torres-Peña%NULL%1,                  María D.%López-Carmona%NULL%1,                  M. Mar.%Ayala-Gutiérrez%NULL%1,                  Francisco%Fuentes-Jiménez%NULL%1,                  Lucía Jorge%Huerta%NULL%1,                  Jaime Alonso%Muñoz%NULL%1,                  Manuel%Rubio-Rivas%NULL%1,                  Manel%Madrazo%NULL%1,                  Marcos Guzmán%Garcia%NULL%1,                  Beatriz Vicente%Montes%NULL%1,                  Joaquim Fernández%Sola%NULL%1,                  Javier%Ena%NULL%1,                  Ruth Gonzalez%Ferrer%NULL%1,                  Carmen Mella%Pérez%NULL%1,                  Carlos Jorge%Ripper%NULL%1,                  Jose Javier Napal%Lecumberri%NULL%1,                  Iris El Attar%Acedo%NULL%1,                  Susana Plaza%Canteli%NULL%1,                  Sara Fuente%Cosío%NULL%1,                  Francisco Amorós%Martínez%NULL%1,                  Begoña Cortés%Rodríguez%NULL%1,                  Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                  José Manuel%Ramos-Rincón%NULL%1,                  Ricardo%Gómez-Huelgas%NULL%1,                  NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                  Sang Won%Kim%NULL%1,                  Jong Won%Park%NULL%1,                  Kyu Hyang%Cho%NULL%1,                  Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,           Dong%Yang%xref no email%0,           Biao%Cheng%xref no email%0,           Jian%Chen%xref no email%0,           Anlin%Peng%xref no email%0,           Chen%Yang%xref no email%0,           Chong%Liu%xref no email%0,           Mingrui%Xiong%xref no email%0,           Aiping%Deng%xref no email%0,           Yu%Zhang%xref no email%0,           Ling%Zheng%xref no email%0,           Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                  Philip%Tsoukas%NULL%1,                  Christopher W.%Halladay%NULL%1,                  Emily%O'Neill%NULL%1,                  Stefan%Gravenstein%NULL%1,                  James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                  Tao%Liu%NULL%2,                  Weijun%Zhong%NULL%1,                  Rong%Liu%NULL%1,                  Honghao%Zhou%NULL%1,                  Weihua%Huang%endeavor34852@aliyun.com%1,                  Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                  Jae-Han%Jeon%NULL%2,                  Jae-Han%Jeon%NULL%0,                  Sung-Woo%Kim%NULL%2,                  Sung-Woo%Kim%NULL%0,                  Jun Sung%Moon%NULL%1,                  Nan Hee%Cho%NULL%1,                  Eugene%Han%NULL%1,                  Ji Hong%You%NULL%1,                  Ji Yeon%Lee%NULL%4,                  Miri%Hyun%NULL%1,                  Jae Seok%Park%NULL%4,                  Yong Shik%Kwon%NULL%2,                  Yeon-Kyung%Choi%NULL%1,                  Ki Tae%Kwon%NULL%1,                  Shin Yup%Lee%NULL%1,                  Eon Ju%Jeon%NULL%1,                  Jin-Woo%Kim%NULL%1,                  Hyo-Lim%Hong%NULL%1,                  Hyun Hee%Kwon%NULL%1,                  Chi Young%Jung%NULL%1,                  Yin Young%Lee%NULL%1,                  Eunyeoung%Ha%NULL%1,                  Seung Min%Chung%NULL%1,                  Jian%Hur%NULL%2,                  June Hong%Ahn%NULL%3,                  Na-young%Kim%NULL%1,                  Shin-Woo%Kim%NULL%3,                  Hyun Ha%Chang%NULL%1,                  Yong Hoon%Lee%NULL%1,                  Jaehee%Lee%NULL%1,                  Keun-Gyu%Park%NULL%1,                  Hyun Ah%Kim%NULL%1,                  Ji-Hyun%Lee%NULL%2,                  Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                  Lin%Qiu%NULL%0,                  Yi%Liu%NULL%2,                  Xiu-lan%Liu%NULL%1,                  Jian-ling%Zheng%NULL%1,                  Hui-ying%Xue%NULL%1,                  Wen-hua%Liu%NULL%1,                  Dong%Liu%NULL%3,                  Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                   N.% Smati%null%1,                   C. S. J.% Wong%null%1,                   K.% Aspey%null%1,                   M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                   A.% Anisimovich%null%1,                   J.% Baxter%null%1,                   L.% Mackillop%null%1,                   M. P.% Vizcaychipi%null%1,                   A.% McCarthy%null%1,                   R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                   D.% Bates%null%1,                   J. M.% Fiskio%null%1,                   E. C.% Roche%null%1,                   S.% Mora%null%1,                   O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -2958,7 +3054,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>683</v>
+        <v>715</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -2987,7 +3083,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>684</v>
+        <v>716</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3016,7 +3112,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
+        <v>717</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -3045,7 +3141,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>686</v>
+        <v>718</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -3074,7 +3170,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>687</v>
+        <v>719</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3103,7 +3199,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>688</v>
+        <v>720</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3132,7 +3228,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>689</v>
+        <v>721</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3161,7 +3257,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>690</v>
+        <v>722</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3190,7 +3286,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3219,7 +3315,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>692</v>
+        <v>724</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3248,7 +3344,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3277,7 +3373,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>694</v>
+        <v>726</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3306,7 +3402,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>695</v>
+        <v>727</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -3335,7 +3431,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>696</v>
+        <v>728</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3364,7 +3460,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>697</v>
+        <v>729</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3393,7 +3489,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3422,7 +3518,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>699</v>
+        <v>731</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3451,7 +3547,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>700</v>
+        <v>732</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3480,7 +3576,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>701</v>
+        <v>733</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3509,7 +3605,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>702</v>
+        <v>734</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3538,7 +3634,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>703</v>
+        <v>735</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3567,7 +3663,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>704</v>
+        <v>736</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3596,7 +3692,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>705</v>
+        <v>737</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3625,7 +3721,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>706</v>
+        <v>738</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3654,7 +3750,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>707</v>
+        <v>739</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3683,7 +3779,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>708</v>
+        <v>740</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3712,7 +3808,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>709</v>
+        <v>741</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3741,7 +3837,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>710</v>
+        <v>742</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3770,7 +3866,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>711</v>
+        <v>743</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -3799,7 +3895,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>712</v>
+        <v>744</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -3828,7 +3924,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>713</v>
+        <v>745</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -3857,7 +3953,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>714</v>
+        <v>746</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4392" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="784">
   <si>
     <t>Doi</t>
   </si>
@@ -2698,6 +2698,117 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,                   D.% Bates%null%1,                   J. M.% Fiskio%null%1,                   E. C.% Roche%null%1,                   S.% Mora%null%1,                   O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                   Jennifer M%Cooper%NULL%2,                   Jennifer M%Cooper%NULL%0,                   Krishna%Gokhale%NULL%1,                   Dionisio%Acosta-Mena%NULL%1,                   Samir%Dhalla%NULL%1,                   Nathan%Byne%NULL%1,                   Joht Singh%Chandan%NULL%1,                   Astha%Anand%NULL%2,                   Astha%Anand%NULL%0,                   Kelvin%Okoth%NULL%1,                   Anuradhaa%Subramanian%NULL%2,                   Anuradhaa%Subramanian%NULL%0,                   Mansoor N%Bangash%NULL%1,                   Thomas%Jackson%NULL%2,                   Thomas%Jackson%NULL%0,                   Dawit%Zemedikun%NULL%2,                   Dawit%Zemedikun%NULL%0,                   Tom%Taverner%NULL%2,                   Tom%Taverner%NULL%0,                   Wasim%Hanif%NULL%1,                   Sandip%Ghosh%NULL%1,                   Parth%Narendran%NULL%1,                   Konstantinos A%Toulis%NULL%1,                   Abd A%Tahrani%NULL%2,                   Abd A%Tahrani%NULL%0,                   Rajendra%Surenthirakumaran%NULL%2,                   Rajendra%Surenthirakumaran%NULL%0,                   Nicola J%Adderley%NULL%1,                   Shamil%Haroon%NULL%2,                   Shamil%Haroon%NULL%0,                   Kamlesh%Khunti%NULL%4,                   Kamlesh%Khunti%NULL%0,                   Christopher%Sainsbury%NULL%2,                   Christopher%Sainsbury%NULL%0,                   G Neil%Thomas%NULL%1,                   Krishnarajah%Nirantharakumar%NULL%2,                   Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                   Thomas%Servais%NULL%1,                   Leïla%Belkhir%NULL%1,                   Pierre-François%Laterre%NULL%1,                   Jean-Paul%Thissen%NULL%1,                   Bernard%Vandeleene%NULL%1,                   Dominique%Maiter%NULL%1,                   Jean C.%Yombi%NULL%1,                   Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                   Abdallah%Al-Salameh%NULL%3,                   Samy%Hadjadj%NULL%3,                   Thomas%Goronflot%NULL%1,                   Nicolas%Wiernsperger%NULL%1,                   Matthieu%Pichelin%NULL%3,                   Ingrid%Allix%NULL%3,                   Coralie%Amadou%NULL%2,                   Olivier%Bourron%NULL%2,                   Thierry%Duriez%NULL%1,                   Jean-François%Gautier%NULL%3,                   Anne%Dutour%NULL%1,                   Céline%Gonfroy%NULL%1,                   Didier%Gouet%NULL%1,                   Michael%Joubert%NULL%3,                   Ingrid%Julier%NULL%1,                   Etienne%Larger%NULL%1,                   Lucien%Marchand%NULL%3,                   Michel%Marre%NULL%1,                   Laurent%Meyer%NULL%3,                   Frédérique%Olivier%NULL%1,                   Gaëtan%Prevost%NULL%3,                   Pascale%Quiniou%NULL%1,                   Christelle%Raffaitin-Cardin%NULL%1,                   Ronan%Roussel%NULL%3,                   Pierre-Jean%Saulnier%NULL%3,                   Dominique%Seret-Begue%NULL%1,                   Charles%Thivolet%NULL%3,                   Camille%Vatier%NULL%2,                   Rachel%Desailloud%NULL%1,                   Matthieu%Wargny%NULL%3,                   Pierre%Gourdy%NULL%3,                   Bertrand%Cariou%NULL%1,                   NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                   Zhenyuan%Chen%NULL%1,                   Li%Liu%NULL%3,                   Xiaoxv%Yin%NULL%1,                   Heping%Yang%NULL%1,                   Xiangping%Tan%NULL%1,                   Jing%Wang%NULL%2,                   Hui%Li%NULL%13,                   Mengge%Tian%NULL%1,                   Zuxun%Lu%NULL%1,                   Nian%Xiong%NULL%4,                   Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                   Ye-Mao%Liu%NULL%2,                   Haomiao%Li%NULL%1,                   Xin%Zhang%NULL%1,                   Fang%Lei%NULL%2,                   Juan-Juan%Qin%NULL%2,                   Ze%Chen%NULL%1,                   Ke-Qiong%Deng%NULL%1,                   Lijin%Lin%NULL%2,                   Ming-Ming%Chen%NULL%2,                   Xiaohui%Song%NULL%1,                   Meng%Xia%NULL%2,                   Xuewei%Huang%NULL%2,                   Weifang%Liu%NULL%1,                   Jingjing%Cai%NULL%2,                   Xiao-Jing%Zhang%NULL%2,                   Feng%Zhou%NULL%1,                   Peng%Zhang%NULL%1,                   Yibin%Wang%NULL%2,                   Xinliang%Ma%NULL%1,                   Qingbo%Xu%NULL%2,                   Juan%Yang%NULL%3,                   Ping%Ye%NULL%2,                   Weiming%Mao%NULL%2,                   Xiaodong%Huang%NULL%2,                   Jiahong%Xia%NULL%2,                   Bing-Hong%Zhang%NULL%2,                   Jiao%Guo%NULL%1,                   Lihua%Zhu%NULL%2,                   Zhibing%Lu%NULL%3,                   Yufeng%Yuan%NULL%2,                   Xiang%Wei%NULL%1,                   Zhi-Gang%She%NULL%2,                   Yan-Xiao%Ji%NULL%2,                   Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                   Xi%Bai%NULL%1,                   Xia%Han%NULL%1,                   Wangyan%Jiang%NULL%1,                   Lin%Qiu%NULL%2,                   Shi%Chen%NULL%1,                   Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                   Yanhong%Wei%NULL%1,                   Min%Chen%NULL%1,                   Qianqian%Wan%NULL%1,                   Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                   Matteo%Monami%NULL%1,                   Achille%Cernigliaro%NULL%1,                   Enrica%Vigneri%NULL%1,                   Valentina%Guarnotta%NULL%1,                   Salvatore%Scondotto%NULL%1,                   Vincenza A.%Allotta%NULL%1,                   Michela%Conti%NULL%1,                   Carla%Giordano%NULL%1,                   Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                   Wen%Kong%NULL%1,                   Pengfei%Xia%NULL%1,                   Ying%Xu%NULL%1,                   Li%Li%NULL%3,                   Qin%Li%NULL%1,                   Li%Yang%NULL%3,                   Qi%Wei%NULL%3,                   Hanyu%Wang%NULL%1,                   Huiqing%Li%NULL%1,                   Juan%Zheng%NULL%1,                   Hui%Sun%NULL%1,                   Wenfang%Xia%NULL%1,                   Geng%Liu%NULL%1,                   Xueyu%Zhong%NULL%1,                   Kangli%Qiu%NULL%1,                   Yan%Li%NULL%1,                   Han%Wang%NULL%1,                   Yuxiu%Wang%NULL%1,                   Xiaoli%Song%NULL%1,                   Hua%Liu%NULL%1,                   Si%Xiong%NULL%1,                   Yumei%Liu%NULL%1,                   Zhenhai%Cui%NULL%1,                   Yu%Hu%NULL%6,                   Lulu%Chen%NULL%1,                   An%Pan%NULL%1,                   Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                   Qi%Wei%NULL%0,                   Willis X%Li%NULL%1,                   Karen C%McCowen%NULL%1,                   Wei%Xiong%NULL%2,                   Jiao%Liu%NULL%2,                   Wenlijun%Jiang%NULL%2,                   Traci%Marin%NULL%1,                   Robert L%Thomas%NULL%1,                   Ming%He%NULL%2,                   Brendan%Gongol%NULL%1,                   Mark%Hepokoski%NULL%2,                   Jason X-J%Yuan%NULL%1,                   John Y-J%Shyy%NULL%1,                   Nian%Xiong%NULL%0,                   Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                   Siyi%Xin%NULL%1,                   Yaqi%Chen%NULL%1,                   Leyu%Li%NULL%1,                   Wanjun%Chen%NULL%1,                   Wenjia%Li%NULL%1,                   Baoan%Zhou%NULL%1,                   Chenxia%Li%NULL%1,                   Yu%Gong%NULL%1,                   Fei%Li%NULL%1,                   Peng%Duan%NULL%1,                   Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                   John%Buse%NULL%2,                   John%Buse%NULL%0,                   Leonardo%Tamaritz%NULL%1,                   Ana%Palacio%NULL%2,                   Ken%Cohen%NULL%1,                   Deneen%Vojta%NULL%2,                   David%Liebovitz%NULL%1,                   Nia%Mitchell%NULL%1,                   Jacinda%Nicklas%NULL%1,                   Ildiko%Lingvay%NULL%1,                   Jeanne M.%Clark%NULL%1,                   Louis J.%Aronne%NULL%1,                   Erik%Anderson%NULL%1,                   Michael%Usher%NULL%1,                   Ryan%Demmer%NULL%1,                   Genevieve B.%Melton%NULL%1,                   Nicholas%Ingraham%NULL%1,                   Christopher J.%Tignanelli%NULL%2,                   Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                   In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                   Ana%Palacio%NULL%0,                   Elissa%Dawkins%NULL%1,                   Gordon%Chen%NULL%1,                   Daniel%McCarter%NULL%1,                   Emancia%Forbes%NULL%1,                   Brian%Chung%NULL%1,                   Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                   Qi%Wei%NULL%0,                   Karen C.%McCowen%NULL%1,                   Wei%Xiong%NULL%0,                   Jiao%Liu%NULL%0,                   Wenlijun%Jiang%NULL%0,                   Robert L.%Thomas%NULL%1,                   Mark%Hepokoski%NULL%0,                   Ming%He%NULL%0,                   John Y. J.%Shyy%NULL%1,                   Atul%Malhotra%NULL%0,                   Nian%Xiong%nianxiong@hust.edu.cn%0,                   Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                   T. A. N.%Reed%NULL%2,                   T. A. N.%Reed%NULL%0,                   M.%Ardissino%NULL%1,                   P.%Bassett%NULL%1,                   A. M.%Whittington%NULL%1,                   D. L.%Cohen%NULL%1,                   N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                   Walter%Distaso%NULL%2,                   Walter%Distaso%NULL%0,                   Anjali%Amin%NULL%1,                   Wei%Yang%NULL%1,                   Oluwagbemiga%Idowu%NULL%1,                   Julia S%Kenkre%NULL%1,                   Ronak J%Shah%NULL%1,                   Evelina%Woin%NULL%1,                   Christine%Shi%NULL%1,                   Nael%Alavi%NULL%2,                   Nael%Alavi%NULL%0,                   Hala%Bedri%NULL%1,                   Niamh%Brady%NULL%1,                   Sophie%Blackburn%NULL%1,                   Martina%Leczycka%NULL%1,                   Sanya%Patel%NULL%1,                   Elizaveta%Sokol%NULL%1,                   Edward%Toke-Bjolgerud%NULL%1,                   Ambreen%Qayum%NULL%1,                   Mariana%Abdel-Malek%NULL%1,                   David C D%Hope%NULL%1,                   Nick S%Oliver%NULL%1,                   Vasiliki%Bravis%NULL%1,                   Shivani%Misra%NULL%1,                   Tricia M%Tan%NULL%1,                   Neil E%Hill%NULL%2,                   Neil E%Hill%NULL%0,                   Victoria%Salem%NULL%2,                   Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                   Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                   Tiffany%Grimes%NULL%1,                   Peng%Li%NULL%1,                   Matthew%Might%NULL%1,                   Fernando%Ovalle%NULL%1,                   Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                   Nicholas E%Ingraham%NULL%1,                   Thomas A%Murray%NULL%1,                   Schelomo%Marmor%NULL%1,                   Shane%Hovertsen%NULL%1,                   Jessica%Gronski%NULL%1,                   Chace%McNeil%NULL%1,                   Ruoying%Feng%NULL%1,                   Gabriel%Guzman%NULL%1,                   Nermine%Abdelwahab%NULL%1,                   Samantha%King%NULL%1,                   Leonardo%Tamariz%NULL%0,                   Thomas%Meehan%NULL%1,                   Kathryn M%Pendleton%NULL%1,                   Bradley%Benson%NULL%1,                   Deneen%Vojta%NULL%0,                   Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                   Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                   Matthieu%Wargny%NULL%0,                   Matthieu%Wargny%NULL%0,                   Matthieu%Pichelin%NULL%0,                   Matthieu%Pichelin%NULL%0,                   Abdallah%Al-Salameh%NULL%0,                   Abdallah%Al-Salameh%NULL%0,                   Ingrid%Allix%NULL%0,                   Ingrid%Allix%NULL%0,                   Coralie%Amadou%NULL%0,                   Gwénaëlle%Arnault%NULL%2,                   Gwénaëlle%Arnault%NULL%0,                   Florence%Baudoux%NULL%1,                   Bernard%Bauduceau%NULL%1,                   Sophie%Borot%NULL%1,                   Muriel%Bourgeon-Ghittori%NULL%2,                   Muriel%Bourgeon-Ghittori%NULL%0,                   Olivier%Bourron%NULL%0,                   David%Boutoille%NULL%4,                   David%Boutoille%NULL%0,                   France%Cazenave-Roblot%NULL%3,                   France%Cazenave-Roblot%NULL%0,                   Claude%Chaumeil%NULL%2,                   Claude%Chaumeil%NULL%0,                   Emmanuel%Cosson%NULL%1,                   Sandrine%Coudol%NULL%2,                   Sandrine%Coudol%NULL%0,                   Patrice%Darmon%NULL%1,                   Emmanuel%Disse%NULL%2,                   Emmanuel%Disse%NULL%0,                   Amélie%Ducet-Boiffard%NULL%2,                   Amélie%Ducet-Boiffard%NULL%0,                   Bénédicte%Gaborit%NULL%1,                   Michael%Joubert%NULL%0,                   Michael%Joubert%NULL%0,                   Véronique%Kerlan%NULL%2,                   Véronique%Kerlan%NULL%0,                   Bruno%Laviolle%NULL%1,                   Lucien%Marchand%NULL%0,                   Lucien%Marchand%NULL%0,                   Laurent%Meyer%NULL%0,                   Laurent%Meyer%NULL%0,                   Louis%Potier%NULL%2,                   Louis%Potier%NULL%0,                   Gaëtan%Prevost%NULL%0,                   Gaëtan%Prevost%NULL%0,                   Jean-Pierre%Riveline%NULL%1,                   René%Robert%NULL%2,                   René%Robert%NULL%0,                   Pierre-Jean%Saulnier%NULL%0,                   Pierre-Jean%Saulnier%NULL%0,                   Ariane%Sultan%NULL%2,                   Ariane%Sultan%NULL%0,                   Jean-François%Thébaut%NULL%2,                   Jean-François%Thébaut%NULL%0,                   Charles%Thivolet%NULL%0,                   Charles%Thivolet%NULL%0,                   Blandine%Tramunt%NULL%2,                   Blandine%Tramunt%NULL%0,                   Camille%Vatier%NULL%0,                   Ronan%Roussel%NULL%0,                   Ronan%Roussel%NULL%0,                   Jean-François%Gautier%NULL%0,                   Jean-François%Gautier%NULL%0,                   Pierre%Gourdy%NULL%0,                   Pierre%Gourdy%NULL%0,                   NULL%NULL%NULL%0,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                   Peter%Knighton%NULL%1,                   Francesco%Zaccardi%NULL%2,                   Chirag%Bakhai%NULL%1,                   Emma%Barron%NULL%1,                   Naomi%Holman%NULL%1,                   Partha%Kar%NULL%1,                   Claire%Meace%NULL%1,                   Naveed%Sattar%NULL%1,                   Stephen%Sharp%NULL%1,                   Nicholas J%Wareham%NULL%1,                   Andy%Weaver%NULL%1,                   Emilia%Woch%NULL%1,                   Bob%Young%NULL%1,                   Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                   José David%Torres-Peña%NULL%1,                   María D.%López-Carmona%NULL%1,                   M. Mar.%Ayala-Gutiérrez%NULL%1,                   Francisco%Fuentes-Jiménez%NULL%1,                   Lucía Jorge%Huerta%NULL%1,                   Jaime Alonso%Muñoz%NULL%1,                   Manuel%Rubio-Rivas%NULL%1,                   Manel%Madrazo%NULL%1,                   Marcos Guzmán%Garcia%NULL%1,                   Beatriz Vicente%Montes%NULL%1,                   Joaquim Fernández%Sola%NULL%1,                   Javier%Ena%NULL%1,                   Ruth Gonzalez%Ferrer%NULL%1,                   Carmen Mella%Pérez%NULL%1,                   Carlos Jorge%Ripper%NULL%1,                   Jose Javier Napal%Lecumberri%NULL%1,                   Iris El Attar%Acedo%NULL%1,                   Susana Plaza%Canteli%NULL%1,                   Sara Fuente%Cosío%NULL%1,                   Francisco Amorós%Martínez%NULL%1,                   Begoña Cortés%Rodríguez%NULL%1,                   Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                   José Manuel%Ramos-Rincón%NULL%1,                   Ricardo%Gómez-Huelgas%NULL%1,                   NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                   Sang Won%Kim%NULL%1,                   Jong Won%Park%NULL%1,                   Kyu Hyang%Cho%NULL%1,                   Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,            Dong%Yang%xref no email%0,            Biao%Cheng%xref no email%0,            Jian%Chen%xref no email%0,            Anlin%Peng%xref no email%0,            Chen%Yang%xref no email%0,            Chong%Liu%xref no email%0,            Mingrui%Xiong%xref no email%0,            Aiping%Deng%xref no email%0,            Yu%Zhang%xref no email%0,            Ling%Zheng%xref no email%0,            Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                   Philip%Tsoukas%NULL%1,                   Christopher W.%Halladay%NULL%1,                   Emily%O'Neill%NULL%1,                   Stefan%Gravenstein%NULL%1,                   James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                   Tao%Liu%NULL%2,                   Weijun%Zhong%NULL%1,                   Rong%Liu%NULL%1,                   Honghao%Zhou%NULL%1,                   Weihua%Huang%endeavor34852@aliyun.com%1,                   Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                   Jae-Han%Jeon%NULL%2,                   Jae-Han%Jeon%NULL%0,                   Sung-Woo%Kim%NULL%2,                   Sung-Woo%Kim%NULL%0,                   Jun Sung%Moon%NULL%1,                   Nan Hee%Cho%NULL%1,                   Eugene%Han%NULL%1,                   Ji Hong%You%NULL%1,                   Ji Yeon%Lee%NULL%4,                   Miri%Hyun%NULL%1,                   Jae Seok%Park%NULL%4,                   Yong Shik%Kwon%NULL%2,                   Yeon-Kyung%Choi%NULL%1,                   Ki Tae%Kwon%NULL%1,                   Shin Yup%Lee%NULL%1,                   Eon Ju%Jeon%NULL%1,                   Jin-Woo%Kim%NULL%1,                   Hyo-Lim%Hong%NULL%1,                   Hyun Hee%Kwon%NULL%1,                   Chi Young%Jung%NULL%1,                   Yin Young%Lee%NULL%1,                   Eunyeoung%Ha%NULL%1,                   Seung Min%Chung%NULL%1,                   Jian%Hur%NULL%2,                   June Hong%Ahn%NULL%3,                   Na-young%Kim%NULL%1,                   Shin-Woo%Kim%NULL%3,                   Hyun Ha%Chang%NULL%1,                   Yong Hoon%Lee%NULL%1,                   Jaehee%Lee%NULL%1,                   Keun-Gyu%Park%NULL%1,                   Hyun Ah%Kim%NULL%1,                   Ji-Hyun%Lee%NULL%2,                   Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                   Lin%Qiu%NULL%0,                   Yi%Liu%NULL%2,                   Xiu-lan%Liu%NULL%1,                   Jian-ling%Zheng%NULL%1,                   Hui-ying%Xue%NULL%1,                   Wen-hua%Liu%NULL%1,                   Dong%Liu%NULL%3,                   Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                    N.% Smati%null%1,                    C. S. J.% Wong%null%1,                    K.% Aspey%null%1,                    M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>_MedBiorxiv_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                    A.% Anisimovich%null%1,                    J.% Baxter%null%1,                    L.% Mackillop%null%1,                    M. P.% Vizcaychipi%null%1,                    A.% McCarthy%null%1,                    R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                    D.% Bates%null%1,                    J. M.% Fiskio%null%1,                    E. C.% Roche%null%1,                    S.% Mora%null%1,                    O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -3054,7 +3165,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>715</v>
+        <v>747</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3066,7 +3177,7 @@
         <v>52</v>
       </c>
       <c r="I2" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3">
@@ -3083,7 +3194,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>716</v>
+        <v>749</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3095,7 +3206,7 @@
         <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="4">
@@ -3112,7 +3223,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>717</v>
+        <v>751</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -3124,7 +3235,7 @@
         <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
@@ -3141,7 +3252,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>718</v>
+        <v>752</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -3153,7 +3264,7 @@
         <v>67</v>
       </c>
       <c r="I5" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="6">
@@ -3170,7 +3281,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>719</v>
+        <v>753</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3182,7 +3293,7 @@
         <v>72</v>
       </c>
       <c r="I6" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7">
@@ -3199,7 +3310,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>720</v>
+        <v>754</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3211,7 +3322,7 @@
         <v>77</v>
       </c>
       <c r="I7" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="8">
@@ -3228,7 +3339,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>721</v>
+        <v>755</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3240,7 +3351,7 @@
         <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="9">
@@ -3257,7 +3368,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>722</v>
+        <v>756</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3269,7 +3380,7 @@
         <v>87</v>
       </c>
       <c r="I9" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="10">
@@ -3286,7 +3397,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>723</v>
+        <v>757</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3298,7 +3409,7 @@
         <v>92</v>
       </c>
       <c r="I10" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="11">
@@ -3315,7 +3426,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>724</v>
+        <v>758</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3327,7 +3438,7 @@
         <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="12">
@@ -3344,7 +3455,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>725</v>
+        <v>759</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3356,7 +3467,7 @@
         <v>102</v>
       </c>
       <c r="I12" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="13">
@@ -3373,7 +3484,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>726</v>
+        <v>760</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3385,7 +3496,7 @@
         <v>107</v>
       </c>
       <c r="I13" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="14">
@@ -3402,7 +3513,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>727</v>
+        <v>761</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -3414,7 +3525,7 @@
         <v>112</v>
       </c>
       <c r="I14" t="s">
-        <v>243</v>
+        <v>762</v>
       </c>
     </row>
     <row r="15">
@@ -3431,7 +3542,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>728</v>
+        <v>763</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3443,7 +3554,7 @@
         <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="16">
@@ -3460,7 +3571,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>729</v>
+        <v>764</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3472,7 +3583,7 @@
         <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="17">
@@ -3489,7 +3600,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>730</v>
+        <v>765</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3501,7 +3612,7 @@
         <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="18">
@@ -3518,7 +3629,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>731</v>
+        <v>766</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3530,7 +3641,7 @@
         <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="19">
@@ -3547,7 +3658,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3559,7 +3670,7 @@
         <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20">
@@ -3576,7 +3687,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3588,7 +3699,7 @@
         <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="21">
@@ -3605,7 +3716,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3617,7 +3728,7 @@
         <v>52</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="22">
@@ -3634,7 +3745,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>735</v>
+        <v>770</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3646,7 +3757,7 @@
         <v>149</v>
       </c>
       <c r="I22" t="s">
-        <v>243</v>
+        <v>762</v>
       </c>
     </row>
     <row r="23">
@@ -3663,7 +3774,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>736</v>
+        <v>771</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3675,7 +3786,7 @@
         <v>52</v>
       </c>
       <c r="I23" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="24">
@@ -3692,7 +3803,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>737</v>
+        <v>772</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3704,7 +3815,7 @@
         <v>158</v>
       </c>
       <c r="I24" t="s">
-        <v>243</v>
+        <v>762</v>
       </c>
     </row>
     <row r="25">
@@ -3721,7 +3832,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>738</v>
+        <v>773</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3733,7 +3844,7 @@
         <v>163</v>
       </c>
       <c r="I25" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="26">
@@ -3750,7 +3861,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>739</v>
+        <v>774</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3762,7 +3873,7 @@
         <v>415</v>
       </c>
       <c r="I26" t="s">
-        <v>134</v>
+        <v>775</v>
       </c>
     </row>
     <row r="27">
@@ -3779,7 +3890,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>740</v>
+        <v>776</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3791,7 +3902,7 @@
         <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>750</v>
       </c>
     </row>
     <row r="28">
@@ -3808,7 +3919,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>741</v>
+        <v>777</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3820,7 +3931,7 @@
         <v>172</v>
       </c>
       <c r="I28" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="29">
@@ -3837,7 +3948,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>742</v>
+        <v>778</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3849,7 +3960,7 @@
         <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="30">
@@ -3866,7 +3977,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>743</v>
+        <v>779</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -3878,7 +3989,7 @@
         <v>182</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>748</v>
       </c>
     </row>
     <row r="31">
@@ -3895,7 +4006,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>744</v>
+        <v>780</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -3907,7 +4018,7 @@
         <v>187</v>
       </c>
       <c r="I31" t="s">
-        <v>260</v>
+        <v>781</v>
       </c>
     </row>
     <row r="32">
@@ -3924,7 +4035,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>745</v>
+        <v>782</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -3936,7 +4047,7 @@
         <v>191</v>
       </c>
       <c r="I32" t="s">
-        <v>260</v>
+        <v>781</v>
       </c>
     </row>
     <row r="33">
@@ -3953,7 +4064,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>746</v>
+        <v>783</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -3965,7 +4076,7 @@
         <v>195</v>
       </c>
       <c r="I33" t="s">
-        <v>260</v>
+        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4623" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="816">
   <si>
     <t>Doi</t>
   </si>
@@ -2809,6 +2809,102 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,                    D.% Bates%null%1,                    J. M.% Fiskio%null%1,                    E. C.% Roche%null%1,                    S.% Mora%null%1,                    O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                    Jennifer M%Cooper%NULL%2,                    Jennifer M%Cooper%NULL%0,                    Krishna%Gokhale%NULL%1,                    Dionisio%Acosta-Mena%NULL%1,                    Samir%Dhalla%NULL%1,                    Nathan%Byne%NULL%1,                    Joht Singh%Chandan%NULL%1,                    Astha%Anand%NULL%2,                    Astha%Anand%NULL%0,                    Kelvin%Okoth%NULL%1,                    Anuradhaa%Subramanian%NULL%2,                    Anuradhaa%Subramanian%NULL%0,                    Mansoor N%Bangash%NULL%1,                    Thomas%Jackson%NULL%2,                    Thomas%Jackson%NULL%0,                    Dawit%Zemedikun%NULL%2,                    Dawit%Zemedikun%NULL%0,                    Tom%Taverner%NULL%2,                    Tom%Taverner%NULL%0,                    Wasim%Hanif%NULL%1,                    Sandip%Ghosh%NULL%1,                    Parth%Narendran%NULL%1,                    Konstantinos A%Toulis%NULL%1,                    Abd A%Tahrani%NULL%2,                    Abd A%Tahrani%NULL%0,                    Rajendra%Surenthirakumaran%NULL%2,                    Rajendra%Surenthirakumaran%NULL%0,                    Nicola J%Adderley%NULL%1,                    Shamil%Haroon%NULL%2,                    Shamil%Haroon%NULL%0,                    Kamlesh%Khunti%NULL%4,                    Kamlesh%Khunti%NULL%0,                    Christopher%Sainsbury%NULL%2,                    Christopher%Sainsbury%NULL%0,                    G Neil%Thomas%NULL%1,                    Krishnarajah%Nirantharakumar%NULL%2,                    Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                    Thomas%Servais%NULL%1,                    Leïla%Belkhir%NULL%1,                    Pierre-François%Laterre%NULL%1,                    Jean-Paul%Thissen%NULL%1,                    Bernard%Vandeleene%NULL%1,                    Dominique%Maiter%NULL%1,                    Jean C.%Yombi%NULL%1,                    Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                    Abdallah%Al-Salameh%NULL%3,                    Samy%Hadjadj%NULL%3,                    Thomas%Goronflot%NULL%1,                    Nicolas%Wiernsperger%NULL%1,                    Matthieu%Pichelin%NULL%3,                    Ingrid%Allix%NULL%3,                    Coralie%Amadou%NULL%2,                    Olivier%Bourron%NULL%2,                    Thierry%Duriez%NULL%1,                    Jean-François%Gautier%NULL%3,                    Anne%Dutour%NULL%1,                    Céline%Gonfroy%NULL%1,                    Didier%Gouet%NULL%1,                    Michael%Joubert%NULL%3,                    Ingrid%Julier%NULL%1,                    Etienne%Larger%NULL%1,                    Lucien%Marchand%NULL%3,                    Michel%Marre%NULL%1,                    Laurent%Meyer%NULL%3,                    Frédérique%Olivier%NULL%1,                    Gaëtan%Prevost%NULL%3,                    Pascale%Quiniou%NULL%1,                    Christelle%Raffaitin-Cardin%NULL%1,                    Ronan%Roussel%NULL%3,                    Pierre-Jean%Saulnier%NULL%3,                    Dominique%Seret-Begue%NULL%1,                    Charles%Thivolet%NULL%3,                    Camille%Vatier%NULL%2,                    Rachel%Desailloud%NULL%1,                    Matthieu%Wargny%NULL%3,                    Pierre%Gourdy%NULL%3,                    Bertrand%Cariou%NULL%1,                    NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                    Zhenyuan%Chen%NULL%1,                    Li%Liu%NULL%3,                    Xiaoxv%Yin%NULL%1,                    Heping%Yang%NULL%1,                    Xiangping%Tan%NULL%1,                    Jing%Wang%NULL%2,                    Hui%Li%NULL%13,                    Mengge%Tian%NULL%1,                    Zuxun%Lu%NULL%1,                    Nian%Xiong%NULL%4,                    Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                    Ye-Mao%Liu%NULL%2,                    Haomiao%Li%NULL%1,                    Xin%Zhang%NULL%1,                    Fang%Lei%NULL%2,                    Juan-Juan%Qin%NULL%2,                    Ze%Chen%NULL%1,                    Ke-Qiong%Deng%NULL%1,                    Lijin%Lin%NULL%2,                    Ming-Ming%Chen%NULL%2,                    Xiaohui%Song%NULL%1,                    Meng%Xia%NULL%2,                    Xuewei%Huang%NULL%2,                    Weifang%Liu%NULL%1,                    Jingjing%Cai%NULL%2,                    Xiao-Jing%Zhang%NULL%2,                    Feng%Zhou%NULL%1,                    Peng%Zhang%NULL%1,                    Yibin%Wang%NULL%2,                    Xinliang%Ma%NULL%1,                    Qingbo%Xu%NULL%2,                    Juan%Yang%NULL%3,                    Ping%Ye%NULL%2,                    Weiming%Mao%NULL%2,                    Xiaodong%Huang%NULL%2,                    Jiahong%Xia%NULL%2,                    Bing-Hong%Zhang%NULL%2,                    Jiao%Guo%NULL%1,                    Lihua%Zhu%NULL%2,                    Zhibing%Lu%NULL%3,                    Yufeng%Yuan%NULL%2,                    Xiang%Wei%NULL%1,                    Zhi-Gang%She%NULL%2,                    Yan-Xiao%Ji%NULL%2,                    Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                    Xi%Bai%NULL%1,                    Xia%Han%NULL%1,                    Wangyan%Jiang%NULL%1,                    Lin%Qiu%NULL%2,                    Shi%Chen%NULL%1,                    Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                    Yanhong%Wei%NULL%1,                    Min%Chen%NULL%1,                    Qianqian%Wan%NULL%1,                    Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                    Matteo%Monami%NULL%1,                    Achille%Cernigliaro%NULL%1,                    Enrica%Vigneri%NULL%1,                    Valentina%Guarnotta%NULL%1,                    Salvatore%Scondotto%NULL%1,                    Vincenza A.%Allotta%NULL%1,                    Michela%Conti%NULL%1,                    Carla%Giordano%NULL%1,                    Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                    Wen%Kong%NULL%1,                    Pengfei%Xia%NULL%1,                    Ying%Xu%NULL%1,                    Li%Li%NULL%3,                    Qin%Li%NULL%1,                    Li%Yang%NULL%3,                    Qi%Wei%NULL%3,                    Hanyu%Wang%NULL%1,                    Huiqing%Li%NULL%1,                    Juan%Zheng%NULL%1,                    Hui%Sun%NULL%1,                    Wenfang%Xia%NULL%1,                    Geng%Liu%NULL%1,                    Xueyu%Zhong%NULL%1,                    Kangli%Qiu%NULL%1,                    Yan%Li%NULL%1,                    Han%Wang%NULL%1,                    Yuxiu%Wang%NULL%1,                    Xiaoli%Song%NULL%1,                    Hua%Liu%NULL%1,                    Si%Xiong%NULL%1,                    Yumei%Liu%NULL%1,                    Zhenhai%Cui%NULL%1,                    Yu%Hu%NULL%6,                    Lulu%Chen%NULL%1,                    An%Pan%NULL%1,                    Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                    Qi%Wei%NULL%0,                    Willis X%Li%NULL%1,                    Karen C%McCowen%NULL%1,                    Wei%Xiong%NULL%2,                    Jiao%Liu%NULL%2,                    Wenlijun%Jiang%NULL%2,                    Traci%Marin%NULL%1,                    Robert L%Thomas%NULL%1,                    Ming%He%NULL%2,                    Brendan%Gongol%NULL%1,                    Mark%Hepokoski%NULL%2,                    Jason X-J%Yuan%NULL%1,                    John Y-J%Shyy%NULL%1,                    Nian%Xiong%NULL%0,                    Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                    Siyi%Xin%NULL%1,                    Yaqi%Chen%NULL%1,                    Leyu%Li%NULL%1,                    Wanjun%Chen%NULL%1,                    Wenjia%Li%NULL%1,                    Baoan%Zhou%NULL%1,                    Chenxia%Li%NULL%1,                    Yu%Gong%NULL%1,                    Fei%Li%NULL%1,                    Peng%Duan%NULL%1,                    Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                    John%Buse%NULL%2,                    John%Buse%NULL%0,                    Leonardo%Tamaritz%NULL%1,                    Ana%Palacio%NULL%2,                    Ken%Cohen%NULL%1,                    Deneen%Vojta%NULL%2,                    David%Liebovitz%NULL%1,                    Nia%Mitchell%NULL%1,                    Jacinda%Nicklas%NULL%1,                    Ildiko%Lingvay%NULL%1,                    Jeanne M.%Clark%NULL%1,                    Louis J.%Aronne%NULL%1,                    Erik%Anderson%NULL%1,                    Michael%Usher%NULL%1,                    Ryan%Demmer%NULL%1,                    Genevieve B.%Melton%NULL%1,                    Nicholas%Ingraham%NULL%1,                    Christopher J.%Tignanelli%NULL%2,                    Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                    In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                    Ana%Palacio%NULL%0,                    Elissa%Dawkins%NULL%1,                    Gordon%Chen%NULL%1,                    Daniel%McCarter%NULL%1,                    Emancia%Forbes%NULL%1,                    Brian%Chung%NULL%1,                    Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                    Qi%Wei%NULL%0,                    Karen C.%McCowen%NULL%1,                    Wei%Xiong%NULL%0,                    Jiao%Liu%NULL%0,                    Wenlijun%Jiang%NULL%0,                    Robert L.%Thomas%NULL%1,                    Mark%Hepokoski%NULL%0,                    Ming%He%NULL%0,                    John Y. J.%Shyy%NULL%1,                    Atul%Malhotra%NULL%0,                    Nian%Xiong%nianxiong@hust.edu.cn%0,                    Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                    T. A. N.%Reed%NULL%2,                    T. A. N.%Reed%NULL%0,                    M.%Ardissino%NULL%1,                    P.%Bassett%NULL%1,                    A. M.%Whittington%NULL%1,                    D. L.%Cohen%NULL%1,                    N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                    Walter%Distaso%NULL%2,                    Walter%Distaso%NULL%0,                    Anjali%Amin%NULL%1,                    Wei%Yang%NULL%1,                    Oluwagbemiga%Idowu%NULL%1,                    Julia S%Kenkre%NULL%1,                    Ronak J%Shah%NULL%1,                    Evelina%Woin%NULL%1,                    Christine%Shi%NULL%1,                    Nael%Alavi%NULL%2,                    Nael%Alavi%NULL%0,                    Hala%Bedri%NULL%1,                    Niamh%Brady%NULL%1,                    Sophie%Blackburn%NULL%1,                    Martina%Leczycka%NULL%1,                    Sanya%Patel%NULL%1,                    Elizaveta%Sokol%NULL%1,                    Edward%Toke-Bjolgerud%NULL%1,                    Ambreen%Qayum%NULL%1,                    Mariana%Abdel-Malek%NULL%1,                    David C D%Hope%NULL%1,                    Nick S%Oliver%NULL%1,                    Vasiliki%Bravis%NULL%1,                    Shivani%Misra%NULL%1,                    Tricia M%Tan%NULL%1,                    Neil E%Hill%NULL%2,                    Neil E%Hill%NULL%0,                    Victoria%Salem%NULL%2,                    Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                    Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                    Tiffany%Grimes%NULL%1,                    Peng%Li%NULL%1,                    Matthew%Might%NULL%1,                    Fernando%Ovalle%NULL%1,                    Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                    Nicholas E%Ingraham%NULL%1,                    Thomas A%Murray%NULL%1,                    Schelomo%Marmor%NULL%1,                    Shane%Hovertsen%NULL%1,                    Jessica%Gronski%NULL%1,                    Chace%McNeil%NULL%1,                    Ruoying%Feng%NULL%1,                    Gabriel%Guzman%NULL%1,                    Nermine%Abdelwahab%NULL%1,                    Samantha%King%NULL%1,                    Leonardo%Tamariz%NULL%0,                    Thomas%Meehan%NULL%1,                    Kathryn M%Pendleton%NULL%1,                    Bradley%Benson%NULL%1,                    Deneen%Vojta%NULL%0,                    Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                    Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                    Matthieu%Wargny%NULL%0,                    Matthieu%Wargny%NULL%0,                    Matthieu%Pichelin%NULL%0,                    Matthieu%Pichelin%NULL%0,                    Abdallah%Al-Salameh%NULL%0,                    Abdallah%Al-Salameh%NULL%0,                    Ingrid%Allix%NULL%0,                    Ingrid%Allix%NULL%0,                    Coralie%Amadou%NULL%0,                    Gwénaëlle%Arnault%NULL%2,                    Gwénaëlle%Arnault%NULL%0,                    Florence%Baudoux%NULL%1,                    Bernard%Bauduceau%NULL%1,                    Sophie%Borot%NULL%1,                    Muriel%Bourgeon-Ghittori%NULL%2,                    Muriel%Bourgeon-Ghittori%NULL%0,                    Olivier%Bourron%NULL%0,                    David%Boutoille%NULL%4,                    David%Boutoille%NULL%0,                    France%Cazenave-Roblot%NULL%3,                    France%Cazenave-Roblot%NULL%0,                    Claude%Chaumeil%NULL%2,                    Claude%Chaumeil%NULL%0,                    Emmanuel%Cosson%NULL%1,                    Sandrine%Coudol%NULL%2,                    Sandrine%Coudol%NULL%0,                    Patrice%Darmon%NULL%1,                    Emmanuel%Disse%NULL%2,                    Emmanuel%Disse%NULL%0,                    Amélie%Ducet-Boiffard%NULL%2,                    Amélie%Ducet-Boiffard%NULL%0,                    Bénédicte%Gaborit%NULL%1,                    Michael%Joubert%NULL%0,                    Michael%Joubert%NULL%0,                    Véronique%Kerlan%NULL%2,                    Véronique%Kerlan%NULL%0,                    Bruno%Laviolle%NULL%1,                    Lucien%Marchand%NULL%0,                    Lucien%Marchand%NULL%0,                    Laurent%Meyer%NULL%0,                    Laurent%Meyer%NULL%0,                    Louis%Potier%NULL%2,                    Louis%Potier%NULL%0,                    Gaëtan%Prevost%NULL%0,                    Gaëtan%Prevost%NULL%0,                    Jean-Pierre%Riveline%NULL%1,                    René%Robert%NULL%2,                    René%Robert%NULL%0,                    Pierre-Jean%Saulnier%NULL%0,                    Pierre-Jean%Saulnier%NULL%0,                    Ariane%Sultan%NULL%2,                    Ariane%Sultan%NULL%0,                    Jean-François%Thébaut%NULL%2,                    Jean-François%Thébaut%NULL%0,                    Charles%Thivolet%NULL%0,                    Charles%Thivolet%NULL%0,                    Blandine%Tramunt%NULL%2,                    Blandine%Tramunt%NULL%0,                    Camille%Vatier%NULL%0,                    Ronan%Roussel%NULL%0,                    Ronan%Roussel%NULL%0,                    Jean-François%Gautier%NULL%0,                    Jean-François%Gautier%NULL%0,                    Pierre%Gourdy%NULL%0,                    Pierre%Gourdy%NULL%0,                    NULL%NULL%NULL%0,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                    Peter%Knighton%NULL%1,                    Francesco%Zaccardi%NULL%2,                    Chirag%Bakhai%NULL%1,                    Emma%Barron%NULL%1,                    Naomi%Holman%NULL%1,                    Partha%Kar%NULL%1,                    Claire%Meace%NULL%1,                    Naveed%Sattar%NULL%1,                    Stephen%Sharp%NULL%1,                    Nicholas J%Wareham%NULL%1,                    Andy%Weaver%NULL%1,                    Emilia%Woch%NULL%1,                    Bob%Young%NULL%1,                    Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                    José David%Torres-Peña%NULL%1,                    María D.%López-Carmona%NULL%1,                    M. Mar.%Ayala-Gutiérrez%NULL%1,                    Francisco%Fuentes-Jiménez%NULL%1,                    Lucía Jorge%Huerta%NULL%1,                    Jaime Alonso%Muñoz%NULL%1,                    Manuel%Rubio-Rivas%NULL%1,                    Manel%Madrazo%NULL%1,                    Marcos Guzmán%Garcia%NULL%1,                    Beatriz Vicente%Montes%NULL%1,                    Joaquim Fernández%Sola%NULL%1,                    Javier%Ena%NULL%1,                    Ruth Gonzalez%Ferrer%NULL%1,                    Carmen Mella%Pérez%NULL%1,                    Carlos Jorge%Ripper%NULL%1,                    Jose Javier Napal%Lecumberri%NULL%1,                    Iris El Attar%Acedo%NULL%1,                    Susana Plaza%Canteli%NULL%1,                    Sara Fuente%Cosío%NULL%1,                    Francisco Amorós%Martínez%NULL%1,                    Begoña Cortés%Rodríguez%NULL%1,                    Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                    José Manuel%Ramos-Rincón%NULL%1,                    Ricardo%Gómez-Huelgas%NULL%1,                    NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                    Sang Won%Kim%NULL%1,                    Jong Won%Park%NULL%1,                    Kyu Hyang%Cho%NULL%1,                    Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yuchen%Chen%xref no email%0,             Dong%Yang%xref no email%0,             Biao%Cheng%xref no email%0,             Jian%Chen%xref no email%0,             Anlin%Peng%xref no email%0,             Chen%Yang%xref no email%0,             Chong%Liu%xref no email%0,             Mingrui%Xiong%xref no email%0,             Aiping%Deng%xref no email%0,             Yu%Zhang%xref no email%0,             Ling%Zheng%xref no email%0,             Kun%Huang%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                    Philip%Tsoukas%NULL%1,                    Christopher W.%Halladay%NULL%1,                    Emily%O'Neill%NULL%1,                    Stefan%Gravenstein%NULL%1,                    James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                    Tao%Liu%NULL%2,                    Weijun%Zhong%NULL%1,                    Rong%Liu%NULL%1,                    Honghao%Zhou%NULL%1,                    Weihua%Huang%endeavor34852@aliyun.com%1,                    Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                    Jae-Han%Jeon%NULL%2,                    Jae-Han%Jeon%NULL%0,                    Sung-Woo%Kim%NULL%2,                    Sung-Woo%Kim%NULL%0,                    Jun Sung%Moon%NULL%1,                    Nan Hee%Cho%NULL%1,                    Eugene%Han%NULL%1,                    Ji Hong%You%NULL%1,                    Ji Yeon%Lee%NULL%4,                    Miri%Hyun%NULL%1,                    Jae Seok%Park%NULL%4,                    Yong Shik%Kwon%NULL%2,                    Yeon-Kyung%Choi%NULL%1,                    Ki Tae%Kwon%NULL%1,                    Shin Yup%Lee%NULL%1,                    Eon Ju%Jeon%NULL%1,                    Jin-Woo%Kim%NULL%1,                    Hyo-Lim%Hong%NULL%1,                    Hyun Hee%Kwon%NULL%1,                    Chi Young%Jung%NULL%1,                    Yin Young%Lee%NULL%1,                    Eunyeoung%Ha%NULL%1,                    Seung Min%Chung%NULL%1,                    Jian%Hur%NULL%2,                    June Hong%Ahn%NULL%3,                    Na-young%Kim%NULL%1,                    Shin-Woo%Kim%NULL%3,                    Hyun Ha%Chang%NULL%1,                    Yong Hoon%Lee%NULL%1,                    Jaehee%Lee%NULL%1,                    Keun-Gyu%Park%NULL%1,                    Hyun Ah%Kim%NULL%1,                    Ji-Hyun%Lee%NULL%2,                    Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                    Lin%Qiu%NULL%0,                    Yi%Liu%NULL%2,                    Xiu-lan%Liu%NULL%1,                    Jian-ling%Zheng%NULL%1,                    Hui-ying%Xue%NULL%1,                    Wen-hua%Liu%NULL%1,                    Dong%Liu%NULL%3,                    Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%2,                     N.% Smati%null%1,                     C. S. J.% Wong%null%1,                     K.% Aspey%null%1,                     M. A. % Mendall%null%1,  Z.%Philipose%null%0,  N.% Smati%null%1,  C. S. J.% Wong%null%1,  K.% Aspey%null%1,  M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%2,                     A.% Anisimovich%null%1,                     J.% Baxter%null%1,                     L.% Mackillop%null%1,                     M. P.% Vizcaychipi%null%1,                     A.% McCarthy%null%1,                     R. T. % Khan%null%1,  B.%Abu-Jamous%null%0,  A.% Anisimovich%null%1,  J.% Baxter%null%1,  L.% Mackillop%null%1,  M. P.% Vizcaychipi%null%1,  A.% McCarthy%null%1,  R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%2,                     D.% Bates%null%1,                     J. M.% Fiskio%null%1,                     E. C.% Roche%null%1,                     S.% Mora%null%1,                     O. % Demler%null%1,  H. T.%Dashti%null%0,  D.% Bates%null%1,  J. M.% Fiskio%null%1,  E. C.% Roche%null%1,  S.% Mora%null%1,  O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3261,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>747</v>
+        <v>784</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3194,7 +3290,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>749</v>
+        <v>785</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3223,7 +3319,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>751</v>
+        <v>786</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -3252,7 +3348,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>752</v>
+        <v>787</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -3281,7 +3377,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>753</v>
+        <v>788</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3310,7 +3406,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>754</v>
+        <v>789</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3339,7 +3435,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>755</v>
+        <v>790</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3368,7 +3464,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>756</v>
+        <v>791</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3397,7 +3493,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>757</v>
+        <v>792</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3426,7 +3522,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>758</v>
+        <v>793</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3455,7 +3551,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>759</v>
+        <v>794</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3484,7 +3580,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>760</v>
+        <v>795</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3513,7 +3609,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>761</v>
+        <v>796</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -3542,7 +3638,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>763</v>
+        <v>797</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3571,7 +3667,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>764</v>
+        <v>798</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3600,7 +3696,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>765</v>
+        <v>799</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3629,7 +3725,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>766</v>
+        <v>800</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3658,7 +3754,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>767</v>
+        <v>801</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3687,7 +3783,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>768</v>
+        <v>802</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3716,7 +3812,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>769</v>
+        <v>803</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3745,7 +3841,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>770</v>
+        <v>804</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3774,7 +3870,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>771</v>
+        <v>805</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3803,7 +3899,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>772</v>
+        <v>806</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3832,7 +3928,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>773</v>
+        <v>807</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3861,7 +3957,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>774</v>
+        <v>808</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3890,7 +3986,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>776</v>
+        <v>809</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3919,7 +4015,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>777</v>
+        <v>810</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -3948,7 +4044,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>778</v>
+        <v>811</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -3977,7 +4073,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>779</v>
+        <v>812</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -4006,7 +4102,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>780</v>
+        <v>813</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -4035,7 +4131,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>782</v>
+        <v>814</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -4064,7 +4160,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>783</v>
+        <v>815</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4854" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="974">
   <si>
     <t>Doi</t>
   </si>
@@ -2905,6 +2905,480 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%2,                     D.% Bates%null%1,                     J. M.% Fiskio%null%1,                     E. C.% Roche%null%1,                     S.% Mora%null%1,                     O. % Demler%null%1,  H. T.%Dashti%null%0,  D.% Bates%null%1,  J. M.% Fiskio%null%1,  E. C.% Roche%null%1,  S.% Mora%null%1,  O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                     Jennifer M%Cooper%NULL%2,                     Jennifer M%Cooper%NULL%0,                     Krishna%Gokhale%NULL%1,                     Dionisio%Acosta-Mena%NULL%1,                     Samir%Dhalla%NULL%1,                     Nathan%Byne%NULL%1,                     Joht Singh%Chandan%NULL%1,                     Astha%Anand%NULL%2,                     Astha%Anand%NULL%0,                     Kelvin%Okoth%NULL%1,                     Anuradhaa%Subramanian%NULL%2,                     Anuradhaa%Subramanian%NULL%0,                     Mansoor N%Bangash%NULL%1,                     Thomas%Jackson%NULL%2,                     Thomas%Jackson%NULL%0,                     Dawit%Zemedikun%NULL%2,                     Dawit%Zemedikun%NULL%0,                     Tom%Taverner%NULL%2,                     Tom%Taverner%NULL%0,                     Wasim%Hanif%NULL%1,                     Sandip%Ghosh%NULL%1,                     Parth%Narendran%NULL%1,                     Konstantinos A%Toulis%NULL%1,                     Abd A%Tahrani%NULL%2,                     Abd A%Tahrani%NULL%0,                     Rajendra%Surenthirakumaran%NULL%2,                     Rajendra%Surenthirakumaran%NULL%0,                     Nicola J%Adderley%NULL%1,                     Shamil%Haroon%NULL%2,                     Shamil%Haroon%NULL%0,                     Kamlesh%Khunti%NULL%4,                     Kamlesh%Khunti%NULL%0,                     Christopher%Sainsbury%NULL%2,                     Christopher%Sainsbury%NULL%0,                     G Neil%Thomas%NULL%1,                     Krishnarajah%Nirantharakumar%NULL%2,                     Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                     Thomas%Servais%NULL%1,                     Leïla%Belkhir%NULL%1,                     Pierre-François%Laterre%NULL%1,                     Jean-Paul%Thissen%NULL%1,                     Bernard%Vandeleene%NULL%1,                     Dominique%Maiter%NULL%1,                     Jean C.%Yombi%NULL%1,                     Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                     Abdallah%Al-Salameh%NULL%3,                     Samy%Hadjadj%NULL%3,                     Thomas%Goronflot%NULL%1,                     Nicolas%Wiernsperger%NULL%1,                     Matthieu%Pichelin%NULL%3,                     Ingrid%Allix%NULL%3,                     Coralie%Amadou%NULL%2,                     Olivier%Bourron%NULL%2,                     Thierry%Duriez%NULL%1,                     Jean-François%Gautier%NULL%3,                     Anne%Dutour%NULL%1,                     Céline%Gonfroy%NULL%1,                     Didier%Gouet%NULL%1,                     Michael%Joubert%NULL%3,                     Ingrid%Julier%NULL%1,                     Etienne%Larger%NULL%1,                     Lucien%Marchand%NULL%3,                     Michel%Marre%NULL%1,                     Laurent%Meyer%NULL%3,                     Frédérique%Olivier%NULL%1,                     Gaëtan%Prevost%NULL%3,                     Pascale%Quiniou%NULL%1,                     Christelle%Raffaitin-Cardin%NULL%1,                     Ronan%Roussel%NULL%3,                     Pierre-Jean%Saulnier%NULL%3,                     Dominique%Seret-Begue%NULL%1,                     Charles%Thivolet%NULL%3,                     Camille%Vatier%NULL%2,                     Rachel%Desailloud%NULL%1,                     Matthieu%Wargny%NULL%3,                     Pierre%Gourdy%NULL%3,                     Bertrand%Cariou%NULL%1,                     NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                     Zhenyuan%Chen%NULL%1,                     Li%Liu%NULL%3,                     Xiaoxv%Yin%NULL%1,                     Heping%Yang%NULL%1,                     Xiangping%Tan%NULL%1,                     Jing%Wang%NULL%2,                     Hui%Li%NULL%13,                     Mengge%Tian%NULL%1,                     Zuxun%Lu%NULL%1,                     Nian%Xiong%NULL%4,                     Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                     Ye-Mao%Liu%NULL%2,                     Haomiao%Li%NULL%1,                     Xin%Zhang%NULL%1,                     Fang%Lei%NULL%2,                     Juan-Juan%Qin%NULL%2,                     Ze%Chen%NULL%1,                     Ke-Qiong%Deng%NULL%1,                     Lijin%Lin%NULL%2,                     Ming-Ming%Chen%NULL%2,                     Xiaohui%Song%NULL%1,                     Meng%Xia%NULL%2,                     Xuewei%Huang%NULL%2,                     Weifang%Liu%NULL%1,                     Jingjing%Cai%NULL%2,                     Xiao-Jing%Zhang%NULL%2,                     Feng%Zhou%NULL%1,                     Peng%Zhang%NULL%1,                     Yibin%Wang%NULL%2,                     Xinliang%Ma%NULL%1,                     Qingbo%Xu%NULL%2,                     Juan%Yang%NULL%3,                     Ping%Ye%NULL%2,                     Weiming%Mao%NULL%2,                     Xiaodong%Huang%NULL%2,                     Jiahong%Xia%NULL%2,                     Bing-Hong%Zhang%NULL%2,                     Jiao%Guo%NULL%1,                     Lihua%Zhu%NULL%2,                     Zhibing%Lu%NULL%3,                     Yufeng%Yuan%NULL%2,                     Xiang%Wei%NULL%1,                     Zhi-Gang%She%NULL%2,                     Yan-Xiao%Ji%NULL%2,                     Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                     Xi%Bai%NULL%1,                     Xia%Han%NULL%1,                     Wangyan%Jiang%NULL%1,                     Lin%Qiu%NULL%2,                     Shi%Chen%NULL%1,                     Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                     Yanhong%Wei%NULL%1,                     Min%Chen%NULL%1,                     Qianqian%Wan%NULL%1,                     Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                     Matteo%Monami%NULL%1,                     Achille%Cernigliaro%NULL%1,                     Enrica%Vigneri%NULL%1,                     Valentina%Guarnotta%NULL%1,                     Salvatore%Scondotto%NULL%1,                     Vincenza A.%Allotta%NULL%1,                     Michela%Conti%NULL%1,                     Carla%Giordano%NULL%1,                     Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                     Wen%Kong%NULL%1,                     Pengfei%Xia%NULL%1,                     Ying%Xu%NULL%1,                     Li%Li%NULL%3,                     Qin%Li%NULL%1,                     Li%Yang%NULL%3,                     Qi%Wei%NULL%3,                     Hanyu%Wang%NULL%1,                     Huiqing%Li%NULL%1,                     Juan%Zheng%NULL%1,                     Hui%Sun%NULL%1,                     Wenfang%Xia%NULL%1,                     Geng%Liu%NULL%1,                     Xueyu%Zhong%NULL%1,                     Kangli%Qiu%NULL%1,                     Yan%Li%NULL%1,                     Han%Wang%NULL%1,                     Yuxiu%Wang%NULL%1,                     Xiaoli%Song%NULL%1,                     Hua%Liu%NULL%1,                     Si%Xiong%NULL%1,                     Yumei%Liu%NULL%1,                     Zhenhai%Cui%NULL%1,                     Yu%Hu%NULL%6,                     Lulu%Chen%NULL%1,                     An%Pan%NULL%1,                     Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                     Qi%Wei%NULL%0,                     Willis X%Li%NULL%1,                     Karen C%McCowen%NULL%1,                     Wei%Xiong%NULL%2,                     Jiao%Liu%NULL%2,                     Wenlijun%Jiang%NULL%2,                     Traci%Marin%NULL%1,                     Robert L%Thomas%NULL%1,                     Ming%He%NULL%2,                     Brendan%Gongol%NULL%1,                     Mark%Hepokoski%NULL%2,                     Jason X-J%Yuan%NULL%1,                     John Y-J%Shyy%NULL%1,                     Nian%Xiong%NULL%0,                     Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                     Siyi%Xin%NULL%1,                     Yaqi%Chen%NULL%1,                     Leyu%Li%NULL%1,                     Wanjun%Chen%NULL%1,                     Wenjia%Li%NULL%1,                     Baoan%Zhou%NULL%1,                     Chenxia%Li%NULL%1,                     Yu%Gong%NULL%1,                     Fei%Li%NULL%1,                     Peng%Duan%NULL%1,                     Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                     John%Buse%NULL%2,                     John%Buse%NULL%0,                     Leonardo%Tamaritz%NULL%1,                     Ana%Palacio%NULL%2,                     Ken%Cohen%NULL%1,                     Deneen%Vojta%NULL%2,                     David%Liebovitz%NULL%1,                     Nia%Mitchell%NULL%1,                     Jacinda%Nicklas%NULL%1,                     Ildiko%Lingvay%NULL%1,                     Jeanne M.%Clark%NULL%1,                     Louis J.%Aronne%NULL%1,                     Erik%Anderson%NULL%1,                     Michael%Usher%NULL%1,                     Ryan%Demmer%NULL%1,                     Genevieve B.%Melton%NULL%1,                     Nicholas%Ingraham%NULL%1,                     Christopher J.%Tignanelli%NULL%2,                     Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                     In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                     Ana%Palacio%NULL%0,                     Elissa%Dawkins%NULL%1,                     Gordon%Chen%NULL%1,                     Daniel%McCarter%NULL%1,                     Emancia%Forbes%NULL%1,                     Brian%Chung%NULL%1,                     Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                     Qi%Wei%NULL%0,                     Karen C.%McCowen%NULL%1,                     Wei%Xiong%NULL%0,                     Jiao%Liu%NULL%0,                     Wenlijun%Jiang%NULL%0,                     Robert L.%Thomas%NULL%1,                     Mark%Hepokoski%NULL%0,                     Ming%He%NULL%0,                     John Y. J.%Shyy%NULL%1,                     Atul%Malhotra%NULL%0,                     Nian%Xiong%nianxiong@hust.edu.cn%0,                     Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                     T. A. N.%Reed%NULL%2,                     T. A. N.%Reed%NULL%0,                     M.%Ardissino%NULL%1,                     P.%Bassett%NULL%1,                     A. M.%Whittington%NULL%1,                     D. L.%Cohen%NULL%1,                     N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                     Walter%Distaso%NULL%2,                     Walter%Distaso%NULL%0,                     Anjali%Amin%NULL%1,                     Wei%Yang%NULL%1,                     Oluwagbemiga%Idowu%NULL%1,                     Julia S%Kenkre%NULL%1,                     Ronak J%Shah%NULL%1,                     Evelina%Woin%NULL%1,                     Christine%Shi%NULL%1,                     Nael%Alavi%NULL%2,                     Nael%Alavi%NULL%0,                     Hala%Bedri%NULL%1,                     Niamh%Brady%NULL%1,                     Sophie%Blackburn%NULL%1,                     Martina%Leczycka%NULL%1,                     Sanya%Patel%NULL%1,                     Elizaveta%Sokol%NULL%1,                     Edward%Toke-Bjolgerud%NULL%1,                     Ambreen%Qayum%NULL%1,                     Mariana%Abdel-Malek%NULL%1,                     David C D%Hope%NULL%1,                     Nick S%Oliver%NULL%1,                     Vasiliki%Bravis%NULL%1,                     Shivani%Misra%NULL%1,                     Tricia M%Tan%NULL%1,                     Neil E%Hill%NULL%2,                     Neil E%Hill%NULL%0,                     Victoria%Salem%NULL%2,                     Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                     Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                     Tiffany%Grimes%NULL%1,                     Peng%Li%NULL%1,                     Matthew%Might%NULL%1,                     Fernando%Ovalle%NULL%1,                     Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                     Nicholas E%Ingraham%NULL%1,                     Thomas A%Murray%NULL%1,                     Schelomo%Marmor%NULL%1,                     Shane%Hovertsen%NULL%1,                     Jessica%Gronski%NULL%1,                     Chace%McNeil%NULL%1,                     Ruoying%Feng%NULL%1,                     Gabriel%Guzman%NULL%1,                     Nermine%Abdelwahab%NULL%1,                     Samantha%King%NULL%1,                     Leonardo%Tamariz%NULL%0,                     Thomas%Meehan%NULL%1,                     Kathryn M%Pendleton%NULL%1,                     Bradley%Benson%NULL%1,                     Deneen%Vojta%NULL%0,                     Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                     Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                     Matthieu%Wargny%NULL%0,                     Matthieu%Wargny%NULL%0,                     Matthieu%Pichelin%NULL%0,                     Matthieu%Pichelin%NULL%0,                     Abdallah%Al-Salameh%NULL%0,                     Abdallah%Al-Salameh%NULL%0,                     Ingrid%Allix%NULL%0,                     Ingrid%Allix%NULL%0,                     Coralie%Amadou%NULL%0,                     Gwénaëlle%Arnault%NULL%2,                     Gwénaëlle%Arnault%NULL%0,                     Florence%Baudoux%NULL%1,                     Bernard%Bauduceau%NULL%1,                     Sophie%Borot%NULL%1,                     Muriel%Bourgeon-Ghittori%NULL%2,                     Muriel%Bourgeon-Ghittori%NULL%0,                     Olivier%Bourron%NULL%0,                     David%Boutoille%NULL%4,                     David%Boutoille%NULL%0,                     France%Cazenave-Roblot%NULL%3,                     France%Cazenave-Roblot%NULL%0,                     Claude%Chaumeil%NULL%2,                     Claude%Chaumeil%NULL%0,                     Emmanuel%Cosson%NULL%1,                     Sandrine%Coudol%NULL%2,                     Sandrine%Coudol%NULL%0,                     Patrice%Darmon%NULL%1,                     Emmanuel%Disse%NULL%2,                     Emmanuel%Disse%NULL%0,                     Amélie%Ducet-Boiffard%NULL%2,                     Amélie%Ducet-Boiffard%NULL%0,                     Bénédicte%Gaborit%NULL%1,                     Michael%Joubert%NULL%0,                     Michael%Joubert%NULL%0,                     Véronique%Kerlan%NULL%2,                     Véronique%Kerlan%NULL%0,                     Bruno%Laviolle%NULL%1,                     Lucien%Marchand%NULL%0,                     Lucien%Marchand%NULL%0,                     Laurent%Meyer%NULL%0,                     Laurent%Meyer%NULL%0,                     Louis%Potier%NULL%2,                     Louis%Potier%NULL%0,                     Gaëtan%Prevost%NULL%0,                     Gaëtan%Prevost%NULL%0,                     Jean-Pierre%Riveline%NULL%1,                     René%Robert%NULL%2,                     René%Robert%NULL%0,                     Pierre-Jean%Saulnier%NULL%0,                     Pierre-Jean%Saulnier%NULL%0,                     Ariane%Sultan%NULL%2,                     Ariane%Sultan%NULL%0,                     Jean-François%Thébaut%NULL%2,                     Jean-François%Thébaut%NULL%0,                     Charles%Thivolet%NULL%0,                     Charles%Thivolet%NULL%0,                     Blandine%Tramunt%NULL%2,                     Blandine%Tramunt%NULL%0,                     Camille%Vatier%NULL%0,                     Ronan%Roussel%NULL%0,                     Ronan%Roussel%NULL%0,                     Jean-François%Gautier%NULL%0,                     Jean-François%Gautier%NULL%0,                     Pierre%Gourdy%NULL%0,                     Pierre%Gourdy%NULL%0,                     NULL%NULL%NULL%0,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                     Peter%Knighton%NULL%1,                     Francesco%Zaccardi%NULL%2,                     Chirag%Bakhai%NULL%1,                     Emma%Barron%NULL%1,                     Naomi%Holman%NULL%1,                     Partha%Kar%NULL%1,                     Claire%Meace%NULL%1,                     Naveed%Sattar%NULL%1,                     Stephen%Sharp%NULL%1,                     Nicholas J%Wareham%NULL%1,                     Andy%Weaver%NULL%1,                     Emilia%Woch%NULL%1,                     Bob%Young%NULL%1,                     Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                     José David%Torres-Peña%NULL%1,                     María D.%López-Carmona%NULL%1,                     M. Mar.%Ayala-Gutiérrez%NULL%1,                     Francisco%Fuentes-Jiménez%NULL%1,                     Lucía Jorge%Huerta%NULL%1,                     Jaime Alonso%Muñoz%NULL%1,                     Manuel%Rubio-Rivas%NULL%1,                     Manel%Madrazo%NULL%1,                     Marcos Guzmán%Garcia%NULL%1,                     Beatriz Vicente%Montes%NULL%1,                     Joaquim Fernández%Sola%NULL%1,                     Javier%Ena%NULL%1,                     Ruth Gonzalez%Ferrer%NULL%1,                     Carmen Mella%Pérez%NULL%1,                     Carlos Jorge%Ripper%NULL%1,                     Jose Javier Napal%Lecumberri%NULL%1,                     Iris El Attar%Acedo%NULL%1,                     Susana Plaza%Canteli%NULL%1,                     Sara Fuente%Cosío%NULL%1,                     Francisco Amorós%Martínez%NULL%1,                     Begoña Cortés%Rodríguez%NULL%1,                     Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                     José Manuel%Ramos-Rincón%NULL%1,                     Ricardo%Gómez-Huelgas%NULL%1,                     NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                     Sang Won%Kim%NULL%1,                     Jong Won%Park%NULL%1,                     Kyu Hyang%Cho%NULL%1,                     Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Diabetes Association</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                     Philip%Tsoukas%NULL%1,                     Christopher W.%Halladay%NULL%1,                     Emily%O'Neill%NULL%1,                     Stefan%Gravenstein%NULL%1,                     James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                     Tao%Liu%NULL%2,                     Weijun%Zhong%NULL%1,                     Rong%Liu%NULL%1,                     Honghao%Zhou%NULL%1,                     Weihua%Huang%endeavor34852@aliyun.com%1,                     Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                     Jae-Han%Jeon%NULL%2,                     Jae-Han%Jeon%NULL%0,                     Sung-Woo%Kim%NULL%2,                     Sung-Woo%Kim%NULL%0,                     Jun Sung%Moon%NULL%1,                     Nan Hee%Cho%NULL%1,                     Eugene%Han%NULL%1,                     Ji Hong%You%NULL%1,                     Ji Yeon%Lee%NULL%4,                     Miri%Hyun%NULL%1,                     Jae Seok%Park%NULL%4,                     Yong Shik%Kwon%NULL%2,                     Yeon-Kyung%Choi%NULL%1,                     Ki Tae%Kwon%NULL%1,                     Shin Yup%Lee%NULL%1,                     Eon Ju%Jeon%NULL%1,                     Jin-Woo%Kim%NULL%1,                     Hyo-Lim%Hong%NULL%1,                     Hyun Hee%Kwon%NULL%1,                     Chi Young%Jung%NULL%1,                     Yin Young%Lee%NULL%1,                     Eunyeoung%Ha%NULL%1,                     Seung Min%Chung%NULL%1,                     Jian%Hur%NULL%2,                     June Hong%Ahn%NULL%3,                     Na-young%Kim%NULL%1,                     Shin-Woo%Kim%NULL%3,                     Hyun Ha%Chang%NULL%1,                     Yong Hoon%Lee%NULL%1,                     Jaehee%Lee%NULL%1,                     Keun-Gyu%Park%NULL%1,                     Hyun Ah%Kim%NULL%1,                     Ji-Hyun%Lee%NULL%2,                     Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                     Lin%Qiu%NULL%0,                     Yi%Liu%NULL%2,                     Xiu-lan%Liu%NULL%1,                     Jian-ling%Zheng%NULL%1,                     Hui-ying%Xue%NULL%1,                     Wen-hua%Liu%NULL%1,                     Dong%Liu%NULL%3,                     Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                      N.% Smati%null%1,                      C. S. J.% Wong%null%1,                      K.% Aspey%null%1,                      M. A. % Mendall%null%1,   Z.%Philipose%null%1,   N.% Smati%null%1,   C. S. J.% Wong%null%1,   K.% Aspey%null%1,   M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                      A.% Anisimovich%null%1,                      J.% Baxter%null%1,                      L.% Mackillop%null%1,                      M. P.% Vizcaychipi%null%1,                      A.% McCarthy%null%1,                      R. T. % Khan%null%1,   B.%Abu-Jamous%null%1,   A.% Anisimovich%null%1,   J.% Baxter%null%1,   L.% Mackillop%null%1,   M. P.% Vizcaychipi%null%1,   A.% McCarthy%null%1,   R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                      D.% Bates%null%1,                      J. M.% Fiskio%null%1,                      E. C.% Roche%null%1,                      S.% Mora%null%1,                      O. % Demler%null%1,   H. T.%Dashti%null%1,   D.% Bates%null%1,   J. M.% Fiskio%null%1,   E. C.% Roche%null%1,   S.% Mora%null%1,   O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                      Jennifer M%Cooper%NULL%2,                      Jennifer M%Cooper%NULL%0,                      Krishna%Gokhale%NULL%1,                      Dionisio%Acosta-Mena%NULL%1,                      Samir%Dhalla%NULL%1,                      Nathan%Byne%NULL%1,                      Joht Singh%Chandan%NULL%1,                      Astha%Anand%NULL%2,                      Astha%Anand%NULL%0,                      Kelvin%Okoth%NULL%1,                      Anuradhaa%Subramanian%NULL%2,                      Anuradhaa%Subramanian%NULL%0,                      Mansoor N%Bangash%NULL%1,                      Thomas%Jackson%NULL%2,                      Thomas%Jackson%NULL%0,                      Dawit%Zemedikun%NULL%2,                      Dawit%Zemedikun%NULL%0,                      Tom%Taverner%NULL%2,                      Tom%Taverner%NULL%0,                      Wasim%Hanif%NULL%1,                      Sandip%Ghosh%NULL%1,                      Parth%Narendran%NULL%1,                      Konstantinos A%Toulis%NULL%1,                      Abd A%Tahrani%NULL%2,                      Abd A%Tahrani%NULL%0,                      Rajendra%Surenthirakumaran%NULL%2,                      Rajendra%Surenthirakumaran%NULL%0,                      Nicola J%Adderley%NULL%1,                      Shamil%Haroon%NULL%2,                      Shamil%Haroon%NULL%0,                      Kamlesh%Khunti%NULL%4,                      Kamlesh%Khunti%NULL%0,                      Christopher%Sainsbury%NULL%2,                      Christopher%Sainsbury%NULL%0,                      G Neil%Thomas%NULL%1,                      Krishnarajah%Nirantharakumar%NULL%2,                      Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                      Thomas%Servais%NULL%1,                      Leïla%Belkhir%NULL%1,                      Pierre-François%Laterre%NULL%1,                      Jean-Paul%Thissen%NULL%1,                      Bernard%Vandeleene%NULL%1,                      Dominique%Maiter%NULL%1,                      Jean C.%Yombi%NULL%1,                      Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                      Abdallah%Al-Salameh%NULL%3,                      Samy%Hadjadj%NULL%3,                      Thomas%Goronflot%NULL%1,                      Nicolas%Wiernsperger%NULL%1,                      Matthieu%Pichelin%NULL%3,                      Ingrid%Allix%NULL%3,                      Coralie%Amadou%NULL%2,                      Olivier%Bourron%NULL%2,                      Thierry%Duriez%NULL%1,                      Jean-François%Gautier%NULL%3,                      Anne%Dutour%NULL%1,                      Céline%Gonfroy%NULL%1,                      Didier%Gouet%NULL%1,                      Michael%Joubert%NULL%3,                      Ingrid%Julier%NULL%1,                      Etienne%Larger%NULL%1,                      Lucien%Marchand%NULL%3,                      Michel%Marre%NULL%1,                      Laurent%Meyer%NULL%3,                      Frédérique%Olivier%NULL%1,                      Gaëtan%Prevost%NULL%3,                      Pascale%Quiniou%NULL%1,                      Christelle%Raffaitin-Cardin%NULL%1,                      Ronan%Roussel%NULL%3,                      Pierre-Jean%Saulnier%NULL%3,                      Dominique%Seret-Begue%NULL%1,                      Charles%Thivolet%NULL%3,                      Camille%Vatier%NULL%2,                      Rachel%Desailloud%NULL%1,                      Matthieu%Wargny%NULL%3,                      Pierre%Gourdy%NULL%3,                      Bertrand%Cariou%NULL%1,                      NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                      Zhenyuan%Chen%NULL%1,                      Li%Liu%NULL%3,                      Xiaoxv%Yin%NULL%1,                      Heping%Yang%NULL%1,                      Xiangping%Tan%NULL%1,                      Jing%Wang%NULL%2,                      Hui%Li%NULL%13,                      Mengge%Tian%NULL%1,                      Zuxun%Lu%NULL%1,                      Nian%Xiong%NULL%4,                      Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                      Ye-Mao%Liu%NULL%2,                      Haomiao%Li%NULL%1,                      Xin%Zhang%NULL%1,                      Fang%Lei%NULL%2,                      Juan-Juan%Qin%NULL%2,                      Ze%Chen%NULL%1,                      Ke-Qiong%Deng%NULL%1,                      Lijin%Lin%NULL%2,                      Ming-Ming%Chen%NULL%2,                      Xiaohui%Song%NULL%1,                      Meng%Xia%NULL%2,                      Xuewei%Huang%NULL%2,                      Weifang%Liu%NULL%1,                      Jingjing%Cai%NULL%2,                      Xiao-Jing%Zhang%NULL%2,                      Feng%Zhou%NULL%1,                      Peng%Zhang%NULL%1,                      Yibin%Wang%NULL%2,                      Xinliang%Ma%NULL%1,                      Qingbo%Xu%NULL%2,                      Juan%Yang%NULL%3,                      Ping%Ye%NULL%2,                      Weiming%Mao%NULL%2,                      Xiaodong%Huang%NULL%2,                      Jiahong%Xia%NULL%2,                      Bing-Hong%Zhang%NULL%2,                      Jiao%Guo%NULL%1,                      Lihua%Zhu%NULL%2,                      Zhibing%Lu%NULL%3,                      Yufeng%Yuan%NULL%2,                      Xiang%Wei%NULL%1,                      Zhi-Gang%She%NULL%2,                      Yan-Xiao%Ji%NULL%2,                      Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                      Xi%Bai%NULL%1,                      Xia%Han%NULL%1,                      Wangyan%Jiang%NULL%1,                      Lin%Qiu%NULL%2,                      Shi%Chen%NULL%1,                      Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                      Yanhong%Wei%NULL%1,                      Min%Chen%NULL%1,                      Qianqian%Wan%NULL%1,                      Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                      Matteo%Monami%NULL%1,                      Achille%Cernigliaro%NULL%1,                      Enrica%Vigneri%NULL%1,                      Valentina%Guarnotta%NULL%1,                      Salvatore%Scondotto%NULL%1,                      Vincenza A.%Allotta%NULL%1,                      Michela%Conti%NULL%1,                      Carla%Giordano%NULL%1,                      Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                      Wen%Kong%NULL%1,                      Pengfei%Xia%NULL%1,                      Ying%Xu%NULL%1,                      Li%Li%NULL%3,                      Qin%Li%NULL%1,                      Li%Yang%NULL%3,                      Qi%Wei%NULL%3,                      Hanyu%Wang%NULL%1,                      Huiqing%Li%NULL%1,                      Juan%Zheng%NULL%1,                      Hui%Sun%NULL%1,                      Wenfang%Xia%NULL%1,                      Geng%Liu%NULL%1,                      Xueyu%Zhong%NULL%1,                      Kangli%Qiu%NULL%1,                      Yan%Li%NULL%1,                      Han%Wang%NULL%1,                      Yuxiu%Wang%NULL%1,                      Xiaoli%Song%NULL%1,                      Hua%Liu%NULL%1,                      Si%Xiong%NULL%1,                      Yumei%Liu%NULL%1,                      Zhenhai%Cui%NULL%1,                      Yu%Hu%NULL%6,                      Lulu%Chen%NULL%1,                      An%Pan%NULL%1,                      Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                      Qi%Wei%NULL%0,                      Willis X%Li%NULL%1,                      Karen C%McCowen%NULL%1,                      Wei%Xiong%NULL%2,                      Jiao%Liu%NULL%2,                      Wenlijun%Jiang%NULL%2,                      Traci%Marin%NULL%1,                      Robert L%Thomas%NULL%1,                      Ming%He%NULL%2,                      Brendan%Gongol%NULL%1,                      Mark%Hepokoski%NULL%2,                      Jason X-J%Yuan%NULL%1,                      John Y-J%Shyy%NULL%1,                      Nian%Xiong%NULL%0,                      Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                      Siyi%Xin%NULL%1,                      Yaqi%Chen%NULL%1,                      Leyu%Li%NULL%1,                      Wanjun%Chen%NULL%1,                      Wenjia%Li%NULL%1,                      Baoan%Zhou%NULL%1,                      Chenxia%Li%NULL%1,                      Yu%Gong%NULL%1,                      Fei%Li%NULL%1,                      Peng%Duan%NULL%1,                      Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                      John%Buse%NULL%2,                      John%Buse%NULL%0,                      Leonardo%Tamaritz%NULL%1,                      Ana%Palacio%NULL%2,                      Ken%Cohen%NULL%1,                      Deneen%Vojta%NULL%2,                      David%Liebovitz%NULL%1,                      Nia%Mitchell%NULL%1,                      Jacinda%Nicklas%NULL%1,                      Ildiko%Lingvay%NULL%1,                      Jeanne M.%Clark%NULL%1,                      Louis J.%Aronne%NULL%1,                      Erik%Anderson%NULL%1,                      Michael%Usher%NULL%1,                      Ryan%Demmer%NULL%1,                      Genevieve B.%Melton%NULL%1,                      Nicholas%Ingraham%NULL%1,                      Christopher J.%Tignanelli%NULL%2,                      Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                      In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                      Ana%Palacio%NULL%0,                      Elissa%Dawkins%NULL%1,                      Gordon%Chen%NULL%1,                      Daniel%McCarter%NULL%1,                      Emancia%Forbes%NULL%1,                      Brian%Chung%NULL%1,                      Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                      Qi%Wei%NULL%0,                      Karen C.%McCowen%NULL%1,                      Wei%Xiong%NULL%0,                      Jiao%Liu%NULL%0,                      Wenlijun%Jiang%NULL%0,                      Robert L.%Thomas%NULL%1,                      Mark%Hepokoski%NULL%0,                      Ming%He%NULL%0,                      John Y. J.%Shyy%NULL%1,                      Atul%Malhotra%NULL%0,                      Nian%Xiong%nianxiong@hust.edu.cn%0,                      Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                      T. A. N.%Reed%NULL%2,                      T. A. N.%Reed%NULL%0,                      M.%Ardissino%NULL%1,                      P.%Bassett%NULL%1,                      A. M.%Whittington%NULL%1,                      D. L.%Cohen%NULL%1,                      N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                      Walter%Distaso%NULL%2,                      Walter%Distaso%NULL%0,                      Anjali%Amin%NULL%1,                      Wei%Yang%NULL%1,                      Oluwagbemiga%Idowu%NULL%1,                      Julia S%Kenkre%NULL%1,                      Ronak J%Shah%NULL%1,                      Evelina%Woin%NULL%1,                      Christine%Shi%NULL%1,                      Nael%Alavi%NULL%2,                      Nael%Alavi%NULL%0,                      Hala%Bedri%NULL%1,                      Niamh%Brady%NULL%1,                      Sophie%Blackburn%NULL%1,                      Martina%Leczycka%NULL%1,                      Sanya%Patel%NULL%1,                      Elizaveta%Sokol%NULL%1,                      Edward%Toke-Bjolgerud%NULL%1,                      Ambreen%Qayum%NULL%1,                      Mariana%Abdel-Malek%NULL%1,                      David C D%Hope%NULL%1,                      Nick S%Oliver%NULL%1,                      Vasiliki%Bravis%NULL%1,                      Shivani%Misra%NULL%1,                      Tricia M%Tan%NULL%1,                      Neil E%Hill%NULL%2,                      Neil E%Hill%NULL%0,                      Victoria%Salem%NULL%2,                      Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                      Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                      Tiffany%Grimes%NULL%1,                      Peng%Li%NULL%1,                      Matthew%Might%NULL%1,                      Fernando%Ovalle%NULL%1,                      Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                      Nicholas E%Ingraham%NULL%1,                      Thomas A%Murray%NULL%1,                      Schelomo%Marmor%NULL%1,                      Shane%Hovertsen%NULL%1,                      Jessica%Gronski%NULL%1,                      Chace%McNeil%NULL%1,                      Ruoying%Feng%NULL%1,                      Gabriel%Guzman%NULL%1,                      Nermine%Abdelwahab%NULL%1,                      Samantha%King%NULL%1,                      Leonardo%Tamariz%NULL%0,                      Thomas%Meehan%NULL%1,                      Kathryn M%Pendleton%NULL%1,                      Bradley%Benson%NULL%1,                      Deneen%Vojta%NULL%0,                      Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                      Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                      Matthieu%Wargny%NULL%0,                      Matthieu%Wargny%NULL%0,                      Matthieu%Pichelin%NULL%0,                      Matthieu%Pichelin%NULL%0,                      Abdallah%Al-Salameh%NULL%0,                      Abdallah%Al-Salameh%NULL%0,                      Ingrid%Allix%NULL%0,                      Ingrid%Allix%NULL%0,                      Coralie%Amadou%NULL%0,                      Gwénaëlle%Arnault%NULL%2,                      Gwénaëlle%Arnault%NULL%0,                      Florence%Baudoux%NULL%1,                      Bernard%Bauduceau%NULL%1,                      Sophie%Borot%NULL%1,                      Muriel%Bourgeon-Ghittori%NULL%2,                      Muriel%Bourgeon-Ghittori%NULL%0,                      Olivier%Bourron%NULL%0,                      David%Boutoille%NULL%4,                      David%Boutoille%NULL%0,                      France%Cazenave-Roblot%NULL%3,                      France%Cazenave-Roblot%NULL%0,                      Claude%Chaumeil%NULL%2,                      Claude%Chaumeil%NULL%0,                      Emmanuel%Cosson%NULL%1,                      Sandrine%Coudol%NULL%2,                      Sandrine%Coudol%NULL%0,                      Patrice%Darmon%NULL%1,                      Emmanuel%Disse%NULL%2,                      Emmanuel%Disse%NULL%0,                      Amélie%Ducet-Boiffard%NULL%2,                      Amélie%Ducet-Boiffard%NULL%0,                      Bénédicte%Gaborit%NULL%1,                      Michael%Joubert%NULL%0,                      Michael%Joubert%NULL%0,                      Véronique%Kerlan%NULL%2,                      Véronique%Kerlan%NULL%0,                      Bruno%Laviolle%NULL%1,                      Lucien%Marchand%NULL%0,                      Lucien%Marchand%NULL%0,                      Laurent%Meyer%NULL%0,                      Laurent%Meyer%NULL%0,                      Louis%Potier%NULL%2,                      Louis%Potier%NULL%0,                      Gaëtan%Prevost%NULL%0,                      Gaëtan%Prevost%NULL%0,                      Jean-Pierre%Riveline%NULL%1,                      René%Robert%NULL%2,                      René%Robert%NULL%0,                      Pierre-Jean%Saulnier%NULL%0,                      Pierre-Jean%Saulnier%NULL%0,                      Ariane%Sultan%NULL%2,                      Ariane%Sultan%NULL%0,                      Jean-François%Thébaut%NULL%2,                      Jean-François%Thébaut%NULL%0,                      Charles%Thivolet%NULL%0,                      Charles%Thivolet%NULL%0,                      Blandine%Tramunt%NULL%2,                      Blandine%Tramunt%NULL%0,                      Camille%Vatier%NULL%0,                      Ronan%Roussel%NULL%0,                      Ronan%Roussel%NULL%0,                      Jean-François%Gautier%NULL%0,                      Jean-François%Gautier%NULL%0,                      Pierre%Gourdy%NULL%0,                      Pierre%Gourdy%NULL%0,                      NULL%NULL%NULL%0,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                      Peter%Knighton%NULL%1,                      Francesco%Zaccardi%NULL%2,                      Chirag%Bakhai%NULL%1,                      Emma%Barron%NULL%1,                      Naomi%Holman%NULL%1,                      Partha%Kar%NULL%1,                      Claire%Meace%NULL%1,                      Naveed%Sattar%NULL%1,                      Stephen%Sharp%NULL%1,                      Nicholas J%Wareham%NULL%1,                      Andy%Weaver%NULL%1,                      Emilia%Woch%NULL%1,                      Bob%Young%NULL%1,                      Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                      José David%Torres-Peña%NULL%1,                      María D.%López-Carmona%NULL%1,                      M. Mar.%Ayala-Gutiérrez%NULL%1,                      Francisco%Fuentes-Jiménez%NULL%1,                      Lucía Jorge%Huerta%NULL%1,                      Jaime Alonso%Muñoz%NULL%1,                      Manuel%Rubio-Rivas%NULL%1,                      Manel%Madrazo%NULL%1,                      Marcos Guzmán%Garcia%NULL%1,                      Beatriz Vicente%Montes%NULL%1,                      Joaquim Fernández%Sola%NULL%1,                      Javier%Ena%NULL%1,                      Ruth Gonzalez%Ferrer%NULL%1,                      Carmen Mella%Pérez%NULL%1,                      Carlos Jorge%Ripper%NULL%1,                      Jose Javier Napal%Lecumberri%NULL%1,                      Iris El Attar%Acedo%NULL%1,                      Susana Plaza%Canteli%NULL%1,                      Sara Fuente%Cosío%NULL%1,                      Francisco Amorós%Martínez%NULL%1,                      Begoña Cortés%Rodríguez%NULL%1,                      Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                      José Manuel%Ramos-Rincón%NULL%1,                      Ricardo%Gómez-Huelgas%NULL%1,                      NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                      Sang Won%Kim%NULL%1,                      Jong Won%Park%NULL%1,                      Kyu Hyang%Cho%NULL%1,                      Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                      Philip%Tsoukas%NULL%1,                      Christopher W.%Halladay%NULL%1,                      Emily%O'Neill%NULL%1,                      Stefan%Gravenstein%NULL%1,                      James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                      Tao%Liu%NULL%2,                      Weijun%Zhong%NULL%1,                      Rong%Liu%NULL%1,                      Honghao%Zhou%NULL%1,                      Weihua%Huang%endeavor34852@aliyun.com%1,                      Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                      Jae-Han%Jeon%NULL%2,                      Jae-Han%Jeon%NULL%0,                      Sung-Woo%Kim%NULL%2,                      Sung-Woo%Kim%NULL%0,                      Jun Sung%Moon%NULL%1,                      Nan Hee%Cho%NULL%1,                      Eugene%Han%NULL%1,                      Ji Hong%You%NULL%1,                      Ji Yeon%Lee%NULL%4,                      Miri%Hyun%NULL%1,                      Jae Seok%Park%NULL%4,                      Yong Shik%Kwon%NULL%2,                      Yeon-Kyung%Choi%NULL%1,                      Ki Tae%Kwon%NULL%1,                      Shin Yup%Lee%NULL%1,                      Eon Ju%Jeon%NULL%1,                      Jin-Woo%Kim%NULL%1,                      Hyo-Lim%Hong%NULL%1,                      Hyun Hee%Kwon%NULL%1,                      Chi Young%Jung%NULL%1,                      Yin Young%Lee%NULL%1,                      Eunyeoung%Ha%NULL%1,                      Seung Min%Chung%NULL%1,                      Jian%Hur%NULL%2,                      June Hong%Ahn%NULL%3,                      Na-young%Kim%NULL%1,                      Shin-Woo%Kim%NULL%3,                      Hyun Ha%Chang%NULL%1,                      Yong Hoon%Lee%NULL%1,                      Jaehee%Lee%NULL%1,                      Keun-Gyu%Park%NULL%1,                      Hyun Ah%Kim%NULL%1,                      Ji-Hyun%Lee%NULL%2,                      Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                      Lin%Qiu%NULL%0,                      Yi%Liu%NULL%2,                      Xiu-lan%Liu%NULL%1,                      Jian-ling%Zheng%NULL%1,                      Hui-ying%Xue%NULL%1,                      Wen-hua%Liu%NULL%1,                      Dong%Liu%NULL%3,                      Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                       N.% Smati%null%1,                       C. S. J.% Wong%null%1,                       K.% Aspey%null%1,                       M. A. % Mendall%null%1,    Z.%Philipose%null%1,    N.% Smati%null%1,    C. S. J.% Wong%null%1,    K.% Aspey%null%1,    M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                       A.% Anisimovich%null%1,                       J.% Baxter%null%1,                       L.% Mackillop%null%1,                       M. P.% Vizcaychipi%null%1,                       A.% McCarthy%null%1,                       R. T. % Khan%null%1,    B.%Abu-Jamous%null%1,    A.% Anisimovich%null%1,    J.% Baxter%null%1,    L.% Mackillop%null%1,    M. P.% Vizcaychipi%null%1,    A.% McCarthy%null%1,    R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                       D.% Bates%null%1,                       J. M.% Fiskio%null%1,                       E. C.% Roche%null%1,                       S.% Mora%null%1,                       O. % Demler%null%1,    H. T.%Dashti%null%1,    D.% Bates%null%1,    J. M.% Fiskio%null%1,    E. C.% Roche%null%1,    S.% Mora%null%1,    O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                       Jennifer M%Cooper%NULL%2,                       Jennifer M%Cooper%NULL%0,                       Krishna%Gokhale%NULL%1,                       Dionisio%Acosta-Mena%NULL%1,                       Samir%Dhalla%NULL%1,                       Nathan%Byne%NULL%1,                       Joht Singh%Chandan%NULL%1,                       Astha%Anand%NULL%2,                       Astha%Anand%NULL%0,                       Kelvin%Okoth%NULL%1,                       Anuradhaa%Subramanian%NULL%2,                       Anuradhaa%Subramanian%NULL%0,                       Mansoor N%Bangash%NULL%1,                       Thomas%Jackson%NULL%2,                       Thomas%Jackson%NULL%0,                       Dawit%Zemedikun%NULL%2,                       Dawit%Zemedikun%NULL%0,                       Tom%Taverner%NULL%2,                       Tom%Taverner%NULL%0,                       Wasim%Hanif%NULL%1,                       Sandip%Ghosh%NULL%1,                       Parth%Narendran%NULL%1,                       Konstantinos A%Toulis%NULL%1,                       Abd A%Tahrani%NULL%2,                       Abd A%Tahrani%NULL%0,                       Rajendra%Surenthirakumaran%NULL%2,                       Rajendra%Surenthirakumaran%NULL%0,                       Nicola J%Adderley%NULL%1,                       Shamil%Haroon%NULL%2,                       Shamil%Haroon%NULL%0,                       Kamlesh%Khunti%NULL%4,                       Kamlesh%Khunti%NULL%0,                       Christopher%Sainsbury%NULL%2,                       Christopher%Sainsbury%NULL%0,                       G Neil%Thomas%NULL%1,                       Krishnarajah%Nirantharakumar%NULL%2,                       Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                       Thomas%Servais%NULL%1,                       Leïla%Belkhir%NULL%1,                       Pierre-François%Laterre%NULL%1,                       Jean-Paul%Thissen%NULL%1,                       Bernard%Vandeleene%NULL%1,                       Dominique%Maiter%NULL%1,                       Jean C.%Yombi%NULL%1,                       Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                       Abdallah%Al-Salameh%NULL%3,                       Samy%Hadjadj%NULL%3,                       Thomas%Goronflot%NULL%1,                       Nicolas%Wiernsperger%NULL%1,                       Matthieu%Pichelin%NULL%3,                       Ingrid%Allix%NULL%3,                       Coralie%Amadou%NULL%2,                       Olivier%Bourron%NULL%2,                       Thierry%Duriez%NULL%1,                       Jean-François%Gautier%NULL%3,                       Anne%Dutour%NULL%1,                       Céline%Gonfroy%NULL%1,                       Didier%Gouet%NULL%1,                       Michael%Joubert%NULL%3,                       Ingrid%Julier%NULL%1,                       Etienne%Larger%NULL%1,                       Lucien%Marchand%NULL%3,                       Michel%Marre%NULL%1,                       Laurent%Meyer%NULL%3,                       Frédérique%Olivier%NULL%1,                       Gaëtan%Prevost%NULL%3,                       Pascale%Quiniou%NULL%1,                       Christelle%Raffaitin-Cardin%NULL%1,                       Ronan%Roussel%NULL%3,                       Pierre-Jean%Saulnier%NULL%3,                       Dominique%Seret-Begue%NULL%1,                       Charles%Thivolet%NULL%3,                       Camille%Vatier%NULL%2,                       Rachel%Desailloud%NULL%1,                       Matthieu%Wargny%NULL%3,                       Pierre%Gourdy%NULL%3,                       Bertrand%Cariou%NULL%1,                       NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                       Zhenyuan%Chen%NULL%1,                       Li%Liu%NULL%3,                       Xiaoxv%Yin%NULL%1,                       Heping%Yang%NULL%1,                       Xiangping%Tan%NULL%1,                       Jing%Wang%NULL%2,                       Hui%Li%NULL%13,                       Mengge%Tian%NULL%1,                       Zuxun%Lu%NULL%1,                       Nian%Xiong%NULL%4,                       Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                       Ye-Mao%Liu%NULL%2,                       Haomiao%Li%NULL%1,                       Xin%Zhang%NULL%1,                       Fang%Lei%NULL%2,                       Juan-Juan%Qin%NULL%2,                       Ze%Chen%NULL%1,                       Ke-Qiong%Deng%NULL%1,                       Lijin%Lin%NULL%2,                       Ming-Ming%Chen%NULL%2,                       Xiaohui%Song%NULL%1,                       Meng%Xia%NULL%2,                       Xuewei%Huang%NULL%2,                       Weifang%Liu%NULL%1,                       Jingjing%Cai%NULL%2,                       Xiao-Jing%Zhang%NULL%2,                       Feng%Zhou%NULL%1,                       Peng%Zhang%NULL%1,                       Yibin%Wang%NULL%2,                       Xinliang%Ma%NULL%1,                       Qingbo%Xu%NULL%2,                       Juan%Yang%NULL%3,                       Ping%Ye%NULL%2,                       Weiming%Mao%NULL%2,                       Xiaodong%Huang%NULL%2,                       Jiahong%Xia%NULL%2,                       Bing-Hong%Zhang%NULL%2,                       Jiao%Guo%NULL%1,                       Lihua%Zhu%NULL%2,                       Zhibing%Lu%NULL%3,                       Yufeng%Yuan%NULL%2,                       Xiang%Wei%NULL%1,                       Zhi-Gang%She%NULL%2,                       Yan-Xiao%Ji%NULL%2,                       Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                       Xi%Bai%NULL%1,                       Xia%Han%NULL%1,                       Wangyan%Jiang%NULL%1,                       Lin%Qiu%NULL%2,                       Shi%Chen%NULL%1,                       Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                       Yanhong%Wei%NULL%1,                       Min%Chen%NULL%1,                       Qianqian%Wan%NULL%1,                       Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                       Matteo%Monami%NULL%1,                       Achille%Cernigliaro%NULL%1,                       Enrica%Vigneri%NULL%1,                       Valentina%Guarnotta%NULL%1,                       Salvatore%Scondotto%NULL%1,                       Vincenza A.%Allotta%NULL%1,                       Michela%Conti%NULL%1,                       Carla%Giordano%NULL%1,                       Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                       Wen%Kong%NULL%1,                       Pengfei%Xia%NULL%1,                       Ying%Xu%NULL%1,                       Li%Li%NULL%3,                       Qin%Li%NULL%1,                       Li%Yang%NULL%3,                       Qi%Wei%NULL%3,                       Hanyu%Wang%NULL%1,                       Huiqing%Li%NULL%1,                       Juan%Zheng%NULL%1,                       Hui%Sun%NULL%1,                       Wenfang%Xia%NULL%1,                       Geng%Liu%NULL%1,                       Xueyu%Zhong%NULL%1,                       Kangli%Qiu%NULL%1,                       Yan%Li%NULL%1,                       Han%Wang%NULL%1,                       Yuxiu%Wang%NULL%1,                       Xiaoli%Song%NULL%1,                       Hua%Liu%NULL%1,                       Si%Xiong%NULL%1,                       Yumei%Liu%NULL%1,                       Zhenhai%Cui%NULL%1,                       Yu%Hu%NULL%6,                       Lulu%Chen%NULL%1,                       An%Pan%NULL%1,                       Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                       Qi%Wei%NULL%0,                       Willis X%Li%NULL%1,                       Karen C%McCowen%NULL%1,                       Wei%Xiong%NULL%2,                       Jiao%Liu%NULL%2,                       Wenlijun%Jiang%NULL%2,                       Traci%Marin%NULL%1,                       Robert L%Thomas%NULL%1,                       Ming%He%NULL%2,                       Brendan%Gongol%NULL%1,                       Mark%Hepokoski%NULL%2,                       Jason X-J%Yuan%NULL%1,                       John Y-J%Shyy%NULL%1,                       Nian%Xiong%NULL%0,                       Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                       Siyi%Xin%NULL%1,                       Yaqi%Chen%NULL%1,                       Leyu%Li%NULL%1,                       Wanjun%Chen%NULL%1,                       Wenjia%Li%NULL%1,                       Baoan%Zhou%NULL%1,                       Chenxia%Li%NULL%1,                       Yu%Gong%NULL%1,                       Fei%Li%NULL%1,                       Peng%Duan%NULL%1,                       Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                       John%Buse%NULL%2,                       John%Buse%NULL%0,                       Leonardo%Tamaritz%NULL%1,                       Ana%Palacio%NULL%2,                       Ken%Cohen%NULL%1,                       Deneen%Vojta%NULL%2,                       David%Liebovitz%NULL%1,                       Nia%Mitchell%NULL%1,                       Jacinda%Nicklas%NULL%1,                       Ildiko%Lingvay%NULL%1,                       Jeanne M.%Clark%NULL%1,                       Louis J.%Aronne%NULL%1,                       Erik%Anderson%NULL%1,                       Michael%Usher%NULL%1,                       Ryan%Demmer%NULL%1,                       Genevieve B.%Melton%NULL%1,                       Nicholas%Ingraham%NULL%1,                       Christopher J.%Tignanelli%NULL%2,                       Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                       In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                       Ana%Palacio%NULL%0,                       Elissa%Dawkins%NULL%1,                       Gordon%Chen%NULL%1,                       Daniel%McCarter%NULL%1,                       Emancia%Forbes%NULL%1,                       Brian%Chung%NULL%1,                       Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                       Qi%Wei%NULL%0,                       Karen C.%McCowen%NULL%1,                       Wei%Xiong%NULL%0,                       Jiao%Liu%NULL%0,                       Wenlijun%Jiang%NULL%0,                       Robert L.%Thomas%NULL%1,                       Mark%Hepokoski%NULL%0,                       Ming%He%NULL%0,                       John Y. J.%Shyy%NULL%1,                       Atul%Malhotra%NULL%0,                       Nian%Xiong%nianxiong@hust.edu.cn%0,                       Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                       T. A. N.%Reed%NULL%2,                       T. A. N.%Reed%NULL%0,                       M.%Ardissino%NULL%1,                       P.%Bassett%NULL%1,                       A. M.%Whittington%NULL%1,                       D. L.%Cohen%NULL%1,                       N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                       Walter%Distaso%NULL%2,                       Walter%Distaso%NULL%0,                       Anjali%Amin%NULL%1,                       Wei%Yang%NULL%1,                       Oluwagbemiga%Idowu%NULL%1,                       Julia S%Kenkre%NULL%1,                       Ronak J%Shah%NULL%1,                       Evelina%Woin%NULL%1,                       Christine%Shi%NULL%1,                       Nael%Alavi%NULL%2,                       Nael%Alavi%NULL%0,                       Hala%Bedri%NULL%1,                       Niamh%Brady%NULL%1,                       Sophie%Blackburn%NULL%1,                       Martina%Leczycka%NULL%1,                       Sanya%Patel%NULL%1,                       Elizaveta%Sokol%NULL%1,                       Edward%Toke-Bjolgerud%NULL%1,                       Ambreen%Qayum%NULL%1,                       Mariana%Abdel-Malek%NULL%1,                       David C D%Hope%NULL%1,                       Nick S%Oliver%NULL%1,                       Vasiliki%Bravis%NULL%1,                       Shivani%Misra%NULL%1,                       Tricia M%Tan%NULL%1,                       Neil E%Hill%NULL%2,                       Neil E%Hill%NULL%0,                       Victoria%Salem%NULL%2,                       Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                       Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                       Tiffany%Grimes%NULL%1,                       Peng%Li%NULL%1,                       Matthew%Might%NULL%1,                       Fernando%Ovalle%NULL%1,                       Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                       Nicholas E%Ingraham%NULL%1,                       Thomas A%Murray%NULL%1,                       Schelomo%Marmor%NULL%1,                       Shane%Hovertsen%NULL%1,                       Jessica%Gronski%NULL%1,                       Chace%McNeil%NULL%1,                       Ruoying%Feng%NULL%1,                       Gabriel%Guzman%NULL%1,                       Nermine%Abdelwahab%NULL%1,                       Samantha%King%NULL%1,                       Leonardo%Tamariz%NULL%0,                       Thomas%Meehan%NULL%1,                       Kathryn M%Pendleton%NULL%1,                       Bradley%Benson%NULL%1,                       Deneen%Vojta%NULL%0,                       Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                       Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                       Matthieu%Wargny%NULL%0,                       Matthieu%Wargny%NULL%0,                       Matthieu%Pichelin%NULL%0,                       Matthieu%Pichelin%NULL%0,                       Abdallah%Al-Salameh%NULL%0,                       Abdallah%Al-Salameh%NULL%0,                       Ingrid%Allix%NULL%0,                       Ingrid%Allix%NULL%0,                       Coralie%Amadou%NULL%0,                       Gwénaëlle%Arnault%NULL%2,                       Gwénaëlle%Arnault%NULL%0,                       Florence%Baudoux%NULL%1,                       Bernard%Bauduceau%NULL%1,                       Sophie%Borot%NULL%1,                       Muriel%Bourgeon-Ghittori%NULL%2,                       Muriel%Bourgeon-Ghittori%NULL%0,                       Olivier%Bourron%NULL%0,                       David%Boutoille%NULL%4,                       David%Boutoille%NULL%0,                       France%Cazenave-Roblot%NULL%3,                       France%Cazenave-Roblot%NULL%0,                       Claude%Chaumeil%NULL%2,                       Claude%Chaumeil%NULL%0,                       Emmanuel%Cosson%NULL%1,                       Sandrine%Coudol%NULL%2,                       Sandrine%Coudol%NULL%0,                       Patrice%Darmon%NULL%1,                       Emmanuel%Disse%NULL%2,                       Emmanuel%Disse%NULL%0,                       Amélie%Ducet-Boiffard%NULL%2,                       Amélie%Ducet-Boiffard%NULL%0,                       Bénédicte%Gaborit%NULL%1,                       Michael%Joubert%NULL%0,                       Michael%Joubert%NULL%0,                       Véronique%Kerlan%NULL%2,                       Véronique%Kerlan%NULL%0,                       Bruno%Laviolle%NULL%1,                       Lucien%Marchand%NULL%0,                       Lucien%Marchand%NULL%0,                       Laurent%Meyer%NULL%0,                       Laurent%Meyer%NULL%0,                       Louis%Potier%NULL%2,                       Louis%Potier%NULL%0,                       Gaëtan%Prevost%NULL%0,                       Gaëtan%Prevost%NULL%0,                       Jean-Pierre%Riveline%NULL%1,                       René%Robert%NULL%2,                       René%Robert%NULL%0,                       Pierre-Jean%Saulnier%NULL%0,                       Pierre-Jean%Saulnier%NULL%0,                       Ariane%Sultan%NULL%2,                       Ariane%Sultan%NULL%0,                       Jean-François%Thébaut%NULL%2,                       Jean-François%Thébaut%NULL%0,                       Charles%Thivolet%NULL%0,                       Charles%Thivolet%NULL%0,                       Blandine%Tramunt%NULL%2,                       Blandine%Tramunt%NULL%0,                       Camille%Vatier%NULL%0,                       Ronan%Roussel%NULL%0,                       Ronan%Roussel%NULL%0,                       Jean-François%Gautier%NULL%0,                       Jean-François%Gautier%NULL%0,                       Pierre%Gourdy%NULL%0,                       Pierre%Gourdy%NULL%0,                       NULL%NULL%NULL%0,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                       Peter%Knighton%NULL%1,                       Francesco%Zaccardi%NULL%2,                       Chirag%Bakhai%NULL%1,                       Emma%Barron%NULL%1,                       Naomi%Holman%NULL%1,                       Partha%Kar%NULL%1,                       Claire%Meace%NULL%1,                       Naveed%Sattar%NULL%1,                       Stephen%Sharp%NULL%1,                       Nicholas J%Wareham%NULL%1,                       Andy%Weaver%NULL%1,                       Emilia%Woch%NULL%1,                       Bob%Young%NULL%1,                       Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                       José David%Torres-Peña%NULL%1,                       María D.%López-Carmona%NULL%1,                       M. Mar.%Ayala-Gutiérrez%NULL%1,                       Francisco%Fuentes-Jiménez%NULL%1,                       Lucía Jorge%Huerta%NULL%1,                       Jaime Alonso%Muñoz%NULL%1,                       Manuel%Rubio-Rivas%NULL%1,                       Manel%Madrazo%NULL%1,                       Marcos Guzmán%Garcia%NULL%1,                       Beatriz Vicente%Montes%NULL%1,                       Joaquim Fernández%Sola%NULL%1,                       Javier%Ena%NULL%1,                       Ruth Gonzalez%Ferrer%NULL%1,                       Carmen Mella%Pérez%NULL%1,                       Carlos Jorge%Ripper%NULL%1,                       Jose Javier Napal%Lecumberri%NULL%1,                       Iris El Attar%Acedo%NULL%1,                       Susana Plaza%Canteli%NULL%1,                       Sara Fuente%Cosío%NULL%1,                       Francisco Amorós%Martínez%NULL%1,                       Begoña Cortés%Rodríguez%NULL%1,                       Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                       José Manuel%Ramos-Rincón%NULL%1,                       Ricardo%Gómez-Huelgas%NULL%1,                       NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                       Sang Won%Kim%NULL%1,                       Jong Won%Park%NULL%1,                       Kyu Hyang%Cho%NULL%1,                       Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                       Philip%Tsoukas%NULL%1,                       Christopher W.%Halladay%NULL%1,                       Emily%O'Neill%NULL%1,                       Stefan%Gravenstein%NULL%1,                       James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                       Tao%Liu%NULL%2,                       Weijun%Zhong%NULL%1,                       Rong%Liu%NULL%1,                       Honghao%Zhou%NULL%1,                       Weihua%Huang%endeavor34852@aliyun.com%1,                       Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                       Jae-Han%Jeon%NULL%2,                       Jae-Han%Jeon%NULL%0,                       Sung-Woo%Kim%NULL%2,                       Sung-Woo%Kim%NULL%0,                       Jun Sung%Moon%NULL%1,                       Nan Hee%Cho%NULL%1,                       Eugene%Han%NULL%1,                       Ji Hong%You%NULL%1,                       Ji Yeon%Lee%NULL%4,                       Miri%Hyun%NULL%1,                       Jae Seok%Park%NULL%4,                       Yong Shik%Kwon%NULL%2,                       Yeon-Kyung%Choi%NULL%1,                       Ki Tae%Kwon%NULL%1,                       Shin Yup%Lee%NULL%1,                       Eon Ju%Jeon%NULL%1,                       Jin-Woo%Kim%NULL%1,                       Hyo-Lim%Hong%NULL%1,                       Hyun Hee%Kwon%NULL%1,                       Chi Young%Jung%NULL%1,                       Yin Young%Lee%NULL%1,                       Eunyeoung%Ha%NULL%1,                       Seung Min%Chung%NULL%1,                       Jian%Hur%NULL%2,                       June Hong%Ahn%NULL%3,                       Na-young%Kim%NULL%1,                       Shin-Woo%Kim%NULL%3,                       Hyun Ha%Chang%NULL%1,                       Yong Hoon%Lee%NULL%1,                       Jaehee%Lee%NULL%1,                       Keun-Gyu%Park%NULL%1,                       Hyun Ah%Kim%NULL%1,                       Ji-Hyun%Lee%NULL%2,                       Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                       Lin%Qiu%NULL%0,                       Yi%Liu%NULL%2,                       Xiu-lan%Liu%NULL%1,                       Jian-ling%Zheng%NULL%1,                       Hui-ying%Xue%NULL%1,                       Wen-hua%Liu%NULL%1,                       Dong%Liu%NULL%3,                       Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                        N.% Smati%null%1,                        C. S. J.% Wong%null%1,                        K.% Aspey%null%1,                        M. A. % Mendall%null%1,     Z.%Philipose%null%1,     N.% Smati%null%1,     C. S. J.% Wong%null%1,     K.% Aspey%null%1,     M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                        A.% Anisimovich%null%1,                        J.% Baxter%null%1,                        L.% Mackillop%null%1,                        M. P.% Vizcaychipi%null%1,                        A.% McCarthy%null%1,                        R. T. % Khan%null%1,     B.%Abu-Jamous%null%1,     A.% Anisimovich%null%1,     J.% Baxter%null%1,     L.% Mackillop%null%1,     M. P.% Vizcaychipi%null%1,     A.% McCarthy%null%1,     R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                        D.% Bates%null%1,                        J. M.% Fiskio%null%1,                        E. C.% Roche%null%1,                        S.% Mora%null%1,                        O. % Demler%null%1,     H. T.%Dashti%null%1,     D.% Bates%null%1,     J. M.% Fiskio%null%1,     E. C.% Roche%null%1,     S.% Mora%null%1,     O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                        Jennifer M%Cooper%NULL%2,                        Jennifer M%Cooper%NULL%0,                        Krishna%Gokhale%NULL%1,                        Dionisio%Acosta-Mena%NULL%1,                        Samir%Dhalla%NULL%1,                        Nathan%Byne%NULL%1,                        Joht Singh%Chandan%NULL%1,                        Astha%Anand%NULL%2,                        Astha%Anand%NULL%0,                        Kelvin%Okoth%NULL%1,                        Anuradhaa%Subramanian%NULL%2,                        Anuradhaa%Subramanian%NULL%0,                        Mansoor N%Bangash%NULL%1,                        Thomas%Jackson%NULL%2,                        Thomas%Jackson%NULL%0,                        Dawit%Zemedikun%NULL%2,                        Dawit%Zemedikun%NULL%0,                        Tom%Taverner%NULL%2,                        Tom%Taverner%NULL%0,                        Wasim%Hanif%NULL%1,                        Sandip%Ghosh%NULL%1,                        Parth%Narendran%NULL%1,                        Konstantinos A%Toulis%NULL%1,                        Abd A%Tahrani%NULL%2,                        Abd A%Tahrani%NULL%0,                        Rajendra%Surenthirakumaran%NULL%2,                        Rajendra%Surenthirakumaran%NULL%0,                        Nicola J%Adderley%NULL%1,                        Shamil%Haroon%NULL%2,                        Shamil%Haroon%NULL%0,                        Kamlesh%Khunti%NULL%4,                        Kamlesh%Khunti%NULL%0,                        Christopher%Sainsbury%NULL%2,                        Christopher%Sainsbury%NULL%0,                        G Neil%Thomas%NULL%1,                        Krishnarajah%Nirantharakumar%NULL%2,                        Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                        Thomas%Servais%NULL%1,                        Leïla%Belkhir%NULL%1,                        Pierre-François%Laterre%NULL%1,                        Jean-Paul%Thissen%NULL%1,                        Bernard%Vandeleene%NULL%1,                        Dominique%Maiter%NULL%1,                        Jean C.%Yombi%NULL%1,                        Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                        Abdallah%Al-Salameh%NULL%3,                        Samy%Hadjadj%NULL%3,                        Thomas%Goronflot%NULL%1,                        Nicolas%Wiernsperger%NULL%1,                        Matthieu%Pichelin%NULL%3,                        Ingrid%Allix%NULL%3,                        Coralie%Amadou%NULL%2,                        Olivier%Bourron%NULL%2,                        Thierry%Duriez%NULL%1,                        Jean-François%Gautier%NULL%3,                        Anne%Dutour%NULL%1,                        Céline%Gonfroy%NULL%1,                        Didier%Gouet%NULL%1,                        Michael%Joubert%NULL%3,                        Ingrid%Julier%NULL%1,                        Etienne%Larger%NULL%1,                        Lucien%Marchand%NULL%3,                        Michel%Marre%NULL%1,                        Laurent%Meyer%NULL%3,                        Frédérique%Olivier%NULL%1,                        Gaëtan%Prevost%NULL%3,                        Pascale%Quiniou%NULL%1,                        Christelle%Raffaitin-Cardin%NULL%1,                        Ronan%Roussel%NULL%3,                        Pierre-Jean%Saulnier%NULL%3,                        Dominique%Seret-Begue%NULL%1,                        Charles%Thivolet%NULL%3,                        Camille%Vatier%NULL%2,                        Rachel%Desailloud%NULL%1,                        Matthieu%Wargny%NULL%3,                        Pierre%Gourdy%NULL%3,                        Bertrand%Cariou%NULL%1,                        NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                        Zhenyuan%Chen%NULL%1,                        Li%Liu%NULL%3,                        Xiaoxv%Yin%NULL%1,                        Heping%Yang%NULL%1,                        Xiangping%Tan%NULL%1,                        Jing%Wang%NULL%2,                        Hui%Li%NULL%13,                        Mengge%Tian%NULL%1,                        Zuxun%Lu%NULL%1,                        Nian%Xiong%NULL%4,                        Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                        Ye-Mao%Liu%NULL%2,                        Haomiao%Li%NULL%1,                        Xin%Zhang%NULL%1,                        Fang%Lei%NULL%2,                        Juan-Juan%Qin%NULL%2,                        Ze%Chen%NULL%1,                        Ke-Qiong%Deng%NULL%1,                        Lijin%Lin%NULL%2,                        Ming-Ming%Chen%NULL%2,                        Xiaohui%Song%NULL%1,                        Meng%Xia%NULL%2,                        Xuewei%Huang%NULL%2,                        Weifang%Liu%NULL%1,                        Jingjing%Cai%NULL%2,                        Xiao-Jing%Zhang%NULL%2,                        Feng%Zhou%NULL%1,                        Peng%Zhang%NULL%1,                        Yibin%Wang%NULL%2,                        Xinliang%Ma%NULL%1,                        Qingbo%Xu%NULL%2,                        Juan%Yang%NULL%3,                        Ping%Ye%NULL%2,                        Weiming%Mao%NULL%2,                        Xiaodong%Huang%NULL%2,                        Jiahong%Xia%NULL%2,                        Bing-Hong%Zhang%NULL%2,                        Jiao%Guo%NULL%1,                        Lihua%Zhu%NULL%2,                        Zhibing%Lu%NULL%3,                        Yufeng%Yuan%NULL%2,                        Xiang%Wei%NULL%1,                        Zhi-Gang%She%NULL%2,                        Yan-Xiao%Ji%NULL%2,                        Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                        Xi%Bai%NULL%1,                        Xia%Han%NULL%1,                        Wangyan%Jiang%NULL%1,                        Lin%Qiu%NULL%2,                        Shi%Chen%NULL%1,                        Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                        Yanhong%Wei%NULL%1,                        Min%Chen%NULL%1,                        Qianqian%Wan%NULL%1,                        Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                        Matteo%Monami%NULL%1,                        Achille%Cernigliaro%NULL%1,                        Enrica%Vigneri%NULL%1,                        Valentina%Guarnotta%NULL%1,                        Salvatore%Scondotto%NULL%1,                        Vincenza A.%Allotta%NULL%1,                        Michela%Conti%NULL%1,                        Carla%Giordano%NULL%1,                        Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                        Wen%Kong%NULL%1,                        Pengfei%Xia%NULL%1,                        Ying%Xu%NULL%1,                        Li%Li%NULL%3,                        Qin%Li%NULL%1,                        Li%Yang%NULL%3,                        Qi%Wei%NULL%3,                        Hanyu%Wang%NULL%1,                        Huiqing%Li%NULL%1,                        Juan%Zheng%NULL%1,                        Hui%Sun%NULL%1,                        Wenfang%Xia%NULL%1,                        Geng%Liu%NULL%1,                        Xueyu%Zhong%NULL%1,                        Kangli%Qiu%NULL%1,                        Yan%Li%NULL%1,                        Han%Wang%NULL%1,                        Yuxiu%Wang%NULL%1,                        Xiaoli%Song%NULL%1,                        Hua%Liu%NULL%1,                        Si%Xiong%NULL%1,                        Yumei%Liu%NULL%1,                        Zhenhai%Cui%NULL%1,                        Yu%Hu%NULL%6,                        Lulu%Chen%NULL%1,                        An%Pan%NULL%1,                        Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                        Qi%Wei%NULL%0,                        Willis X%Li%NULL%1,                        Karen C%McCowen%NULL%1,                        Wei%Xiong%NULL%2,                        Jiao%Liu%NULL%2,                        Wenlijun%Jiang%NULL%2,                        Traci%Marin%NULL%1,                        Robert L%Thomas%NULL%1,                        Ming%He%NULL%2,                        Brendan%Gongol%NULL%1,                        Mark%Hepokoski%NULL%2,                        Jason X-J%Yuan%NULL%1,                        John Y-J%Shyy%NULL%1,                        Nian%Xiong%NULL%0,                        Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                        Siyi%Xin%NULL%1,                        Yaqi%Chen%NULL%1,                        Leyu%Li%NULL%1,                        Wanjun%Chen%NULL%1,                        Wenjia%Li%NULL%1,                        Baoan%Zhou%NULL%1,                        Chenxia%Li%NULL%1,                        Yu%Gong%NULL%1,                        Fei%Li%NULL%1,                        Peng%Duan%NULL%1,                        Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                        John%Buse%NULL%2,                        John%Buse%NULL%0,                        Leonardo%Tamaritz%NULL%1,                        Ana%Palacio%NULL%2,                        Ken%Cohen%NULL%1,                        Deneen%Vojta%NULL%2,                        David%Liebovitz%NULL%1,                        Nia%Mitchell%NULL%1,                        Jacinda%Nicklas%NULL%1,                        Ildiko%Lingvay%NULL%1,                        Jeanne M.%Clark%NULL%1,                        Louis J.%Aronne%NULL%1,                        Erik%Anderson%NULL%1,                        Michael%Usher%NULL%1,                        Ryan%Demmer%NULL%1,                        Genevieve B.%Melton%NULL%1,                        Nicholas%Ingraham%NULL%1,                        Christopher J.%Tignanelli%NULL%2,                        Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                        In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                        Ana%Palacio%NULL%0,                        Elissa%Dawkins%NULL%1,                        Gordon%Chen%NULL%1,                        Daniel%McCarter%NULL%1,                        Emancia%Forbes%NULL%1,                        Brian%Chung%NULL%1,                        Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                        Qi%Wei%NULL%0,                        Karen C.%McCowen%NULL%1,                        Wei%Xiong%NULL%0,                        Jiao%Liu%NULL%0,                        Wenlijun%Jiang%NULL%0,                        Robert L.%Thomas%NULL%1,                        Mark%Hepokoski%NULL%0,                        Ming%He%NULL%0,                        John Y. J.%Shyy%NULL%1,                        Atul%Malhotra%NULL%0,                        Nian%Xiong%nianxiong@hust.edu.cn%0,                        Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                        T. A. N.%Reed%NULL%2,                        T. A. N.%Reed%NULL%0,                        M.%Ardissino%NULL%1,                        P.%Bassett%NULL%1,                        A. M.%Whittington%NULL%1,                        D. L.%Cohen%NULL%1,                        N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                        Walter%Distaso%NULL%2,                        Walter%Distaso%NULL%0,                        Anjali%Amin%NULL%1,                        Wei%Yang%NULL%1,                        Oluwagbemiga%Idowu%NULL%1,                        Julia S%Kenkre%NULL%1,                        Ronak J%Shah%NULL%1,                        Evelina%Woin%NULL%1,                        Christine%Shi%NULL%1,                        Nael%Alavi%NULL%2,                        Nael%Alavi%NULL%0,                        Hala%Bedri%NULL%1,                        Niamh%Brady%NULL%1,                        Sophie%Blackburn%NULL%1,                        Martina%Leczycka%NULL%1,                        Sanya%Patel%NULL%1,                        Elizaveta%Sokol%NULL%1,                        Edward%Toke-Bjolgerud%NULL%1,                        Ambreen%Qayum%NULL%1,                        Mariana%Abdel-Malek%NULL%1,                        David C D%Hope%NULL%1,                        Nick S%Oliver%NULL%1,                        Vasiliki%Bravis%NULL%1,                        Shivani%Misra%NULL%1,                        Tricia M%Tan%NULL%1,                        Neil E%Hill%NULL%2,                        Neil E%Hill%NULL%0,                        Victoria%Salem%NULL%2,                        Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                        Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                        Tiffany%Grimes%NULL%1,                        Peng%Li%NULL%1,                        Matthew%Might%NULL%1,                        Fernando%Ovalle%NULL%1,                        Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                        Nicholas E%Ingraham%NULL%1,                        Thomas A%Murray%NULL%1,                        Schelomo%Marmor%NULL%1,                        Shane%Hovertsen%NULL%1,                        Jessica%Gronski%NULL%1,                        Chace%McNeil%NULL%1,                        Ruoying%Feng%NULL%1,                        Gabriel%Guzman%NULL%1,                        Nermine%Abdelwahab%NULL%1,                        Samantha%King%NULL%1,                        Leonardo%Tamariz%NULL%0,                        Thomas%Meehan%NULL%1,                        Kathryn M%Pendleton%NULL%1,                        Bradley%Benson%NULL%1,                        Deneen%Vojta%NULL%0,                        Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                        Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                        Matthieu%Wargny%NULL%0,                        Matthieu%Wargny%NULL%0,                        Matthieu%Pichelin%NULL%0,                        Matthieu%Pichelin%NULL%0,                        Abdallah%Al-Salameh%NULL%0,                        Abdallah%Al-Salameh%NULL%0,                        Ingrid%Allix%NULL%0,                        Ingrid%Allix%NULL%0,                        Coralie%Amadou%NULL%0,                        Gwénaëlle%Arnault%NULL%2,                        Gwénaëlle%Arnault%NULL%0,                        Florence%Baudoux%NULL%1,                        Bernard%Bauduceau%NULL%1,                        Sophie%Borot%NULL%1,                        Muriel%Bourgeon-Ghittori%NULL%2,                        Muriel%Bourgeon-Ghittori%NULL%0,                        Olivier%Bourron%NULL%0,                        David%Boutoille%NULL%4,                        David%Boutoille%NULL%0,                        France%Cazenave-Roblot%NULL%3,                        France%Cazenave-Roblot%NULL%0,                        Claude%Chaumeil%NULL%2,                        Claude%Chaumeil%NULL%0,                        Emmanuel%Cosson%NULL%1,                        Sandrine%Coudol%NULL%2,                        Sandrine%Coudol%NULL%0,                        Patrice%Darmon%NULL%1,                        Emmanuel%Disse%NULL%2,                        Emmanuel%Disse%NULL%0,                        Amélie%Ducet-Boiffard%NULL%2,                        Amélie%Ducet-Boiffard%NULL%0,                        Bénédicte%Gaborit%NULL%1,                        Michael%Joubert%NULL%0,                        Michael%Joubert%NULL%0,                        Véronique%Kerlan%NULL%2,                        Véronique%Kerlan%NULL%0,                        Bruno%Laviolle%NULL%1,                        Lucien%Marchand%NULL%0,                        Lucien%Marchand%NULL%0,                        Laurent%Meyer%NULL%0,                        Laurent%Meyer%NULL%0,                        Louis%Potier%NULL%2,                        Louis%Potier%NULL%0,                        Gaëtan%Prevost%NULL%0,                        Gaëtan%Prevost%NULL%0,                        Jean-Pierre%Riveline%NULL%1,                        René%Robert%NULL%2,                        René%Robert%NULL%0,                        Pierre-Jean%Saulnier%NULL%0,                        Pierre-Jean%Saulnier%NULL%0,                        Ariane%Sultan%NULL%2,                        Ariane%Sultan%NULL%0,                        Jean-François%Thébaut%NULL%2,                        Jean-François%Thébaut%NULL%0,                        Charles%Thivolet%NULL%0,                        Charles%Thivolet%NULL%0,                        Blandine%Tramunt%NULL%2,                        Blandine%Tramunt%NULL%0,                        Camille%Vatier%NULL%0,                        Ronan%Roussel%NULL%0,                        Ronan%Roussel%NULL%0,                        Jean-François%Gautier%NULL%0,                        Jean-François%Gautier%NULL%0,                        Pierre%Gourdy%NULL%0,                        Pierre%Gourdy%NULL%0,                        NULL%NULL%NULL%0,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                        Peter%Knighton%NULL%1,                        Francesco%Zaccardi%NULL%2,                        Chirag%Bakhai%NULL%1,                        Emma%Barron%NULL%1,                        Naomi%Holman%NULL%1,                        Partha%Kar%NULL%1,                        Claire%Meace%NULL%1,                        Naveed%Sattar%NULL%1,                        Stephen%Sharp%NULL%1,                        Nicholas J%Wareham%NULL%1,                        Andy%Weaver%NULL%1,                        Emilia%Woch%NULL%1,                        Bob%Young%NULL%1,                        Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                        José David%Torres-Peña%NULL%1,                        María D.%López-Carmona%NULL%1,                        M. Mar.%Ayala-Gutiérrez%NULL%1,                        Francisco%Fuentes-Jiménez%NULL%1,                        Lucía Jorge%Huerta%NULL%1,                        Jaime Alonso%Muñoz%NULL%1,                        Manuel%Rubio-Rivas%NULL%1,                        Manel%Madrazo%NULL%1,                        Marcos Guzmán%Garcia%NULL%1,                        Beatriz Vicente%Montes%NULL%1,                        Joaquim Fernández%Sola%NULL%1,                        Javier%Ena%NULL%1,                        Ruth Gonzalez%Ferrer%NULL%1,                        Carmen Mella%Pérez%NULL%1,                        Carlos Jorge%Ripper%NULL%1,                        Jose Javier Napal%Lecumberri%NULL%1,                        Iris El Attar%Acedo%NULL%1,                        Susana Plaza%Canteli%NULL%1,                        Sara Fuente%Cosío%NULL%1,                        Francisco Amorós%Martínez%NULL%1,                        Begoña Cortés%Rodríguez%NULL%1,                        Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                        José Manuel%Ramos-Rincón%NULL%1,                        Ricardo%Gómez-Huelgas%NULL%1,                        NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                        Sang Won%Kim%NULL%1,                        Jong Won%Park%NULL%1,                        Kyu Hyang%Cho%NULL%1,                        Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                        Philip%Tsoukas%NULL%1,                        Christopher W.%Halladay%NULL%1,                        Emily%O'Neill%NULL%1,                        Stefan%Gravenstein%NULL%1,                        James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                        Tao%Liu%NULL%2,                        Weijun%Zhong%NULL%1,                        Rong%Liu%NULL%1,                        Honghao%Zhou%NULL%1,                        Weihua%Huang%endeavor34852@aliyun.com%1,                        Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                        Jae-Han%Jeon%NULL%2,                        Jae-Han%Jeon%NULL%0,                        Sung-Woo%Kim%NULL%2,                        Sung-Woo%Kim%NULL%0,                        Jun Sung%Moon%NULL%1,                        Nan Hee%Cho%NULL%1,                        Eugene%Han%NULL%1,                        Ji Hong%You%NULL%1,                        Ji Yeon%Lee%NULL%4,                        Miri%Hyun%NULL%1,                        Jae Seok%Park%NULL%4,                        Yong Shik%Kwon%NULL%2,                        Yeon-Kyung%Choi%NULL%1,                        Ki Tae%Kwon%NULL%1,                        Shin Yup%Lee%NULL%1,                        Eon Ju%Jeon%NULL%1,                        Jin-Woo%Kim%NULL%1,                        Hyo-Lim%Hong%NULL%1,                        Hyun Hee%Kwon%NULL%1,                        Chi Young%Jung%NULL%1,                        Yin Young%Lee%NULL%1,                        Eunyeoung%Ha%NULL%1,                        Seung Min%Chung%NULL%1,                        Jian%Hur%NULL%2,                        June Hong%Ahn%NULL%3,                        Na-young%Kim%NULL%1,                        Shin-Woo%Kim%NULL%3,                        Hyun Ha%Chang%NULL%1,                        Yong Hoon%Lee%NULL%1,                        Jaehee%Lee%NULL%1,                        Keun-Gyu%Park%NULL%1,                        Hyun Ah%Kim%NULL%1,                        Ji-Hyun%Lee%NULL%2,                        Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                        Lin%Qiu%NULL%0,                        Yi%Liu%NULL%2,                        Xiu-lan%Liu%NULL%1,                        Jian-ling%Zheng%NULL%1,                        Hui-ying%Xue%NULL%1,                        Wen-hua%Liu%NULL%1,                        Dong%Liu%NULL%3,                        Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                         N.% Smati%null%1,                         C. S. J.% Wong%null%1,                         K.% Aspey%null%1,                         M. A. % Mendall%null%1,      Z.%Philipose%null%1,      N.% Smati%null%1,      C. S. J.% Wong%null%1,      K.% Aspey%null%1,      M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                         A.% Anisimovich%null%1,                         J.% Baxter%null%1,                         L.% Mackillop%null%1,                         M. P.% Vizcaychipi%null%1,                         A.% McCarthy%null%1,                         R. T. % Khan%null%1,      B.%Abu-Jamous%null%1,      A.% Anisimovich%null%1,      J.% Baxter%null%1,      L.% Mackillop%null%1,      M. P.% Vizcaychipi%null%1,      A.% McCarthy%null%1,      R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                         D.% Bates%null%1,                         J. M.% Fiskio%null%1,                         E. C.% Roche%null%1,                         S.% Mora%null%1,                         O. % Demler%null%1,      H. T.%Dashti%null%1,      D.% Bates%null%1,      J. M.% Fiskio%null%1,      E. C.% Roche%null%1,      S.% Mora%null%1,      O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                         Jennifer M%Cooper%NULL%2,                         Jennifer M%Cooper%NULL%0,                         Krishna%Gokhale%NULL%1,                         Dionisio%Acosta-Mena%NULL%1,                         Samir%Dhalla%NULL%1,                         Nathan%Byne%NULL%1,                         Joht Singh%Chandan%NULL%1,                         Astha%Anand%NULL%2,                         Astha%Anand%NULL%0,                         Kelvin%Okoth%NULL%1,                         Anuradhaa%Subramanian%NULL%2,                         Anuradhaa%Subramanian%NULL%0,                         Mansoor N%Bangash%NULL%1,                         Thomas%Jackson%NULL%2,                         Thomas%Jackson%NULL%0,                         Dawit%Zemedikun%NULL%2,                         Dawit%Zemedikun%NULL%0,                         Tom%Taverner%NULL%2,                         Tom%Taverner%NULL%0,                         Wasim%Hanif%NULL%1,                         Sandip%Ghosh%NULL%1,                         Parth%Narendran%NULL%1,                         Konstantinos A%Toulis%NULL%1,                         Abd A%Tahrani%NULL%2,                         Abd A%Tahrani%NULL%0,                         Rajendra%Surenthirakumaran%NULL%2,                         Rajendra%Surenthirakumaran%NULL%0,                         Nicola J%Adderley%NULL%1,                         Shamil%Haroon%NULL%2,                         Shamil%Haroon%NULL%0,                         Kamlesh%Khunti%NULL%4,                         Kamlesh%Khunti%NULL%0,                         Christopher%Sainsbury%NULL%2,                         Christopher%Sainsbury%NULL%0,                         G Neil%Thomas%NULL%1,                         Krishnarajah%Nirantharakumar%NULL%2,                         Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                         Thomas%Servais%NULL%1,                         Leïla%Belkhir%NULL%1,                         Pierre-François%Laterre%NULL%1,                         Jean-Paul%Thissen%NULL%1,                         Bernard%Vandeleene%NULL%1,                         Dominique%Maiter%NULL%1,                         Jean C.%Yombi%NULL%1,                         Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                         Abdallah%Al-Salameh%NULL%3,                         Samy%Hadjadj%NULL%3,                         Thomas%Goronflot%NULL%1,                         Nicolas%Wiernsperger%NULL%1,                         Matthieu%Pichelin%NULL%3,                         Ingrid%Allix%NULL%3,                         Coralie%Amadou%NULL%2,                         Olivier%Bourron%NULL%2,                         Thierry%Duriez%NULL%1,                         Jean-François%Gautier%NULL%3,                         Anne%Dutour%NULL%1,                         Céline%Gonfroy%NULL%1,                         Didier%Gouet%NULL%1,                         Michael%Joubert%NULL%3,                         Ingrid%Julier%NULL%1,                         Etienne%Larger%NULL%1,                         Lucien%Marchand%NULL%3,                         Michel%Marre%NULL%1,                         Laurent%Meyer%NULL%3,                         Frédérique%Olivier%NULL%1,                         Gaëtan%Prevost%NULL%3,                         Pascale%Quiniou%NULL%1,                         Christelle%Raffaitin-Cardin%NULL%1,                         Ronan%Roussel%NULL%3,                         Pierre-Jean%Saulnier%NULL%3,                         Dominique%Seret-Begue%NULL%1,                         Charles%Thivolet%NULL%3,                         Camille%Vatier%NULL%2,                         Rachel%Desailloud%NULL%1,                         Matthieu%Wargny%NULL%3,                         Pierre%Gourdy%NULL%3,                         Bertrand%Cariou%NULL%1,                         NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                         Zhenyuan%Chen%NULL%1,                         Li%Liu%NULL%3,                         Xiaoxv%Yin%NULL%1,                         Heping%Yang%NULL%1,                         Xiangping%Tan%NULL%1,                         Jing%Wang%NULL%2,                         Hui%Li%NULL%13,                         Mengge%Tian%NULL%1,                         Zuxun%Lu%NULL%1,                         Nian%Xiong%NULL%4,                         Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                         Ye-Mao%Liu%NULL%2,                         Haomiao%Li%NULL%1,                         Xin%Zhang%NULL%1,                         Fang%Lei%NULL%2,                         Juan-Juan%Qin%NULL%2,                         Ze%Chen%NULL%1,                         Ke-Qiong%Deng%NULL%1,                         Lijin%Lin%NULL%2,                         Ming-Ming%Chen%NULL%2,                         Xiaohui%Song%NULL%1,                         Meng%Xia%NULL%2,                         Xuewei%Huang%NULL%2,                         Weifang%Liu%NULL%1,                         Jingjing%Cai%NULL%2,                         Xiao-Jing%Zhang%NULL%2,                         Feng%Zhou%NULL%1,                         Peng%Zhang%NULL%1,                         Yibin%Wang%NULL%2,                         Xinliang%Ma%NULL%1,                         Qingbo%Xu%NULL%2,                         Juan%Yang%NULL%3,                         Ping%Ye%NULL%2,                         Weiming%Mao%NULL%2,                         Xiaodong%Huang%NULL%2,                         Jiahong%Xia%NULL%2,                         Bing-Hong%Zhang%NULL%2,                         Jiao%Guo%NULL%1,                         Lihua%Zhu%NULL%2,                         Zhibing%Lu%NULL%3,                         Yufeng%Yuan%NULL%2,                         Xiang%Wei%NULL%1,                         Zhi-Gang%She%NULL%2,                         Yan-Xiao%Ji%NULL%2,                         Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                         Xi%Bai%NULL%1,                         Xia%Han%NULL%1,                         Wangyan%Jiang%NULL%1,                         Lin%Qiu%NULL%2,                         Shi%Chen%NULL%1,                         Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                         Yanhong%Wei%NULL%1,                         Min%Chen%NULL%1,                         Qianqian%Wan%NULL%1,                         Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                         Matteo%Monami%NULL%1,                         Achille%Cernigliaro%NULL%1,                         Enrica%Vigneri%NULL%1,                         Valentina%Guarnotta%NULL%1,                         Salvatore%Scondotto%NULL%1,                         Vincenza A.%Allotta%NULL%1,                         Michela%Conti%NULL%1,                         Carla%Giordano%NULL%1,                         Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                         Wen%Kong%NULL%1,                         Pengfei%Xia%NULL%1,                         Ying%Xu%NULL%1,                         Li%Li%NULL%3,                         Qin%Li%NULL%1,                         Li%Yang%NULL%3,                         Qi%Wei%NULL%3,                         Hanyu%Wang%NULL%1,                         Huiqing%Li%NULL%1,                         Juan%Zheng%NULL%1,                         Hui%Sun%NULL%1,                         Wenfang%Xia%NULL%1,                         Geng%Liu%NULL%1,                         Xueyu%Zhong%NULL%1,                         Kangli%Qiu%NULL%1,                         Yan%Li%NULL%1,                         Han%Wang%NULL%1,                         Yuxiu%Wang%NULL%1,                         Xiaoli%Song%NULL%1,                         Hua%Liu%NULL%1,                         Si%Xiong%NULL%1,                         Yumei%Liu%NULL%1,                         Zhenhai%Cui%NULL%1,                         Yu%Hu%NULL%6,                         Lulu%Chen%NULL%1,                         An%Pan%NULL%1,                         Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                         Qi%Wei%NULL%0,                         Willis X%Li%NULL%1,                         Karen C%McCowen%NULL%1,                         Wei%Xiong%NULL%2,                         Jiao%Liu%NULL%2,                         Wenlijun%Jiang%NULL%2,                         Traci%Marin%NULL%1,                         Robert L%Thomas%NULL%1,                         Ming%He%NULL%2,                         Brendan%Gongol%NULL%1,                         Mark%Hepokoski%NULL%2,                         Jason X-J%Yuan%NULL%1,                         John Y-J%Shyy%NULL%1,                         Nian%Xiong%NULL%0,                         Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                         Siyi%Xin%NULL%1,                         Yaqi%Chen%NULL%1,                         Leyu%Li%NULL%1,                         Wanjun%Chen%NULL%1,                         Wenjia%Li%NULL%1,                         Baoan%Zhou%NULL%1,                         Chenxia%Li%NULL%1,                         Yu%Gong%NULL%1,                         Fei%Li%NULL%1,                         Peng%Duan%NULL%1,                         Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                         John%Buse%NULL%2,                         John%Buse%NULL%0,                         Leonardo%Tamaritz%NULL%1,                         Ana%Palacio%NULL%2,                         Ken%Cohen%NULL%1,                         Deneen%Vojta%NULL%2,                         David%Liebovitz%NULL%1,                         Nia%Mitchell%NULL%1,                         Jacinda%Nicklas%NULL%1,                         Ildiko%Lingvay%NULL%1,                         Jeanne M.%Clark%NULL%1,                         Louis J.%Aronne%NULL%1,                         Erik%Anderson%NULL%1,                         Michael%Usher%NULL%1,                         Ryan%Demmer%NULL%1,                         Genevieve B.%Melton%NULL%1,                         Nicholas%Ingraham%NULL%1,                         Christopher J.%Tignanelli%NULL%2,                         Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                         In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                         Ana%Palacio%NULL%0,                         Elissa%Dawkins%NULL%1,                         Gordon%Chen%NULL%1,                         Daniel%McCarter%NULL%1,                         Emancia%Forbes%NULL%1,                         Brian%Chung%NULL%1,                         Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                         Qi%Wei%NULL%0,                         Karen C.%McCowen%NULL%1,                         Wei%Xiong%NULL%0,                         Jiao%Liu%NULL%0,                         Wenlijun%Jiang%NULL%0,                         Robert L.%Thomas%NULL%1,                         Mark%Hepokoski%NULL%0,                         Ming%He%NULL%0,                         John Y. J.%Shyy%NULL%1,                         Atul%Malhotra%NULL%0,                         Nian%Xiong%nianxiong@hust.edu.cn%0,                         Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                         T. A. N.%Reed%NULL%2,                         T. A. N.%Reed%NULL%0,                         M.%Ardissino%NULL%1,                         P.%Bassett%NULL%1,                         A. M.%Whittington%NULL%1,                         D. L.%Cohen%NULL%1,                         N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                         Walter%Distaso%NULL%2,                         Walter%Distaso%NULL%0,                         Anjali%Amin%NULL%1,                         Wei%Yang%NULL%1,                         Oluwagbemiga%Idowu%NULL%1,                         Julia S%Kenkre%NULL%1,                         Ronak J%Shah%NULL%1,                         Evelina%Woin%NULL%1,                         Christine%Shi%NULL%1,                         Nael%Alavi%NULL%2,                         Nael%Alavi%NULL%0,                         Hala%Bedri%NULL%1,                         Niamh%Brady%NULL%1,                         Sophie%Blackburn%NULL%1,                         Martina%Leczycka%NULL%1,                         Sanya%Patel%NULL%1,                         Elizaveta%Sokol%NULL%1,                         Edward%Toke-Bjolgerud%NULL%1,                         Ambreen%Qayum%NULL%1,                         Mariana%Abdel-Malek%NULL%1,                         David C D%Hope%NULL%1,                         Nick S%Oliver%NULL%1,                         Vasiliki%Bravis%NULL%1,                         Shivani%Misra%NULL%1,                         Tricia M%Tan%NULL%1,                         Neil E%Hill%NULL%2,                         Neil E%Hill%NULL%0,                         Victoria%Salem%NULL%2,                         Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                         Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                         Tiffany%Grimes%NULL%1,                         Peng%Li%NULL%1,                         Matthew%Might%NULL%1,                         Fernando%Ovalle%NULL%1,                         Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                         Nicholas E%Ingraham%NULL%1,                         Thomas A%Murray%NULL%1,                         Schelomo%Marmor%NULL%1,                         Shane%Hovertsen%NULL%1,                         Jessica%Gronski%NULL%1,                         Chace%McNeil%NULL%1,                         Ruoying%Feng%NULL%1,                         Gabriel%Guzman%NULL%1,                         Nermine%Abdelwahab%NULL%1,                         Samantha%King%NULL%1,                         Leonardo%Tamariz%NULL%0,                         Thomas%Meehan%NULL%1,                         Kathryn M%Pendleton%NULL%1,                         Bradley%Benson%NULL%1,                         Deneen%Vojta%NULL%0,                         Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                         Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                         Matthieu%Wargny%NULL%0,                         Matthieu%Wargny%NULL%0,                         Matthieu%Pichelin%NULL%0,                         Matthieu%Pichelin%NULL%0,                         Abdallah%Al-Salameh%NULL%0,                         Abdallah%Al-Salameh%NULL%0,                         Ingrid%Allix%NULL%0,                         Ingrid%Allix%NULL%0,                         Coralie%Amadou%NULL%0,                         Gwénaëlle%Arnault%NULL%2,                         Gwénaëlle%Arnault%NULL%0,                         Florence%Baudoux%NULL%1,                         Bernard%Bauduceau%NULL%1,                         Sophie%Borot%NULL%1,                         Muriel%Bourgeon-Ghittori%NULL%2,                         Muriel%Bourgeon-Ghittori%NULL%0,                         Olivier%Bourron%NULL%0,                         David%Boutoille%NULL%4,                         David%Boutoille%NULL%0,                         France%Cazenave-Roblot%NULL%3,                         France%Cazenave-Roblot%NULL%0,                         Claude%Chaumeil%NULL%2,                         Claude%Chaumeil%NULL%0,                         Emmanuel%Cosson%NULL%1,                         Sandrine%Coudol%NULL%2,                         Sandrine%Coudol%NULL%0,                         Patrice%Darmon%NULL%1,                         Emmanuel%Disse%NULL%2,                         Emmanuel%Disse%NULL%0,                         Amélie%Ducet-Boiffard%NULL%2,                         Amélie%Ducet-Boiffard%NULL%0,                         Bénédicte%Gaborit%NULL%1,                         Michael%Joubert%NULL%0,                         Michael%Joubert%NULL%0,                         Véronique%Kerlan%NULL%2,                         Véronique%Kerlan%NULL%0,                         Bruno%Laviolle%NULL%1,                         Lucien%Marchand%NULL%0,                         Lucien%Marchand%NULL%0,                         Laurent%Meyer%NULL%0,                         Laurent%Meyer%NULL%0,                         Louis%Potier%NULL%2,                         Louis%Potier%NULL%0,                         Gaëtan%Prevost%NULL%0,                         Gaëtan%Prevost%NULL%0,                         Jean-Pierre%Riveline%NULL%1,                         René%Robert%NULL%2,                         René%Robert%NULL%0,                         Pierre-Jean%Saulnier%NULL%0,                         Pierre-Jean%Saulnier%NULL%0,                         Ariane%Sultan%NULL%2,                         Ariane%Sultan%NULL%0,                         Jean-François%Thébaut%NULL%2,                         Jean-François%Thébaut%NULL%0,                         Charles%Thivolet%NULL%0,                         Charles%Thivolet%NULL%0,                         Blandine%Tramunt%NULL%2,                         Blandine%Tramunt%NULL%0,                         Camille%Vatier%NULL%0,                         Ronan%Roussel%NULL%0,                         Ronan%Roussel%NULL%0,                         Jean-François%Gautier%NULL%0,                         Jean-François%Gautier%NULL%0,                         Pierre%Gourdy%NULL%0,                         Pierre%Gourdy%NULL%0,                         NULL%NULL%NULL%0,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                         Peter%Knighton%NULL%1,                         Francesco%Zaccardi%NULL%2,                         Chirag%Bakhai%NULL%1,                         Emma%Barron%NULL%1,                         Naomi%Holman%NULL%1,                         Partha%Kar%NULL%1,                         Claire%Meace%NULL%1,                         Naveed%Sattar%NULL%1,                         Stephen%Sharp%NULL%1,                         Nicholas J%Wareham%NULL%1,                         Andy%Weaver%NULL%1,                         Emilia%Woch%NULL%1,                         Bob%Young%NULL%1,                         Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                         José David%Torres-Peña%NULL%1,                         María D.%López-Carmona%NULL%1,                         M. Mar.%Ayala-Gutiérrez%NULL%1,                         Francisco%Fuentes-Jiménez%NULL%1,                         Lucía Jorge%Huerta%NULL%1,                         Jaime Alonso%Muñoz%NULL%1,                         Manuel%Rubio-Rivas%NULL%1,                         Manel%Madrazo%NULL%1,                         Marcos Guzmán%Garcia%NULL%1,                         Beatriz Vicente%Montes%NULL%1,                         Joaquim Fernández%Sola%NULL%1,                         Javier%Ena%NULL%1,                         Ruth Gonzalez%Ferrer%NULL%1,                         Carmen Mella%Pérez%NULL%1,                         Carlos Jorge%Ripper%NULL%1,                         Jose Javier Napal%Lecumberri%NULL%1,                         Iris El Attar%Acedo%NULL%1,                         Susana Plaza%Canteli%NULL%1,                         Sara Fuente%Cosío%NULL%1,                         Francisco Amorós%Martínez%NULL%1,                         Begoña Cortés%Rodríguez%NULL%1,                         Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                         José Manuel%Ramos-Rincón%NULL%1,                         Ricardo%Gómez-Huelgas%NULL%1,                         NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                         Sang Won%Kim%NULL%1,                         Jong Won%Park%NULL%1,                         Kyu Hyang%Cho%NULL%1,                         Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                         Philip%Tsoukas%NULL%1,                         Christopher W.%Halladay%NULL%1,                         Emily%O'Neill%NULL%1,                         Stefan%Gravenstein%NULL%1,                         James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                         Tao%Liu%NULL%2,                         Weijun%Zhong%NULL%1,                         Rong%Liu%NULL%1,                         Honghao%Zhou%NULL%1,                         Weihua%Huang%endeavor34852@aliyun.com%1,                         Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                         Jae-Han%Jeon%NULL%2,                         Jae-Han%Jeon%NULL%0,                         Sung-Woo%Kim%NULL%2,                         Sung-Woo%Kim%NULL%0,                         Jun Sung%Moon%NULL%1,                         Nan Hee%Cho%NULL%1,                         Eugene%Han%NULL%1,                         Ji Hong%You%NULL%1,                         Ji Yeon%Lee%NULL%4,                         Miri%Hyun%NULL%1,                         Jae Seok%Park%NULL%4,                         Yong Shik%Kwon%NULL%2,                         Yeon-Kyung%Choi%NULL%1,                         Ki Tae%Kwon%NULL%1,                         Shin Yup%Lee%NULL%1,                         Eon Ju%Jeon%NULL%1,                         Jin-Woo%Kim%NULL%1,                         Hyo-Lim%Hong%NULL%1,                         Hyun Hee%Kwon%NULL%1,                         Chi Young%Jung%NULL%1,                         Yin Young%Lee%NULL%1,                         Eunyeoung%Ha%NULL%1,                         Seung Min%Chung%NULL%1,                         Jian%Hur%NULL%2,                         June Hong%Ahn%NULL%3,                         Na-young%Kim%NULL%1,                         Shin-Woo%Kim%NULL%3,                         Hyun Ha%Chang%NULL%1,                         Yong Hoon%Lee%NULL%1,                         Jaehee%Lee%NULL%1,                         Keun-Gyu%Park%NULL%1,                         Hyun Ah%Kim%NULL%1,                         Ji-Hyun%Lee%NULL%2,                         Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                         Lin%Qiu%NULL%0,                         Yi%Liu%NULL%2,                         Xiu-lan%Liu%NULL%1,                         Jian-ling%Zheng%NULL%1,                         Hui-ying%Xue%NULL%1,                         Wen-hua%Liu%NULL%1,                         Dong%Liu%NULL%3,                         Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                          N.% Smati%null%1,                          C. S. J.% Wong%null%1,                          K.% Aspey%null%1,                          M. A. % Mendall%null%1,       Z.%Philipose%null%1,       N.% Smati%null%1,       C. S. J.% Wong%null%1,       K.% Aspey%null%1,       M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                          A.% Anisimovich%null%1,                          J.% Baxter%null%1,                          L.% Mackillop%null%1,                          M. P.% Vizcaychipi%null%1,                          A.% McCarthy%null%1,                          R. T. % Khan%null%1,       B.%Abu-Jamous%null%1,       A.% Anisimovich%null%1,       J.% Baxter%null%1,       L.% Mackillop%null%1,       M. P.% Vizcaychipi%null%1,       A.% McCarthy%null%1,       R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                          D.% Bates%null%1,                          J. M.% Fiskio%null%1,                          E. C.% Roche%null%1,                          S.% Mora%null%1,                          O. % Demler%null%1,       H. T.%Dashti%null%1,       D.% Bates%null%1,       J. M.% Fiskio%null%1,       E. C.% Roche%null%1,       S.% Mora%null%1,       O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -3246,6 +3720,9 @@
       <c r="I1" t="s">
         <v>227</v>
       </c>
+      <c r="J1" t="s">
+        <v>816</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3261,7 +3738,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>784</v>
+        <v>943</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3274,6 +3751,9 @@
       </c>
       <c r="I2" t="s">
         <v>748</v>
+      </c>
+      <c r="J2" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3">
@@ -3290,7 +3770,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>785</v>
+        <v>944</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3303,6 +3783,9 @@
       </c>
       <c r="I3" t="s">
         <v>750</v>
+      </c>
+      <c r="J3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="4">
@@ -3319,7 +3802,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>786</v>
+        <v>945</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -3332,6 +3815,9 @@
       </c>
       <c r="I4" t="s">
         <v>750</v>
+      </c>
+      <c r="J4" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -3348,7 +3834,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>787</v>
+        <v>946</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -3361,6 +3847,9 @@
       </c>
       <c r="I5" t="s">
         <v>750</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="6">
@@ -3377,7 +3866,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>788</v>
+        <v>947</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3390,6 +3879,9 @@
       </c>
       <c r="I6" t="s">
         <v>750</v>
+      </c>
+      <c r="J6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7">
@@ -3406,7 +3898,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>789</v>
+        <v>948</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3419,6 +3911,9 @@
       </c>
       <c r="I7" t="s">
         <v>750</v>
+      </c>
+      <c r="J7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="8">
@@ -3435,7 +3930,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>790</v>
+        <v>949</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3448,6 +3943,9 @@
       </c>
       <c r="I8" t="s">
         <v>750</v>
+      </c>
+      <c r="J8" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="9">
@@ -3464,7 +3962,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>791</v>
+        <v>950</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3477,6 +3975,9 @@
       </c>
       <c r="I9" t="s">
         <v>750</v>
+      </c>
+      <c r="J9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="10">
@@ -3493,7 +3994,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>792</v>
+        <v>951</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -3506,6 +4007,9 @@
       </c>
       <c r="I10" t="s">
         <v>748</v>
+      </c>
+      <c r="J10" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="11">
@@ -3522,7 +4026,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>793</v>
+        <v>952</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -3535,6 +4039,9 @@
       </c>
       <c r="I11" t="s">
         <v>750</v>
+      </c>
+      <c r="J11" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="12">
@@ -3551,7 +4058,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>794</v>
+        <v>953</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -3564,6 +4071,9 @@
       </c>
       <c r="I12" t="s">
         <v>750</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="13">
@@ -3580,7 +4090,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>795</v>
+        <v>954</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -3593,6 +4103,9 @@
       </c>
       <c r="I13" t="s">
         <v>748</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14">
@@ -3609,7 +4122,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>796</v>
+        <v>955</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -3622,6 +4135,9 @@
       </c>
       <c r="I14" t="s">
         <v>762</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="15">
@@ -3638,7 +4154,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>797</v>
+        <v>956</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -3651,6 +4167,9 @@
       </c>
       <c r="I15" t="s">
         <v>750</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16">
@@ -3667,7 +4186,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>798</v>
+        <v>957</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -3680,6 +4199,9 @@
       </c>
       <c r="I16" t="s">
         <v>748</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="17">
@@ -3696,7 +4218,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>799</v>
+        <v>958</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -3709,6 +4231,9 @@
       </c>
       <c r="I17" t="s">
         <v>748</v>
+      </c>
+      <c r="J17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -3725,7 +4250,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>800</v>
+        <v>959</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -3738,6 +4263,9 @@
       </c>
       <c r="I18" t="s">
         <v>748</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="19">
@@ -3754,7 +4282,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>801</v>
+        <v>960</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -3767,6 +4295,9 @@
       </c>
       <c r="I19" t="s">
         <v>748</v>
+      </c>
+      <c r="J19" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="20">
@@ -3783,7 +4314,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>802</v>
+        <v>961</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -3796,6 +4327,9 @@
       </c>
       <c r="I20" t="s">
         <v>748</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21">
@@ -3812,7 +4346,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>803</v>
+        <v>962</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -3825,6 +4359,9 @@
       </c>
       <c r="I21" t="s">
         <v>750</v>
+      </c>
+      <c r="J21" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="22">
@@ -3841,7 +4378,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>804</v>
+        <v>963</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -3854,6 +4391,9 @@
       </c>
       <c r="I22" t="s">
         <v>762</v>
+      </c>
+      <c r="J22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23">
@@ -3870,7 +4410,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>805</v>
+        <v>964</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -3883,6 +4423,9 @@
       </c>
       <c r="I23" t="s">
         <v>750</v>
+      </c>
+      <c r="J23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24">
@@ -3899,7 +4442,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>806</v>
+        <v>965</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -3912,6 +4455,9 @@
       </c>
       <c r="I24" t="s">
         <v>762</v>
+      </c>
+      <c r="J24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="25">
@@ -3928,7 +4474,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>807</v>
+        <v>966</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -3941,6 +4487,9 @@
       </c>
       <c r="I25" t="s">
         <v>750</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="26">
@@ -3957,7 +4506,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>808</v>
+        <v>546</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -3966,10 +4515,13 @@
         <v>414</v>
       </c>
       <c r="H26" t="s">
-        <v>415</v>
+        <v>841</v>
       </c>
       <c r="I26" t="s">
-        <v>775</v>
+        <v>134</v>
+      </c>
+      <c r="J26" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="27">
@@ -3986,7 +4538,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>809</v>
+        <v>967</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -3999,6 +4551,9 @@
       </c>
       <c r="I27" t="s">
         <v>750</v>
+      </c>
+      <c r="J27" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="28">
@@ -4015,7 +4570,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>810</v>
+        <v>968</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -4028,6 +4583,9 @@
       </c>
       <c r="I28" t="s">
         <v>748</v>
+      </c>
+      <c r="J28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29">
@@ -4044,7 +4602,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>811</v>
+        <v>969</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -4057,6 +4615,9 @@
       </c>
       <c r="I29" t="s">
         <v>748</v>
+      </c>
+      <c r="J29" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30">
@@ -4073,7 +4634,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>812</v>
+        <v>970</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -4086,6 +4647,9 @@
       </c>
       <c r="I30" t="s">
         <v>748</v>
+      </c>
+      <c r="J30" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31">
@@ -4102,7 +4666,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>813</v>
+        <v>971</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -4115,6 +4679,9 @@
       </c>
       <c r="I31" t="s">
         <v>781</v>
+      </c>
+      <c r="J31" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32">
@@ -4131,7 +4698,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>814</v>
+        <v>972</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -4144,6 +4711,9 @@
       </c>
       <c r="I32" t="s">
         <v>781</v>
+      </c>
+      <c r="J32" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="33">
@@ -4160,7 +4730,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>815</v>
+        <v>973</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
@@ -4173,6 +4743,9 @@
       </c>
       <c r="I33" t="s">
         <v>781</v>
+      </c>
+      <c r="J33" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/13.xlsx
+++ b/Covid_19_Dataset_and_References/References/13.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6174" uniqueCount="974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6702" uniqueCount="1036">
   <si>
     <t>Doi</t>
   </si>
@@ -3379,6 +3379,192 @@
   </si>
   <si>
     <t>[ H. T.%Dashti%null%1,                          D.% Bates%null%1,                          J. M.% Fiskio%null%1,                          E. C.% Roche%null%1,                          S.% Mora%null%1,                          O. % Demler%null%1,       H. T.%Dashti%null%1,       D.% Bates%null%1,       J. M.% Fiskio%null%1,       E. C.% Roche%null%1,       S.% Mora%null%1,       O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                          Jennifer M%Cooper%NULL%2,                          Jennifer M%Cooper%NULL%0,                          Krishna%Gokhale%NULL%1,                          Dionisio%Acosta-Mena%NULL%1,                          Samir%Dhalla%NULL%1,                          Nathan%Byne%NULL%1,                          Joht Singh%Chandan%NULL%1,                          Astha%Anand%NULL%2,                          Astha%Anand%NULL%0,                          Kelvin%Okoth%NULL%1,                          Anuradhaa%Subramanian%NULL%2,                          Anuradhaa%Subramanian%NULL%0,                          Mansoor N%Bangash%NULL%1,                          Thomas%Jackson%NULL%2,                          Thomas%Jackson%NULL%0,                          Dawit%Zemedikun%NULL%2,                          Dawit%Zemedikun%NULL%0,                          Tom%Taverner%NULL%2,                          Tom%Taverner%NULL%0,                          Wasim%Hanif%NULL%1,                          Sandip%Ghosh%NULL%1,                          Parth%Narendran%NULL%1,                          Konstantinos A%Toulis%NULL%1,                          Abd A%Tahrani%NULL%2,                          Abd A%Tahrani%NULL%0,                          Rajendra%Surenthirakumaran%NULL%2,                          Rajendra%Surenthirakumaran%NULL%0,                          Nicola J%Adderley%NULL%1,                          Shamil%Haroon%NULL%2,                          Shamil%Haroon%NULL%0,                          Kamlesh%Khunti%NULL%4,                          Kamlesh%Khunti%NULL%0,                          Christopher%Sainsbury%NULL%2,                          Christopher%Sainsbury%NULL%0,                          G Neil%Thomas%NULL%1,                          Krishnarajah%Nirantharakumar%NULL%2,                          Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                          Thomas%Servais%NULL%1,                          Leïla%Belkhir%NULL%1,                          Pierre-François%Laterre%NULL%1,                          Jean-Paul%Thissen%NULL%1,                          Bernard%Vandeleene%NULL%1,                          Dominique%Maiter%NULL%1,                          Jean C.%Yombi%NULL%1,                          Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                          Abdallah%Al-Salameh%NULL%3,                          Samy%Hadjadj%NULL%3,                          Thomas%Goronflot%NULL%1,                          Nicolas%Wiernsperger%NULL%1,                          Matthieu%Pichelin%NULL%3,                          Ingrid%Allix%NULL%3,                          Coralie%Amadou%NULL%2,                          Olivier%Bourron%NULL%2,                          Thierry%Duriez%NULL%1,                          Jean-François%Gautier%NULL%3,                          Anne%Dutour%NULL%1,                          Céline%Gonfroy%NULL%1,                          Didier%Gouet%NULL%1,                          Michael%Joubert%NULL%3,                          Ingrid%Julier%NULL%1,                          Etienne%Larger%NULL%1,                          Lucien%Marchand%NULL%3,                          Michel%Marre%NULL%1,                          Laurent%Meyer%NULL%3,                          Frédérique%Olivier%NULL%1,                          Gaëtan%Prevost%NULL%3,                          Pascale%Quiniou%NULL%1,                          Christelle%Raffaitin-Cardin%NULL%1,                          Ronan%Roussel%NULL%3,                          Pierre-Jean%Saulnier%NULL%3,                          Dominique%Seret-Begue%NULL%1,                          Charles%Thivolet%NULL%3,                          Camille%Vatier%NULL%2,                          Rachel%Desailloud%NULL%1,                          Matthieu%Wargny%NULL%3,                          Pierre%Gourdy%NULL%3,                          Bertrand%Cariou%NULL%1,                          NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                          Zhenyuan%Chen%NULL%1,                          Li%Liu%NULL%3,                          Xiaoxv%Yin%NULL%1,                          Heping%Yang%NULL%1,                          Xiangping%Tan%NULL%1,                          Jing%Wang%NULL%2,                          Hui%Li%NULL%13,                          Mengge%Tian%NULL%1,                          Zuxun%Lu%NULL%1,                          Nian%Xiong%NULL%4,                          Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                          Ye-Mao%Liu%NULL%2,                          Haomiao%Li%NULL%1,                          Xin%Zhang%NULL%1,                          Fang%Lei%NULL%2,                          Juan-Juan%Qin%NULL%2,                          Ze%Chen%NULL%1,                          Ke-Qiong%Deng%NULL%1,                          Lijin%Lin%NULL%2,                          Ming-Ming%Chen%NULL%2,                          Xiaohui%Song%NULL%1,                          Meng%Xia%NULL%2,                          Xuewei%Huang%NULL%2,                          Weifang%Liu%NULL%1,                          Jingjing%Cai%NULL%2,                          Xiao-Jing%Zhang%NULL%2,                          Feng%Zhou%NULL%1,                          Peng%Zhang%NULL%1,                          Yibin%Wang%NULL%2,                          Xinliang%Ma%NULL%1,                          Qingbo%Xu%NULL%2,                          Juan%Yang%NULL%3,                          Ping%Ye%NULL%2,                          Weiming%Mao%NULL%2,                          Xiaodong%Huang%NULL%2,                          Jiahong%Xia%NULL%2,                          Bing-Hong%Zhang%NULL%2,                          Jiao%Guo%NULL%1,                          Lihua%Zhu%NULL%2,                          Zhibing%Lu%NULL%3,                          Yufeng%Yuan%NULL%2,                          Xiang%Wei%NULL%1,                          Zhi-Gang%She%NULL%2,                          Yan-Xiao%Ji%NULL%2,                          Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                          Xi%Bai%NULL%1,                          Xia%Han%NULL%1,                          Wangyan%Jiang%NULL%1,                          Lin%Qiu%NULL%2,                          Shi%Chen%NULL%1,                          Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                          Yanhong%Wei%NULL%1,                          Min%Chen%NULL%1,                          Qianqian%Wan%NULL%1,                          Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                          Matteo%Monami%NULL%1,                          Achille%Cernigliaro%NULL%1,                          Enrica%Vigneri%NULL%1,                          Valentina%Guarnotta%NULL%1,                          Salvatore%Scondotto%NULL%1,                          Vincenza A.%Allotta%NULL%1,                          Michela%Conti%NULL%1,                          Carla%Giordano%NULL%1,                          Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                          Wen%Kong%NULL%1,                          Pengfei%Xia%NULL%1,                          Ying%Xu%NULL%1,                          Li%Li%NULL%3,                          Qin%Li%NULL%1,                          Li%Yang%NULL%3,                          Qi%Wei%NULL%3,                          Hanyu%Wang%NULL%1,                          Huiqing%Li%NULL%1,                          Juan%Zheng%NULL%1,                          Hui%Sun%NULL%1,                          Wenfang%Xia%NULL%1,                          Geng%Liu%NULL%1,                          Xueyu%Zhong%NULL%1,                          Kangli%Qiu%NULL%1,                          Yan%Li%NULL%1,                          Han%Wang%NULL%1,                          Yuxiu%Wang%NULL%1,                          Xiaoli%Song%NULL%1,                          Hua%Liu%NULL%1,                          Si%Xiong%NULL%1,                          Yumei%Liu%NULL%1,                          Zhenhai%Cui%NULL%1,                          Yu%Hu%NULL%6,                          Lulu%Chen%NULL%1,                          An%Pan%NULL%1,                          Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                          Qi%Wei%NULL%0,                          Willis X%Li%NULL%1,                          Karen C%McCowen%NULL%1,                          Wei%Xiong%NULL%2,                          Jiao%Liu%NULL%2,                          Wenlijun%Jiang%NULL%2,                          Traci%Marin%NULL%1,                          Robert L%Thomas%NULL%1,                          Ming%He%NULL%2,                          Brendan%Gongol%NULL%1,                          Mark%Hepokoski%NULL%2,                          Jason X-J%Yuan%NULL%1,                          John Y-J%Shyy%NULL%1,                          Nian%Xiong%NULL%0,                          Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                          Siyi%Xin%NULL%1,                          Yaqi%Chen%NULL%1,                          Leyu%Li%NULL%1,                          Wanjun%Chen%NULL%1,                          Wenjia%Li%NULL%1,                          Baoan%Zhou%NULL%1,                          Chenxia%Li%NULL%1,                          Yu%Gong%NULL%1,                          Fei%Li%NULL%1,                          Peng%Duan%NULL%1,                          Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                          John%Buse%NULL%2,                          John%Buse%NULL%0,                          Leonardo%Tamaritz%NULL%1,                          Ana%Palacio%NULL%2,                          Ken%Cohen%NULL%1,                          Deneen%Vojta%NULL%2,                          David%Liebovitz%NULL%1,                          Nia%Mitchell%NULL%1,                          Jacinda%Nicklas%NULL%1,                          Ildiko%Lingvay%NULL%1,                          Jeanne M.%Clark%NULL%1,                          Louis J.%Aronne%NULL%1,                          Erik%Anderson%NULL%1,                          Michael%Usher%NULL%1,                          Ryan%Demmer%NULL%1,                          Genevieve B.%Melton%NULL%1,                          Nicholas%Ingraham%NULL%1,                          Christopher J.%Tignanelli%NULL%2,                          Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                          In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                          Ana%Palacio%NULL%0,                          Elissa%Dawkins%NULL%1,                          Gordon%Chen%NULL%1,                          Daniel%McCarter%NULL%1,                          Emancia%Forbes%NULL%1,                          Brian%Chung%NULL%1,                          Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                          Qi%Wei%NULL%0,                          Karen C.%McCowen%NULL%1,                          Wei%Xiong%NULL%0,                          Jiao%Liu%NULL%0,                          Wenlijun%Jiang%NULL%0,                          Robert L.%Thomas%NULL%1,                          Mark%Hepokoski%NULL%0,                          Ming%He%NULL%0,                          John Y. J.%Shyy%NULL%1,                          Atul%Malhotra%NULL%0,                          Nian%Xiong%nianxiong@hust.edu.cn%0,                          Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                          T. A. N.%Reed%NULL%2,                          T. A. N.%Reed%NULL%0,                          M.%Ardissino%NULL%1,                          P.%Bassett%NULL%1,                          A. M.%Whittington%NULL%1,                          D. L.%Cohen%NULL%1,                          N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                          Walter%Distaso%NULL%2,                          Walter%Distaso%NULL%0,                          Anjali%Amin%NULL%1,                          Wei%Yang%NULL%1,                          Oluwagbemiga%Idowu%NULL%1,                          Julia S%Kenkre%NULL%1,                          Ronak J%Shah%NULL%1,                          Evelina%Woin%NULL%1,                          Christine%Shi%NULL%1,                          Nael%Alavi%NULL%2,                          Nael%Alavi%NULL%0,                          Hala%Bedri%NULL%1,                          Niamh%Brady%NULL%1,                          Sophie%Blackburn%NULL%1,                          Martina%Leczycka%NULL%1,                          Sanya%Patel%NULL%1,                          Elizaveta%Sokol%NULL%1,                          Edward%Toke-Bjolgerud%NULL%1,                          Ambreen%Qayum%NULL%1,                          Mariana%Abdel-Malek%NULL%1,                          David C D%Hope%NULL%1,                          Nick S%Oliver%NULL%1,                          Vasiliki%Bravis%NULL%1,                          Shivani%Misra%NULL%1,                          Tricia M%Tan%NULL%1,                          Neil E%Hill%NULL%2,                          Neil E%Hill%NULL%0,                          Victoria%Salem%NULL%2,                          Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                          Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                          Tiffany%Grimes%NULL%1,                          Peng%Li%NULL%1,                          Matthew%Might%NULL%1,                          Fernando%Ovalle%NULL%1,                          Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                          Nicholas E%Ingraham%NULL%1,                          Thomas A%Murray%NULL%1,                          Schelomo%Marmor%NULL%1,                          Shane%Hovertsen%NULL%1,                          Jessica%Gronski%NULL%1,                          Chace%McNeil%NULL%1,                          Ruoying%Feng%NULL%1,                          Gabriel%Guzman%NULL%1,                          Nermine%Abdelwahab%NULL%1,                          Samantha%King%NULL%1,                          Leonardo%Tamariz%NULL%0,                          Thomas%Meehan%NULL%1,                          Kathryn M%Pendleton%NULL%1,                          Bradley%Benson%NULL%1,                          Deneen%Vojta%NULL%0,                          Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                          Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                          Matthieu%Wargny%NULL%0,                          Matthieu%Wargny%NULL%0,                          Matthieu%Pichelin%NULL%0,                          Matthieu%Pichelin%NULL%0,                          Abdallah%Al-Salameh%NULL%0,                          Abdallah%Al-Salameh%NULL%0,                          Ingrid%Allix%NULL%0,                          Ingrid%Allix%NULL%0,                          Coralie%Amadou%NULL%0,                          Gwénaëlle%Arnault%NULL%2,                          Gwénaëlle%Arnault%NULL%0,                          Florence%Baudoux%NULL%1,                          Bernard%Bauduceau%NULL%1,                          Sophie%Borot%NULL%1,                          Muriel%Bourgeon-Ghittori%NULL%2,                          Muriel%Bourgeon-Ghittori%NULL%0,                          Olivier%Bourron%NULL%0,                          David%Boutoille%NULL%4,                          David%Boutoille%NULL%0,                          France%Cazenave-Roblot%NULL%3,                          France%Cazenave-Roblot%NULL%0,                          Claude%Chaumeil%NULL%2,                          Claude%Chaumeil%NULL%0,                          Emmanuel%Cosson%NULL%1,                          Sandrine%Coudol%NULL%2,                          Sandrine%Coudol%NULL%0,                          Patrice%Darmon%NULL%1,                          Emmanuel%Disse%NULL%2,                          Emmanuel%Disse%NULL%0,                          Amélie%Ducet-Boiffard%NULL%2,                          Amélie%Ducet-Boiffard%NULL%0,                          Bénédicte%Gaborit%NULL%1,                          Michael%Joubert%NULL%0,                          Michael%Joubert%NULL%0,                          Véronique%Kerlan%NULL%2,                          Véronique%Kerlan%NULL%0,                          Bruno%Laviolle%NULL%1,                          Lucien%Marchand%NULL%0,                          Lucien%Marchand%NULL%0,                          Laurent%Meyer%NULL%0,                          Laurent%Meyer%NULL%0,                          Louis%Potier%NULL%2,                          Louis%Potier%NULL%0,                          Gaëtan%Prevost%NULL%0,                          Gaëtan%Prevost%NULL%0,                          Jean-Pierre%Riveline%NULL%1,                          René%Robert%NULL%2,                          René%Robert%NULL%0,                          Pierre-Jean%Saulnier%NULL%0,                          Pierre-Jean%Saulnier%NULL%0,                          Ariane%Sultan%NULL%2,                          Ariane%Sultan%NULL%0,                          Jean-François%Thébaut%NULL%2,                          Jean-François%Thébaut%NULL%0,                          Charles%Thivolet%NULL%0,                          Charles%Thivolet%NULL%0,                          Blandine%Tramunt%NULL%2,                          Blandine%Tramunt%NULL%0,                          Camille%Vatier%NULL%0,                          Ronan%Roussel%NULL%0,                          Ronan%Roussel%NULL%0,                          Jean-François%Gautier%NULL%0,                          Jean-François%Gautier%NULL%0,                          Pierre%Gourdy%NULL%0,                          Pierre%Gourdy%NULL%0,                          NULL%NULL%NULL%0,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                          Peter%Knighton%NULL%1,                          Francesco%Zaccardi%NULL%2,                          Chirag%Bakhai%NULL%1,                          Emma%Barron%NULL%1,                          Naomi%Holman%NULL%1,                          Partha%Kar%NULL%1,                          Claire%Meace%NULL%1,                          Naveed%Sattar%NULL%1,                          Stephen%Sharp%NULL%1,                          Nicholas J%Wareham%NULL%1,                          Andy%Weaver%NULL%1,                          Emilia%Woch%NULL%1,                          Bob%Young%NULL%1,                          Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                          José David%Torres-Peña%NULL%1,                          María D.%López-Carmona%NULL%1,                          M. Mar.%Ayala-Gutiérrez%NULL%1,                          Francisco%Fuentes-Jiménez%NULL%1,                          Lucía Jorge%Huerta%NULL%1,                          Jaime Alonso%Muñoz%NULL%1,                          Manuel%Rubio-Rivas%NULL%1,                          Manel%Madrazo%NULL%1,                          Marcos Guzmán%Garcia%NULL%1,                          Beatriz Vicente%Montes%NULL%1,                          Joaquim Fernández%Sola%NULL%1,                          Javier%Ena%NULL%1,                          Ruth Gonzalez%Ferrer%NULL%1,                          Carmen Mella%Pérez%NULL%1,                          Carlos Jorge%Ripper%NULL%1,                          Jose Javier Napal%Lecumberri%NULL%1,                          Iris El Attar%Acedo%NULL%1,                          Susana Plaza%Canteli%NULL%1,                          Sara Fuente%Cosío%NULL%1,                          Francisco Amorós%Martínez%NULL%1,                          Begoña Cortés%Rodríguez%NULL%1,                          Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                          José Manuel%Ramos-Rincón%NULL%1,                          Ricardo%Gómez-Huelgas%NULL%1,                          NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                          Sang Won%Kim%NULL%1,                          Jong Won%Park%NULL%1,                          Kyu Hyang%Cho%NULL%1,                          Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                          Philip%Tsoukas%NULL%1,                          Christopher W.%Halladay%NULL%1,                          Emily%O'Neill%NULL%1,                          Stefan%Gravenstein%NULL%1,                          James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                          Tao%Liu%NULL%2,                          Weijun%Zhong%NULL%1,                          Rong%Liu%NULL%1,                          Honghao%Zhou%NULL%1,                          Weihua%Huang%endeavor34852@aliyun.com%1,                          Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                          Jae-Han%Jeon%NULL%2,                          Jae-Han%Jeon%NULL%0,                          Sung-Woo%Kim%NULL%2,                          Sung-Woo%Kim%NULL%0,                          Jun Sung%Moon%NULL%1,                          Nan Hee%Cho%NULL%1,                          Eugene%Han%NULL%1,                          Ji Hong%You%NULL%1,                          Ji Yeon%Lee%NULL%4,                          Miri%Hyun%NULL%1,                          Jae Seok%Park%NULL%4,                          Yong Shik%Kwon%NULL%2,                          Yeon-Kyung%Choi%NULL%1,                          Ki Tae%Kwon%NULL%1,                          Shin Yup%Lee%NULL%1,                          Eon Ju%Jeon%NULL%1,                          Jin-Woo%Kim%NULL%1,                          Hyo-Lim%Hong%NULL%1,                          Hyun Hee%Kwon%NULL%1,                          Chi Young%Jung%NULL%1,                          Yin Young%Lee%NULL%1,                          Eunyeoung%Ha%NULL%1,                          Seung Min%Chung%NULL%1,                          Jian%Hur%NULL%2,                          June Hong%Ahn%NULL%3,                          Na-young%Kim%NULL%1,                          Shin-Woo%Kim%NULL%3,                          Hyun Ha%Chang%NULL%1,                          Yong Hoon%Lee%NULL%1,                          Jaehee%Lee%NULL%1,                          Keun-Gyu%Park%NULL%1,                          Hyun Ah%Kim%NULL%1,                          Ji-Hyun%Lee%NULL%2,                          Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                          Lin%Qiu%NULL%0,                          Yi%Liu%NULL%2,                          Xiu-lan%Liu%NULL%1,                          Jian-ling%Zheng%NULL%1,                          Hui-ying%Xue%NULL%1,                          Wen-hua%Liu%NULL%1,                          Dong%Liu%NULL%3,                          Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                           N.% Smati%null%1,                           C. S. J.% Wong%null%1,                           K.% Aspey%null%1,                           M. A. % Mendall%null%1,        Z.%Philipose%null%1,        N.% Smati%null%1,        C. S. J.% Wong%null%1,        K.% Aspey%null%1,        M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                           A.% Anisimovich%null%1,                           J.% Baxter%null%1,                           L.% Mackillop%null%1,                           M. P.% Vizcaychipi%null%1,                           A.% McCarthy%null%1,                           R. T. % Khan%null%1,        B.%Abu-Jamous%null%1,        A.% Anisimovich%null%1,        J.% Baxter%null%1,        L.% Mackillop%null%1,        M. P.% Vizcaychipi%null%1,        A.% McCarthy%null%1,        R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                           D.% Bates%null%1,                           J. M.% Fiskio%null%1,                           E. C.% Roche%null%1,                           S.% Mora%null%1,                           O. % Demler%null%1,        H. T.%Dashti%null%1,        D.% Bates%null%1,        J. M.% Fiskio%null%1,        E. C.% Roche%null%1,        S.% Mora%null%1,        O. % Demler%null%1]</t>
+  </si>
+  <si>
+    <t>[Jingya%Wang%NULL%1,                           Jennifer M%Cooper%NULL%2,                           Jennifer M%Cooper%NULL%0,                           Krishna%Gokhale%NULL%1,                           Dionisio%Acosta-Mena%NULL%1,                           Samir%Dhalla%NULL%1,                           Nathan%Byne%NULL%1,                           Joht Singh%Chandan%NULL%1,                           Astha%Anand%NULL%2,                           Astha%Anand%NULL%0,                           Kelvin%Okoth%NULL%1,                           Anuradhaa%Subramanian%NULL%2,                           Anuradhaa%Subramanian%NULL%0,                           Mansoor N%Bangash%NULL%1,                           Thomas%Jackson%NULL%2,                           Thomas%Jackson%NULL%0,                           Dawit%Zemedikun%NULL%2,                           Dawit%Zemedikun%NULL%0,                           Tom%Taverner%NULL%2,                           Tom%Taverner%NULL%0,                           Wasim%Hanif%NULL%1,                           Sandip%Ghosh%NULL%1,                           Parth%Narendran%NULL%1,                           Konstantinos A%Toulis%NULL%1,                           Abd A%Tahrani%NULL%2,                           Abd A%Tahrani%NULL%0,                           Rajendra%Surenthirakumaran%NULL%2,                           Rajendra%Surenthirakumaran%NULL%0,                           Nicola J%Adderley%NULL%1,                           Shamil%Haroon%NULL%2,                           Shamil%Haroon%NULL%0,                           Kamlesh%Khunti%NULL%4,                           Kamlesh%Khunti%NULL%0,                           Christopher%Sainsbury%NULL%2,                           Christopher%Sainsbury%NULL%0,                           G Neil%Thomas%NULL%1,                           Krishnarajah%Nirantharakumar%NULL%2,                           Krishnarajah%Nirantharakumar%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Laura%Orioli%NULL%1,                           Thomas%Servais%NULL%1,                           Leïla%Belkhir%NULL%1,                           Pierre-François%Laterre%NULL%1,                           Jean-Paul%Thissen%NULL%1,                           Bernard%Vandeleene%NULL%1,                           Dominique%Maiter%NULL%1,                           Jean C.%Yombi%NULL%1,                           Michel P.%Hermans%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jean-Daniel%Lalau%NULL%1,                           Abdallah%Al-Salameh%NULL%3,                           Samy%Hadjadj%NULL%3,                           Thomas%Goronflot%NULL%1,                           Nicolas%Wiernsperger%NULL%1,                           Matthieu%Pichelin%NULL%3,                           Ingrid%Allix%NULL%3,                           Coralie%Amadou%NULL%2,                           Olivier%Bourron%NULL%2,                           Thierry%Duriez%NULL%1,                           Jean-François%Gautier%NULL%3,                           Anne%Dutour%NULL%1,                           Céline%Gonfroy%NULL%1,                           Didier%Gouet%NULL%1,                           Michael%Joubert%NULL%3,                           Ingrid%Julier%NULL%1,                           Etienne%Larger%NULL%1,                           Lucien%Marchand%NULL%3,                           Michel%Marre%NULL%1,                           Laurent%Meyer%NULL%3,                           Frédérique%Olivier%NULL%1,                           Gaëtan%Prevost%NULL%3,                           Pascale%Quiniou%NULL%1,                           Christelle%Raffaitin-Cardin%NULL%1,                           Ronan%Roussel%NULL%3,                           Pierre-Jean%Saulnier%NULL%3,                           Dominique%Seret-Begue%NULL%1,                           Charles%Thivolet%NULL%3,                           Camille%Vatier%NULL%2,                           Rachel%Desailloud%NULL%1,                           Matthieu%Wargny%NULL%3,                           Pierre%Gourdy%NULL%3,                           Bertrand%Cariou%NULL%1,                           NULL%NULL%NULL%39]</t>
+  </si>
+  <si>
+    <t>[Nan%Jiang%NULL%1,                           Zhenyuan%Chen%NULL%1,                           Li%Liu%NULL%3,                           Xiaoxv%Yin%NULL%1,                           Heping%Yang%NULL%1,                           Xiangping%Tan%NULL%1,                           Jing%Wang%NULL%2,                           Hui%Li%NULL%13,                           Mengge%Tian%NULL%1,                           Zuxun%Lu%NULL%1,                           Nian%Xiong%NULL%4,                           Yanhong%Gong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Xu%Cheng%NULL%1,                           Ye-Mao%Liu%NULL%2,                           Haomiao%Li%NULL%1,                           Xin%Zhang%NULL%1,                           Fang%Lei%NULL%2,                           Juan-Juan%Qin%NULL%2,                           Ze%Chen%NULL%1,                           Ke-Qiong%Deng%NULL%1,                           Lijin%Lin%NULL%2,                           Ming-Ming%Chen%NULL%2,                           Xiaohui%Song%NULL%1,                           Meng%Xia%NULL%2,                           Xuewei%Huang%NULL%2,                           Weifang%Liu%NULL%1,                           Jingjing%Cai%NULL%2,                           Xiao-Jing%Zhang%NULL%2,                           Feng%Zhou%NULL%1,                           Peng%Zhang%NULL%1,                           Yibin%Wang%NULL%2,                           Xinliang%Ma%NULL%1,                           Qingbo%Xu%NULL%2,                           Juan%Yang%NULL%3,                           Ping%Ye%NULL%2,                           Weiming%Mao%NULL%2,                           Xiaodong%Huang%NULL%2,                           Jiahong%Xia%NULL%2,                           Bing-Hong%Zhang%NULL%2,                           Jiao%Guo%NULL%1,                           Lihua%Zhu%NULL%2,                           Zhibing%Lu%NULL%3,                           Yufeng%Yuan%NULL%2,                           Xiang%Wei%NULL%1,                           Zhi-Gang%She%NULL%2,                           Yan-Xiao%Ji%NULL%2,                           Hongliang%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Zhelong%Liu%NULL%1,                           Xi%Bai%NULL%1,                           Xia%Han%NULL%1,                           Wangyan%Jiang%NULL%1,                           Lin%Qiu%NULL%2,                           Shi%Chen%NULL%1,                           Xuefeng%Yu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Qianhui%Zhang%NULL%1,                           Yanhong%Wei%NULL%1,                           Min%Chen%NULL%1,                           Qianqian%Wan%NULL%1,                           Xiaoqi%Chen%NULL%1]</t>
+  </si>
+  <si>
+    <t>[G. Antonio%Silverii%NULL%1,                           Matteo%Monami%NULL%1,                           Achille%Cernigliaro%NULL%1,                           Enrica%Vigneri%NULL%1,                           Valentina%Guarnotta%NULL%1,                           Salvatore%Scondotto%NULL%1,                           Vincenza A.%Allotta%NULL%1,                           Michela%Conti%NULL%1,                           Carla%Giordano%NULL%1,                           Edoardo%Mannucci%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jiaoyue%Zhang%NULL%1,                           Wen%Kong%NULL%1,                           Pengfei%Xia%NULL%1,                           Ying%Xu%NULL%1,                           Li%Li%NULL%3,                           Qin%Li%NULL%1,                           Li%Yang%NULL%3,                           Qi%Wei%NULL%3,                           Hanyu%Wang%NULL%1,                           Huiqing%Li%NULL%1,                           Juan%Zheng%NULL%1,                           Hui%Sun%NULL%1,                           Wenfang%Xia%NULL%1,                           Geng%Liu%NULL%1,                           Xueyu%Zhong%NULL%1,                           Kangli%Qiu%NULL%1,                           Yan%Li%NULL%1,                           Han%Wang%NULL%1,                           Yuxiu%Wang%NULL%1,                           Xiaoli%Song%NULL%1,                           Hua%Liu%NULL%1,                           Si%Xiong%NULL%1,                           Yumei%Liu%NULL%1,                           Zhenhai%Cui%NULL%1,                           Yu%Hu%NULL%6,                           Lulu%Chen%NULL%1,                           An%Pan%NULL%1,                           Tianshu%Zeng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%2,                           Qi%Wei%NULL%0,                           Willis X%Li%NULL%1,                           Karen C%McCowen%NULL%1,                           Wei%Xiong%NULL%2,                           Jiao%Liu%NULL%2,                           Wenlijun%Jiang%NULL%2,                           Traci%Marin%NULL%1,                           Robert L%Thomas%NULL%1,                           Ming%He%NULL%2,                           Brendan%Gongol%NULL%1,                           Mark%Hepokoski%NULL%2,                           Jason X-J%Yuan%NULL%1,                           John Y-J%Shyy%NULL%1,                           Nian%Xiong%NULL%0,                           Atul%Malhotra%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Xueqi%Cheng%NULL%1,                           Siyi%Xin%NULL%1,                           Yaqi%Chen%NULL%1,                           Leyu%Li%NULL%1,                           Wanjun%Chen%NULL%1,                           Wenjia%Li%NULL%1,                           Baoan%Zhou%NULL%1,                           Chenxia%Li%NULL%1,                           Yu%Gong%NULL%1,                           Fei%Li%NULL%1,                           Peng%Duan%NULL%1,                           Xingjian%Zhou%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T.%Bramante%bramante@umn.edu%0,                           John%Buse%NULL%2,                           John%Buse%NULL%0,                           Leonardo%Tamaritz%NULL%1,                           Ana%Palacio%NULL%2,                           Ken%Cohen%NULL%1,                           Deneen%Vojta%NULL%2,                           David%Liebovitz%NULL%1,                           Nia%Mitchell%NULL%1,                           Jacinda%Nicklas%NULL%1,                           Ildiko%Lingvay%NULL%1,                           Jeanne M.%Clark%NULL%1,                           Louis J.%Aronne%NULL%1,                           Erik%Anderson%NULL%1,                           Michael%Usher%NULL%1,                           Ryan%Demmer%NULL%1,                           Genevieve B.%Melton%NULL%1,                           Nicholas%Ingraham%NULL%1,                           Christopher J.%Tignanelli%NULL%2,                           Christopher J.%Tignanelli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Tak Kyu%Oh%NULL%2,                           In-Ae%Song%songoficu@outlook.kr%1]</t>
+  </si>
+  <si>
+    <t>[Reyan%Ghany%NULL%1,                           Ana%Palacio%NULL%0,                           Elissa%Dawkins%NULL%1,                           Gordon%Chen%NULL%1,                           Daniel%McCarter%NULL%1,                           Emancia%Forbes%NULL%1,                           Brian%Chung%NULL%1,                           Leonardo%Tamariz%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Jinghong%Li%NULL%0,                           Qi%Wei%NULL%0,                           Karen C.%McCowen%NULL%1,                           Wei%Xiong%NULL%0,                           Jiao%Liu%NULL%0,                           Wenlijun%Jiang%NULL%0,                           Robert L.%Thomas%NULL%1,                           Mark%Hepokoski%NULL%0,                           Ming%He%NULL%0,                           John Y. J.%Shyy%NULL%1,                           Atul%Malhotra%NULL%0,                           Nian%Xiong%nianxiong@hust.edu.cn%0,                           Willis X.%Li%wxli@health.ucsd.edu%1]</t>
+  </si>
+  <si>
+    <t>[J. W.%Goodall%NULL%1,                           T. A. N.%Reed%NULL%2,                           T. A. N.%Reed%NULL%0,                           M.%Ardissino%NULL%1,                           P.%Bassett%NULL%1,                           A. M.%Whittington%NULL%1,                           D. L.%Cohen%NULL%1,                           N.%Vaid%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chioma%Izzi-Engbeaya%NULL%1,                           Walter%Distaso%NULL%2,                           Walter%Distaso%NULL%0,                           Anjali%Amin%NULL%1,                           Wei%Yang%NULL%1,                           Oluwagbemiga%Idowu%NULL%1,                           Julia S%Kenkre%NULL%1,                           Ronak J%Shah%NULL%1,                           Evelina%Woin%NULL%1,                           Christine%Shi%NULL%1,                           Nael%Alavi%NULL%2,                           Nael%Alavi%NULL%0,                           Hala%Bedri%NULL%1,                           Niamh%Brady%NULL%1,                           Sophie%Blackburn%NULL%1,                           Martina%Leczycka%NULL%1,                           Sanya%Patel%NULL%1,                           Elizaveta%Sokol%NULL%1,                           Edward%Toke-Bjolgerud%NULL%1,                           Ambreen%Qayum%NULL%1,                           Mariana%Abdel-Malek%NULL%1,                           David C D%Hope%NULL%1,                           Nick S%Oliver%NULL%1,                           Vasiliki%Bravis%NULL%1,                           Shivani%Misra%NULL%1,                           Tricia M%Tan%NULL%1,                           Neil E%Hill%NULL%2,                           Neil E%Hill%NULL%0,                           Victoria%Salem%NULL%2,                           Victoria%Salem%NULL%0]</t>
+  </si>
+  <si>
+    <t>[So-Yeon%Kim%NULL%1,                           Kyung-Soo%Kim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andrew B.%Crouse%NULL%2,                           Tiffany%Grimes%NULL%1,                           Peng%Li%NULL%1,                           Matthew%Might%NULL%1,                           Fernando%Ovalle%NULL%1,                           Anath%Shalev%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolyn T%Bramante%NULL%1,                           Nicholas E%Ingraham%NULL%1,                           Thomas A%Murray%NULL%1,                           Schelomo%Marmor%NULL%1,                           Shane%Hovertsen%NULL%1,                           Jessica%Gronski%NULL%1,                           Chace%McNeil%NULL%1,                           Ruoying%Feng%NULL%1,                           Gabriel%Guzman%NULL%1,                           Nermine%Abdelwahab%NULL%1,                           Samantha%King%NULL%1,                           Leonardo%Tamariz%NULL%0,                           Thomas%Meehan%NULL%1,                           Kathryn M%Pendleton%NULL%1,                           Bradley%Benson%NULL%1,                           Deneen%Vojta%NULL%0,                           Christopher J%Tignanelli%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Bertrand%Cariou%bertrand.cariou@univ-nantes.fr%1,                           Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                           Samy%Hadjadj%samy.hadjadj@univ-nantes.fr%0,                           Matthieu%Wargny%NULL%0,                           Matthieu%Wargny%NULL%0,                           Matthieu%Pichelin%NULL%0,                           Matthieu%Pichelin%NULL%0,                           Abdallah%Al-Salameh%NULL%0,                           Abdallah%Al-Salameh%NULL%0,                           Ingrid%Allix%NULL%0,                           Ingrid%Allix%NULL%0,                           Coralie%Amadou%NULL%0,                           Gwénaëlle%Arnault%NULL%2,                           Gwénaëlle%Arnault%NULL%0,                           Florence%Baudoux%NULL%1,                           Bernard%Bauduceau%NULL%1,                           Sophie%Borot%NULL%1,                           Muriel%Bourgeon-Ghittori%NULL%2,                           Muriel%Bourgeon-Ghittori%NULL%0,                           Olivier%Bourron%NULL%0,                           David%Boutoille%NULL%4,                           David%Boutoille%NULL%0,                           France%Cazenave-Roblot%NULL%3,                           France%Cazenave-Roblot%NULL%0,                           Claude%Chaumeil%NULL%2,                           Claude%Chaumeil%NULL%0,                           Emmanuel%Cosson%NULL%1,                           Sandrine%Coudol%NULL%2,                           Sandrine%Coudol%NULL%0,                           Patrice%Darmon%NULL%1,                           Emmanuel%Disse%NULL%2,                           Emmanuel%Disse%NULL%0,                           Amélie%Ducet-Boiffard%NULL%2,                           Amélie%Ducet-Boiffard%NULL%0,                           Bénédicte%Gaborit%NULL%1,                           Michael%Joubert%NULL%0,                           Michael%Joubert%NULL%0,                           Véronique%Kerlan%NULL%2,                           Véronique%Kerlan%NULL%0,                           Bruno%Laviolle%NULL%1,                           Lucien%Marchand%NULL%0,                           Lucien%Marchand%NULL%0,                           Laurent%Meyer%NULL%0,                           Laurent%Meyer%NULL%0,                           Louis%Potier%NULL%2,                           Louis%Potier%NULL%0,                           Gaëtan%Prevost%NULL%0,                           Gaëtan%Prevost%NULL%0,                           Jean-Pierre%Riveline%NULL%1,                           René%Robert%NULL%2,                           René%Robert%NULL%0,                           Pierre-Jean%Saulnier%NULL%0,                           Pierre-Jean%Saulnier%NULL%0,                           Ariane%Sultan%NULL%2,                           Ariane%Sultan%NULL%0,                           Jean-François%Thébaut%NULL%2,                           Jean-François%Thébaut%NULL%0,                           Charles%Thivolet%NULL%0,                           Charles%Thivolet%NULL%0,                           Blandine%Tramunt%NULL%2,                           Blandine%Tramunt%NULL%0,                           Camille%Vatier%NULL%0,                           Ronan%Roussel%NULL%0,                           Ronan%Roussel%NULL%0,                           Jean-François%Gautier%NULL%0,                           Jean-François%Gautier%NULL%0,                           Pierre%Gourdy%NULL%0,                           Pierre%Gourdy%NULL%0,                           NULL%NULL%NULL%0,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Kamlesh%Khunti%NULL%1,                           Peter%Knighton%NULL%1,                           Francesco%Zaccardi%NULL%2,                           Chirag%Bakhai%NULL%1,                           Emma%Barron%NULL%1,                           Naomi%Holman%NULL%1,                           Partha%Kar%NULL%1,                           Claire%Meace%NULL%1,                           Naveed%Sattar%NULL%1,                           Stephen%Sharp%NULL%1,                           Nicholas J%Wareham%NULL%1,                           Andy%Weaver%NULL%1,                           Emilia%Woch%NULL%1,                           Bob%Young%NULL%1,                           Jonathan%Valabhji%NULL%2]</t>
+  </si>
+  <si>
+    <t>[Luis M.%Pérez-Belmonte%luismiguelpb1984@gmail.com%1,                           José David%Torres-Peña%NULL%1,                           María D.%López-Carmona%NULL%1,                           M. Mar.%Ayala-Gutiérrez%NULL%1,                           Francisco%Fuentes-Jiménez%NULL%1,                           Lucía Jorge%Huerta%NULL%1,                           Jaime Alonso%Muñoz%NULL%1,                           Manuel%Rubio-Rivas%NULL%1,                           Manel%Madrazo%NULL%1,                           Marcos Guzmán%Garcia%NULL%1,                           Beatriz Vicente%Montes%NULL%1,                           Joaquim Fernández%Sola%NULL%1,                           Javier%Ena%NULL%1,                           Ruth Gonzalez%Ferrer%NULL%1,                           Carmen Mella%Pérez%NULL%1,                           Carlos Jorge%Ripper%NULL%1,                           Jose Javier Napal%Lecumberri%NULL%1,                           Iris El Attar%Acedo%NULL%1,                           Susana Plaza%Canteli%NULL%1,                           Sara Fuente%Cosío%NULL%1,                           Francisco Amorós%Martínez%NULL%1,                           Begoña Cortés%Rodríguez%NULL%1,                           Pablo%Pérez-Martínez%pablopermar@yahoo.es%1,                           José Manuel%Ramos-Rincón%NULL%1,                           Ricardo%Gómez-Huelgas%NULL%1,                           NULL%NULL%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jun Young%Do%NULL%1,                           Sang Won%Kim%NULL%1,                           Jong Won%Park%NULL%1,                           Kyu Hyang%Cho%NULL%1,                           Seok Hui%Kang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Michelle A.%Lally%NULL%1,                           Philip%Tsoukas%NULL%1,                           Christopher W.%Halladay%NULL%1,                           Emily%O'Neill%NULL%1,                           Stefan%Gravenstein%NULL%1,                           James L.%Rudolph%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Yongchao%Gao%NULL%1,                           Tao%Liu%NULL%2,                           Weijun%Zhong%NULL%1,                           Rong%Liu%NULL%1,                           Honghao%Zhou%NULL%1,                           Weihua%Huang%endeavor34852@aliyun.com%1,                           Wei%Zhang%csuzhangwei@csu.edu.cn%2]</t>
+  </si>
+  <si>
+    <t>[Mi Kyung%Kim%NULL%1,                           Jae-Han%Jeon%NULL%2,                           Jae-Han%Jeon%NULL%0,                           Sung-Woo%Kim%NULL%2,                           Sung-Woo%Kim%NULL%0,                           Jun Sung%Moon%NULL%1,                           Nan Hee%Cho%NULL%1,                           Eugene%Han%NULL%1,                           Ji Hong%You%NULL%1,                           Ji Yeon%Lee%NULL%4,                           Miri%Hyun%NULL%1,                           Jae Seok%Park%NULL%4,                           Yong Shik%Kwon%NULL%2,                           Yeon-Kyung%Choi%NULL%1,                           Ki Tae%Kwon%NULL%1,                           Shin Yup%Lee%NULL%1,                           Eon Ju%Jeon%NULL%1,                           Jin-Woo%Kim%NULL%1,                           Hyo-Lim%Hong%NULL%1,                           Hyun Hee%Kwon%NULL%1,                           Chi Young%Jung%NULL%1,                           Yin Young%Lee%NULL%1,                           Eunyeoung%Ha%NULL%1,                           Seung Min%Chung%NULL%1,                           Jian%Hur%NULL%2,                           June Hong%Ahn%NULL%3,                           Na-young%Kim%NULL%1,                           Shin-Woo%Kim%NULL%3,                           Hyun Ha%Chang%NULL%1,                           Yong Hoon%Lee%NULL%1,                           Jaehee%Lee%NULL%1,                           Keun-Gyu%Park%NULL%1,                           Hyun Ah%Kim%NULL%1,                           Ji-Hyun%Lee%NULL%2,                           Ji-Hyun%Lee%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Pan%Luo%NULL%1,                           Lin%Qiu%NULL%0,                           Yi%Liu%NULL%2,                           Xiu-lan%Liu%NULL%1,                           Jian-ling%Zheng%NULL%1,                           Hui-ying%Xue%NULL%1,                           Wen-hua%Liu%NULL%1,                           Dong%Liu%NULL%3,                           Juan%Li%NULL%3]</t>
+  </si>
+  <si>
+    <t>[ Z.%Philipose%null%1,                            N.% Smati%null%1,                            C. S. J.% Wong%null%1,                            K.% Aspey%null%1,                            M. A. % Mendall%null%1,         Z.%Philipose%null%1,         N.% Smati%null%1,         C. S. J.% Wong%null%1,         K.% Aspey%null%1,         M. A. % Mendall%null%1]</t>
+  </si>
+  <si>
+    <t>[ B.%Abu-Jamous%null%1,                            A.% Anisimovich%null%1,                            J.% Baxter%null%1,                            L.% Mackillop%null%1,                            M. P.% Vizcaychipi%null%1,                            A.% McCarthy%null%1,                            R. T. % Khan%null%1,         B.%Abu-Jamous%null%1,         A.% Anisimovich%null%1,         J.% Baxter%null%1,         L.% Mackillop%null%1,         M. P.% Vizcaychipi%null%1,         A.% McCarthy%null%1,         R. T. % Khan%null%1]</t>
+  </si>
+  <si>
+    <t>[ H. T.%Dashti%null%1,                            D.% Bates%null%1,                            J. M.% Fiskio%null%1,                            E. C.% Roche%null%1,                            S.% Mora%null%1,                            O. % Demler%null%1,         H. T.%Dashti%null%1,         D.% Bates%null%1,         J. M.% Fiskio%null%1,         E. C.% Roche%null%1,         S.% Mora%null%1,         O. % Demler%null%1]</t>
   </si>
 </sst>
 </file>
@@ -3738,7 +3924,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>943</v>
+        <v>1005</v>
       </c>
       <c r="F2" t="s">
         <v>50</v>
@@ -3770,7 +3956,7 @@
         <v>54</v>
       </c>
       <c r="E3" t="s">
-        <v>944</v>
+        <v>1006</v>
       </c>
       <c r="F3" t="s">
         <v>56</v>
@@ -3802,7 +3988,7 @@
         <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>945</v>
+        <v>1007</v>
       </c>
       <c r="F4" t="s">
         <v>61</v>
@@ -3834,7 +4020,7 @@
         <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>946</v>
+        <v>1008</v>
       </c>
       <c r="F5" t="s">
         <v>66</v>
@@ -3866,7 +4052,7 @@
         <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>947</v>
+        <v>1009</v>
       </c>
       <c r="F6" t="s">
         <v>71</v>
@@ -3898,7 +4084,7 @@
         <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>948</v>
+        <v>1010</v>
       </c>
       <c r="F7" t="s">
         <v>76</v>
@@ -3930,7 +4116,7 @@
         <v>79</v>
       </c>
       <c r="E8" t="s">
-        <v>949</v>
+        <v>1011</v>
       </c>
       <c r="F8" t="s">
         <v>81</v>
@@ -3962,7 +4148,7 @@
         <v>84</v>
       </c>
       <c r="E9" t="s">
-        <v>950</v>
+        <v>1012</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -3994,7 +4180,7 @@
         <v>89</v>
       </c>
       <c r="E10" t="s">
-        <v>951</v>
+        <v>1013</v>
       </c>
       <c r="F10" t="s">
         <v>91</v>
@@ -4026,7 +4212,7 @@
         <v>94</v>
       </c>
       <c r="E11" t="s">
-        <v>952</v>
+        <v>1014</v>
       </c>
       <c r="F11" t="s">
         <v>96</v>
@@ -4058,7 +4244,7 @@
         <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>953</v>
+        <v>1015</v>
       </c>
       <c r="F12" t="s">
         <v>101</v>
@@ -4090,7 +4276,7 @@
         <v>104</v>
       </c>
       <c r="E13" t="s">
-        <v>954</v>
+        <v>1016</v>
       </c>
       <c r="F13" t="s">
         <v>106</v>
@@ -4122,7 +4308,7 @@
         <v>531</v>
       </c>
       <c r="E14" t="s">
-        <v>955</v>
+        <v>1017</v>
       </c>
       <c r="F14" t="s">
         <v>111</v>
@@ -4154,7 +4340,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>956</v>
+        <v>1018</v>
       </c>
       <c r="F15" t="s">
         <v>116</v>
@@ -4186,7 +4372,7 @@
         <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>957</v>
+        <v>1019</v>
       </c>
       <c r="F16" t="s">
         <v>121</v>
@@ -4218,7 +4404,7 @@
         <v>124</v>
       </c>
       <c r="E17" t="s">
-        <v>958</v>
+        <v>1020</v>
       </c>
       <c r="F17" t="s">
         <v>126</v>
@@ -4250,7 +4436,7 @@
         <v>129</v>
       </c>
       <c r="E18" t="s">
-        <v>959</v>
+        <v>1021</v>
       </c>
       <c r="F18" t="s">
         <v>131</v>
@@ -4282,7 +4468,7 @@
         <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>960</v>
+        <v>1022</v>
       </c>
       <c r="F19" t="s">
         <v>136</v>
@@ -4314,7 +4500,7 @@
         <v>138</v>
       </c>
       <c r="E20" t="s">
-        <v>961</v>
+        <v>1023</v>
       </c>
       <c r="F20" t="s">
         <v>140</v>
@@ -4346,7 +4532,7 @@
         <v>142</v>
       </c>
       <c r="E21" t="s">
-        <v>962</v>
+        <v>1024</v>
       </c>
       <c r="F21" t="s">
         <v>144</v>
@@ -4378,7 +4564,7 @@
         <v>540</v>
       </c>
       <c r="E22" t="s">
-        <v>963</v>
+        <v>1025</v>
       </c>
       <c r="F22" t="s">
         <v>148</v>
@@ -4410,7 +4596,7 @@
         <v>151</v>
       </c>
       <c r="E23" t="s">
-        <v>964</v>
+        <v>1026</v>
       </c>
       <c r="F23" t="s">
         <v>153</v>
@@ -4442,7 +4628,7 @@
         <v>543</v>
       </c>
       <c r="E24" t="s">
-        <v>965</v>
+        <v>1027</v>
       </c>
       <c r="F24" t="s">
         <v>157</v>
@@ -4474,7 +4660,7 @@
         <v>160</v>
       </c>
       <c r="E25" t="s">
-        <v>966</v>
+        <v>1028</v>
       </c>
       <c r="F25" t="s">
         <v>162</v>
@@ -4506,7 +4692,7 @@
         <v>412</v>
       </c>
       <c r="E26" t="s">
-        <v>546</v>
+        <v>610</v>
       </c>
       <c r="F26" t="s">
         <v>28</v>
@@ -4538,7 +4724,7 @@
         <v>165</v>
       </c>
       <c r="E27" t="s">
-        <v>967</v>
+        <v>1029</v>
       </c>
       <c r="F27" t="s">
         <v>167</v>
@@ -4570,7 +4756,7 @@
         <v>169</v>
       </c>
       <c r="E28" t="s">
-        <v>968</v>
+        <v>1030</v>
       </c>
       <c r="F28" t="s">
         <v>171</v>
@@ -4602,7 +4788,7 @@
         <v>174</v>
       </c>
       <c r="E29" t="s">
-        <v>969</v>
+        <v>1031</v>
       </c>
       <c r="F29" t="s">
         <v>176</v>
@@ -4634,7 +4820,7 @@
         <v>179</v>
       </c>
       <c r="E30" t="s">
-        <v>970</v>
+        <v>1032</v>
       </c>
       <c r="F30" t="s">
         <v>181</v>
@@ -4666,7 +4852,7 @@
         <v>184</v>
       </c>
       <c r="E31" t="s">
-        <v>971</v>
+        <v>1033</v>
       </c>
       <c r="F31" t="s">
         <v>33</v>
@@ -4698,7 +4884,7 @@
         <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>972</v>
+        <v>1034</v>
       </c>
       <c r="F32" t="s">
         <v>34</v>
@@ -4730,7 +4916,7 @@
         <v>193</v>
       </c>
       <c r="E33" t="s">
-        <v>973</v>
+        <v>1035</v>
       </c>
       <c r="F33" t="s">
         <v>35</v>
